--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8623C0DD-E11B-44E1-8FA1-40937B1E8A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E681A-8550-4D27-AB8C-602AA1E15EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1575" windowWidth="21600" windowHeight="10140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="football" sheetId="5" r:id="rId4"/>
+    <sheet name="control" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,7 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I15"/>
     </sheetView>
   </sheetViews>
@@ -2124,4 +2123,7204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA92E9-F73E-4997-A8AA-C8273709BE10}">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="A1:B1048576 H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>35</v>
+      </c>
+      <c r="J1">
+        <v>40</v>
+      </c>
+      <c r="K1">
+        <v>45</v>
+      </c>
+      <c r="L1">
+        <v>50</v>
+      </c>
+      <c r="M1">
+        <v>55</v>
+      </c>
+      <c r="N1">
+        <v>60</v>
+      </c>
+      <c r="O1">
+        <v>65</v>
+      </c>
+      <c r="P1">
+        <v>70</v>
+      </c>
+      <c r="Q1">
+        <v>75</v>
+      </c>
+      <c r="R1">
+        <v>80</v>
+      </c>
+      <c r="S1">
+        <v>85</v>
+      </c>
+      <c r="T1">
+        <v>90</v>
+      </c>
+      <c r="U1">
+        <v>95</v>
+      </c>
+      <c r="V1">
+        <v>100</v>
+      </c>
+      <c r="W1">
+        <v>105</v>
+      </c>
+      <c r="X1">
+        <v>110</v>
+      </c>
+      <c r="Y1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.14315216370975301</v>
+      </c>
+      <c r="D2">
+        <v>0.21559396584309801</v>
+      </c>
+      <c r="E2">
+        <v>0.27609150521348502</v>
+      </c>
+      <c r="F2">
+        <v>0.33061134933770803</v>
+      </c>
+      <c r="G2">
+        <v>0.34382806770058999</v>
+      </c>
+      <c r="H2">
+        <v>0.33980348731569998</v>
+      </c>
+      <c r="I2">
+        <v>0.36448155943187899</v>
+      </c>
+      <c r="J2">
+        <v>0.38036677356290999</v>
+      </c>
+      <c r="K2">
+        <v>0.37607767741623399</v>
+      </c>
+      <c r="L2">
+        <v>0.39641339037428602</v>
+      </c>
+      <c r="M2">
+        <v>0.41389990486704298</v>
+      </c>
+      <c r="N2">
+        <v>0.38565500483980097</v>
+      </c>
+      <c r="O2">
+        <v>0.39359094500960401</v>
+      </c>
+      <c r="P2">
+        <v>0.382075008824517</v>
+      </c>
+      <c r="Q2">
+        <v>0.357610572936576</v>
+      </c>
+      <c r="R2">
+        <v>0.34725775611253701</v>
+      </c>
+      <c r="S2">
+        <v>0.32995341065414402</v>
+      </c>
+      <c r="T2">
+        <v>0.31080630669796799</v>
+      </c>
+      <c r="U2">
+        <v>0.27850756494283102</v>
+      </c>
+      <c r="V2">
+        <v>0.248374850513881</v>
+      </c>
+      <c r="W2">
+        <v>0.21554291804275799</v>
+      </c>
+      <c r="X2">
+        <v>0.197085897520756</v>
+      </c>
+      <c r="Y2">
+        <v>0.17716065333655001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.140725844167991</v>
+      </c>
+      <c r="D3">
+        <v>0.212302973502598</v>
+      </c>
+      <c r="E3">
+        <v>0.272598262664487</v>
+      </c>
+      <c r="F3">
+        <v>0.30479582516741099</v>
+      </c>
+      <c r="G3">
+        <v>0.34253357159967901</v>
+      </c>
+      <c r="H3">
+        <v>0.33930418480368901</v>
+      </c>
+      <c r="I3">
+        <v>0.38916358473037899</v>
+      </c>
+      <c r="J3">
+        <v>0.41153904484168002</v>
+      </c>
+      <c r="K3">
+        <v>0.41542395619811601</v>
+      </c>
+      <c r="L3">
+        <v>0.44649572059598303</v>
+      </c>
+      <c r="M3">
+        <v>0.45180277182537798</v>
+      </c>
+      <c r="N3">
+        <v>0.41449070115732001</v>
+      </c>
+      <c r="O3">
+        <v>0.39794823810114999</v>
+      </c>
+      <c r="P3">
+        <v>0.377327647297236</v>
+      </c>
+      <c r="Q3">
+        <v>0.35432417513574699</v>
+      </c>
+      <c r="R3">
+        <v>0.33712136370013102</v>
+      </c>
+      <c r="S3">
+        <v>0.329311506878532</v>
+      </c>
+      <c r="T3">
+        <v>0.307866107886271</v>
+      </c>
+      <c r="U3">
+        <v>0.28852491954231402</v>
+      </c>
+      <c r="V3">
+        <v>0.26562471516771402</v>
+      </c>
+      <c r="W3">
+        <v>0.24396939171720999</v>
+      </c>
+      <c r="X3">
+        <v>0.236286439777697</v>
+      </c>
+      <c r="Y3">
+        <v>0.221827528065869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.133669138566298</v>
+      </c>
+      <c r="D4">
+        <v>0.23028369165315299</v>
+      </c>
+      <c r="E4">
+        <v>0.28314413091459001</v>
+      </c>
+      <c r="F4">
+        <v>0.319298659618652</v>
+      </c>
+      <c r="G4">
+        <v>0.34716527085167997</v>
+      </c>
+      <c r="H4">
+        <v>0.35012045007197601</v>
+      </c>
+      <c r="I4">
+        <v>0.36433443557424899</v>
+      </c>
+      <c r="J4">
+        <v>0.40290763989118</v>
+      </c>
+      <c r="K4">
+        <v>0.40960670810153998</v>
+      </c>
+      <c r="L4">
+        <v>0.41121885572033401</v>
+      </c>
+      <c r="M4">
+        <v>0.40132663860260698</v>
+      </c>
+      <c r="N4">
+        <v>0.36478272012881402</v>
+      </c>
+      <c r="O4">
+        <v>0.370009796096534</v>
+      </c>
+      <c r="P4">
+        <v>0.35431562175688902</v>
+      </c>
+      <c r="Q4">
+        <v>0.32725026936099399</v>
+      </c>
+      <c r="R4">
+        <v>0.300355533699874</v>
+      </c>
+      <c r="S4">
+        <v>0.27623951328482899</v>
+      </c>
+      <c r="T4">
+        <v>0.26058403411048398</v>
+      </c>
+      <c r="U4">
+        <v>0.23568367442843599</v>
+      </c>
+      <c r="V4">
+        <v>0.20551292544644101</v>
+      </c>
+      <c r="W4">
+        <v>0.18301255242279699</v>
+      </c>
+      <c r="X4">
+        <v>0.163764307190053</v>
+      </c>
+      <c r="Y4">
+        <v>0.14026191089341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.128849458869431</v>
+      </c>
+      <c r="D5">
+        <v>0.20470095653061901</v>
+      </c>
+      <c r="E5">
+        <v>0.25769026442513598</v>
+      </c>
+      <c r="F5">
+        <v>0.31170320373279298</v>
+      </c>
+      <c r="G5">
+        <v>0.340464556157686</v>
+      </c>
+      <c r="H5">
+        <v>0.34485140541808001</v>
+      </c>
+      <c r="I5">
+        <v>0.367951322508348</v>
+      </c>
+      <c r="J5">
+        <v>0.37304615472534702</v>
+      </c>
+      <c r="K5">
+        <v>0.370818644342711</v>
+      </c>
+      <c r="L5">
+        <v>0.38428811366635302</v>
+      </c>
+      <c r="M5">
+        <v>0.39324248943464901</v>
+      </c>
+      <c r="N5">
+        <v>0.35117478802556701</v>
+      </c>
+      <c r="O5">
+        <v>0.35941769996963502</v>
+      </c>
+      <c r="P5">
+        <v>0.34923150164342398</v>
+      </c>
+      <c r="Q5">
+        <v>0.33217311840073699</v>
+      </c>
+      <c r="R5">
+        <v>0.32233572395328403</v>
+      </c>
+      <c r="S5">
+        <v>0.31286929255534801</v>
+      </c>
+      <c r="T5">
+        <v>0.27301359899324601</v>
+      </c>
+      <c r="U5">
+        <v>0.249078856442143</v>
+      </c>
+      <c r="V5">
+        <v>0.22504023123463199</v>
+      </c>
+      <c r="W5">
+        <v>0.202858247378257</v>
+      </c>
+      <c r="X5">
+        <v>0.18185081500455</v>
+      </c>
+      <c r="Y5">
+        <v>0.16294686410978901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.118851136416025</v>
+      </c>
+      <c r="D6">
+        <v>0.217469235807107</v>
+      </c>
+      <c r="E6">
+        <v>0.26302491195583499</v>
+      </c>
+      <c r="F6">
+        <v>0.29135970937791</v>
+      </c>
+      <c r="G6">
+        <v>0.33832656394983801</v>
+      </c>
+      <c r="H6">
+        <v>0.33170376947175401</v>
+      </c>
+      <c r="I6">
+        <v>0.363150529169946</v>
+      </c>
+      <c r="J6">
+        <v>0.36933197196145601</v>
+      </c>
+      <c r="K6">
+        <v>0.36808576137235099</v>
+      </c>
+      <c r="L6">
+        <v>0.38992262415472001</v>
+      </c>
+      <c r="M6">
+        <v>0.38419531568589199</v>
+      </c>
+      <c r="N6">
+        <v>0.34572499942324397</v>
+      </c>
+      <c r="O6">
+        <v>0.332051333556796</v>
+      </c>
+      <c r="P6">
+        <v>0.32896309023356402</v>
+      </c>
+      <c r="Q6">
+        <v>0.30902350782820698</v>
+      </c>
+      <c r="R6">
+        <v>0.30691830088890198</v>
+      </c>
+      <c r="S6">
+        <v>0.30680431436211802</v>
+      </c>
+      <c r="T6">
+        <v>0.29402424629165103</v>
+      </c>
+      <c r="U6">
+        <v>0.27908789997146299</v>
+      </c>
+      <c r="V6">
+        <v>0.25320785287266101</v>
+      </c>
+      <c r="W6">
+        <v>0.22688708941154401</v>
+      </c>
+      <c r="X6">
+        <v>0.20384449709757199</v>
+      </c>
+      <c r="Y6">
+        <v>0.177403945811447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.121656520937096</v>
+      </c>
+      <c r="D7">
+        <v>0.20900535342858101</v>
+      </c>
+      <c r="E7">
+        <v>0.25245547852093497</v>
+      </c>
+      <c r="F7">
+        <v>0.28000831931709202</v>
+      </c>
+      <c r="G7">
+        <v>0.31582105689958101</v>
+      </c>
+      <c r="H7">
+        <v>0.32584395578593101</v>
+      </c>
+      <c r="I7">
+        <v>0.36386914534281001</v>
+      </c>
+      <c r="J7">
+        <v>0.386316148009414</v>
+      </c>
+      <c r="K7">
+        <v>0.39629880130488299</v>
+      </c>
+      <c r="L7">
+        <v>0.39779471878108003</v>
+      </c>
+      <c r="M7">
+        <v>0.40218104637588797</v>
+      </c>
+      <c r="N7">
+        <v>0.37040454928227601</v>
+      </c>
+      <c r="O7">
+        <v>0.37591239842889301</v>
+      </c>
+      <c r="P7">
+        <v>0.35695729252384401</v>
+      </c>
+      <c r="Q7">
+        <v>0.32901646151140901</v>
+      </c>
+      <c r="R7">
+        <v>0.30938790470097899</v>
+      </c>
+      <c r="S7">
+        <v>0.30874452821228199</v>
+      </c>
+      <c r="T7">
+        <v>0.28296557518621801</v>
+      </c>
+      <c r="U7">
+        <v>0.25179398812942699</v>
+      </c>
+      <c r="V7">
+        <v>0.21938216959544399</v>
+      </c>
+      <c r="W7">
+        <v>0.19487102917322799</v>
+      </c>
+      <c r="X7">
+        <v>0.176045729572957</v>
+      </c>
+      <c r="Y7">
+        <v>0.160821300706773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.114652602614079</v>
+      </c>
+      <c r="D8">
+        <v>0.208044997443327</v>
+      </c>
+      <c r="E8">
+        <v>0.32444884369657101</v>
+      </c>
+      <c r="F8">
+        <v>0.35731535761783301</v>
+      </c>
+      <c r="G8">
+        <v>0.38268580527726498</v>
+      </c>
+      <c r="H8">
+        <v>0.36270903623294698</v>
+      </c>
+      <c r="I8">
+        <v>0.41670350574883003</v>
+      </c>
+      <c r="J8">
+        <v>0.43200887278063999</v>
+      </c>
+      <c r="K8">
+        <v>0.43099353974997401</v>
+      </c>
+      <c r="L8">
+        <v>0.43938501245467199</v>
+      </c>
+      <c r="M8">
+        <v>0.42546595693419098</v>
+      </c>
+      <c r="N8">
+        <v>0.38012818119503999</v>
+      </c>
+      <c r="O8">
+        <v>0.38392232879239102</v>
+      </c>
+      <c r="P8">
+        <v>0.38438665506879</v>
+      </c>
+      <c r="Q8">
+        <v>0.36403031970836602</v>
+      </c>
+      <c r="R8">
+        <v>0.35529491692628401</v>
+      </c>
+      <c r="S8">
+        <v>0.33771141391984</v>
+      </c>
+      <c r="T8">
+        <v>0.29915492201572802</v>
+      </c>
+      <c r="U8">
+        <v>0.27101783773688198</v>
+      </c>
+      <c r="V8">
+        <v>0.24943904138238901</v>
+      </c>
+      <c r="W8">
+        <v>0.22935107597339199</v>
+      </c>
+      <c r="X8">
+        <v>0.21814176551738801</v>
+      </c>
+      <c r="Y8">
+        <v>0.200547611965252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.113194114855244</v>
+      </c>
+      <c r="D9">
+        <v>0.206658906564676</v>
+      </c>
+      <c r="E9">
+        <v>0.29579990463751799</v>
+      </c>
+      <c r="F9">
+        <v>0.3412200179364</v>
+      </c>
+      <c r="G9">
+        <v>0.34382436914879</v>
+      </c>
+      <c r="H9">
+        <v>0.35242836901763203</v>
+      </c>
+      <c r="I9">
+        <v>0.38640891008449801</v>
+      </c>
+      <c r="J9">
+        <v>0.38846374452256099</v>
+      </c>
+      <c r="K9">
+        <v>0.35656927588216503</v>
+      </c>
+      <c r="L9">
+        <v>0.35786291633515099</v>
+      </c>
+      <c r="M9">
+        <v>0.36419511774505298</v>
+      </c>
+      <c r="N9">
+        <v>0.379684411992394</v>
+      </c>
+      <c r="O9">
+        <v>0.380326575795433</v>
+      </c>
+      <c r="P9">
+        <v>0.36692959090192501</v>
+      </c>
+      <c r="Q9">
+        <v>0.35633093152593498</v>
+      </c>
+      <c r="R9">
+        <v>0.35145394893474802</v>
+      </c>
+      <c r="S9">
+        <v>0.34845915827187401</v>
+      </c>
+      <c r="T9">
+        <v>0.34331057456390901</v>
+      </c>
+      <c r="U9">
+        <v>0.32803023357679101</v>
+      </c>
+      <c r="V9">
+        <v>0.30081240589513297</v>
+      </c>
+      <c r="W9">
+        <v>0.27357627925884598</v>
+      </c>
+      <c r="X9">
+        <v>0.26235152771034098</v>
+      </c>
+      <c r="Y9">
+        <v>0.24504513407067499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.12567496535576</v>
+      </c>
+      <c r="D10">
+        <v>0.22267582111709</v>
+      </c>
+      <c r="E10">
+        <v>0.300299902072792</v>
+      </c>
+      <c r="F10">
+        <v>0.29049106032553101</v>
+      </c>
+      <c r="G10">
+        <v>0.350547145630143</v>
+      </c>
+      <c r="H10">
+        <v>0.39292150170648399</v>
+      </c>
+      <c r="I10">
+        <v>0.45287779121373001</v>
+      </c>
+      <c r="J10">
+        <v>0.48899546992686299</v>
+      </c>
+      <c r="K10">
+        <v>0.45397513176765297</v>
+      </c>
+      <c r="L10">
+        <v>0.44009768833329199</v>
+      </c>
+      <c r="M10">
+        <v>0.44785690824779301</v>
+      </c>
+      <c r="N10">
+        <v>0.42665153806260903</v>
+      </c>
+      <c r="O10">
+        <v>0.443383317134879</v>
+      </c>
+      <c r="P10">
+        <v>0.44589689169514701</v>
+      </c>
+      <c r="Q10">
+        <v>0.44110054451793701</v>
+      </c>
+      <c r="R10">
+        <v>0.42489746187727701</v>
+      </c>
+      <c r="S10">
+        <v>0.40345406126637501</v>
+      </c>
+      <c r="T10">
+        <v>0.37679976209302501</v>
+      </c>
+      <c r="U10">
+        <v>0.35538750355896398</v>
+      </c>
+      <c r="V10">
+        <v>0.33617796379311099</v>
+      </c>
+      <c r="W10">
+        <v>0.31110017295422199</v>
+      </c>
+      <c r="X10">
+        <v>0.290106006807614</v>
+      </c>
+      <c r="Y10">
+        <v>0.27256958659894998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.119472531568892</v>
+      </c>
+      <c r="D11">
+        <v>0.21080499126352301</v>
+      </c>
+      <c r="E11">
+        <v>0.282662573056151</v>
+      </c>
+      <c r="F11">
+        <v>0.30548970989337898</v>
+      </c>
+      <c r="G11">
+        <v>0.34419057162165301</v>
+      </c>
+      <c r="H11">
+        <v>0.33875113621123798</v>
+      </c>
+      <c r="I11">
+        <v>0.34491669083599102</v>
+      </c>
+      <c r="J11">
+        <v>0.35109669143460498</v>
+      </c>
+      <c r="K11">
+        <v>0.35040902337628699</v>
+      </c>
+      <c r="L11">
+        <v>0.35967865976595698</v>
+      </c>
+      <c r="M11">
+        <v>0.35787187404728998</v>
+      </c>
+      <c r="N11">
+        <v>0.33587904434491</v>
+      </c>
+      <c r="O11">
+        <v>0.338303209792156</v>
+      </c>
+      <c r="P11">
+        <v>0.34122635043057498</v>
+      </c>
+      <c r="Q11">
+        <v>0.32770381809134203</v>
+      </c>
+      <c r="R11">
+        <v>0.32122027113301799</v>
+      </c>
+      <c r="S11">
+        <v>0.30985858458411603</v>
+      </c>
+      <c r="T11">
+        <v>0.28573850970139603</v>
+      </c>
+      <c r="U11">
+        <v>0.26822055019399599</v>
+      </c>
+      <c r="V11">
+        <v>0.25055520055170899</v>
+      </c>
+      <c r="W11">
+        <v>0.22751521479602199</v>
+      </c>
+      <c r="X11">
+        <v>0.20677634784919999</v>
+      </c>
+      <c r="Y11">
+        <v>0.18892115579622701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.10957085975519799</v>
+      </c>
+      <c r="D12">
+        <v>0.22147423092289201</v>
+      </c>
+      <c r="E12">
+        <v>0.321062864549578</v>
+      </c>
+      <c r="F12">
+        <v>0.31900634026992097</v>
+      </c>
+      <c r="G12">
+        <v>0.32042436840298799</v>
+      </c>
+      <c r="H12">
+        <v>0.30804525885212702</v>
+      </c>
+      <c r="I12">
+        <v>0.34085791133678001</v>
+      </c>
+      <c r="J12">
+        <v>0.39775291734979201</v>
+      </c>
+      <c r="K12">
+        <v>0.40706148078537402</v>
+      </c>
+      <c r="L12">
+        <v>0.45167714695397398</v>
+      </c>
+      <c r="M12">
+        <v>0.45857939528825598</v>
+      </c>
+      <c r="N12">
+        <v>0.39434816866146799</v>
+      </c>
+      <c r="O12">
+        <v>0.37459313408851003</v>
+      </c>
+      <c r="P12">
+        <v>0.37517498640715202</v>
+      </c>
+      <c r="Q12">
+        <v>0.36214928707336902</v>
+      </c>
+      <c r="R12">
+        <v>0.37169090114393399</v>
+      </c>
+      <c r="S12">
+        <v>0.37653188532239801</v>
+      </c>
+      <c r="T12">
+        <v>0.35450433417553201</v>
+      </c>
+      <c r="U12">
+        <v>0.33013928427327699</v>
+      </c>
+      <c r="V12">
+        <v>0.307088159970687</v>
+      </c>
+      <c r="W12">
+        <v>0.29021957206312399</v>
+      </c>
+      <c r="X12">
+        <v>0.28874339923743902</v>
+      </c>
+      <c r="Y12">
+        <v>0.282653292488384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>9.2043171518011405E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.18073271488621501</v>
+      </c>
+      <c r="E13">
+        <v>0.308379268931112</v>
+      </c>
+      <c r="F13">
+        <v>0.29621323946860401</v>
+      </c>
+      <c r="G13">
+        <v>0.317444243437426</v>
+      </c>
+      <c r="H13">
+        <v>0.321824425520503</v>
+      </c>
+      <c r="I13">
+        <v>0.34419082016177599</v>
+      </c>
+      <c r="J13">
+        <v>0.349852490259001</v>
+      </c>
+      <c r="K13">
+        <v>0.34933285311042001</v>
+      </c>
+      <c r="L13">
+        <v>0.38632942905004602</v>
+      </c>
+      <c r="M13">
+        <v>0.39292337324054299</v>
+      </c>
+      <c r="N13">
+        <v>0.37835024336124801</v>
+      </c>
+      <c r="O13">
+        <v>0.36980149109702998</v>
+      </c>
+      <c r="P13">
+        <v>0.35994564401623202</v>
+      </c>
+      <c r="Q13">
+        <v>0.34661509645803301</v>
+      </c>
+      <c r="R13">
+        <v>0.35279272115263299</v>
+      </c>
+      <c r="S13">
+        <v>0.35240226046900902</v>
+      </c>
+      <c r="T13">
+        <v>0.33140896840328898</v>
+      </c>
+      <c r="U13">
+        <v>0.30051801711759402</v>
+      </c>
+      <c r="V13">
+        <v>0.28451035327910001</v>
+      </c>
+      <c r="W13">
+        <v>0.26845621163648598</v>
+      </c>
+      <c r="X13">
+        <v>0.259253339476407</v>
+      </c>
+      <c r="Y13">
+        <v>0.24405876245677399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0.112169666794331</v>
+      </c>
+      <c r="D14">
+        <v>0.20922264659626999</v>
+      </c>
+      <c r="E14">
+        <v>0.31546837755819901</v>
+      </c>
+      <c r="F14">
+        <v>0.316155195334755</v>
+      </c>
+      <c r="G14">
+        <v>0.38732488968954598</v>
+      </c>
+      <c r="H14">
+        <v>0.382633968386284</v>
+      </c>
+      <c r="I14">
+        <v>0.41917880390054102</v>
+      </c>
+      <c r="J14">
+        <v>0.443131719215828</v>
+      </c>
+      <c r="K14">
+        <v>0.424464882970845</v>
+      </c>
+      <c r="L14">
+        <v>0.42230580919536098</v>
+      </c>
+      <c r="M14">
+        <v>0.44434073048086398</v>
+      </c>
+      <c r="N14">
+        <v>0.40722817886031798</v>
+      </c>
+      <c r="O14">
+        <v>0.39052393207068198</v>
+      </c>
+      <c r="P14">
+        <v>0.388487598052909</v>
+      </c>
+      <c r="Q14">
+        <v>0.388395403303117</v>
+      </c>
+      <c r="R14">
+        <v>0.37741552127157302</v>
+      </c>
+      <c r="S14">
+        <v>0.36452448900923901</v>
+      </c>
+      <c r="T14">
+        <v>0.32570668437396499</v>
+      </c>
+      <c r="U14">
+        <v>0.30403957013153898</v>
+      </c>
+      <c r="V14">
+        <v>0.28395923683702301</v>
+      </c>
+      <c r="W14">
+        <v>0.26093105614524997</v>
+      </c>
+      <c r="X14">
+        <v>0.240392701413289</v>
+      </c>
+      <c r="Y14">
+        <v>0.21869748909142001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.13471502590673501</v>
+      </c>
+      <c r="D15">
+        <v>0.24816300450818199</v>
+      </c>
+      <c r="E15">
+        <v>0.42264680312969199</v>
+      </c>
+      <c r="F15">
+        <v>0.41152959815641599</v>
+      </c>
+      <c r="G15">
+        <v>0.45392025005915199</v>
+      </c>
+      <c r="H15">
+        <v>0.45200454828888897</v>
+      </c>
+      <c r="I15">
+        <v>0.45351118801854501</v>
+      </c>
+      <c r="J15">
+        <v>0.47534680446295402</v>
+      </c>
+      <c r="K15">
+        <v>0.46733037324823001</v>
+      </c>
+      <c r="L15">
+        <v>0.47796919463610399</v>
+      </c>
+      <c r="M15">
+        <v>0.46753574551371602</v>
+      </c>
+      <c r="N15">
+        <v>0.44356179869283102</v>
+      </c>
+      <c r="O15">
+        <v>0.43439993767399199</v>
+      </c>
+      <c r="P15">
+        <v>0.42476568335827902</v>
+      </c>
+      <c r="Q15">
+        <v>0.39745697379157802</v>
+      </c>
+      <c r="R15">
+        <v>0.36397302073802701</v>
+      </c>
+      <c r="S15">
+        <v>0.34867697797971597</v>
+      </c>
+      <c r="T15">
+        <v>0.32817755334765703</v>
+      </c>
+      <c r="U15">
+        <v>0.306107744316792</v>
+      </c>
+      <c r="V15">
+        <v>0.28020129481448802</v>
+      </c>
+      <c r="W15">
+        <v>0.25206592132842398</v>
+      </c>
+      <c r="X15">
+        <v>0.23324315595315001</v>
+      </c>
+      <c r="Y15">
+        <v>0.211071257219241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>9.0752804922186001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.21392734608024</v>
+      </c>
+      <c r="E16">
+        <v>0.35851407214451497</v>
+      </c>
+      <c r="F16">
+        <v>0.41562359087587197</v>
+      </c>
+      <c r="G16">
+        <v>0.45983042854927397</v>
+      </c>
+      <c r="H16">
+        <v>0.51327330439852303</v>
+      </c>
+      <c r="I16">
+        <v>0.56432651035171599</v>
+      </c>
+      <c r="J16">
+        <v>0.56289779845679799</v>
+      </c>
+      <c r="K16">
+        <v>0.58452075969704798</v>
+      </c>
+      <c r="L16">
+        <v>0.59141588341530504</v>
+      </c>
+      <c r="M16">
+        <v>0.59761929260859403</v>
+      </c>
+      <c r="N16">
+        <v>0.54986062239295597</v>
+      </c>
+      <c r="O16">
+        <v>0.553662140272563</v>
+      </c>
+      <c r="P16">
+        <v>0.53580561536985905</v>
+      </c>
+      <c r="Q16">
+        <v>0.48704822667519199</v>
+      </c>
+      <c r="R16">
+        <v>0.45029806083803497</v>
+      </c>
+      <c r="S16">
+        <v>0.43521839114732203</v>
+      </c>
+      <c r="T16">
+        <v>0.39829118383609402</v>
+      </c>
+      <c r="U16">
+        <v>0.357235066772851</v>
+      </c>
+      <c r="V16">
+        <v>0.31579591846254601</v>
+      </c>
+      <c r="W16">
+        <v>0.286295858317348</v>
+      </c>
+      <c r="X16">
+        <v>0.26818139993289503</v>
+      </c>
+      <c r="Y16">
+        <v>0.25273696695806802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.12815243788529701</v>
+      </c>
+      <c r="D17">
+        <v>0.246070250339608</v>
+      </c>
+      <c r="E17">
+        <v>0.37275924178746001</v>
+      </c>
+      <c r="F17">
+        <v>0.40253582845443697</v>
+      </c>
+      <c r="G17">
+        <v>0.456495533547706</v>
+      </c>
+      <c r="H17">
+        <v>0.45136974800240798</v>
+      </c>
+      <c r="I17">
+        <v>0.49913318695115699</v>
+      </c>
+      <c r="J17">
+        <v>0.50617986673037796</v>
+      </c>
+      <c r="K17">
+        <v>0.514908572309835</v>
+      </c>
+      <c r="L17">
+        <v>0.53386381853862896</v>
+      </c>
+      <c r="M17">
+        <v>0.554373294345473</v>
+      </c>
+      <c r="N17">
+        <v>0.52698329766260199</v>
+      </c>
+      <c r="O17">
+        <v>0.48712201274083</v>
+      </c>
+      <c r="P17">
+        <v>0.45003483439837599</v>
+      </c>
+      <c r="Q17">
+        <v>0.401768291903493</v>
+      </c>
+      <c r="R17">
+        <v>0.37056222778634701</v>
+      </c>
+      <c r="S17">
+        <v>0.356260424741494</v>
+      </c>
+      <c r="T17">
+        <v>0.32356891775177898</v>
+      </c>
+      <c r="U17">
+        <v>0.29071742299646602</v>
+      </c>
+      <c r="V17">
+        <v>0.25947303093396501</v>
+      </c>
+      <c r="W17">
+        <v>0.236041463713377</v>
+      </c>
+      <c r="X17">
+        <v>0.22018583116804</v>
+      </c>
+      <c r="Y17">
+        <v>0.20799059742200501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.13103124265914901</v>
+      </c>
+      <c r="D18">
+        <v>0.26139277964095398</v>
+      </c>
+      <c r="E18">
+        <v>0.37546197889737798</v>
+      </c>
+      <c r="F18">
+        <v>0.46714940579072201</v>
+      </c>
+      <c r="G18">
+        <v>0.51928192360610603</v>
+      </c>
+      <c r="H18">
+        <v>0.54972002274815102</v>
+      </c>
+      <c r="I18">
+        <v>0.53421684810273495</v>
+      </c>
+      <c r="J18">
+        <v>0.582924135831138</v>
+      </c>
+      <c r="K18">
+        <v>0.61020391651862005</v>
+      </c>
+      <c r="L18">
+        <v>0.604144782010829</v>
+      </c>
+      <c r="M18">
+        <v>0.616179763300991</v>
+      </c>
+      <c r="N18">
+        <v>0.59880575428038096</v>
+      </c>
+      <c r="O18">
+        <v>0.56421580543516703</v>
+      </c>
+      <c r="P18">
+        <v>0.54295982692153999</v>
+      </c>
+      <c r="Q18">
+        <v>0.51164498584679197</v>
+      </c>
+      <c r="R18">
+        <v>0.48926745050940601</v>
+      </c>
+      <c r="S18">
+        <v>0.49003368489745702</v>
+      </c>
+      <c r="T18">
+        <v>0.47817878464449098</v>
+      </c>
+      <c r="U18">
+        <v>0.439857543348251</v>
+      </c>
+      <c r="V18">
+        <v>0.38527380083051099</v>
+      </c>
+      <c r="W18">
+        <v>0.32932099927463798</v>
+      </c>
+      <c r="X18">
+        <v>0.29772568131677302</v>
+      </c>
+      <c r="Y18">
+        <v>0.274147179928945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.116634888155141</v>
+      </c>
+      <c r="D19">
+        <v>0.235602002283305</v>
+      </c>
+      <c r="E19">
+        <v>0.28508658337277698</v>
+      </c>
+      <c r="F19">
+        <v>0.29496155116290002</v>
+      </c>
+      <c r="G19">
+        <v>0.31359842324026299</v>
+      </c>
+      <c r="H19">
+        <v>0.31200802019901902</v>
+      </c>
+      <c r="I19">
+        <v>0.32602635661909002</v>
+      </c>
+      <c r="J19">
+        <v>0.32866774431546403</v>
+      </c>
+      <c r="K19">
+        <v>0.34807302517744199</v>
+      </c>
+      <c r="L19">
+        <v>0.356491979321514</v>
+      </c>
+      <c r="M19">
+        <v>0.356824847400113</v>
+      </c>
+      <c r="N19">
+        <v>0.33163868579859401</v>
+      </c>
+      <c r="O19">
+        <v>0.319106629231179</v>
+      </c>
+      <c r="P19">
+        <v>0.31395626911089097</v>
+      </c>
+      <c r="Q19">
+        <v>0.29534243834874602</v>
+      </c>
+      <c r="R19">
+        <v>0.28402968788003102</v>
+      </c>
+      <c r="S19">
+        <v>0.28234236780815802</v>
+      </c>
+      <c r="T19">
+        <v>0.26368808378318498</v>
+      </c>
+      <c r="U19">
+        <v>0.24598848815930799</v>
+      </c>
+      <c r="V19">
+        <v>0.22595188212532499</v>
+      </c>
+      <c r="W19">
+        <v>0.20379839298758201</v>
+      </c>
+      <c r="X19">
+        <v>0.18440343996947201</v>
+      </c>
+      <c r="Y19">
+        <v>0.162673221912988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.117871429900455</v>
+      </c>
+      <c r="D20">
+        <v>0.23407024393675499</v>
+      </c>
+      <c r="E20">
+        <v>0.30166530166530098</v>
+      </c>
+      <c r="F20">
+        <v>0.36043657029253601</v>
+      </c>
+      <c r="G20">
+        <v>0.38547154389084098</v>
+      </c>
+      <c r="H20">
+        <v>0.42677372362232902</v>
+      </c>
+      <c r="I20">
+        <v>0.45119523163062902</v>
+      </c>
+      <c r="J20">
+        <v>0.43704592904990702</v>
+      </c>
+      <c r="K20">
+        <v>0.45115971430702201</v>
+      </c>
+      <c r="L20">
+        <v>0.460312458537879</v>
+      </c>
+      <c r="M20">
+        <v>0.48167984015029103</v>
+      </c>
+      <c r="N20">
+        <v>0.47451273531986998</v>
+      </c>
+      <c r="O20">
+        <v>0.443614654495948</v>
+      </c>
+      <c r="P20">
+        <v>0.41075504736572399</v>
+      </c>
+      <c r="Q20">
+        <v>0.37192237168186498</v>
+      </c>
+      <c r="R20">
+        <v>0.33696629522952198</v>
+      </c>
+      <c r="S20">
+        <v>0.31409764989243999</v>
+      </c>
+      <c r="T20">
+        <v>0.28717284559435002</v>
+      </c>
+      <c r="U20">
+        <v>0.256581649412917</v>
+      </c>
+      <c r="V20">
+        <v>0.23142084813664701</v>
+      </c>
+      <c r="W20">
+        <v>0.21062324472758301</v>
+      </c>
+      <c r="X20">
+        <v>0.19623516821755899</v>
+      </c>
+      <c r="Y20">
+        <v>0.18124475350035199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>9.2065222328200899E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.18992878942014199</v>
+      </c>
+      <c r="E21">
+        <v>0.27785102175345999</v>
+      </c>
+      <c r="F21">
+        <v>0.32088608816490299</v>
+      </c>
+      <c r="G21">
+        <v>0.33812937253573999</v>
+      </c>
+      <c r="H21">
+        <v>0.32811665112087901</v>
+      </c>
+      <c r="I21">
+        <v>0.33151732457009903</v>
+      </c>
+      <c r="J21">
+        <v>0.37202540326300798</v>
+      </c>
+      <c r="K21">
+        <v>0.36822155939388201</v>
+      </c>
+      <c r="L21">
+        <v>0.37072161964323902</v>
+      </c>
+      <c r="M21">
+        <v>0.38266823422350699</v>
+      </c>
+      <c r="N21">
+        <v>0.36987825231836702</v>
+      </c>
+      <c r="O21">
+        <v>0.36594274327887799</v>
+      </c>
+      <c r="P21">
+        <v>0.35788486179754703</v>
+      </c>
+      <c r="Q21">
+        <v>0.33349695410607999</v>
+      </c>
+      <c r="R21">
+        <v>0.32033509992005599</v>
+      </c>
+      <c r="S21">
+        <v>0.31639949395814199</v>
+      </c>
+      <c r="T21">
+        <v>0.29473500946303399</v>
+      </c>
+      <c r="U21">
+        <v>0.27558449716620398</v>
+      </c>
+      <c r="V21">
+        <v>0.25620131428879001</v>
+      </c>
+      <c r="W21">
+        <v>0.23499383330011001</v>
+      </c>
+      <c r="X21">
+        <v>0.21385917091030501</v>
+      </c>
+      <c r="Y21">
+        <v>0.19079934586222899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.13430311231393699</v>
+      </c>
+      <c r="D23">
+        <v>0.25485612194472901</v>
+      </c>
+      <c r="E23">
+        <v>0.37175130477128099</v>
+      </c>
+      <c r="F23">
+        <v>0.42959577000278198</v>
+      </c>
+      <c r="G23">
+        <v>0.49041752850945403</v>
+      </c>
+      <c r="H23">
+        <v>0.49997443719218099</v>
+      </c>
+      <c r="I23">
+        <v>0.55780324750605603</v>
+      </c>
+      <c r="J23">
+        <v>0.61683733325794698</v>
+      </c>
+      <c r="K23">
+        <v>0.60073222512124602</v>
+      </c>
+      <c r="L23">
+        <v>0.61684675347544704</v>
+      </c>
+      <c r="M23">
+        <v>0.59102799620087698</v>
+      </c>
+      <c r="N23">
+        <v>0.57367766288469602</v>
+      </c>
+      <c r="O23">
+        <v>0.55381282176285396</v>
+      </c>
+      <c r="P23">
+        <v>0.51807753922250099</v>
+      </c>
+      <c r="Q23">
+        <v>0.46795608450545201</v>
+      </c>
+      <c r="R23">
+        <v>0.41769830083947701</v>
+      </c>
+      <c r="S23">
+        <v>0.39700846365777598</v>
+      </c>
+      <c r="T23">
+        <v>0.35495840343690799</v>
+      </c>
+      <c r="U23">
+        <v>0.32432301092566501</v>
+      </c>
+      <c r="V23">
+        <v>0.28024002985707103</v>
+      </c>
+      <c r="W23">
+        <v>0.25476843260385101</v>
+      </c>
+      <c r="X23">
+        <v>0.23883316990352099</v>
+      </c>
+      <c r="Y23">
+        <v>0.221049691314358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0.124501273854732</v>
+      </c>
+      <c r="D24">
+        <v>0.24819295588319801</v>
+      </c>
+      <c r="E24">
+        <v>0.38598604464411601</v>
+      </c>
+      <c r="F24">
+        <v>0.42272169358464801</v>
+      </c>
+      <c r="G24">
+        <v>0.52017798413619598</v>
+      </c>
+      <c r="H24">
+        <v>0.52845106770569705</v>
+      </c>
+      <c r="I24">
+        <v>0.575885022214492</v>
+      </c>
+      <c r="J24">
+        <v>0.55845364417651</v>
+      </c>
+      <c r="K24">
+        <v>0.54728115972950897</v>
+      </c>
+      <c r="L24">
+        <v>0.57070549836806395</v>
+      </c>
+      <c r="M24">
+        <v>0.56173724738094</v>
+      </c>
+      <c r="N24">
+        <v>0.533085762727603</v>
+      </c>
+      <c r="O24">
+        <v>0.51131450440568504</v>
+      </c>
+      <c r="P24">
+        <v>0.49559671317243698</v>
+      </c>
+      <c r="Q24">
+        <v>0.48187316836561001</v>
+      </c>
+      <c r="R24">
+        <v>0.442966704141735</v>
+      </c>
+      <c r="S24">
+        <v>0.43235154285452398</v>
+      </c>
+      <c r="T24">
+        <v>0.41199390152760701</v>
+      </c>
+      <c r="U24">
+        <v>0.38749653750782798</v>
+      </c>
+      <c r="V24">
+        <v>0.355549296631409</v>
+      </c>
+      <c r="W24">
+        <v>0.33710406926242298</v>
+      </c>
+      <c r="X24">
+        <v>0.31867574325668302</v>
+      </c>
+      <c r="Y24">
+        <v>0.30414815787887201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.13388783269961901</v>
+      </c>
+      <c r="D25">
+        <v>0.25423387096774103</v>
+      </c>
+      <c r="E25">
+        <v>0.41045185177524202</v>
+      </c>
+      <c r="F25">
+        <v>0.49728989324178102</v>
+      </c>
+      <c r="G25">
+        <v>0.52854526133281099</v>
+      </c>
+      <c r="H25">
+        <v>0.51138326759115404</v>
+      </c>
+      <c r="I25">
+        <v>0.53994689541226804</v>
+      </c>
+      <c r="J25">
+        <v>0.53893761307930499</v>
+      </c>
+      <c r="K25">
+        <v>0.521489557646863</v>
+      </c>
+      <c r="L25">
+        <v>0.538489500988381</v>
+      </c>
+      <c r="M25">
+        <v>0.53878815698875304</v>
+      </c>
+      <c r="N25">
+        <v>0.53592198940513502</v>
+      </c>
+      <c r="O25">
+        <v>0.52235781222739996</v>
+      </c>
+      <c r="P25">
+        <v>0.51196258716899901</v>
+      </c>
+      <c r="Q25">
+        <v>0.48649578715382202</v>
+      </c>
+      <c r="R25">
+        <v>0.47284023731333302</v>
+      </c>
+      <c r="S25">
+        <v>0.468767839751775</v>
+      </c>
+      <c r="T25">
+        <v>0.45596364080153501</v>
+      </c>
+      <c r="U25">
+        <v>0.41547530378706099</v>
+      </c>
+      <c r="V25">
+        <v>0.37116651970804598</v>
+      </c>
+      <c r="W25">
+        <v>0.33279279094543301</v>
+      </c>
+      <c r="X25">
+        <v>0.30435402366908898</v>
+      </c>
+      <c r="Y25">
+        <v>0.28061515690126998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0.12038250570360599</v>
+      </c>
+      <c r="D26">
+        <v>0.20074384894144501</v>
+      </c>
+      <c r="E26">
+        <v>0.27362009897221101</v>
+      </c>
+      <c r="F26">
+        <v>0.29613825344842198</v>
+      </c>
+      <c r="G26">
+        <v>0.31890118750916202</v>
+      </c>
+      <c r="H26">
+        <v>0.330133177862794</v>
+      </c>
+      <c r="I26">
+        <v>0.398349896166935</v>
+      </c>
+      <c r="J26">
+        <v>0.41753458614202799</v>
+      </c>
+      <c r="K26">
+        <v>0.46199168369863902</v>
+      </c>
+      <c r="L26">
+        <v>0.49469221953280901</v>
+      </c>
+      <c r="M26">
+        <v>0.50497126682742599</v>
+      </c>
+      <c r="N26">
+        <v>0.480093318117436</v>
+      </c>
+      <c r="O26">
+        <v>0.45649310724025799</v>
+      </c>
+      <c r="P26">
+        <v>0.41687102267793502</v>
+      </c>
+      <c r="Q26">
+        <v>0.401265687078662</v>
+      </c>
+      <c r="R26">
+        <v>0.39317368868602898</v>
+      </c>
+      <c r="S26">
+        <v>0.407114609828019</v>
+      </c>
+      <c r="T26">
+        <v>0.39260376738090103</v>
+      </c>
+      <c r="U26">
+        <v>0.358511757351819</v>
+      </c>
+      <c r="V26">
+        <v>0.32397003164969501</v>
+      </c>
+      <c r="W26">
+        <v>0.299701925207009</v>
+      </c>
+      <c r="X26">
+        <v>0.26945857281329499</v>
+      </c>
+      <c r="Y26">
+        <v>0.243944523030831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0.11081819489047499</v>
+      </c>
+      <c r="D27">
+        <v>0.201701617286032</v>
+      </c>
+      <c r="E27">
+        <v>0.30624672813324599</v>
+      </c>
+      <c r="F27">
+        <v>0.30847256756442698</v>
+      </c>
+      <c r="G27">
+        <v>0.33312936382736302</v>
+      </c>
+      <c r="H27">
+        <v>0.33167031164570798</v>
+      </c>
+      <c r="I27">
+        <v>0.355321622447069</v>
+      </c>
+      <c r="J27">
+        <v>0.338864362212627</v>
+      </c>
+      <c r="K27">
+        <v>0.335137214870454</v>
+      </c>
+      <c r="L27">
+        <v>0.350007754701117</v>
+      </c>
+      <c r="M27">
+        <v>0.35425317723023497</v>
+      </c>
+      <c r="N27">
+        <v>0.34421651705912398</v>
+      </c>
+      <c r="O27">
+        <v>0.34301538432270201</v>
+      </c>
+      <c r="P27">
+        <v>0.35129388331626399</v>
+      </c>
+      <c r="Q27">
+        <v>0.354531226866663</v>
+      </c>
+      <c r="R27">
+        <v>0.33419720460652702</v>
+      </c>
+      <c r="S27">
+        <v>0.35368951920198899</v>
+      </c>
+      <c r="T27">
+        <v>0.33780784763563498</v>
+      </c>
+      <c r="U27">
+        <v>0.32561736042332301</v>
+      </c>
+      <c r="V27">
+        <v>0.30849820688281898</v>
+      </c>
+      <c r="W27">
+        <v>0.293259938539914</v>
+      </c>
+      <c r="X27">
+        <v>0.28727643068596198</v>
+      </c>
+      <c r="Y27">
+        <v>0.27830879563185401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.12506593775475899</v>
+      </c>
+      <c r="D28">
+        <v>0.22990005966587099</v>
+      </c>
+      <c r="E28">
+        <v>0.34526624123862298</v>
+      </c>
+      <c r="F28">
+        <v>0.36906137390608001</v>
+      </c>
+      <c r="G28">
+        <v>0.37887461720244298</v>
+      </c>
+      <c r="H28">
+        <v>0.34177996865210403</v>
+      </c>
+      <c r="I28">
+        <v>0.36610212808953302</v>
+      </c>
+      <c r="J28">
+        <v>0.35312325687530599</v>
+      </c>
+      <c r="K28">
+        <v>0.34848017591611802</v>
+      </c>
+      <c r="L28">
+        <v>0.35689683016160401</v>
+      </c>
+      <c r="M28">
+        <v>0.37360424822324501</v>
+      </c>
+      <c r="N28">
+        <v>0.35839898758358801</v>
+      </c>
+      <c r="O28">
+        <v>0.318695349377079</v>
+      </c>
+      <c r="P28">
+        <v>0.296293468304688</v>
+      </c>
+      <c r="Q28">
+        <v>0.27939104480813898</v>
+      </c>
+      <c r="R28">
+        <v>0.26662855981691103</v>
+      </c>
+      <c r="S28">
+        <v>0.25999511064712</v>
+      </c>
+      <c r="T28">
+        <v>0.237251442649381</v>
+      </c>
+      <c r="U28">
+        <v>0.211515411174865</v>
+      </c>
+      <c r="V28">
+        <v>0.189401135973506</v>
+      </c>
+      <c r="W28">
+        <v>0.17649365667936701</v>
+      </c>
+      <c r="X28">
+        <v>0.16748341576404499</v>
+      </c>
+      <c r="Y28">
+        <v>0.155769751388146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.147140133460438</v>
+      </c>
+      <c r="D29">
+        <v>0.31868483456920199</v>
+      </c>
+      <c r="E29">
+        <v>0.58582589650550798</v>
+      </c>
+      <c r="F29">
+        <v>0.70743284436315601</v>
+      </c>
+      <c r="G29">
+        <v>0.73821587306346004</v>
+      </c>
+      <c r="H29">
+        <v>0.73122884966824397</v>
+      </c>
+      <c r="I29">
+        <v>0.76949994415123801</v>
+      </c>
+      <c r="J29">
+        <v>0.81500240377078403</v>
+      </c>
+      <c r="K29">
+        <v>0.838461776765558</v>
+      </c>
+      <c r="L29">
+        <v>0.86803692286223499</v>
+      </c>
+      <c r="M29">
+        <v>0.86888528231189599</v>
+      </c>
+      <c r="N29">
+        <v>0.82071792898700602</v>
+      </c>
+      <c r="O29">
+        <v>0.773267629065714</v>
+      </c>
+      <c r="P29">
+        <v>0.76263655114461004</v>
+      </c>
+      <c r="Q29">
+        <v>0.74468715057188395</v>
+      </c>
+      <c r="R29">
+        <v>0.71276309197044696</v>
+      </c>
+      <c r="S29">
+        <v>0.65024219123063498</v>
+      </c>
+      <c r="T29">
+        <v>0.58676460854024304</v>
+      </c>
+      <c r="U29">
+        <v>0.53715750730089895</v>
+      </c>
+      <c r="V29">
+        <v>0.481572422762574</v>
+      </c>
+      <c r="W29">
+        <v>0.43195501587375501</v>
+      </c>
+      <c r="X29">
+        <v>0.39346559508281198</v>
+      </c>
+      <c r="Y29">
+        <v>0.34602396950383302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.119079587017917</v>
+      </c>
+      <c r="D30">
+        <v>0.22936052094062601</v>
+      </c>
+      <c r="E30">
+        <v>0.30951443099620402</v>
+      </c>
+      <c r="F30">
+        <v>0.37799876257384601</v>
+      </c>
+      <c r="G30">
+        <v>0.376261293058958</v>
+      </c>
+      <c r="H30">
+        <v>0.39224322252504101</v>
+      </c>
+      <c r="I30">
+        <v>0.438485072147695</v>
+      </c>
+      <c r="J30">
+        <v>0.45860428951742599</v>
+      </c>
+      <c r="K30">
+        <v>0.481395015255071</v>
+      </c>
+      <c r="L30">
+        <v>0.54322361430223698</v>
+      </c>
+      <c r="M30">
+        <v>0.58157074921859597</v>
+      </c>
+      <c r="N30">
+        <v>0.58834691124570704</v>
+      </c>
+      <c r="O30">
+        <v>0.56076295184508795</v>
+      </c>
+      <c r="P30">
+        <v>0.54126476175885196</v>
+      </c>
+      <c r="Q30">
+        <v>0.51852648821539205</v>
+      </c>
+      <c r="R30">
+        <v>0.495316422925416</v>
+      </c>
+      <c r="S30">
+        <v>0.47991602682080597</v>
+      </c>
+      <c r="T30">
+        <v>0.45229585998628602</v>
+      </c>
+      <c r="U30">
+        <v>0.42559761535458501</v>
+      </c>
+      <c r="V30">
+        <v>0.39765736537795598</v>
+      </c>
+      <c r="W30">
+        <v>0.37666748367104202</v>
+      </c>
+      <c r="X30">
+        <v>0.34776146430409099</v>
+      </c>
+      <c r="Y30">
+        <v>0.31928974343370098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.11557256131292599</v>
+      </c>
+      <c r="D31">
+        <v>0.18185775515670999</v>
+      </c>
+      <c r="E31">
+        <v>0.284945814012382</v>
+      </c>
+      <c r="F31">
+        <v>0.35479758040576298</v>
+      </c>
+      <c r="G31">
+        <v>0.36684278787984298</v>
+      </c>
+      <c r="H31">
+        <v>0.36615641261385901</v>
+      </c>
+      <c r="I31">
+        <v>0.426301171060748</v>
+      </c>
+      <c r="J31">
+        <v>0.422007658551803</v>
+      </c>
+      <c r="K31">
+        <v>0.44556422633734999</v>
+      </c>
+      <c r="L31">
+        <v>0.46887329198201899</v>
+      </c>
+      <c r="M31">
+        <v>0.47535873081242003</v>
+      </c>
+      <c r="N31">
+        <v>0.47241902426939197</v>
+      </c>
+      <c r="O31">
+        <v>0.45348614378394297</v>
+      </c>
+      <c r="P31">
+        <v>0.44711661614979298</v>
+      </c>
+      <c r="Q31">
+        <v>0.425674842693198</v>
+      </c>
+      <c r="R31">
+        <v>0.40045369265050601</v>
+      </c>
+      <c r="S31">
+        <v>0.39936412487588202</v>
+      </c>
+      <c r="T31">
+        <v>0.37888622443778103</v>
+      </c>
+      <c r="U31">
+        <v>0.36154528083763099</v>
+      </c>
+      <c r="V31">
+        <v>0.32970772218745198</v>
+      </c>
+      <c r="W31">
+        <v>0.30029510472605903</v>
+      </c>
+      <c r="X31">
+        <v>0.27405312233850698</v>
+      </c>
+      <c r="Y31">
+        <v>0.25736886288413902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.11012138274795701</v>
+      </c>
+      <c r="D32">
+        <v>0.21185354532543499</v>
+      </c>
+      <c r="E32">
+        <v>0.31853545659937299</v>
+      </c>
+      <c r="F32">
+        <v>0.38183125477864999</v>
+      </c>
+      <c r="G32">
+        <v>0.39502737281654698</v>
+      </c>
+      <c r="H32">
+        <v>0.37852043910663402</v>
+      </c>
+      <c r="I32">
+        <v>0.39468420673857002</v>
+      </c>
+      <c r="J32">
+        <v>0.380829898966279</v>
+      </c>
+      <c r="K32">
+        <v>0.41199190743872499</v>
+      </c>
+      <c r="L32">
+        <v>0.45617141992856702</v>
+      </c>
+      <c r="M32">
+        <v>0.48812793418629302</v>
+      </c>
+      <c r="N32">
+        <v>0.49069942691468099</v>
+      </c>
+      <c r="O32">
+        <v>0.47465336688562898</v>
+      </c>
+      <c r="P32">
+        <v>0.44898682011429802</v>
+      </c>
+      <c r="Q32">
+        <v>0.40954190364455401</v>
+      </c>
+      <c r="R32">
+        <v>0.38054691313768502</v>
+      </c>
+      <c r="S32">
+        <v>0.36116421401855398</v>
+      </c>
+      <c r="T32">
+        <v>0.32135196383279302</v>
+      </c>
+      <c r="U32">
+        <v>0.29306990265291399</v>
+      </c>
+      <c r="V32">
+        <v>0.26971859415794303</v>
+      </c>
+      <c r="W32">
+        <v>0.245318745516477</v>
+      </c>
+      <c r="X32">
+        <v>0.219781475430675</v>
+      </c>
+      <c r="Y32">
+        <v>0.19630232763299199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.135962636222106</v>
+      </c>
+      <c r="D33">
+        <v>0.23146704961384201</v>
+      </c>
+      <c r="E33">
+        <v>0.31558229820658001</v>
+      </c>
+      <c r="F33">
+        <v>0.35887378564327599</v>
+      </c>
+      <c r="G33">
+        <v>0.38410322411891801</v>
+      </c>
+      <c r="H33">
+        <v>0.38868120578595999</v>
+      </c>
+      <c r="I33">
+        <v>0.42661176677822699</v>
+      </c>
+      <c r="J33">
+        <v>0.45304507806603</v>
+      </c>
+      <c r="K33">
+        <v>0.46118838614302898</v>
+      </c>
+      <c r="L33">
+        <v>0.50378118283907702</v>
+      </c>
+      <c r="M33">
+        <v>0.53960702425279194</v>
+      </c>
+      <c r="N33">
+        <v>0.52886219931184897</v>
+      </c>
+      <c r="O33">
+        <v>0.50735480115555398</v>
+      </c>
+      <c r="P33">
+        <v>0.47378605454796002</v>
+      </c>
+      <c r="Q33">
+        <v>0.43304056875358699</v>
+      </c>
+      <c r="R33">
+        <v>0.39057679586689997</v>
+      </c>
+      <c r="S33">
+        <v>0.35718482368104498</v>
+      </c>
+      <c r="T33">
+        <v>0.32158024673102598</v>
+      </c>
+      <c r="U33">
+        <v>0.28280822675511302</v>
+      </c>
+      <c r="V33">
+        <v>0.249170151343337</v>
+      </c>
+      <c r="W33">
+        <v>0.22982849326510299</v>
+      </c>
+      <c r="X33">
+        <v>0.21587611739153101</v>
+      </c>
+      <c r="Y33">
+        <v>0.20408572129729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.14090241939302101</v>
+      </c>
+      <c r="D34">
+        <v>0.237575800434913</v>
+      </c>
+      <c r="E34">
+        <v>0.31827037956070198</v>
+      </c>
+      <c r="F34">
+        <v>0.37790073708083499</v>
+      </c>
+      <c r="G34">
+        <v>0.41691385603203002</v>
+      </c>
+      <c r="H34">
+        <v>0.43470685634844403</v>
+      </c>
+      <c r="I34">
+        <v>0.45283890000906601</v>
+      </c>
+      <c r="J34">
+        <v>0.452204230341058</v>
+      </c>
+      <c r="K34">
+        <v>0.49067919002327898</v>
+      </c>
+      <c r="L34">
+        <v>0.50258461471208504</v>
+      </c>
+      <c r="M34">
+        <v>0.52547567170700804</v>
+      </c>
+      <c r="N34">
+        <v>0.51776992402362498</v>
+      </c>
+      <c r="O34">
+        <v>0.499679124861448</v>
+      </c>
+      <c r="P34">
+        <v>0.48397200264050499</v>
+      </c>
+      <c r="Q34">
+        <v>0.44704334577402999</v>
+      </c>
+      <c r="R34">
+        <v>0.431615215245155</v>
+      </c>
+      <c r="S34">
+        <v>0.42079921921849101</v>
+      </c>
+      <c r="T34">
+        <v>0.380424816137369</v>
+      </c>
+      <c r="U34">
+        <v>0.35107296341814198</v>
+      </c>
+      <c r="V34">
+        <v>0.31677634073921401</v>
+      </c>
+      <c r="W34">
+        <v>0.28839346570984897</v>
+      </c>
+      <c r="X34">
+        <v>0.26942561288011402</v>
+      </c>
+      <c r="Y34">
+        <v>0.24369359513153799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>0.15222784085488</v>
+      </c>
+      <c r="D35">
+        <v>0.295120019158852</v>
+      </c>
+      <c r="E35">
+        <v>0.41078296836042399</v>
+      </c>
+      <c r="F35">
+        <v>0.49235867866573202</v>
+      </c>
+      <c r="G35">
+        <v>0.54328942391500901</v>
+      </c>
+      <c r="H35">
+        <v>0.55785338663779704</v>
+      </c>
+      <c r="I35">
+        <v>0.59294888954494196</v>
+      </c>
+      <c r="J35">
+        <v>0.62023419341285801</v>
+      </c>
+      <c r="K35">
+        <v>0.63615979299954895</v>
+      </c>
+      <c r="L35">
+        <v>0.65877463793354096</v>
+      </c>
+      <c r="M35">
+        <v>0.65890459705839399</v>
+      </c>
+      <c r="N35">
+        <v>0.65262760679985499</v>
+      </c>
+      <c r="O35">
+        <v>0.63318668917447596</v>
+      </c>
+      <c r="P35">
+        <v>0.59583653781892298</v>
+      </c>
+      <c r="Q35">
+        <v>0.52191774282029701</v>
+      </c>
+      <c r="R35">
+        <v>0.48079827301</v>
+      </c>
+      <c r="S35">
+        <v>0.46129771054976598</v>
+      </c>
+      <c r="T35">
+        <v>0.41898416828364698</v>
+      </c>
+      <c r="U35">
+        <v>0.37876186371603898</v>
+      </c>
+      <c r="V35">
+        <v>0.33174448496680897</v>
+      </c>
+      <c r="W35">
+        <v>0.30661939145927097</v>
+      </c>
+      <c r="X35">
+        <v>0.26998480839584998</v>
+      </c>
+      <c r="Y35">
+        <v>0.23891197795952601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.11647409616101299</v>
+      </c>
+      <c r="D37">
+        <v>0.242297829306172</v>
+      </c>
+      <c r="E37">
+        <v>0.33354652716789401</v>
+      </c>
+      <c r="F37">
+        <v>0.37333948678144901</v>
+      </c>
+      <c r="G37">
+        <v>0.37854738756644701</v>
+      </c>
+      <c r="H37">
+        <v>0.38694004754086703</v>
+      </c>
+      <c r="I37">
+        <v>0.448715765701175</v>
+      </c>
+      <c r="J37">
+        <v>0.48637562553567898</v>
+      </c>
+      <c r="K37">
+        <v>0.49778958873506401</v>
+      </c>
+      <c r="L37">
+        <v>0.47700175422947699</v>
+      </c>
+      <c r="M37">
+        <v>0.47752731588931602</v>
+      </c>
+      <c r="N37">
+        <v>0.47086412872321898</v>
+      </c>
+      <c r="O37">
+        <v>0.46717770246630702</v>
+      </c>
+      <c r="P37">
+        <v>0.46175673024516101</v>
+      </c>
+      <c r="Q37">
+        <v>0.437629899933137</v>
+      </c>
+      <c r="R37">
+        <v>0.40619293881202401</v>
+      </c>
+      <c r="S37">
+        <v>0.39306462683632598</v>
+      </c>
+      <c r="T37">
+        <v>0.37482943378207101</v>
+      </c>
+      <c r="U37">
+        <v>0.36359019508502899</v>
+      </c>
+      <c r="V37">
+        <v>0.33598055065147497</v>
+      </c>
+      <c r="W37">
+        <v>0.31414217775937398</v>
+      </c>
+      <c r="X37">
+        <v>0.29516665896569</v>
+      </c>
+      <c r="Y37">
+        <v>0.271302796151147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.111536486297212</v>
+      </c>
+      <c r="D38">
+        <v>0.22186373467916301</v>
+      </c>
+      <c r="E38">
+        <v>0.36417108056101</v>
+      </c>
+      <c r="F38">
+        <v>0.411096835383707</v>
+      </c>
+      <c r="G38">
+        <v>0.42904850287052299</v>
+      </c>
+      <c r="H38">
+        <v>0.43508708047283601</v>
+      </c>
+      <c r="I38">
+        <v>0.46662836468660901</v>
+      </c>
+      <c r="J38">
+        <v>0.47908674143690999</v>
+      </c>
+      <c r="K38">
+        <v>0.51382630467486401</v>
+      </c>
+      <c r="L38">
+        <v>0.58746015587901601</v>
+      </c>
+      <c r="M38">
+        <v>0.61848072791127895</v>
+      </c>
+      <c r="N38">
+        <v>0.61524175839532202</v>
+      </c>
+      <c r="O38">
+        <v>0.59984396068138501</v>
+      </c>
+      <c r="P38">
+        <v>0.59032546454765</v>
+      </c>
+      <c r="Q38">
+        <v>0.56370818246281396</v>
+      </c>
+      <c r="R38">
+        <v>0.53237769275146296</v>
+      </c>
+      <c r="S38">
+        <v>0.51858235444509104</v>
+      </c>
+      <c r="T38">
+        <v>0.50286465671081004</v>
+      </c>
+      <c r="U38">
+        <v>0.48984342413965398</v>
+      </c>
+      <c r="V38">
+        <v>0.47105439678931899</v>
+      </c>
+      <c r="W38">
+        <v>0.45082479959941502</v>
+      </c>
+      <c r="X38">
+        <v>0.43355721797517899</v>
+      </c>
+      <c r="Y38">
+        <v>0.41515465874277102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.15083317372150901</v>
+      </c>
+      <c r="D39">
+        <v>0.28045294226842399</v>
+      </c>
+      <c r="E39">
+        <v>0.42931617938477401</v>
+      </c>
+      <c r="F39">
+        <v>0.43873726643787098</v>
+      </c>
+      <c r="G39">
+        <v>0.48311571214999099</v>
+      </c>
+      <c r="H39">
+        <v>0.51165532759878396</v>
+      </c>
+      <c r="I39">
+        <v>0.54317534666644196</v>
+      </c>
+      <c r="J39">
+        <v>0.55414111351946105</v>
+      </c>
+      <c r="K39">
+        <v>0.54735348337555201</v>
+      </c>
+      <c r="L39">
+        <v>0.54279751497052298</v>
+      </c>
+      <c r="M39">
+        <v>0.55704115970686796</v>
+      </c>
+      <c r="N39">
+        <v>0.53223382577134204</v>
+      </c>
+      <c r="O39">
+        <v>0.50186373568612397</v>
+      </c>
+      <c r="P39">
+        <v>0.48167683333043598</v>
+      </c>
+      <c r="Q39">
+        <v>0.46324020286908202</v>
+      </c>
+      <c r="R39">
+        <v>0.43733210891187102</v>
+      </c>
+      <c r="S39">
+        <v>0.42898692275342798</v>
+      </c>
+      <c r="T39">
+        <v>0.411674190172508</v>
+      </c>
+      <c r="U39">
+        <v>0.39136938083112499</v>
+      </c>
+      <c r="V39">
+        <v>0.34874926192773797</v>
+      </c>
+      <c r="W39">
+        <v>0.31917899706706998</v>
+      </c>
+      <c r="X39">
+        <v>0.29439603904382899</v>
+      </c>
+      <c r="Y39">
+        <v>0.27295173660829603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.14021050626279899</v>
+      </c>
+      <c r="D40">
+        <v>0.26316754694835598</v>
+      </c>
+      <c r="E40">
+        <v>0.43399193342523101</v>
+      </c>
+      <c r="F40">
+        <v>0.457710447810942</v>
+      </c>
+      <c r="G40">
+        <v>0.52529062683411498</v>
+      </c>
+      <c r="H40">
+        <v>0.48995367657626698</v>
+      </c>
+      <c r="I40">
+        <v>0.56015152644339405</v>
+      </c>
+      <c r="J40">
+        <v>0.58605620341174702</v>
+      </c>
+      <c r="K40">
+        <v>0.59549235849455995</v>
+      </c>
+      <c r="L40">
+        <v>0.63699262971572901</v>
+      </c>
+      <c r="M40">
+        <v>0.67882501804494999</v>
+      </c>
+      <c r="N40">
+        <v>0.65839522439248799</v>
+      </c>
+      <c r="O40">
+        <v>0.62161340142422505</v>
+      </c>
+      <c r="P40">
+        <v>0.56444126747188905</v>
+      </c>
+      <c r="Q40">
+        <v>0.52252244473008302</v>
+      </c>
+      <c r="R40">
+        <v>0.467591160099322</v>
+      </c>
+      <c r="S40">
+        <v>0.44388575213345999</v>
+      </c>
+      <c r="T40">
+        <v>0.41237853976171002</v>
+      </c>
+      <c r="U40">
+        <v>0.38577926456019002</v>
+      </c>
+      <c r="V40">
+        <v>0.353110514906398</v>
+      </c>
+      <c r="W40">
+        <v>0.32695439977887297</v>
+      </c>
+      <c r="X40">
+        <v>0.29987350890744702</v>
+      </c>
+      <c r="Y40">
+        <v>0.280425978163658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>0.13697833357568701</v>
+      </c>
+      <c r="D41">
+        <v>0.263475447278264</v>
+      </c>
+      <c r="E41">
+        <v>0.42362949780806403</v>
+      </c>
+      <c r="F41">
+        <v>0.40722621714016199</v>
+      </c>
+      <c r="G41">
+        <v>0.40405167843290402</v>
+      </c>
+      <c r="H41">
+        <v>0.40217048916479797</v>
+      </c>
+      <c r="I41">
+        <v>0.44483106934197397</v>
+      </c>
+      <c r="J41">
+        <v>0.45209768169129</v>
+      </c>
+      <c r="K41">
+        <v>0.469536504377987</v>
+      </c>
+      <c r="L41">
+        <v>0.49659980076663002</v>
+      </c>
+      <c r="M41">
+        <v>0.52253525404727696</v>
+      </c>
+      <c r="N41">
+        <v>0.49485512055655101</v>
+      </c>
+      <c r="O41">
+        <v>0.47861341788039902</v>
+      </c>
+      <c r="P41">
+        <v>0.46263082481617801</v>
+      </c>
+      <c r="Q41">
+        <v>0.45343014681434601</v>
+      </c>
+      <c r="R41">
+        <v>0.422632649405349</v>
+      </c>
+      <c r="S41">
+        <v>0.40760402455918299</v>
+      </c>
+      <c r="T41">
+        <v>0.38317337180074001</v>
+      </c>
+      <c r="U41">
+        <v>0.36183384136985702</v>
+      </c>
+      <c r="V41">
+        <v>0.323087404787266</v>
+      </c>
+      <c r="W41">
+        <v>0.29434519388640901</v>
+      </c>
+      <c r="X41">
+        <v>0.28241617093959398</v>
+      </c>
+      <c r="Y41">
+        <v>0.26948334032154703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>7.2918074134126001E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.27976545048399099</v>
+      </c>
+      <c r="E42">
+        <v>0.50621973528462205</v>
+      </c>
+      <c r="F42">
+        <v>0.56318076911548698</v>
+      </c>
+      <c r="G42">
+        <v>0.56356912688790395</v>
+      </c>
+      <c r="H42">
+        <v>0.53087659823801403</v>
+      </c>
+      <c r="I42">
+        <v>0.61217186748761798</v>
+      </c>
+      <c r="J42">
+        <v>0.66082490477141997</v>
+      </c>
+      <c r="K42">
+        <v>0.69696208982550101</v>
+      </c>
+      <c r="L42">
+        <v>0.68083014540431397</v>
+      </c>
+      <c r="M42">
+        <v>0.66375078741304105</v>
+      </c>
+      <c r="N42">
+        <v>0.62416689378360302</v>
+      </c>
+      <c r="O42">
+        <v>0.58218730489483705</v>
+      </c>
+      <c r="P42">
+        <v>0.54723324165077702</v>
+      </c>
+      <c r="Q42">
+        <v>0.51125703508561804</v>
+      </c>
+      <c r="R42">
+        <v>0.47737963377022502</v>
+      </c>
+      <c r="S42">
+        <v>0.45054681768799099</v>
+      </c>
+      <c r="T42">
+        <v>0.41420031990446798</v>
+      </c>
+      <c r="U42">
+        <v>0.38678830281524601</v>
+      </c>
+      <c r="V42">
+        <v>0.35768566102070198</v>
+      </c>
+      <c r="W42">
+        <v>0.337388865568507</v>
+      </c>
+      <c r="X42">
+        <v>0.31911895098731602</v>
+      </c>
+      <c r="Y42">
+        <v>0.29129891658479401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC3709-77B6-421E-B5D0-F9BC0815F8A0}">
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="A1:B1048576 H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>35</v>
+      </c>
+      <c r="J1">
+        <v>40</v>
+      </c>
+      <c r="K1">
+        <v>45</v>
+      </c>
+      <c r="L1">
+        <v>50</v>
+      </c>
+      <c r="M1">
+        <v>55</v>
+      </c>
+      <c r="N1">
+        <v>60</v>
+      </c>
+      <c r="O1">
+        <v>65</v>
+      </c>
+      <c r="P1">
+        <v>70</v>
+      </c>
+      <c r="Q1">
+        <v>75</v>
+      </c>
+      <c r="R1">
+        <v>80</v>
+      </c>
+      <c r="S1">
+        <v>85</v>
+      </c>
+      <c r="T1">
+        <v>90</v>
+      </c>
+      <c r="U1">
+        <v>95</v>
+      </c>
+      <c r="V1">
+        <v>100</v>
+      </c>
+      <c r="W1">
+        <v>105</v>
+      </c>
+      <c r="X1">
+        <v>110</v>
+      </c>
+      <c r="Y1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.12258718385774101</v>
+      </c>
+      <c r="D2">
+        <v>0.22490651870487399</v>
+      </c>
+      <c r="E2">
+        <v>0.31843675045251402</v>
+      </c>
+      <c r="F2">
+        <v>0.340109154664052</v>
+      </c>
+      <c r="G2">
+        <v>0.34533212803368901</v>
+      </c>
+      <c r="H2">
+        <v>0.34517685148004901</v>
+      </c>
+      <c r="I2">
+        <v>0.39389224868950901</v>
+      </c>
+      <c r="J2">
+        <v>0.37589528300624098</v>
+      </c>
+      <c r="K2">
+        <v>0.37046222118540201</v>
+      </c>
+      <c r="L2">
+        <v>0.43220721215959801</v>
+      </c>
+      <c r="M2">
+        <v>0.44815172527143299</v>
+      </c>
+      <c r="N2">
+        <v>0.43737468866631501</v>
+      </c>
+      <c r="O2">
+        <v>0.43658927298155897</v>
+      </c>
+      <c r="P2">
+        <v>0.41264652075716701</v>
+      </c>
+      <c r="Q2">
+        <v>0.39460437780134999</v>
+      </c>
+      <c r="R2">
+        <v>0.37727500093446298</v>
+      </c>
+      <c r="S2">
+        <v>0.35353368495246101</v>
+      </c>
+      <c r="T2">
+        <v>0.32721977493038901</v>
+      </c>
+      <c r="U2">
+        <v>0.30076831755931399</v>
+      </c>
+      <c r="V2">
+        <v>0.27611764389253601</v>
+      </c>
+      <c r="W2">
+        <v>0.24324455539911699</v>
+      </c>
+      <c r="X2">
+        <v>0.221503563306719</v>
+      </c>
+      <c r="Y2">
+        <v>0.19918379559565599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43358</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.13376865671641699</v>
+      </c>
+      <c r="D3">
+        <v>0.208944507128936</v>
+      </c>
+      <c r="E3">
+        <v>0.28490928720014702</v>
+      </c>
+      <c r="F3">
+        <v>0.30975762445806498</v>
+      </c>
+      <c r="G3">
+        <v>0.33645890788747901</v>
+      </c>
+      <c r="H3">
+        <v>0.36041939225925501</v>
+      </c>
+      <c r="I3">
+        <v>0.41234473961597401</v>
+      </c>
+      <c r="J3">
+        <v>0.42949635673960701</v>
+      </c>
+      <c r="K3">
+        <v>0.44098299177785499</v>
+      </c>
+      <c r="L3">
+        <v>0.46093754325048802</v>
+      </c>
+      <c r="M3">
+        <v>0.45725160867259701</v>
+      </c>
+      <c r="N3">
+        <v>0.41341342176641799</v>
+      </c>
+      <c r="O3">
+        <v>0.39705959282671199</v>
+      </c>
+      <c r="P3">
+        <v>0.38737761469425902</v>
+      </c>
+      <c r="Q3">
+        <v>0.35592409238779299</v>
+      </c>
+      <c r="R3">
+        <v>0.337852742518022</v>
+      </c>
+      <c r="S3">
+        <v>0.31738003546274601</v>
+      </c>
+      <c r="T3">
+        <v>0.28496578450754401</v>
+      </c>
+      <c r="U3">
+        <v>0.25313058479592498</v>
+      </c>
+      <c r="V3">
+        <v>0.225091336859053</v>
+      </c>
+      <c r="W3">
+        <v>0.19559238715692201</v>
+      </c>
+      <c r="X3">
+        <v>0.17596253029114001</v>
+      </c>
+      <c r="Y3">
+        <v>0.15933465823252699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.116743119266055</v>
+      </c>
+      <c r="D4">
+        <v>0.20433657839199401</v>
+      </c>
+      <c r="E4">
+        <v>0.28921094725000401</v>
+      </c>
+      <c r="F4">
+        <v>0.320648156922202</v>
+      </c>
+      <c r="G4">
+        <v>0.31829555817522598</v>
+      </c>
+      <c r="H4">
+        <v>0.31624942290251201</v>
+      </c>
+      <c r="I4">
+        <v>0.36912527006182699</v>
+      </c>
+      <c r="J4">
+        <v>0.38424263926689101</v>
+      </c>
+      <c r="K4">
+        <v>0.386487825998582</v>
+      </c>
+      <c r="L4">
+        <v>0.40738512471051103</v>
+      </c>
+      <c r="M4">
+        <v>0.42401382214202898</v>
+      </c>
+      <c r="N4">
+        <v>0.40508709301118201</v>
+      </c>
+      <c r="O4">
+        <v>0.39459970191879501</v>
+      </c>
+      <c r="P4">
+        <v>0.37095466294658502</v>
+      </c>
+      <c r="Q4">
+        <v>0.34542537411843599</v>
+      </c>
+      <c r="R4">
+        <v>0.33385821760531997</v>
+      </c>
+      <c r="S4">
+        <v>0.30729510541016403</v>
+      </c>
+      <c r="T4">
+        <v>0.26693639419063803</v>
+      </c>
+      <c r="U4">
+        <v>0.23832573198363</v>
+      </c>
+      <c r="V4">
+        <v>0.21311760518964201</v>
+      </c>
+      <c r="W4">
+        <v>0.18720141030711901</v>
+      </c>
+      <c r="X4">
+        <v>0.17277584567614601</v>
+      </c>
+      <c r="Y4">
+        <v>0.15764782362538701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>9.53030509707634E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.15079915461330101</v>
+      </c>
+      <c r="E5">
+        <v>0.198339749351332</v>
+      </c>
+      <c r="F5">
+        <v>0.24846785518325201</v>
+      </c>
+      <c r="G5">
+        <v>0.28246449717312899</v>
+      </c>
+      <c r="H5">
+        <v>0.28495857687791798</v>
+      </c>
+      <c r="I5">
+        <v>0.30120314157085998</v>
+      </c>
+      <c r="J5">
+        <v>0.30742385223337099</v>
+      </c>
+      <c r="K5">
+        <v>0.32349868669416398</v>
+      </c>
+      <c r="L5">
+        <v>0.34488727342432302</v>
+      </c>
+      <c r="M5">
+        <v>0.33793939016335101</v>
+      </c>
+      <c r="N5">
+        <v>0.30266690638858901</v>
+      </c>
+      <c r="O5">
+        <v>0.29749410732808101</v>
+      </c>
+      <c r="P5">
+        <v>0.28137023896820901</v>
+      </c>
+      <c r="Q5">
+        <v>0.25925252339362997</v>
+      </c>
+      <c r="R5">
+        <v>0.246116171764514</v>
+      </c>
+      <c r="S5">
+        <v>0.236674947096877</v>
+      </c>
+      <c r="T5">
+        <v>0.21393678600243499</v>
+      </c>
+      <c r="U5">
+        <v>0.20110625824168199</v>
+      </c>
+      <c r="V5">
+        <v>0.17660788000272701</v>
+      </c>
+      <c r="W5">
+        <v>0.151019432698727</v>
+      </c>
+      <c r="X5">
+        <v>0.13419541187916501</v>
+      </c>
+      <c r="Y5">
+        <v>0.11516479853109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.10192010192010099</v>
+      </c>
+      <c r="D6">
+        <v>0.20303019974094999</v>
+      </c>
+      <c r="E6">
+        <v>0.281437965804471</v>
+      </c>
+      <c r="F6">
+        <v>0.29663980115190902</v>
+      </c>
+      <c r="G6">
+        <v>0.33276199394658901</v>
+      </c>
+      <c r="H6">
+        <v>0.34083994593771799</v>
+      </c>
+      <c r="I6">
+        <v>0.36695158496339397</v>
+      </c>
+      <c r="J6">
+        <v>0.37160903768173098</v>
+      </c>
+      <c r="K6">
+        <v>0.36985819993908903</v>
+      </c>
+      <c r="L6">
+        <v>0.40763499296405897</v>
+      </c>
+      <c r="M6">
+        <v>0.40842214928694798</v>
+      </c>
+      <c r="N6">
+        <v>0.38059779789562298</v>
+      </c>
+      <c r="O6">
+        <v>0.35665992320505602</v>
+      </c>
+      <c r="P6">
+        <v>0.33539787085305001</v>
+      </c>
+      <c r="Q6">
+        <v>0.307586517272947</v>
+      </c>
+      <c r="R6">
+        <v>0.281101286977262</v>
+      </c>
+      <c r="S6">
+        <v>0.27075242616717399</v>
+      </c>
+      <c r="T6">
+        <v>0.25132706693336199</v>
+      </c>
+      <c r="U6">
+        <v>0.23450357450598799</v>
+      </c>
+      <c r="V6">
+        <v>0.210752508710074</v>
+      </c>
+      <c r="W6">
+        <v>0.18983077660219899</v>
+      </c>
+      <c r="X6">
+        <v>0.177919912775233</v>
+      </c>
+      <c r="Y6">
+        <v>0.161737317627899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.13714660175997001</v>
+      </c>
+      <c r="D7">
+        <v>0.206649171835594</v>
+      </c>
+      <c r="E7">
+        <v>0.26812006973572899</v>
+      </c>
+      <c r="F7">
+        <v>0.30463796360008999</v>
+      </c>
+      <c r="G7">
+        <v>0.32898055766286599</v>
+      </c>
+      <c r="H7">
+        <v>0.33323210723976199</v>
+      </c>
+      <c r="I7">
+        <v>0.38069038733187099</v>
+      </c>
+      <c r="J7">
+        <v>0.37897934735560301</v>
+      </c>
+      <c r="K7">
+        <v>0.38578828492308398</v>
+      </c>
+      <c r="L7">
+        <v>0.39933863866739699</v>
+      </c>
+      <c r="M7">
+        <v>0.40663501358422199</v>
+      </c>
+      <c r="N7">
+        <v>0.36946851502863798</v>
+      </c>
+      <c r="O7">
+        <v>0.36101145661009398</v>
+      </c>
+      <c r="P7">
+        <v>0.34705008964127498</v>
+      </c>
+      <c r="Q7">
+        <v>0.319715118129417</v>
+      </c>
+      <c r="R7">
+        <v>0.28912333372188298</v>
+      </c>
+      <c r="S7">
+        <v>0.27871699015334001</v>
+      </c>
+      <c r="T7">
+        <v>0.25689110651402203</v>
+      </c>
+      <c r="U7">
+        <v>0.24109608553339101</v>
+      </c>
+      <c r="V7">
+        <v>0.220549952313075</v>
+      </c>
+      <c r="W7">
+        <v>0.201229587961468</v>
+      </c>
+      <c r="X7">
+        <v>0.18456171342625799</v>
+      </c>
+      <c r="Y7">
+        <v>0.15996210895579399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43421</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.111527561934363</v>
+      </c>
+      <c r="D8">
+        <v>0.17819849874895699</v>
+      </c>
+      <c r="E8">
+        <v>0.26723637340636602</v>
+      </c>
+      <c r="F8">
+        <v>0.32667125139320302</v>
+      </c>
+      <c r="G8">
+        <v>0.310172738409425</v>
+      </c>
+      <c r="H8">
+        <v>0.32921506211038898</v>
+      </c>
+      <c r="I8">
+        <v>0.37548170015554</v>
+      </c>
+      <c r="J8">
+        <v>0.40106105347056298</v>
+      </c>
+      <c r="K8">
+        <v>0.40154434871136602</v>
+      </c>
+      <c r="L8">
+        <v>0.40137963102399599</v>
+      </c>
+      <c r="M8">
+        <v>0.398497716594231</v>
+      </c>
+      <c r="N8">
+        <v>0.372554435491179</v>
+      </c>
+      <c r="O8">
+        <v>0.36376716073161702</v>
+      </c>
+      <c r="P8">
+        <v>0.36068480638214001</v>
+      </c>
+      <c r="Q8">
+        <v>0.32287433863088499</v>
+      </c>
+      <c r="R8">
+        <v>0.297384809890546</v>
+      </c>
+      <c r="S8">
+        <v>0.28342587783293</v>
+      </c>
+      <c r="T8">
+        <v>0.25139738273352302</v>
+      </c>
+      <c r="U8">
+        <v>0.22610602934188601</v>
+      </c>
+      <c r="V8">
+        <v>0.19274151619643701</v>
+      </c>
+      <c r="W8">
+        <v>0.16853467097028901</v>
+      </c>
+      <c r="X8">
+        <v>0.155534633666122</v>
+      </c>
+      <c r="Y8">
+        <v>0.14323721825653299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.10341477631515</v>
+      </c>
+      <c r="D9">
+        <v>0.176747364310816</v>
+      </c>
+      <c r="E9">
+        <v>0.25700324213374298</v>
+      </c>
+      <c r="F9">
+        <v>0.26965527962379998</v>
+      </c>
+      <c r="G9">
+        <v>0.36993808125106697</v>
+      </c>
+      <c r="H9">
+        <v>0.38063720408499502</v>
+      </c>
+      <c r="I9">
+        <v>0.39366888034914599</v>
+      </c>
+      <c r="J9">
+        <v>0.40773714027215902</v>
+      </c>
+      <c r="K9">
+        <v>0.38036619005955802</v>
+      </c>
+      <c r="L9">
+        <v>0.391161883361485</v>
+      </c>
+      <c r="M9">
+        <v>0.40209036322673303</v>
+      </c>
+      <c r="N9">
+        <v>0.40944099218173902</v>
+      </c>
+      <c r="O9">
+        <v>0.44914186394040501</v>
+      </c>
+      <c r="P9">
+        <v>0.46105616838095898</v>
+      </c>
+      <c r="Q9">
+        <v>0.45855095853255201</v>
+      </c>
+      <c r="R9">
+        <v>0.45330641005627997</v>
+      </c>
+      <c r="S9">
+        <v>0.45284982051593298</v>
+      </c>
+      <c r="T9">
+        <v>0.45001034639015702</v>
+      </c>
+      <c r="U9">
+        <v>0.42469683740258302</v>
+      </c>
+      <c r="V9">
+        <v>0.40695492920568299</v>
+      </c>
+      <c r="W9">
+        <v>0.38863745575492198</v>
+      </c>
+      <c r="X9">
+        <v>0.37253919223109</v>
+      </c>
+      <c r="Y9">
+        <v>0.36130554676471299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.11616983676696201</v>
+      </c>
+      <c r="D10">
+        <v>0.21115383258668699</v>
+      </c>
+      <c r="E10">
+        <v>0.31299675361020901</v>
+      </c>
+      <c r="F10">
+        <v>0.36689500472770398</v>
+      </c>
+      <c r="G10">
+        <v>0.41155553427060199</v>
+      </c>
+      <c r="H10">
+        <v>0.383231387063378</v>
+      </c>
+      <c r="I10">
+        <v>0.41306190476808502</v>
+      </c>
+      <c r="J10">
+        <v>0.47154080471958199</v>
+      </c>
+      <c r="K10">
+        <v>0.50510776706293403</v>
+      </c>
+      <c r="L10">
+        <v>0.51749619323440699</v>
+      </c>
+      <c r="M10">
+        <v>0.50464726998376996</v>
+      </c>
+      <c r="N10">
+        <v>0.44394927491723402</v>
+      </c>
+      <c r="O10">
+        <v>0.431596400313489</v>
+      </c>
+      <c r="P10">
+        <v>0.40842724624626803</v>
+      </c>
+      <c r="Q10">
+        <v>0.373708402507619</v>
+      </c>
+      <c r="R10">
+        <v>0.34478322813585899</v>
+      </c>
+      <c r="S10">
+        <v>0.32450671159250799</v>
+      </c>
+      <c r="T10">
+        <v>0.30090036939870402</v>
+      </c>
+      <c r="U10">
+        <v>0.27718250032266101</v>
+      </c>
+      <c r="V10">
+        <v>0.25223414385058002</v>
+      </c>
+      <c r="W10">
+        <v>0.222505168527425</v>
+      </c>
+      <c r="X10">
+        <v>0.203166233677993</v>
+      </c>
+      <c r="Y10">
+        <v>0.180967031320797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.11608398162901799</v>
+      </c>
+      <c r="D11">
+        <v>0.213767603142028</v>
+      </c>
+      <c r="E11">
+        <v>0.29956647133383502</v>
+      </c>
+      <c r="F11">
+        <v>0.31555482005704399</v>
+      </c>
+      <c r="G11">
+        <v>0.34896173246663498</v>
+      </c>
+      <c r="H11">
+        <v>0.32427043179773102</v>
+      </c>
+      <c r="I11">
+        <v>0.36322049756618202</v>
+      </c>
+      <c r="J11">
+        <v>0.35466149781655398</v>
+      </c>
+      <c r="K11">
+        <v>0.37134769542507801</v>
+      </c>
+      <c r="L11">
+        <v>0.37332608883618001</v>
+      </c>
+      <c r="M11">
+        <v>0.38594960740798501</v>
+      </c>
+      <c r="N11">
+        <v>0.35770713278525101</v>
+      </c>
+      <c r="O11">
+        <v>0.34899936401686499</v>
+      </c>
+      <c r="P11">
+        <v>0.33368135864262199</v>
+      </c>
+      <c r="Q11">
+        <v>0.315014775183735</v>
+      </c>
+      <c r="R11">
+        <v>0.29900435337334802</v>
+      </c>
+      <c r="S11">
+        <v>0.28457364548371</v>
+      </c>
+      <c r="T11">
+        <v>0.25892265165391398</v>
+      </c>
+      <c r="U11">
+        <v>0.25222798292100401</v>
+      </c>
+      <c r="V11">
+        <v>0.241801489150371</v>
+      </c>
+      <c r="W11">
+        <v>0.22625237879628601</v>
+      </c>
+      <c r="X11">
+        <v>0.21179110369781601</v>
+      </c>
+      <c r="Y11">
+        <v>0.194531832516048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.13204796614154701</v>
+      </c>
+      <c r="D12">
+        <v>0.19262912016610401</v>
+      </c>
+      <c r="E12">
+        <v>0.27954553757352102</v>
+      </c>
+      <c r="F12">
+        <v>0.29548938722017198</v>
+      </c>
+      <c r="G12">
+        <v>0.308891705393606</v>
+      </c>
+      <c r="H12">
+        <v>0.29985740254933702</v>
+      </c>
+      <c r="I12">
+        <v>0.32292292192935801</v>
+      </c>
+      <c r="J12">
+        <v>0.344401100152536</v>
+      </c>
+      <c r="K12">
+        <v>0.345431113780233</v>
+      </c>
+      <c r="L12">
+        <v>0.36961544088526999</v>
+      </c>
+      <c r="M12">
+        <v>0.39013864041945301</v>
+      </c>
+      <c r="N12">
+        <v>0.37157665218560798</v>
+      </c>
+      <c r="O12">
+        <v>0.36491075193620098</v>
+      </c>
+      <c r="P12">
+        <v>0.359391128453658</v>
+      </c>
+      <c r="Q12">
+        <v>0.338917769010597</v>
+      </c>
+      <c r="R12">
+        <v>0.324079655098923</v>
+      </c>
+      <c r="S12">
+        <v>0.31273534361354799</v>
+      </c>
+      <c r="T12">
+        <v>0.29239641965292101</v>
+      </c>
+      <c r="U12">
+        <v>0.27842080204228098</v>
+      </c>
+      <c r="V12">
+        <v>0.253459439443182</v>
+      </c>
+      <c r="W12">
+        <v>0.221828772381784</v>
+      </c>
+      <c r="X12">
+        <v>0.19523345946853399</v>
+      </c>
+      <c r="Y12">
+        <v>0.17443644532452701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>9.3022159358793002E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.14371366943296801</v>
+      </c>
+      <c r="E13">
+        <v>0.18802305546439099</v>
+      </c>
+      <c r="F13">
+        <v>0.25049214622766203</v>
+      </c>
+      <c r="G13">
+        <v>0.33029023422093401</v>
+      </c>
+      <c r="H13">
+        <v>0.37753271170749803</v>
+      </c>
+      <c r="I13">
+        <v>0.41451705080496898</v>
+      </c>
+      <c r="J13">
+        <v>0.429116941189987</v>
+      </c>
+      <c r="K13">
+        <v>0.43120573338833401</v>
+      </c>
+      <c r="L13">
+        <v>0.47340898775658602</v>
+      </c>
+      <c r="M13">
+        <v>0.50240590816809205</v>
+      </c>
+      <c r="N13">
+        <v>0.48186570032135501</v>
+      </c>
+      <c r="O13">
+        <v>0.46073540844092697</v>
+      </c>
+      <c r="P13">
+        <v>0.448863697626945</v>
+      </c>
+      <c r="Q13">
+        <v>0.43274703215397298</v>
+      </c>
+      <c r="R13">
+        <v>0.42211678359660099</v>
+      </c>
+      <c r="S13">
+        <v>0.40008866997598702</v>
+      </c>
+      <c r="T13">
+        <v>0.376620518442978</v>
+      </c>
+      <c r="U13">
+        <v>0.36256210210532502</v>
+      </c>
+      <c r="V13">
+        <v>0.34061973957224601</v>
+      </c>
+      <c r="W13">
+        <v>0.32592008122162203</v>
+      </c>
+      <c r="X13">
+        <v>0.31601408516301199</v>
+      </c>
+      <c r="Y13">
+        <v>0.30447496094071202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>9.2043171518011405E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.18073271488621501</v>
+      </c>
+      <c r="E14">
+        <v>0.308379268931112</v>
+      </c>
+      <c r="F14">
+        <v>0.29621323946860401</v>
+      </c>
+      <c r="G14">
+        <v>0.317444243437426</v>
+      </c>
+      <c r="H14">
+        <v>0.321824425520503</v>
+      </c>
+      <c r="I14">
+        <v>0.34419082016177599</v>
+      </c>
+      <c r="J14">
+        <v>0.349852490259001</v>
+      </c>
+      <c r="K14">
+        <v>0.34933285311042001</v>
+      </c>
+      <c r="L14">
+        <v>0.38632942905004602</v>
+      </c>
+      <c r="M14">
+        <v>0.39292337324054299</v>
+      </c>
+      <c r="N14">
+        <v>0.37835024336124801</v>
+      </c>
+      <c r="O14">
+        <v>0.36980149109702998</v>
+      </c>
+      <c r="P14">
+        <v>0.35994564401623202</v>
+      </c>
+      <c r="Q14">
+        <v>0.34661509645803301</v>
+      </c>
+      <c r="R14">
+        <v>0.35279272115263299</v>
+      </c>
+      <c r="S14">
+        <v>0.35240226046900902</v>
+      </c>
+      <c r="T14">
+        <v>0.33140896840328898</v>
+      </c>
+      <c r="U14">
+        <v>0.30051801711759402</v>
+      </c>
+      <c r="V14">
+        <v>0.28451035327910001</v>
+      </c>
+      <c r="W14">
+        <v>0.26845621163648598</v>
+      </c>
+      <c r="X14">
+        <v>0.259253339476407</v>
+      </c>
+      <c r="Y14">
+        <v>0.24405876245677399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.14454965028310399</v>
+      </c>
+      <c r="D15">
+        <v>0.228898953725159</v>
+      </c>
+      <c r="E15">
+        <v>0.31867671301772299</v>
+      </c>
+      <c r="F15">
+        <v>0.31788892148234998</v>
+      </c>
+      <c r="G15">
+        <v>0.36242448257813398</v>
+      </c>
+      <c r="H15">
+        <v>0.35844691338555401</v>
+      </c>
+      <c r="I15">
+        <v>0.39771531233173901</v>
+      </c>
+      <c r="J15">
+        <v>0.42609275446746497</v>
+      </c>
+      <c r="K15">
+        <v>0.45740487368588301</v>
+      </c>
+      <c r="L15">
+        <v>0.47345198752181999</v>
+      </c>
+      <c r="M15">
+        <v>0.46876054468470202</v>
+      </c>
+      <c r="N15">
+        <v>0.45384114857239199</v>
+      </c>
+      <c r="O15">
+        <v>0.42658580745793301</v>
+      </c>
+      <c r="P15">
+        <v>0.39378272636794098</v>
+      </c>
+      <c r="Q15">
+        <v>0.36490722387476898</v>
+      </c>
+      <c r="R15">
+        <v>0.34836941621043499</v>
+      </c>
+      <c r="S15">
+        <v>0.33688587000353998</v>
+      </c>
+      <c r="T15">
+        <v>0.32052531141555901</v>
+      </c>
+      <c r="U15">
+        <v>0.294856427875622</v>
+      </c>
+      <c r="V15">
+        <v>0.26611022579910798</v>
+      </c>
+      <c r="W15">
+        <v>0.25126330876186898</v>
+      </c>
+      <c r="X15">
+        <v>0.23254619476324001</v>
+      </c>
+      <c r="Y15">
+        <v>0.221309915819695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43358</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.137153926107908</v>
+      </c>
+      <c r="D16">
+        <v>0.26293452263204198</v>
+      </c>
+      <c r="E16">
+        <v>0.39264862519231503</v>
+      </c>
+      <c r="F16">
+        <v>0.46207606575951299</v>
+      </c>
+      <c r="G16">
+        <v>0.47313884079691898</v>
+      </c>
+      <c r="H16">
+        <v>0.44531290279338798</v>
+      </c>
+      <c r="I16">
+        <v>0.49195842378982602</v>
+      </c>
+      <c r="J16">
+        <v>0.53857114679250095</v>
+      </c>
+      <c r="K16">
+        <v>0.56728723754577304</v>
+      </c>
+      <c r="L16">
+        <v>0.59875368178258803</v>
+      </c>
+      <c r="M16">
+        <v>0.61149693706160702</v>
+      </c>
+      <c r="N16">
+        <v>0.56906381685842899</v>
+      </c>
+      <c r="O16">
+        <v>0.51500800033064098</v>
+      </c>
+      <c r="P16">
+        <v>0.46511957432721301</v>
+      </c>
+      <c r="Q16">
+        <v>0.422261746377879</v>
+      </c>
+      <c r="R16">
+        <v>0.39285050551052902</v>
+      </c>
+      <c r="S16">
+        <v>0.37105813574923402</v>
+      </c>
+      <c r="T16">
+        <v>0.34023477060394303</v>
+      </c>
+      <c r="U16">
+        <v>0.31047543063699701</v>
+      </c>
+      <c r="V16">
+        <v>0.27471661427954303</v>
+      </c>
+      <c r="W16">
+        <v>0.23822751366835701</v>
+      </c>
+      <c r="X16">
+        <v>0.21272458298527799</v>
+      </c>
+      <c r="Y16">
+        <v>0.20029557745565599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.143609200853687</v>
+      </c>
+      <c r="D17">
+        <v>0.27283888206831802</v>
+      </c>
+      <c r="E17">
+        <v>0.38578435623909801</v>
+      </c>
+      <c r="F17">
+        <v>0.42797237426444601</v>
+      </c>
+      <c r="G17">
+        <v>0.45477307201655198</v>
+      </c>
+      <c r="H17">
+        <v>0.45175809248373899</v>
+      </c>
+      <c r="I17">
+        <v>0.44415874998567501</v>
+      </c>
+      <c r="J17">
+        <v>0.490452588044683</v>
+      </c>
+      <c r="K17">
+        <v>0.48038555393653398</v>
+      </c>
+      <c r="L17">
+        <v>0.482634554574846</v>
+      </c>
+      <c r="M17">
+        <v>0.48198431663246499</v>
+      </c>
+      <c r="N17">
+        <v>0.468442456351778</v>
+      </c>
+      <c r="O17">
+        <v>0.44248168428045798</v>
+      </c>
+      <c r="P17">
+        <v>0.41322759094886802</v>
+      </c>
+      <c r="Q17">
+        <v>0.38263397751755002</v>
+      </c>
+      <c r="R17">
+        <v>0.35383183932712398</v>
+      </c>
+      <c r="S17">
+        <v>0.338404628672277</v>
+      </c>
+      <c r="T17">
+        <v>0.31625099490851399</v>
+      </c>
+      <c r="U17">
+        <v>0.285564794946498</v>
+      </c>
+      <c r="V17">
+        <v>0.25500873909900301</v>
+      </c>
+      <c r="W17">
+        <v>0.23081758091719801</v>
+      </c>
+      <c r="X17">
+        <v>0.21146694699352001</v>
+      </c>
+      <c r="Y17">
+        <v>0.19565593828250799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.10359026556861201</v>
+      </c>
+      <c r="D18">
+        <v>0.21783502252252199</v>
+      </c>
+      <c r="E18">
+        <v>0.35147947387849399</v>
+      </c>
+      <c r="F18">
+        <v>0.38512753681068601</v>
+      </c>
+      <c r="G18">
+        <v>0.40034001387306101</v>
+      </c>
+      <c r="H18">
+        <v>0.397805538977692</v>
+      </c>
+      <c r="I18">
+        <v>0.40214981441347097</v>
+      </c>
+      <c r="J18">
+        <v>0.43040970959498798</v>
+      </c>
+      <c r="K18">
+        <v>0.42199788449846098</v>
+      </c>
+      <c r="L18">
+        <v>0.42590942822677602</v>
+      </c>
+      <c r="M18">
+        <v>0.42294017437001702</v>
+      </c>
+      <c r="N18">
+        <v>0.38299584543840998</v>
+      </c>
+      <c r="O18">
+        <v>0.38306710362690699</v>
+      </c>
+      <c r="P18">
+        <v>0.36885607755226202</v>
+      </c>
+      <c r="Q18">
+        <v>0.34264522395719699</v>
+      </c>
+      <c r="R18">
+        <v>0.33652249683846702</v>
+      </c>
+      <c r="S18">
+        <v>0.32801742647301702</v>
+      </c>
+      <c r="T18">
+        <v>0.30653685078270099</v>
+      </c>
+      <c r="U18">
+        <v>0.27170872815731201</v>
+      </c>
+      <c r="V18">
+        <v>0.24487170154653201</v>
+      </c>
+      <c r="W18">
+        <v>0.222608557916257</v>
+      </c>
+      <c r="X18">
+        <v>0.20534744995926299</v>
+      </c>
+      <c r="Y18">
+        <v>0.185981777606371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.13006677325308</v>
+      </c>
+      <c r="D19">
+        <v>0.246404857437062</v>
+      </c>
+      <c r="E19">
+        <v>0.35830329179558501</v>
+      </c>
+      <c r="F19">
+        <v>0.37736048531225602</v>
+      </c>
+      <c r="G19">
+        <v>0.364286237242469</v>
+      </c>
+      <c r="H19">
+        <v>0.35539378527190302</v>
+      </c>
+      <c r="I19">
+        <v>0.39599741960559898</v>
+      </c>
+      <c r="J19">
+        <v>0.40667468082959302</v>
+      </c>
+      <c r="K19">
+        <v>0.412680044774902</v>
+      </c>
+      <c r="L19">
+        <v>0.43725604632584503</v>
+      </c>
+      <c r="M19">
+        <v>0.44224697691321102</v>
+      </c>
+      <c r="N19">
+        <v>0.43330234182148802</v>
+      </c>
+      <c r="O19">
+        <v>0.42514315533623498</v>
+      </c>
+      <c r="P19">
+        <v>0.40618359073958399</v>
+      </c>
+      <c r="Q19">
+        <v>0.37960893265207002</v>
+      </c>
+      <c r="R19">
+        <v>0.34764411514606097</v>
+      </c>
+      <c r="S19">
+        <v>0.33660633819700603</v>
+      </c>
+      <c r="T19">
+        <v>0.32867540269552098</v>
+      </c>
+      <c r="U19">
+        <v>0.306403118095183</v>
+      </c>
+      <c r="V19">
+        <v>0.28086722066977499</v>
+      </c>
+      <c r="W19">
+        <v>0.261819879278399</v>
+      </c>
+      <c r="X19">
+        <v>0.243196399570553</v>
+      </c>
+      <c r="Y19">
+        <v>0.223481642102517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14200341491178101</v>
+      </c>
+      <c r="D20">
+        <v>0.27106379139222198</v>
+      </c>
+      <c r="E20">
+        <v>0.34330821738968198</v>
+      </c>
+      <c r="F20">
+        <v>0.37822764203132297</v>
+      </c>
+      <c r="G20">
+        <v>0.37804004664018898</v>
+      </c>
+      <c r="H20">
+        <v>0.36002313413970799</v>
+      </c>
+      <c r="I20">
+        <v>0.37329547801224899</v>
+      </c>
+      <c r="J20">
+        <v>0.35771276849573602</v>
+      </c>
+      <c r="K20">
+        <v>0.351980443663995</v>
+      </c>
+      <c r="L20">
+        <v>0.37665732609723201</v>
+      </c>
+      <c r="M20">
+        <v>0.397780116022459</v>
+      </c>
+      <c r="N20">
+        <v>0.39598871314714601</v>
+      </c>
+      <c r="O20">
+        <v>0.37882720535691899</v>
+      </c>
+      <c r="P20">
+        <v>0.34389600311355101</v>
+      </c>
+      <c r="Q20">
+        <v>0.30831214526534101</v>
+      </c>
+      <c r="R20">
+        <v>0.29297982228671099</v>
+      </c>
+      <c r="S20">
+        <v>0.27765910516446601</v>
+      </c>
+      <c r="T20">
+        <v>0.24990879109656899</v>
+      </c>
+      <c r="U20">
+        <v>0.22001945439467999</v>
+      </c>
+      <c r="V20">
+        <v>0.20057202048202299</v>
+      </c>
+      <c r="W20">
+        <v>0.181921828710706</v>
+      </c>
+      <c r="X20">
+        <v>0.167673864303715</v>
+      </c>
+      <c r="Y20">
+        <v>0.153640312633716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43421</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0.12298668652825601</v>
+      </c>
+      <c r="D21">
+        <v>0.22399374076327899</v>
+      </c>
+      <c r="E21">
+        <v>0.30614840860977</v>
+      </c>
+      <c r="F21">
+        <v>0.39989905015371902</v>
+      </c>
+      <c r="G21">
+        <v>0.39450837211390199</v>
+      </c>
+      <c r="H21">
+        <v>0.37015621320960801</v>
+      </c>
+      <c r="I21">
+        <v>0.38582603450743103</v>
+      </c>
+      <c r="J21">
+        <v>0.423569147666081</v>
+      </c>
+      <c r="K21">
+        <v>0.452359292895544</v>
+      </c>
+      <c r="L21">
+        <v>0.48292960243237498</v>
+      </c>
+      <c r="M21">
+        <v>0.467065499668958</v>
+      </c>
+      <c r="N21">
+        <v>0.44207300375230102</v>
+      </c>
+      <c r="O21">
+        <v>0.41079774688397103</v>
+      </c>
+      <c r="P21">
+        <v>0.38790590983483503</v>
+      </c>
+      <c r="Q21">
+        <v>0.33856410206620002</v>
+      </c>
+      <c r="R21">
+        <v>0.305360378857916</v>
+      </c>
+      <c r="S21">
+        <v>0.28380700600731801</v>
+      </c>
+      <c r="T21">
+        <v>0.26143586025238402</v>
+      </c>
+      <c r="U21">
+        <v>0.224429815734462</v>
+      </c>
+      <c r="V21">
+        <v>0.20440865825444701</v>
+      </c>
+      <c r="W21">
+        <v>0.190898059510035</v>
+      </c>
+      <c r="X21">
+        <v>0.17808416289474699</v>
+      </c>
+      <c r="Y21">
+        <v>0.160632600896043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>8.1563213921158798E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.147073131182098</v>
+      </c>
+      <c r="E22">
+        <v>0.28884074267065202</v>
+      </c>
+      <c r="F22">
+        <v>0.29771685761047401</v>
+      </c>
+      <c r="G22">
+        <v>0.36558134507822398</v>
+      </c>
+      <c r="H22">
+        <v>0.40180598612546298</v>
+      </c>
+      <c r="I22">
+        <v>0.42177098066033503</v>
+      </c>
+      <c r="J22">
+        <v>0.416987558006092</v>
+      </c>
+      <c r="K22">
+        <v>0.42929839249594498</v>
+      </c>
+      <c r="L22">
+        <v>0.42368634849019499</v>
+      </c>
+      <c r="M22">
+        <v>0.43724076779471299</v>
+      </c>
+      <c r="N22">
+        <v>0.48886113187097802</v>
+      </c>
+      <c r="O22">
+        <v>0.53497209051425498</v>
+      </c>
+      <c r="P22">
+        <v>0.56613771021537196</v>
+      </c>
+      <c r="Q22">
+        <v>0.58454357866271101</v>
+      </c>
+      <c r="R22">
+        <v>0.56896325747972898</v>
+      </c>
+      <c r="S22">
+        <v>0.545730566223255</v>
+      </c>
+      <c r="T22">
+        <v>0.51015660036398602</v>
+      </c>
+      <c r="U22">
+        <v>0.49452274679820801</v>
+      </c>
+      <c r="V22">
+        <v>0.48623104407154999</v>
+      </c>
+      <c r="W22">
+        <v>0.48010078187037603</v>
+      </c>
+      <c r="X22">
+        <v>0.48594566311475001</v>
+      </c>
+      <c r="Y22">
+        <v>0.46936173857250901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.12914345075077899</v>
+      </c>
+      <c r="D23">
+        <v>0.26724675992216401</v>
+      </c>
+      <c r="E23">
+        <v>0.38240126695040999</v>
+      </c>
+      <c r="F23">
+        <v>0.44460618265594798</v>
+      </c>
+      <c r="G23">
+        <v>0.498069150125663</v>
+      </c>
+      <c r="H23">
+        <v>0.519060818089914</v>
+      </c>
+      <c r="I23">
+        <v>0.53660284382156398</v>
+      </c>
+      <c r="J23">
+        <v>0.49534137659070998</v>
+      </c>
+      <c r="K23">
+        <v>0.47428745957259399</v>
+      </c>
+      <c r="L23">
+        <v>0.47367621629200302</v>
+      </c>
+      <c r="M23">
+        <v>0.46567432094588002</v>
+      </c>
+      <c r="N23">
+        <v>0.45263964145234498</v>
+      </c>
+      <c r="O23">
+        <v>0.431191698041891</v>
+      </c>
+      <c r="P23">
+        <v>0.415562060893642</v>
+      </c>
+      <c r="Q23">
+        <v>0.40245917027003603</v>
+      </c>
+      <c r="R23">
+        <v>0.367648481566208</v>
+      </c>
+      <c r="S23">
+        <v>0.35701419103330201</v>
+      </c>
+      <c r="T23">
+        <v>0.351168555448852</v>
+      </c>
+      <c r="U23">
+        <v>0.326248899870003</v>
+      </c>
+      <c r="V23">
+        <v>0.30245352485805499</v>
+      </c>
+      <c r="W23">
+        <v>0.28615385336409399</v>
+      </c>
+      <c r="X23">
+        <v>0.26559006510357303</v>
+      </c>
+      <c r="Y23">
+        <v>0.25083773713039198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0.141074257188115</v>
+      </c>
+      <c r="D24">
+        <v>0.26176046709286399</v>
+      </c>
+      <c r="E24">
+        <v>0.37954162656400298</v>
+      </c>
+      <c r="F24">
+        <v>0.41189147522473601</v>
+      </c>
+      <c r="G24">
+        <v>0.42635355428336702</v>
+      </c>
+      <c r="H24">
+        <v>0.42227291753871898</v>
+      </c>
+      <c r="I24">
+        <v>0.45447283178577302</v>
+      </c>
+      <c r="J24">
+        <v>0.43416909657346697</v>
+      </c>
+      <c r="K24">
+        <v>0.43638112470983698</v>
+      </c>
+      <c r="L24">
+        <v>0.45778365172320901</v>
+      </c>
+      <c r="M24">
+        <v>0.45329628651397202</v>
+      </c>
+      <c r="N24">
+        <v>0.42313899856687998</v>
+      </c>
+      <c r="O24">
+        <v>0.42066783552132803</v>
+      </c>
+      <c r="P24">
+        <v>0.40422482767903301</v>
+      </c>
+      <c r="Q24">
+        <v>0.3834107268411</v>
+      </c>
+      <c r="R24">
+        <v>0.35199694020092698</v>
+      </c>
+      <c r="S24">
+        <v>0.33889171790032302</v>
+      </c>
+      <c r="T24">
+        <v>0.32108282059253801</v>
+      </c>
+      <c r="U24">
+        <v>0.29997937849015999</v>
+      </c>
+      <c r="V24">
+        <v>0.27801630993254101</v>
+      </c>
+      <c r="W24">
+        <v>0.25701822584676498</v>
+      </c>
+      <c r="X24">
+        <v>0.236687795387892</v>
+      </c>
+      <c r="Y24">
+        <v>0.21275633928849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.13989932567195301</v>
+      </c>
+      <c r="D25">
+        <v>0.25060075523515202</v>
+      </c>
+      <c r="E25">
+        <v>0.30108896150712999</v>
+      </c>
+      <c r="F25">
+        <v>0.34345477354770898</v>
+      </c>
+      <c r="G25">
+        <v>0.36504145816052702</v>
+      </c>
+      <c r="H25">
+        <v>0.36665929264718</v>
+      </c>
+      <c r="I25">
+        <v>0.40943532968436103</v>
+      </c>
+      <c r="J25">
+        <v>0.43422767266372297</v>
+      </c>
+      <c r="K25">
+        <v>0.464024935426187</v>
+      </c>
+      <c r="L25">
+        <v>0.466433473737347</v>
+      </c>
+      <c r="M25">
+        <v>0.464362938748969</v>
+      </c>
+      <c r="N25">
+        <v>0.43535048842738</v>
+      </c>
+      <c r="O25">
+        <v>0.40428446353395098</v>
+      </c>
+      <c r="P25">
+        <v>0.39325172040002199</v>
+      </c>
+      <c r="Q25">
+        <v>0.37660052564286201</v>
+      </c>
+      <c r="R25">
+        <v>0.355679426972908</v>
+      </c>
+      <c r="S25">
+        <v>0.35421330507756899</v>
+      </c>
+      <c r="T25">
+        <v>0.33009875358572999</v>
+      </c>
+      <c r="U25">
+        <v>0.307848899863575</v>
+      </c>
+      <c r="V25">
+        <v>0.28187934191865999</v>
+      </c>
+      <c r="W25">
+        <v>0.26507229794305398</v>
+      </c>
+      <c r="X25">
+        <v>0.24489557116812199</v>
+      </c>
+      <c r="Y25">
+        <v>0.22788070099617999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0.11754335810939499</v>
+      </c>
+      <c r="D26">
+        <v>0.200531671097259</v>
+      </c>
+      <c r="E26">
+        <v>0.317849430958764</v>
+      </c>
+      <c r="F26">
+        <v>0.38075006804814199</v>
+      </c>
+      <c r="G26">
+        <v>0.42301943198804098</v>
+      </c>
+      <c r="H26">
+        <v>0.40640271221512902</v>
+      </c>
+      <c r="I26">
+        <v>0.45060849290295901</v>
+      </c>
+      <c r="J26">
+        <v>0.50692673623101403</v>
+      </c>
+      <c r="K26">
+        <v>0.56450941704380597</v>
+      </c>
+      <c r="L26">
+        <v>0.63486395178749899</v>
+      </c>
+      <c r="M26">
+        <v>0.65211741534789203</v>
+      </c>
+      <c r="N26">
+        <v>0.63382185472830999</v>
+      </c>
+      <c r="O26">
+        <v>0.61620663625908401</v>
+      </c>
+      <c r="P26">
+        <v>0.58006244699714704</v>
+      </c>
+      <c r="Q26">
+        <v>0.55906998413431896</v>
+      </c>
+      <c r="R26">
+        <v>0.52187553937207298</v>
+      </c>
+      <c r="S26">
+        <v>0.50717643288888503</v>
+      </c>
+      <c r="T26">
+        <v>0.49138235548690101</v>
+      </c>
+      <c r="U26">
+        <v>0.47331130664492099</v>
+      </c>
+      <c r="V26">
+        <v>0.43990846408072198</v>
+      </c>
+      <c r="W26">
+        <v>0.41626766254349901</v>
+      </c>
+      <c r="X26">
+        <v>0.39703694653563498</v>
+      </c>
+      <c r="Y26">
+        <v>0.38134674247431899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0.11081819489047499</v>
+      </c>
+      <c r="D27">
+        <v>0.201701617286032</v>
+      </c>
+      <c r="E27">
+        <v>0.30624672813324599</v>
+      </c>
+      <c r="F27">
+        <v>0.30847256756442698</v>
+      </c>
+      <c r="G27">
+        <v>0.33312936382736302</v>
+      </c>
+      <c r="H27">
+        <v>0.33167031164570798</v>
+      </c>
+      <c r="I27">
+        <v>0.355321622447069</v>
+      </c>
+      <c r="J27">
+        <v>0.338864362212627</v>
+      </c>
+      <c r="K27">
+        <v>0.335137214870454</v>
+      </c>
+      <c r="L27">
+        <v>0.350007754701117</v>
+      </c>
+      <c r="M27">
+        <v>0.35425317723023497</v>
+      </c>
+      <c r="N27">
+        <v>0.34421651705912398</v>
+      </c>
+      <c r="O27">
+        <v>0.34301538432270201</v>
+      </c>
+      <c r="P27">
+        <v>0.35129388331626399</v>
+      </c>
+      <c r="Q27">
+        <v>0.354531226866663</v>
+      </c>
+      <c r="R27">
+        <v>0.33419720460652702</v>
+      </c>
+      <c r="S27">
+        <v>0.35368951920198899</v>
+      </c>
+      <c r="T27">
+        <v>0.33780784763563498</v>
+      </c>
+      <c r="U27">
+        <v>0.32561736042332301</v>
+      </c>
+      <c r="V27">
+        <v>0.30849820688281898</v>
+      </c>
+      <c r="W27">
+        <v>0.293259938539914</v>
+      </c>
+      <c r="X27">
+        <v>0.28727643068596198</v>
+      </c>
+      <c r="Y27">
+        <v>0.27830879563185401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>0.13466766663541699</v>
+      </c>
+      <c r="D28">
+        <v>0.27347438993619999</v>
+      </c>
+      <c r="E28">
+        <v>0.38259749054722603</v>
+      </c>
+      <c r="F28">
+        <v>0.40546885649805298</v>
+      </c>
+      <c r="G28">
+        <v>0.44061853843874899</v>
+      </c>
+      <c r="H28">
+        <v>0.44701567778398099</v>
+      </c>
+      <c r="I28">
+        <v>0.46306648938767597</v>
+      </c>
+      <c r="J28">
+        <v>0.44517572146944601</v>
+      </c>
+      <c r="K28">
+        <v>0.47665995437680703</v>
+      </c>
+      <c r="L28">
+        <v>0.510620105161116</v>
+      </c>
+      <c r="M28">
+        <v>0.52068200345286997</v>
+      </c>
+      <c r="N28">
+        <v>0.52249641068783204</v>
+      </c>
+      <c r="O28">
+        <v>0.51192927939994604</v>
+      </c>
+      <c r="P28">
+        <v>0.49432782815028897</v>
+      </c>
+      <c r="Q28">
+        <v>0.44369515487035599</v>
+      </c>
+      <c r="R28">
+        <v>0.40677994671050499</v>
+      </c>
+      <c r="S28">
+        <v>0.383183609983893</v>
+      </c>
+      <c r="T28">
+        <v>0.36380334876853299</v>
+      </c>
+      <c r="U28">
+        <v>0.33861067390070698</v>
+      </c>
+      <c r="V28">
+        <v>0.30211118803548498</v>
+      </c>
+      <c r="W28">
+        <v>0.26617927927539098</v>
+      </c>
+      <c r="X28">
+        <v>0.235045834231458</v>
+      </c>
+      <c r="Y28">
+        <v>0.205284585525045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43358</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.13896085543360401</v>
+      </c>
+      <c r="D29">
+        <v>0.236993103932337</v>
+      </c>
+      <c r="E29">
+        <v>0.31571267732492603</v>
+      </c>
+      <c r="F29">
+        <v>0.34508168433536901</v>
+      </c>
+      <c r="G29">
+        <v>0.37953322104568799</v>
+      </c>
+      <c r="H29">
+        <v>0.37381652350844002</v>
+      </c>
+      <c r="I29">
+        <v>0.41163481378750399</v>
+      </c>
+      <c r="J29">
+        <v>0.45618247055906103</v>
+      </c>
+      <c r="K29">
+        <v>0.475078640665684</v>
+      </c>
+      <c r="L29">
+        <v>0.50343695988784798</v>
+      </c>
+      <c r="M29">
+        <v>0.51000183862749904</v>
+      </c>
+      <c r="N29">
+        <v>0.49543485008177002</v>
+      </c>
+      <c r="O29">
+        <v>0.47407000074206701</v>
+      </c>
+      <c r="P29">
+        <v>0.443965359505825</v>
+      </c>
+      <c r="Q29">
+        <v>0.42066728522837599</v>
+      </c>
+      <c r="R29">
+        <v>0.39169151961135501</v>
+      </c>
+      <c r="S29">
+        <v>0.37381309719494898</v>
+      </c>
+      <c r="T29">
+        <v>0.337340893667679</v>
+      </c>
+      <c r="U29">
+        <v>0.299872554309837</v>
+      </c>
+      <c r="V29">
+        <v>0.253167098744286</v>
+      </c>
+      <c r="W29">
+        <v>0.224916962997113</v>
+      </c>
+      <c r="X29">
+        <v>0.20201994460620101</v>
+      </c>
+      <c r="Y29">
+        <v>0.18255974097398101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.145286155307527</v>
+      </c>
+      <c r="D30">
+        <v>0.27503009081956398</v>
+      </c>
+      <c r="E30">
+        <v>0.38249658323059099</v>
+      </c>
+      <c r="F30">
+        <v>0.39291329681735498</v>
+      </c>
+      <c r="G30">
+        <v>0.393431235147157</v>
+      </c>
+      <c r="H30">
+        <v>0.42324598634056898</v>
+      </c>
+      <c r="I30">
+        <v>0.464457922778303</v>
+      </c>
+      <c r="J30">
+        <v>0.45212078842200798</v>
+      </c>
+      <c r="K30">
+        <v>0.47290425030591199</v>
+      </c>
+      <c r="L30">
+        <v>0.53110803921319905</v>
+      </c>
+      <c r="M30">
+        <v>0.54657616981142698</v>
+      </c>
+      <c r="N30">
+        <v>0.55143352223378295</v>
+      </c>
+      <c r="O30">
+        <v>0.53724858138201104</v>
+      </c>
+      <c r="P30">
+        <v>0.50495647352672601</v>
+      </c>
+      <c r="Q30">
+        <v>0.469241217884659</v>
+      </c>
+      <c r="R30">
+        <v>0.438725497708777</v>
+      </c>
+      <c r="S30">
+        <v>0.41570873440834699</v>
+      </c>
+      <c r="T30">
+        <v>0.39085716062009701</v>
+      </c>
+      <c r="U30">
+        <v>0.34558693564109999</v>
+      </c>
+      <c r="V30">
+        <v>0.300379053130021</v>
+      </c>
+      <c r="W30">
+        <v>0.264709590854109</v>
+      </c>
+      <c r="X30">
+        <v>0.23505156240549799</v>
+      </c>
+      <c r="Y30">
+        <v>0.207652513639495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.11910762624848301</v>
+      </c>
+      <c r="D31">
+        <v>0.22002669757965301</v>
+      </c>
+      <c r="E31">
+        <v>0.34084453880632198</v>
+      </c>
+      <c r="F31">
+        <v>0.39082089474722898</v>
+      </c>
+      <c r="G31">
+        <v>0.44189871444523199</v>
+      </c>
+      <c r="H31">
+        <v>0.47211059110794501</v>
+      </c>
+      <c r="I31">
+        <v>0.51757300934321904</v>
+      </c>
+      <c r="J31">
+        <v>0.53361904343817901</v>
+      </c>
+      <c r="K31">
+        <v>0.54139128615771803</v>
+      </c>
+      <c r="L31">
+        <v>0.57730632417782002</v>
+      </c>
+      <c r="M31">
+        <v>0.595171354705329</v>
+      </c>
+      <c r="N31">
+        <v>0.59831114178042499</v>
+      </c>
+      <c r="O31">
+        <v>0.55705284028768498</v>
+      </c>
+      <c r="P31">
+        <v>0.53609790744686603</v>
+      </c>
+      <c r="Q31">
+        <v>0.50904638824649695</v>
+      </c>
+      <c r="R31">
+        <v>0.49367164706257999</v>
+      </c>
+      <c r="S31">
+        <v>0.46526284431145698</v>
+      </c>
+      <c r="T31">
+        <v>0.41767066052852297</v>
+      </c>
+      <c r="U31">
+        <v>0.38362434810514801</v>
+      </c>
+      <c r="V31">
+        <v>0.33950566857412201</v>
+      </c>
+      <c r="W31">
+        <v>0.310617971973285</v>
+      </c>
+      <c r="X31">
+        <v>0.27594286520470801</v>
+      </c>
+      <c r="Y31">
+        <v>0.23865243712807299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.129846413185989</v>
+      </c>
+      <c r="D32">
+        <v>0.249973302958032</v>
+      </c>
+      <c r="E32">
+        <v>0.36405865913955299</v>
+      </c>
+      <c r="F32">
+        <v>0.38432871380491601</v>
+      </c>
+      <c r="G32">
+        <v>0.42055194240919103</v>
+      </c>
+      <c r="H32">
+        <v>0.42130995886023398</v>
+      </c>
+      <c r="I32">
+        <v>0.42345487457977699</v>
+      </c>
+      <c r="J32">
+        <v>0.442990444501494</v>
+      </c>
+      <c r="K32">
+        <v>0.46538725259117297</v>
+      </c>
+      <c r="L32">
+        <v>0.51463005593691702</v>
+      </c>
+      <c r="M32">
+        <v>0.54630126116655198</v>
+      </c>
+      <c r="N32">
+        <v>0.54949732080996505</v>
+      </c>
+      <c r="O32">
+        <v>0.52521371063032296</v>
+      </c>
+      <c r="P32">
+        <v>0.50253229075356798</v>
+      </c>
+      <c r="Q32">
+        <v>0.46678906430116102</v>
+      </c>
+      <c r="R32">
+        <v>0.42760577820164303</v>
+      </c>
+      <c r="S32">
+        <v>0.40993947800622299</v>
+      </c>
+      <c r="T32">
+        <v>0.37984564239373397</v>
+      </c>
+      <c r="U32">
+        <v>0.34184183866033602</v>
+      </c>
+      <c r="V32">
+        <v>0.30600539842496499</v>
+      </c>
+      <c r="W32">
+        <v>0.27949195064086202</v>
+      </c>
+      <c r="X32">
+        <v>0.25940024729940597</v>
+      </c>
+      <c r="Y32">
+        <v>0.22967661746166201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.13415781058967299</v>
+      </c>
+      <c r="D33">
+        <v>0.24478208575067201</v>
+      </c>
+      <c r="E33">
+        <v>0.32278590166017601</v>
+      </c>
+      <c r="F33">
+        <v>0.34949341686652602</v>
+      </c>
+      <c r="G33">
+        <v>0.38602596508716303</v>
+      </c>
+      <c r="H33">
+        <v>0.41956464161892298</v>
+      </c>
+      <c r="I33">
+        <v>0.46174936029720998</v>
+      </c>
+      <c r="J33">
+        <v>0.472124978525231</v>
+      </c>
+      <c r="K33">
+        <v>0.48395643465975202</v>
+      </c>
+      <c r="L33">
+        <v>0.51256757712013101</v>
+      </c>
+      <c r="M33">
+        <v>0.52236548711609598</v>
+      </c>
+      <c r="N33">
+        <v>0.51059763660102497</v>
+      </c>
+      <c r="O33">
+        <v>0.466185338407614</v>
+      </c>
+      <c r="P33">
+        <v>0.42782473795737402</v>
+      </c>
+      <c r="Q33">
+        <v>0.39326630149080799</v>
+      </c>
+      <c r="R33">
+        <v>0.36361449009938901</v>
+      </c>
+      <c r="S33">
+        <v>0.34559954892095401</v>
+      </c>
+      <c r="T33">
+        <v>0.314069730424203</v>
+      </c>
+      <c r="U33">
+        <v>0.27493267369399299</v>
+      </c>
+      <c r="V33">
+        <v>0.24230100151134601</v>
+      </c>
+      <c r="W33">
+        <v>0.21112553701754599</v>
+      </c>
+      <c r="X33">
+        <v>0.19097199122343</v>
+      </c>
+      <c r="Y33">
+        <v>0.17478639402545201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43421</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.14363412788497901</v>
+      </c>
+      <c r="D34">
+        <v>0.23691817178494401</v>
+      </c>
+      <c r="E34">
+        <v>0.34377320097890901</v>
+      </c>
+      <c r="F34">
+        <v>0.39006981923238898</v>
+      </c>
+      <c r="G34">
+        <v>0.42116562652349898</v>
+      </c>
+      <c r="H34">
+        <v>0.43827079967487098</v>
+      </c>
+      <c r="I34">
+        <v>0.47494964788831801</v>
+      </c>
+      <c r="J34">
+        <v>0.48204441684964799</v>
+      </c>
+      <c r="K34">
+        <v>0.50137836190595197</v>
+      </c>
+      <c r="L34">
+        <v>0.52625386231615301</v>
+      </c>
+      <c r="M34">
+        <v>0.53549247317424897</v>
+      </c>
+      <c r="N34">
+        <v>0.51926614305914098</v>
+      </c>
+      <c r="O34">
+        <v>0.49184844170147202</v>
+      </c>
+      <c r="P34">
+        <v>0.46056673634013501</v>
+      </c>
+      <c r="Q34">
+        <v>0.42604519616191799</v>
+      </c>
+      <c r="R34">
+        <v>0.40271571198497602</v>
+      </c>
+      <c r="S34">
+        <v>0.37760753339448799</v>
+      </c>
+      <c r="T34">
+        <v>0.333383565459551</v>
+      </c>
+      <c r="U34">
+        <v>0.30740930763915902</v>
+      </c>
+      <c r="V34">
+        <v>0.28093594725536702</v>
+      </c>
+      <c r="W34">
+        <v>0.25135578101480899</v>
+      </c>
+      <c r="X34">
+        <v>0.22470614154024199</v>
+      </c>
+      <c r="Y34">
+        <v>0.20156070663311301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1.8389709385421601E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.5933360459333598E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.12595840089684299</v>
+      </c>
+      <c r="F35">
+        <v>0.15525263370835399</v>
+      </c>
+      <c r="G35">
+        <v>0.19747218057942301</v>
+      </c>
+      <c r="H35">
+        <v>0.20084611610490299</v>
+      </c>
+      <c r="I35">
+        <v>0.17853153387335799</v>
+      </c>
+      <c r="J35">
+        <v>0.161197816136326</v>
+      </c>
+      <c r="K35">
+        <v>0.15430214734329001</v>
+      </c>
+      <c r="L35">
+        <v>9.7216678689520997E-2</v>
+      </c>
+      <c r="M35">
+        <v>0.13418662906591799</v>
+      </c>
+      <c r="N35">
+        <v>0.169054561034998</v>
+      </c>
+      <c r="O35">
+        <v>0.13229401097319299</v>
+      </c>
+      <c r="P35">
+        <v>0.15971178970901201</v>
+      </c>
+      <c r="Q35">
+        <v>0.16364528312235099</v>
+      </c>
+      <c r="R35">
+        <v>0.17467990921662899</v>
+      </c>
+      <c r="S35">
+        <v>0.17378674095840499</v>
+      </c>
+      <c r="T35">
+        <v>0.18106844581850901</v>
+      </c>
+      <c r="U35">
+        <v>0.14771181135881301</v>
+      </c>
+      <c r="V35">
+        <v>0.142506673123692</v>
+      </c>
+      <c r="W35">
+        <v>0.149764042798532</v>
+      </c>
+      <c r="X35">
+        <v>0.14322572806551401</v>
+      </c>
+      <c r="Y35">
+        <v>0.15180634568425799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0.15902703750363401</v>
+      </c>
+      <c r="D36">
+        <v>0.29109505489349702</v>
+      </c>
+      <c r="E36">
+        <v>0.42561801436313501</v>
+      </c>
+      <c r="F36">
+        <v>0.41492845312118098</v>
+      </c>
+      <c r="G36">
+        <v>0.43867981067956402</v>
+      </c>
+      <c r="H36">
+        <v>0.42576443385211099</v>
+      </c>
+      <c r="I36">
+        <v>0.48445592417480798</v>
+      </c>
+      <c r="J36">
+        <v>0.49800414465804399</v>
+      </c>
+      <c r="K36">
+        <v>0.47545823487633299</v>
+      </c>
+      <c r="L36">
+        <v>0.47425774439958301</v>
+      </c>
+      <c r="M36">
+        <v>0.49249267141136899</v>
+      </c>
+      <c r="N36">
+        <v>0.491080571115945</v>
+      </c>
+      <c r="O36">
+        <v>0.47557276517702302</v>
+      </c>
+      <c r="P36">
+        <v>0.47440660992441203</v>
+      </c>
+      <c r="Q36">
+        <v>0.45786297154008598</v>
+      </c>
+      <c r="R36">
+        <v>0.43715709952674903</v>
+      </c>
+      <c r="S36">
+        <v>0.423833518275187</v>
+      </c>
+      <c r="T36">
+        <v>0.40175461242099297</v>
+      </c>
+      <c r="U36">
+        <v>0.36869683998125002</v>
+      </c>
+      <c r="V36">
+        <v>0.316044028883949</v>
+      </c>
+      <c r="W36">
+        <v>0.29047822846237598</v>
+      </c>
+      <c r="X36">
+        <v>0.26325409113550102</v>
+      </c>
+      <c r="Y36">
+        <v>0.23145798902258599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.14122974261201099</v>
+      </c>
+      <c r="D37">
+        <v>0.26137146170852799</v>
+      </c>
+      <c r="E37">
+        <v>0.36971145506061898</v>
+      </c>
+      <c r="F37">
+        <v>0.40209781013450602</v>
+      </c>
+      <c r="G37">
+        <v>0.40543965624610701</v>
+      </c>
+      <c r="H37">
+        <v>0.38960271925172302</v>
+      </c>
+      <c r="I37">
+        <v>0.42071806254219302</v>
+      </c>
+      <c r="J37">
+        <v>0.40936258103147799</v>
+      </c>
+      <c r="K37">
+        <v>0.39751794611243302</v>
+      </c>
+      <c r="L37">
+        <v>0.38969645547222698</v>
+      </c>
+      <c r="M37">
+        <v>0.38099970787939103</v>
+      </c>
+      <c r="N37">
+        <v>0.35623111657577899</v>
+      </c>
+      <c r="O37">
+        <v>0.34872747346999</v>
+      </c>
+      <c r="P37">
+        <v>0.33645649138447598</v>
+      </c>
+      <c r="Q37">
+        <v>0.323018584679999</v>
+      </c>
+      <c r="R37">
+        <v>0.30595434027669299</v>
+      </c>
+      <c r="S37">
+        <v>0.30273890831250899</v>
+      </c>
+      <c r="T37">
+        <v>0.288196894012682</v>
+      </c>
+      <c r="U37">
+        <v>0.28168431165546198</v>
+      </c>
+      <c r="V37">
+        <v>0.25877754269140002</v>
+      </c>
+      <c r="W37">
+        <v>0.24239502728272999</v>
+      </c>
+      <c r="X37">
+        <v>0.22669025398173701</v>
+      </c>
+      <c r="Y37">
+        <v>0.205180430938502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.14239742558326601</v>
+      </c>
+      <c r="D38">
+        <v>0.26522376445465801</v>
+      </c>
+      <c r="E38">
+        <v>0.38390470880039901</v>
+      </c>
+      <c r="F38">
+        <v>0.41644174479971902</v>
+      </c>
+      <c r="G38">
+        <v>0.445552643116919</v>
+      </c>
+      <c r="H38">
+        <v>0.44651921041523202</v>
+      </c>
+      <c r="I38">
+        <v>0.46391641363399</v>
+      </c>
+      <c r="J38">
+        <v>0.47086829832555699</v>
+      </c>
+      <c r="K38">
+        <v>0.47358748398433997</v>
+      </c>
+      <c r="L38">
+        <v>0.46023119318676198</v>
+      </c>
+      <c r="M38">
+        <v>0.46676332834880302</v>
+      </c>
+      <c r="N38">
+        <v>0.43904479799676299</v>
+      </c>
+      <c r="O38">
+        <v>0.42771529528704</v>
+      </c>
+      <c r="P38">
+        <v>0.41177172342608498</v>
+      </c>
+      <c r="Q38">
+        <v>0.37955497430478602</v>
+      </c>
+      <c r="R38">
+        <v>0.354063933535532</v>
+      </c>
+      <c r="S38">
+        <v>0.35560935363049201</v>
+      </c>
+      <c r="T38">
+        <v>0.34734029148485202</v>
+      </c>
+      <c r="U38">
+        <v>0.31951981050818201</v>
+      </c>
+      <c r="V38">
+        <v>0.29087908023472497</v>
+      </c>
+      <c r="W38">
+        <v>0.25619053894793697</v>
+      </c>
+      <c r="X38">
+        <v>0.23156002494803901</v>
+      </c>
+      <c r="Y38">
+        <v>0.204392289051533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.13374250642306501</v>
+      </c>
+      <c r="D39">
+        <v>0.279660857631643</v>
+      </c>
+      <c r="E39">
+        <v>0.50420204849864303</v>
+      </c>
+      <c r="F39">
+        <v>0.50031646311446498</v>
+      </c>
+      <c r="G39">
+        <v>0.51805493084448395</v>
+      </c>
+      <c r="H39">
+        <v>0.48655262258380699</v>
+      </c>
+      <c r="I39">
+        <v>0.50475500535114104</v>
+      </c>
+      <c r="J39">
+        <v>0.50979499173049903</v>
+      </c>
+      <c r="K39">
+        <v>0.547075183954009</v>
+      </c>
+      <c r="L39">
+        <v>0.57905745636969996</v>
+      </c>
+      <c r="M39">
+        <v>0.56841384448266097</v>
+      </c>
+      <c r="N39">
+        <v>0.531476177346621</v>
+      </c>
+      <c r="O39">
+        <v>0.52331354301748301</v>
+      </c>
+      <c r="P39">
+        <v>0.49126666214503001</v>
+      </c>
+      <c r="Q39">
+        <v>0.47072221233624201</v>
+      </c>
+      <c r="R39">
+        <v>0.45519779399681898</v>
+      </c>
+      <c r="S39">
+        <v>0.45760953272841998</v>
+      </c>
+      <c r="T39">
+        <v>0.45297868727199903</v>
+      </c>
+      <c r="U39">
+        <v>0.44251309540171901</v>
+      </c>
+      <c r="V39">
+        <v>0.41146046520770702</v>
+      </c>
+      <c r="W39">
+        <v>0.37551168178626798</v>
+      </c>
+      <c r="X39">
+        <v>0.34616864660250901</v>
+      </c>
+      <c r="Y39">
+        <v>0.31159247831394299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.13697833357568701</v>
+      </c>
+      <c r="D40">
+        <v>0.263475447278264</v>
+      </c>
+      <c r="E40">
+        <v>0.42362949780806403</v>
+      </c>
+      <c r="F40">
+        <v>0.40722621714016199</v>
+      </c>
+      <c r="G40">
+        <v>0.40405167843290402</v>
+      </c>
+      <c r="H40">
+        <v>0.40217048916479797</v>
+      </c>
+      <c r="I40">
+        <v>0.44483106934197397</v>
+      </c>
+      <c r="J40">
+        <v>0.45209768169129</v>
+      </c>
+      <c r="K40">
+        <v>0.469536504377987</v>
+      </c>
+      <c r="L40">
+        <v>0.49659980076663002</v>
+      </c>
+      <c r="M40">
+        <v>0.52253525404727696</v>
+      </c>
+      <c r="N40">
+        <v>0.49485512055655101</v>
+      </c>
+      <c r="O40">
+        <v>0.47861341788039902</v>
+      </c>
+      <c r="P40">
+        <v>0.46263082481617801</v>
+      </c>
+      <c r="Q40">
+        <v>0.45343014681434601</v>
+      </c>
+      <c r="R40">
+        <v>0.422632649405349</v>
+      </c>
+      <c r="S40">
+        <v>0.40760402455918299</v>
+      </c>
+      <c r="T40">
+        <v>0.38317337180074001</v>
+      </c>
+      <c r="U40">
+        <v>0.36183384136985702</v>
+      </c>
+      <c r="V40">
+        <v>0.323087404787266</v>
+      </c>
+      <c r="W40">
+        <v>0.29434519388640901</v>
+      </c>
+      <c r="X40">
+        <v>0.28241617093959398</v>
+      </c>
+      <c r="Y40">
+        <v>0.26948334032154703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F734B-C7D2-4779-AAE6-824E33DF8F1F}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.33980348731569998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43337</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0.34517685148004901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.33930418480368901</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43358</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0.36041939225925501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.35012045007197601</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43372</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0.31624942290251201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.34485140541808001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43393</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0.28495857687791798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.33170376947175401</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43400</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0.34083994593771799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.32584395578593101</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43414</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0.33323210723976199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.36270903623294698</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43421</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0.32921506211038898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.35242836901763203</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0.38063720408499502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.39292150170648399</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43736</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0.383231387063378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.33875113621123798</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43750</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0.32427043179773102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.30804525885212702</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43757</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0.29985740254933702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0.321824425520503</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43771</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0.37753271170749803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0.382633968386284</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43778</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0.321824425520503</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f>AVERAGE(C2:C14)</f>
+        <v>0.34545699606110347</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(F2:F14)</f>
+        <v>0.33826499396392651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.45200454828888897</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43337</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0.35844691338555401</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(C15:C28)</f>
+        <v>0.39833273207355979</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(F15:F27)</f>
+        <v>0.39898220142490037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.51327330439852303</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43358</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>0.44531290279338798</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(C29:C42)</f>
+        <v>0.42900525659125321</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(F28:F40)</f>
+        <v>0.41129152078981063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.45136974800240798</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43372</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>0.45175809248373899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.54972002274815102</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43393</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>0.397805538977692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0.31200802019901902</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43400</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>0.35539378527190302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.42677372362232902</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43414</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>0.36002313413970799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0.32811665112087901</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43421</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>0.37015621320960801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>0.40180598612546298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.49997443719218099</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43736</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>0.519060818089914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0.52845106770569705</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43750</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>0.42227291753871898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.51138326759115404</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43757</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>0.36665929264718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0.330133177862794</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43771</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>0.40640271221512902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0.33167031164570798</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43778</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>0.33167031164570798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.34177996865210403</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43337</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>0.44701567778398099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.73122884966824397</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43358</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>0.37381652350844002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.39224322252504101</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43372</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>0.42324598634056898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.36615641261385901</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43393</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>0.47211059110794501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.37852043910663402</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43400</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>0.42130995886023398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.38868120578595999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43414</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>0.41956464161892298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.43470685634844403</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43421</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>0.43827079967487098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>0.55785338663779704</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>0.20084611610490299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43736</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>0.42576443385211099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.38694004754086703</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43750</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>0.38960271925172302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.43508708047283601</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43757</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>0.44651921041523202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.51165532759878396</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43771</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>0.48655262258380699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.48995367657626698</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43778</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>0.40217048916479797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>0.40217048916479797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0.53087659823801403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941FE8E-1767-42F7-B603-2C5EF5B935D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A909CB-7600-4E31-AC95-B343A102C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -119,7 +119,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -942,642 +942,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Before-game Peak</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B73-4885-935E-5E4B2BA349FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>After-game Peak</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3B73-4885-935E-5E4B2BA349FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Game Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.64583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3B73-4885-935E-5E4B2BA349FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2126045391"/>
-        <c:axId val="640480687"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2126045391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="640480687"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="640480687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2126045391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1691,7 +1055,7 @@
                   <c:v>3.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5000000000000009</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.5000000000000009</c:v>
@@ -1805,7 +1169,7 @@
                   <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9833333333333334</c:v>
+                  <c:v>0.9833333333333325</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.41666666666666519</c:v>
@@ -1950,6 +1314,741 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="813040175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before-game Peak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8D1-4106-AE1F-3CCBACF8EADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After-game Peak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8D1-4106-AE1F-3CCBACF8EADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8D1-4106-AE1F-3CCBACF8EADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game End Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.69166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67222222222222217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64930555555555558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64374999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78541666666666676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78611111111111109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95972222222222225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C8D1-4106-AE1F-3CCBACF8EADD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2060002383"/>
+        <c:axId val="2059992815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2060002383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059992815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2059992815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060002383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9933,19 +10032,19 @@
                   <c:v>0.330133177862794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.42389464006399902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.38238223962418599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.43636793959977699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.608835559729619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.52232047754807798</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.48995367657626698</c:v>
@@ -11477,19 +11576,19 @@
                   <c:v>0.45136974800240798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.44504605136224701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.53487496021805903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.42440698714063602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.39140593072514301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.37177250116586302</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.36615641261385901</c:v>
@@ -11973,7 +12072,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -12126,7 +12225,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16</c:v>
@@ -12716,7 +12815,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -12866,7 +12965,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16</c:v>
@@ -19811,22 +19910,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F42F4D-5E2C-485C-8F1B-6AC48C78E2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0553BB07-ACB4-4AA5-9B90-87F04E188B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19846,23 +19945,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>881062</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0553BB07-ACB4-4AA5-9B90-87F04E188B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72D0765-0115-419B-85B4-B6D0734E59FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21354,8 +21453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:K2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21489,19 +21588,19 @@
         <v>0.45136974800240798</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.44504605136224701</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.53487496021805903</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.42440698714063602</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.39140593072514301</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.37177250116586302</v>
       </c>
       <c r="L3">
         <v>0.36615641261385901</v>
@@ -21519,7 +21618,7 @@
         <v>0.41902704384825701</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <v>20</v>
@@ -22057,19 +22156,19 @@
         <v>0.330133177862794</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.42389464006399902</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.38238223962418599</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.43636793959977699</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.608835559729619</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.52232047754807798</v>
       </c>
       <c r="L13">
         <v>0.48995367657626698</v>
@@ -22090,7 +22189,7 @@
         <v>11</v>
       </c>
       <c r="R13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S13" s="3">
         <v>0.5</v>
@@ -22336,7 +22435,7 @@
         <v>43365</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -22451,7 +22550,7 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3">
         <v>0.5</v>
@@ -22776,10 +22875,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I6" sqref="I6:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22790,6 +22889,7 @@
     <col min="4" max="4" width="13.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22843,7 +22943,7 @@
         <v>43351</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -22853,7 +22953,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E14" si="0">D3-B3</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F14" si="1">C3-D3</f>
@@ -22957,6 +23057,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -22979,6 +23081,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="I8" s="1"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -23001,6 +23105,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="I9" s="1"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -23023,6 +23129,8 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
+      <c r="I10" s="1"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -23038,6 +23146,8 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
+      <c r="I11" s="1"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -23047,7 +23157,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6">
         <v>12</v>
@@ -23058,8 +23168,10 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -23082,6 +23194,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="I13" s="1"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -23104,16 +23218,36 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="I14" s="1"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E15">
         <f>AVERAGE(E2:E14)</f>
-        <v>2.3846153846153846</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="F15">
         <f>AVERAGE(F2:F14)</f>
-        <v>4.875</v>
-      </c>
+        <v>4.708333333333333</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="L19" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D14" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
@@ -23129,10 +23263,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="A1:D14 G1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23176,11 +23310,11 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <f>(D2-B2)*24</f>
+        <f t="shared" ref="E2:E14" si="0">(D2-B2)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F2">
-        <f>(C2-G2)*24</f>
+        <f t="shared" ref="F2:F13" si="1">(C2-G2)*24</f>
         <v>1.3999999999999977</v>
       </c>
       <c r="G2" s="3">
@@ -23201,11 +23335,11 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f>(D3-B3)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F3">
-        <f>(C3-G3)*24</f>
+        <f t="shared" si="1"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="G3" s="3">
@@ -23226,11 +23360,11 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <f>(D4-B4)*24</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F4">
-        <f>(C4-G4)*24</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
       <c r="G4" s="3">
@@ -23251,11 +23385,11 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <f>(D5-B5)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5">
-        <f>(C5-G5)*24</f>
+        <f t="shared" si="1"/>
         <v>0.86666666666666892</v>
       </c>
       <c r="G5" s="3">
@@ -23276,11 +23410,11 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <f>(D6-B6)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F6">
-        <f>(C6-G6)*24</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333304</v>
       </c>
       <c r="G6" s="3">
@@ -23295,18 +23429,18 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C7" s="3">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D7" s="3">
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f>(D7-B7)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F7">
-        <f>(C7-G7)*24</f>
-        <v>2.9833333333333334</v>
+        <f t="shared" si="1"/>
+        <v>0.9833333333333325</v>
       </c>
       <c r="G7" s="3">
         <v>0.62569444444444444</v>
@@ -23326,11 +23460,11 @@
         <v>0.5</v>
       </c>
       <c r="E8">
-        <f>(D8-B8)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F8">
-        <f>(C8-G8)*24</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666519</v>
       </c>
       <c r="G8" s="3">
@@ -23351,11 +23485,11 @@
         <v>0.5</v>
       </c>
       <c r="E9">
-        <f>(D9-B9)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F9">
-        <f>(C9-G9)*24</f>
+        <f t="shared" si="1"/>
         <v>1.5500000000000025</v>
       </c>
       <c r="G9" s="3">
@@ -23376,11 +23510,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E10">
-        <f>(D10-B10)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="F10">
-        <f>(C10-G10)*24</f>
+        <f t="shared" si="1"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="G10" s="3">
@@ -23392,7 +23526,7 @@
         <v>43365</v>
       </c>
       <c r="B11" s="3">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="3">
         <v>0.83333333333333337</v>
@@ -23401,11 +23535,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E11">
-        <f>(D11-B11)*24</f>
-        <v>3.5000000000000009</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <f>(C11-G11)*24</f>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="G11" s="3">
@@ -23426,11 +23560,11 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E12">
-        <f>(D12-B12)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="F12">
-        <f>(C12-G12)*24</f>
+        <f t="shared" si="1"/>
         <v>0.13333333333333286</v>
       </c>
       <c r="G12" s="3">
@@ -23451,11 +23585,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E13">
-        <f>(D13-B13)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F13">
-        <f>(C13-G13)*24</f>
+        <f t="shared" si="1"/>
         <v>2.1999999999999975</v>
       </c>
       <c r="G13" s="3">
@@ -23473,7 +23607,7 @@
         <v>0.8125</v>
       </c>
       <c r="E14">
-        <f>(D14-B14)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="G14" s="3">
@@ -23482,6 +23616,58 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G16" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
@@ -23490,7 +23676,8 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8C763-AC3B-481D-A86C-72B3C7D6FBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F533ED51-1BF6-412D-A3ED-03ECF9C5EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="1155" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -12546,7 +12546,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -12554,7 +12554,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -23448,7 +23448,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F533ED51-1BF6-412D-A3ED-03ECF9C5EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622470F-ACF0-4E9A-82F7-E8608DA06225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1155" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,17 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
     <sheet name="Sheet4" sheetId="12" r:id="rId9"/>
     <sheet name="raw_access_reliab_30min" sheetId="13" r:id="rId10"/>
-    <sheet name="access_reliab" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet8" sheetId="16" r:id="rId12"/>
-    <sheet name="peak_number" sheetId="17" r:id="rId13"/>
-    <sheet name="peak_hour" sheetId="18" r:id="rId14"/>
+    <sheet name="access_reliab_home" sheetId="14" r:id="rId11"/>
+    <sheet name="access_reliab_away" sheetId="20" r:id="rId12"/>
+    <sheet name="access_reliab_normal" sheetId="19" r:id="rId13"/>
+    <sheet name="Sheet8" sheetId="16" r:id="rId14"/>
+    <sheet name="peak_number" sheetId="17" r:id="rId15"/>
+    <sheet name="peak_hour" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">peak_hour!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">peak_number!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet8!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">peak_hour!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">peak_number!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet8!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>football</t>
   </si>
@@ -79,6 +81,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>reliab</t>
   </si>
 </sst>
 </file>
@@ -932,6 +937,727 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_normal!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reliab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_normal!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.34083994593771799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28693953299804598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.293557217380921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33146870032396297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35539378527190302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50630656126787199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44110603180566199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36542599840055001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41909672113965901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31372937205773999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42130995886023398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38817687259210498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36276053367396499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33762154043634401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42393598522551401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE02-40E5-AC1A-4851F7DC5F42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="64536943"/>
+        <c:axId val="64536111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64536943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64536111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64536111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64536943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_normal!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_normal!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_normal!$L$2:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.32427043179773102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.290648027240413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.350709921628858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42664954772389202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42227291753871898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45120167783912501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38320073172561903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39283537003402502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41326792027463199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36347420984316697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38960271925172302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43210525222736801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41756400811391697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38918371040723898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38495326479471698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AABD-46A4-A063-7FF96731795A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="54721471"/>
+        <c:axId val="54713567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54721471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54713567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54713567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54721471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1675,7 +2401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2411,7 +3137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2883,7 +3609,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10720,7 +11446,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$8</c:f>
+              <c:f>access_reliab_home!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10743,7 +11469,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10797,7 +11523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$8:$P$8</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10861,7 +11587,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$9</c:f>
+              <c:f>access_reliab_home!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10884,7 +11610,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10938,7 +11664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$9:$P$9</c:f>
+              <c:f>access_reliab_home!$B$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11002,7 +11728,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$10</c:f>
+              <c:f>access_reliab_home!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11025,7 +11751,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11079,7 +11805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$10:$P$10</c:f>
+              <c:f>access_reliab_home!$B$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11143,7 +11869,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$11</c:f>
+              <c:f>access_reliab_home!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11166,7 +11892,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11220,7 +11946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$11:$P$11</c:f>
+              <c:f>access_reliab_home!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11284,7 +12010,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$12</c:f>
+              <c:f>access_reliab_home!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11307,7 +12033,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11361,7 +12087,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$12:$P$12</c:f>
+              <c:f>access_reliab_home!$B$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11425,7 +12151,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$13</c:f>
+              <c:f>access_reliab_home!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11448,7 +12174,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11502,7 +12228,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$13:$P$13</c:f>
+              <c:f>access_reliab_home!$B$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11566,7 +12292,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$14</c:f>
+              <c:f>access_reliab_home!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11591,7 +12317,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11645,7 +12371,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$14:$P$14</c:f>
+              <c:f>access_reliab_home!$B$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11709,7 +12435,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$15</c:f>
+              <c:f>access_reliab_home!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11734,7 +12460,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11788,7 +12514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$15:$P$15</c:f>
+              <c:f>access_reliab_home!$B$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12104,7 +12830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$18</c:f>
+              <c:f>access_reliab_home!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12127,7 +12853,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$17:$P$17</c:f>
+              <c:f>access_reliab_home!$B$17:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12181,7 +12907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$18:$P$18</c:f>
+              <c:f>access_reliab_home!$B$18:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12466,7 +13192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$5</c:f>
+              <c:f>access_reliab_home!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12489,7 +13215,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$5:$P$5</c:f>
+              <c:f>access_reliab_home!$B$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12789,7 +13515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$2</c:f>
+              <c:f>access_reliab_home!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12812,7 +13538,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$1:$P$1</c:f>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12866,7 +13592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$2:$P$2</c:f>
+              <c:f>access_reliab_home!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12930,7 +13656,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$3</c:f>
+              <c:f>access_reliab_home!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12953,7 +13679,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$1:$P$1</c:f>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -13007,7 +13733,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$3:$P$3</c:f>
+              <c:f>access_reliab_home!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -13071,7 +13797,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$4</c:f>
+              <c:f>access_reliab_home!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13094,7 +13820,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$1:$P$1</c:f>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -13148,7 +13874,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$4:$P$4</c:f>
+              <c:f>access_reliab_home!$B$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -13464,7 +14190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$8</c:f>
+              <c:f>access_reliab_home!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13487,7 +14213,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -13541,7 +14267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$8:$P$8</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -13941,7 +14667,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab!$A$2</c:f>
+              <c:f>access_reliab_home!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13964,7 +14690,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab!$B$1:$P$1</c:f>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14018,7 +14744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab!$B$2:$P$2</c:f>
+              <c:f>access_reliab_home!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14448,6 +15174,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16833,6 +17639,1038 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21824,6 +23662,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC19BB-410E-84CC-323D-2699073C0FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FAD9D8-260A-9A5A-70F8-68EDA5E04F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>442910</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -21899,7 +23814,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22242,7 +24157,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23447,7 +25362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -24683,6 +26598,614 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.34083994593771799</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>0.32427043179773102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.28693953299804598</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0.34641736341159002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>0.27439885384451101</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>0.290648027240413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.293557217380921</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0.40949331182159299</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0.327598395213333</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0.350709921628858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.33146870032396297</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>0.38171532240453399</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>0.37772948908204301</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>0.42664954772389202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.35539378527190302</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>0.42227291753871898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0.50630656126787199</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>0.34296701165909199</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0.38850092876651299</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>0.45120167783912501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.44110603180566199</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0.380938557735292</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>0.34773590367358498</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>0.38320073172561903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.36542599840055001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>0.37549300009098402</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0.37926821905126001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>0.39283537003402502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.41909672113965901</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>0.40282303568559802</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>0.41691973793139903</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>0.41326792027463199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.31372937205773999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0.43612611199498003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0.44176719463515202</v>
+      </c>
+      <c r="J11" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>0.36347420984316697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.42130995886023398</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0.38960271925172302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0.38817687259210498</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>0.37088045930489599</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>0.40732259202450999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>0.43210525222736801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.36276053367396499</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>0.378835359823953</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>0.34131133062513802</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>0.41756400811391697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0.33762154043634401</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>0.40961496230144201</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>0.348187743931621</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K15">
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <v>0.38918371040723898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0.42393598522551401</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>0.25524164720785197</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43442</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>0.35095337095337098</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43750</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>0.38495326479471698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE4E835-AB81-464D-B44F-2B6F511EEA8B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -24951,7 +27474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -25339,7 +27862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:H33"/>
   <sheetViews>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622470F-ACF0-4E9A-82F7-E8608DA06225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555EAC65-129E-484B-95F1-DF46294AC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="football" sheetId="5" r:id="rId3"/>
-    <sheet name="control" sheetId="6" r:id="rId4"/>
-    <sheet name="30 minutes" sheetId="8" r:id="rId5"/>
-    <sheet name="60 minutes" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="12" r:id="rId9"/>
-    <sheet name="raw_access_reliab_30min" sheetId="13" r:id="rId10"/>
-    <sheet name="access_reliab_home" sheetId="14" r:id="rId11"/>
-    <sheet name="access_reliab_away" sheetId="20" r:id="rId12"/>
-    <sheet name="access_reliab_normal" sheetId="19" r:id="rId13"/>
-    <sheet name="Sheet8" sheetId="16" r:id="rId14"/>
-    <sheet name="peak_number" sheetId="17" r:id="rId15"/>
-    <sheet name="peak_hour" sheetId="18" r:id="rId16"/>
+    <sheet name="access_access_home" sheetId="22" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="football" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="control" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="30 minutes" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="60 minutes" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="12" state="hidden" r:id="rId10"/>
+    <sheet name="raw_access_reliab_30min" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="access_reliab_home" sheetId="14" r:id="rId12"/>
+    <sheet name="access_reliab_away" sheetId="20" r:id="rId13"/>
+    <sheet name="access_reliab_normal" sheetId="19" r:id="rId14"/>
+    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId15"/>
+    <sheet name="peak_number" sheetId="17" r:id="rId16"/>
+    <sheet name="peak_hour" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">peak_hour!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">peak_number!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet8!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">peak_hour!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">peak_number!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet8!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24527,6 +24528,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B1A811-A38F-4335-A6D5-4CAA636AF908}">
+  <dimension ref="A1:X16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>30</v>
+      </c>
+      <c r="H1">
+        <v>35</v>
+      </c>
+      <c r="I1">
+        <v>40</v>
+      </c>
+      <c r="J1">
+        <v>45</v>
+      </c>
+      <c r="K1">
+        <v>50</v>
+      </c>
+      <c r="L1">
+        <v>55</v>
+      </c>
+      <c r="M1">
+        <v>60</v>
+      </c>
+      <c r="N1">
+        <v>65</v>
+      </c>
+      <c r="O1">
+        <v>70</v>
+      </c>
+      <c r="P1">
+        <v>75</v>
+      </c>
+      <c r="Q1">
+        <v>80</v>
+      </c>
+      <c r="R1">
+        <v>85</v>
+      </c>
+      <c r="S1">
+        <v>90</v>
+      </c>
+      <c r="T1">
+        <v>95</v>
+      </c>
+      <c r="U1">
+        <v>100</v>
+      </c>
+      <c r="V1">
+        <v>105</v>
+      </c>
+      <c r="W1">
+        <v>110</v>
+      </c>
+      <c r="X1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.140725844167991</v>
+      </c>
+      <c r="C2">
+        <v>0.212302973502598</v>
+      </c>
+      <c r="D2">
+        <v>0.272598262664487</v>
+      </c>
+      <c r="E2">
+        <v>0.30479582516741099</v>
+      </c>
+      <c r="F2">
+        <v>0.34253357159967901</v>
+      </c>
+      <c r="G2">
+        <v>0.33930418480368901</v>
+      </c>
+      <c r="H2">
+        <v>0.38916358473037899</v>
+      </c>
+      <c r="I2">
+        <v>0.41153904484168002</v>
+      </c>
+      <c r="J2">
+        <v>0.41542395619811601</v>
+      </c>
+      <c r="K2">
+        <v>0.44649572059598303</v>
+      </c>
+      <c r="L2">
+        <v>0.45180277182537798</v>
+      </c>
+      <c r="M2">
+        <v>0.41449070115732001</v>
+      </c>
+      <c r="N2">
+        <v>0.39794823810114999</v>
+      </c>
+      <c r="O2">
+        <v>0.377327647297236</v>
+      </c>
+      <c r="P2">
+        <v>0.35432417513574699</v>
+      </c>
+      <c r="Q2">
+        <v>0.33712136370013102</v>
+      </c>
+      <c r="R2">
+        <v>0.329311506878532</v>
+      </c>
+      <c r="S2">
+        <v>0.307866107886271</v>
+      </c>
+      <c r="T2">
+        <v>0.28852491954231402</v>
+      </c>
+      <c r="U2">
+        <v>0.26562471516771402</v>
+      </c>
+      <c r="V2">
+        <v>0.24396939171720999</v>
+      </c>
+      <c r="W2">
+        <v>0.236286439777697</v>
+      </c>
+      <c r="X2">
+        <v>0.221827528065869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.14131697569589599</v>
+      </c>
+      <c r="C3">
+        <v>0.20817032422720999</v>
+      </c>
+      <c r="D3">
+        <v>0.27888798377731899</v>
+      </c>
+      <c r="E3">
+        <v>0.33631633227076602</v>
+      </c>
+      <c r="F3">
+        <v>0.38546324692605899</v>
+      </c>
+      <c r="G3">
+        <v>0.38769878840011202</v>
+      </c>
+      <c r="H3">
+        <v>0.413248215302014</v>
+      </c>
+      <c r="I3">
+        <v>0.41100115474411197</v>
+      </c>
+      <c r="J3">
+        <v>0.43128436456631303</v>
+      </c>
+      <c r="K3">
+        <v>0.48877898652658203</v>
+      </c>
+      <c r="L3">
+        <v>0.50939998356440896</v>
+      </c>
+      <c r="M3">
+        <v>0.48818475713342302</v>
+      </c>
+      <c r="N3">
+        <v>0.484804739089778</v>
+      </c>
+      <c r="O3">
+        <v>0.47314007252006601</v>
+      </c>
+      <c r="P3">
+        <v>0.45857433864429797</v>
+      </c>
+      <c r="Q3">
+        <v>0.432059159452931</v>
+      </c>
+      <c r="R3">
+        <v>0.39996515593174797</v>
+      </c>
+      <c r="S3">
+        <v>0.35952088051961001</v>
+      </c>
+      <c r="T3">
+        <v>0.33358436747495201</v>
+      </c>
+      <c r="U3">
+        <v>0.30888273567408697</v>
+      </c>
+      <c r="V3">
+        <v>0.28835487743580202</v>
+      </c>
+      <c r="W3">
+        <v>0.27104563089142403</v>
+      </c>
+      <c r="X3">
+        <v>0.25033045908128898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.13052543786488699</v>
+      </c>
+      <c r="C4">
+        <v>0.19656410951477299</v>
+      </c>
+      <c r="D4">
+        <v>0.30687878189359502</v>
+      </c>
+      <c r="E4">
+        <v>0.36927978745932999</v>
+      </c>
+      <c r="F4">
+        <v>0.37944924730086999</v>
+      </c>
+      <c r="G4">
+        <v>0.35942564312202502</v>
+      </c>
+      <c r="H4">
+        <v>0.41979896697872499</v>
+      </c>
+      <c r="I4">
+        <v>0.43426571761849198</v>
+      </c>
+      <c r="J4">
+        <v>0.43142948486478999</v>
+      </c>
+      <c r="K4">
+        <v>0.463558951841199</v>
+      </c>
+      <c r="L4">
+        <v>0.46235839580413501</v>
+      </c>
+      <c r="M4">
+        <v>0.43392205315356702</v>
+      </c>
+      <c r="N4">
+        <v>0.42900142694499699</v>
+      </c>
+      <c r="O4">
+        <v>0.42742206722127801</v>
+      </c>
+      <c r="P4">
+        <v>0.41441749295846803</v>
+      </c>
+      <c r="Q4">
+        <v>0.38478491112464502</v>
+      </c>
+      <c r="R4">
+        <v>0.360976037914089</v>
+      </c>
+      <c r="S4">
+        <v>0.33342078221223298</v>
+      </c>
+      <c r="T4">
+        <v>0.30483180409069099</v>
+      </c>
+      <c r="U4">
+        <v>0.28455875286571902</v>
+      </c>
+      <c r="V4">
+        <v>0.26385540892439402</v>
+      </c>
+      <c r="W4">
+        <v>0.25145687139359801</v>
+      </c>
+      <c r="X4">
+        <v>0.23575277024008001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.12864733849165599</v>
+      </c>
+      <c r="C5">
+        <v>0.24846250611503201</v>
+      </c>
+      <c r="D5">
+        <v>0.35474326630555703</v>
+      </c>
+      <c r="E5">
+        <v>0.37337889297882798</v>
+      </c>
+      <c r="F5">
+        <v>0.41114866850861198</v>
+      </c>
+      <c r="G5">
+        <v>0.40940229689756602</v>
+      </c>
+      <c r="H5">
+        <v>0.44525990306093899</v>
+      </c>
+      <c r="I5">
+        <v>0.48060087054404399</v>
+      </c>
+      <c r="J5">
+        <v>0.50544341978658702</v>
+      </c>
+      <c r="K5">
+        <v>0.54779823241094505</v>
+      </c>
+      <c r="L5">
+        <v>0.55146271257894497</v>
+      </c>
+      <c r="M5">
+        <v>0.522730286792503</v>
+      </c>
+      <c r="N5">
+        <v>0.496989448865226</v>
+      </c>
+      <c r="O5">
+        <v>0.480845224041835</v>
+      </c>
+      <c r="P5">
+        <v>0.45727943261614801</v>
+      </c>
+      <c r="Q5">
+        <v>0.426289508811031</v>
+      </c>
+      <c r="R5">
+        <v>0.40951059206265999</v>
+      </c>
+      <c r="S5">
+        <v>0.38278107085539498</v>
+      </c>
+      <c r="T5">
+        <v>0.35700528606952597</v>
+      </c>
+      <c r="U5">
+        <v>0.31832321933532498</v>
+      </c>
+      <c r="V5">
+        <v>0.29438428711319797</v>
+      </c>
+      <c r="W5">
+        <v>0.27563303283559099</v>
+      </c>
+      <c r="X5">
+        <v>0.25406489545389399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>9.0752804922186001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.21392734608024</v>
+      </c>
+      <c r="D6">
+        <v>0.35851407214451497</v>
+      </c>
+      <c r="E6">
+        <v>0.41562359087587197</v>
+      </c>
+      <c r="F6">
+        <v>0.45983042854927397</v>
+      </c>
+      <c r="G6">
+        <v>0.51327330439852303</v>
+      </c>
+      <c r="H6">
+        <v>0.56432651035171599</v>
+      </c>
+      <c r="I6">
+        <v>0.56289779845679799</v>
+      </c>
+      <c r="J6">
+        <v>0.58452075969704798</v>
+      </c>
+      <c r="K6">
+        <v>0.59141588341530504</v>
+      </c>
+      <c r="L6">
+        <v>0.59761929260859403</v>
+      </c>
+      <c r="M6">
+        <v>0.54986062239295597</v>
+      </c>
+      <c r="N6">
+        <v>0.553662140272563</v>
+      </c>
+      <c r="O6">
+        <v>0.53580561536985905</v>
+      </c>
+      <c r="P6">
+        <v>0.48704822667519199</v>
+      </c>
+      <c r="Q6">
+        <v>0.45029806083803497</v>
+      </c>
+      <c r="R6">
+        <v>0.43521839114732203</v>
+      </c>
+      <c r="S6">
+        <v>0.39829118383609402</v>
+      </c>
+      <c r="T6">
+        <v>0.357235066772851</v>
+      </c>
+      <c r="U6">
+        <v>0.31579591846254601</v>
+      </c>
+      <c r="V6">
+        <v>0.286295858317348</v>
+      </c>
+      <c r="W6">
+        <v>0.26818139993289503</v>
+      </c>
+      <c r="X6">
+        <v>0.25273696695806802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.14879369300911799</v>
+      </c>
+      <c r="C7">
+        <v>0.29907445266327098</v>
+      </c>
+      <c r="D7">
+        <v>0.41457506361323099</v>
+      </c>
+      <c r="E7">
+        <v>0.44969622078055799</v>
+      </c>
+      <c r="F7">
+        <v>0.48309217960540801</v>
+      </c>
+      <c r="G7">
+        <v>0.461559065531644</v>
+      </c>
+      <c r="H7">
+        <v>0.51031859786015399</v>
+      </c>
+      <c r="I7">
+        <v>0.52296974128686102</v>
+      </c>
+      <c r="J7">
+        <v>0.54379386955306197</v>
+      </c>
+      <c r="K7">
+        <v>0.59001005788101102</v>
+      </c>
+      <c r="L7">
+        <v>0.59556008287816398</v>
+      </c>
+      <c r="M7">
+        <v>0.56976231126952404</v>
+      </c>
+      <c r="N7">
+        <v>0.54968926796902295</v>
+      </c>
+      <c r="O7">
+        <v>0.52159005853989904</v>
+      </c>
+      <c r="P7">
+        <v>0.50248184591143097</v>
+      </c>
+      <c r="Q7">
+        <v>0.4696102378973</v>
+      </c>
+      <c r="R7">
+        <v>0.46189632610766201</v>
+      </c>
+      <c r="S7">
+        <v>0.42794194233229099</v>
+      </c>
+      <c r="T7">
+        <v>0.39433530684426099</v>
+      </c>
+      <c r="U7">
+        <v>0.35732273671577403</v>
+      </c>
+      <c r="V7">
+        <v>0.32298956931045703</v>
+      </c>
+      <c r="W7">
+        <v>0.29953765941858801</v>
+      </c>
+      <c r="X7">
+        <v>0.279596310347276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.13379690125070001</v>
+      </c>
+      <c r="C8">
+        <v>0.25905816388090402</v>
+      </c>
+      <c r="D8">
+        <v>0.39949400463344398</v>
+      </c>
+      <c r="E8">
+        <v>0.45745816640415998</v>
+      </c>
+      <c r="F8">
+        <v>0.46465964060864501</v>
+      </c>
+      <c r="G8">
+        <v>0.45991806398539697</v>
+      </c>
+      <c r="H8">
+        <v>0.48214861230345302</v>
+      </c>
+      <c r="I8">
+        <v>0.49676184578426902</v>
+      </c>
+      <c r="J8">
+        <v>0.49193614800185997</v>
+      </c>
+      <c r="K8">
+        <v>0.50279462966055</v>
+      </c>
+      <c r="L8">
+        <v>0.51791941381598405</v>
+      </c>
+      <c r="M8">
+        <v>0.47443264776543298</v>
+      </c>
+      <c r="N8">
+        <v>0.45377076440218</v>
+      </c>
+      <c r="O8">
+        <v>0.42579853209773599</v>
+      </c>
+      <c r="P8">
+        <v>0.40729591318403402</v>
+      </c>
+      <c r="Q8">
+        <v>0.36732145710453901</v>
+      </c>
+      <c r="R8">
+        <v>0.36000065854280899</v>
+      </c>
+      <c r="S8">
+        <v>0.33176274553083401</v>
+      </c>
+      <c r="T8">
+        <v>0.29563291098519101</v>
+      </c>
+      <c r="U8">
+        <v>0.25939272919395201</v>
+      </c>
+      <c r="V8">
+        <v>0.23604149140681599</v>
+      </c>
+      <c r="W8">
+        <v>0.21734477090837701</v>
+      </c>
+      <c r="X8">
+        <v>0.204199209921752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.124647203072225</v>
+      </c>
+      <c r="C9">
+        <v>0.214850166865521</v>
+      </c>
+      <c r="D9">
+        <v>0.30632070045376097</v>
+      </c>
+      <c r="E9">
+        <v>0.35415738788760498</v>
+      </c>
+      <c r="F9">
+        <v>0.37172068883887999</v>
+      </c>
+      <c r="G9">
+        <v>0.35110170793412498</v>
+      </c>
+      <c r="H9">
+        <v>0.38993219283243802</v>
+      </c>
+      <c r="I9">
+        <v>0.40950334502225799</v>
+      </c>
+      <c r="J9">
+        <v>0.43161126151095403</v>
+      </c>
+      <c r="K9">
+        <v>0.44474389773003498</v>
+      </c>
+      <c r="L9">
+        <v>0.45315682634590898</v>
+      </c>
+      <c r="M9">
+        <v>0.437114215847974</v>
+      </c>
+      <c r="N9">
+        <v>0.431013380693758</v>
+      </c>
+      <c r="O9">
+        <v>0.417511169654811</v>
+      </c>
+      <c r="P9">
+        <v>0.39593724974019101</v>
+      </c>
+      <c r="Q9">
+        <v>0.37705356525880901</v>
+      </c>
+      <c r="R9">
+        <v>0.368745595241946</v>
+      </c>
+      <c r="S9">
+        <v>0.34968190525641202</v>
+      </c>
+      <c r="T9">
+        <v>0.327756606332051</v>
+      </c>
+      <c r="U9">
+        <v>0.30336549266139801</v>
+      </c>
+      <c r="V9">
+        <v>0.28552353892535398</v>
+      </c>
+      <c r="W9">
+        <v>0.26608755168501502</v>
+      </c>
+      <c r="X9">
+        <v>0.24595549675496101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.118118628359592</v>
+      </c>
+      <c r="C10">
+        <v>0.21693149531726799</v>
+      </c>
+      <c r="D10">
+        <v>0.29992041639605099</v>
+      </c>
+      <c r="E10">
+        <v>0.35233139963718202</v>
+      </c>
+      <c r="F10">
+        <v>0.38290810471254699</v>
+      </c>
+      <c r="G10">
+        <v>0.40671670803552701</v>
+      </c>
+      <c r="H10">
+        <v>0.45835177077716099</v>
+      </c>
+      <c r="I10">
+        <v>0.47130450335037199</v>
+      </c>
+      <c r="J10">
+        <v>0.48322476097109701</v>
+      </c>
+      <c r="K10">
+        <v>0.49913512470862897</v>
+      </c>
+      <c r="L10">
+        <v>0.51318161594704204</v>
+      </c>
+      <c r="M10">
+        <v>0.50166270414743597</v>
+      </c>
+      <c r="N10">
+        <v>0.49406051720008198</v>
+      </c>
+      <c r="O10">
+        <v>0.48126485949013798</v>
+      </c>
+      <c r="P10">
+        <v>0.448208601359672</v>
+      </c>
+      <c r="Q10">
+        <v>0.41346020822432999</v>
+      </c>
+      <c r="R10">
+        <v>0.40669196936798901</v>
+      </c>
+      <c r="S10">
+        <v>0.38858369153864403</v>
+      </c>
+      <c r="T10">
+        <v>0.36719345875529502</v>
+      </c>
+      <c r="U10">
+        <v>0.33775153968337601</v>
+      </c>
+      <c r="V10">
+        <v>0.30901792511592402</v>
+      </c>
+      <c r="W10">
+        <v>0.28732630409541299</v>
+      </c>
+      <c r="X10">
+        <v>0.27227040227252203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.10914508365803301</v>
+      </c>
+      <c r="C11">
+        <v>0.21328410725737901</v>
+      </c>
+      <c r="D11">
+        <v>0.28233604165731402</v>
+      </c>
+      <c r="E11">
+        <v>0.31554864762790102</v>
+      </c>
+      <c r="F11">
+        <v>0.35032310296607</v>
+      </c>
+      <c r="G11">
+        <v>0.34270727923467798</v>
+      </c>
+      <c r="H11">
+        <v>0.388267528414939</v>
+      </c>
+      <c r="I11">
+        <v>0.42467138828406797</v>
+      </c>
+      <c r="J11">
+        <v>0.43290888526667498</v>
+      </c>
+      <c r="K11">
+        <v>0.44459822553192202</v>
+      </c>
+      <c r="L11">
+        <v>0.45724306588180302</v>
+      </c>
+      <c r="M11">
+        <v>0.45965578738273699</v>
+      </c>
+      <c r="N11">
+        <v>0.43990694723485202</v>
+      </c>
+      <c r="O11">
+        <v>0.41230060067091201</v>
+      </c>
+      <c r="P11">
+        <v>0.38157988668385401</v>
+      </c>
+      <c r="Q11">
+        <v>0.35460810786786701</v>
+      </c>
+      <c r="R11">
+        <v>0.33926144322443602</v>
+      </c>
+      <c r="S11">
+        <v>0.321264220720475</v>
+      </c>
+      <c r="T11">
+        <v>0.304215986126808</v>
+      </c>
+      <c r="U11">
+        <v>0.28399275586109701</v>
+      </c>
+      <c r="V11">
+        <v>0.25740834989614803</v>
+      </c>
+      <c r="W11">
+        <v>0.24404128331428199</v>
+      </c>
+      <c r="X11">
+        <v>0.23071010281500501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0.119079587017917</v>
+      </c>
+      <c r="C12">
+        <v>0.22936052094062601</v>
+      </c>
+      <c r="D12">
+        <v>0.30951443099620402</v>
+      </c>
+      <c r="E12">
+        <v>0.37799876257384601</v>
+      </c>
+      <c r="F12">
+        <v>0.376261293058958</v>
+      </c>
+      <c r="G12">
+        <v>0.39224322252504101</v>
+      </c>
+      <c r="H12">
+        <v>0.438485072147695</v>
+      </c>
+      <c r="I12">
+        <v>0.45860428951742599</v>
+      </c>
+      <c r="J12">
+        <v>0.481395015255071</v>
+      </c>
+      <c r="K12">
+        <v>0.54322361430223698</v>
+      </c>
+      <c r="L12">
+        <v>0.58157074921859597</v>
+      </c>
+      <c r="M12">
+        <v>0.58834691124570704</v>
+      </c>
+      <c r="N12">
+        <v>0.56076295184508795</v>
+      </c>
+      <c r="O12">
+        <v>0.54126476175885196</v>
+      </c>
+      <c r="P12">
+        <v>0.51852648821539205</v>
+      </c>
+      <c r="Q12">
+        <v>0.495316422925416</v>
+      </c>
+      <c r="R12">
+        <v>0.47991602682080597</v>
+      </c>
+      <c r="S12">
+        <v>0.45229585998628602</v>
+      </c>
+      <c r="T12">
+        <v>0.42559761535458501</v>
+      </c>
+      <c r="U12">
+        <v>0.39765736537795598</v>
+      </c>
+      <c r="V12">
+        <v>0.37666748367104202</v>
+      </c>
+      <c r="W12">
+        <v>0.34776146430409099</v>
+      </c>
+      <c r="X12">
+        <v>0.31928974343370098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.13999245069359201</v>
+      </c>
+      <c r="C13">
+        <v>0.27804790203493601</v>
+      </c>
+      <c r="D13">
+        <v>0.41648770947578301</v>
+      </c>
+      <c r="E13">
+        <v>0.49816124021177399</v>
+      </c>
+      <c r="F13">
+        <v>0.54195853675794203</v>
+      </c>
+      <c r="G13">
+        <v>0.52757047441209304</v>
+      </c>
+      <c r="H13">
+        <v>0.55860703484472196</v>
+      </c>
+      <c r="I13">
+        <v>0.60489072417654599</v>
+      </c>
+      <c r="J13">
+        <v>0.62502855677744695</v>
+      </c>
+      <c r="K13">
+        <v>0.64361679124924798</v>
+      </c>
+      <c r="L13">
+        <v>0.67052032404554796</v>
+      </c>
+      <c r="M13">
+        <v>0.66113544459001805</v>
+      </c>
+      <c r="N13">
+        <v>0.66771959912149503</v>
+      </c>
+      <c r="O13">
+        <v>0.66371940652919503</v>
+      </c>
+      <c r="P13">
+        <v>0.62664089155969604</v>
+      </c>
+      <c r="Q13">
+        <v>0.58011769203608199</v>
+      </c>
+      <c r="R13">
+        <v>0.53687067964981205</v>
+      </c>
+      <c r="S13">
+        <v>0.49171179320944902</v>
+      </c>
+      <c r="T13">
+        <v>0.43877968654559302</v>
+      </c>
+      <c r="U13">
+        <v>0.38615580376413799</v>
+      </c>
+      <c r="V13">
+        <v>0.338803399671121</v>
+      </c>
+      <c r="W13">
+        <v>0.30405087182381801</v>
+      </c>
+      <c r="X13">
+        <v>0.269312158912976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.14984939759036101</v>
+      </c>
+      <c r="C14">
+        <v>0.322312523088289</v>
+      </c>
+      <c r="D14">
+        <v>0.55106145717174004</v>
+      </c>
+      <c r="E14">
+        <v>0.59659477355637602</v>
+      </c>
+      <c r="F14">
+        <v>0.61888611210281996</v>
+      </c>
+      <c r="G14">
+        <v>0.56883739529671895</v>
+      </c>
+      <c r="H14">
+        <v>0.58054739750251905</v>
+      </c>
+      <c r="I14">
+        <v>0.61745042616581702</v>
+      </c>
+      <c r="J14">
+        <v>0.63432475998438997</v>
+      </c>
+      <c r="K14">
+        <v>0.66346800862111099</v>
+      </c>
+      <c r="L14">
+        <v>0.69212337924781198</v>
+      </c>
+      <c r="M14">
+        <v>0.68674382453738003</v>
+      </c>
+      <c r="N14">
+        <v>0.68075908401072405</v>
+      </c>
+      <c r="O14">
+        <v>0.65734374442076304</v>
+      </c>
+      <c r="P14">
+        <v>0.62141264163852195</v>
+      </c>
+      <c r="Q14">
+        <v>0.57939985529323201</v>
+      </c>
+      <c r="R14">
+        <v>0.55379366977975897</v>
+      </c>
+      <c r="S14">
+        <v>0.52080201088586997</v>
+      </c>
+      <c r="T14">
+        <v>0.48230120228182999</v>
+      </c>
+      <c r="U14">
+        <v>0.437403312616024</v>
+      </c>
+      <c r="V14">
+        <v>0.39387206905152999</v>
+      </c>
+      <c r="W14">
+        <v>0.36553843447265599</v>
+      </c>
+      <c r="X14">
+        <v>0.32159028050715399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0.121665707157935</v>
+      </c>
+      <c r="C15">
+        <v>0.22660089282364801</v>
+      </c>
+      <c r="D15">
+        <v>0.36047685743135399</v>
+      </c>
+      <c r="E15">
+        <v>0.46741026490687299</v>
+      </c>
+      <c r="F15">
+        <v>0.51143095254183801</v>
+      </c>
+      <c r="G15">
+        <v>0.51685134344925998</v>
+      </c>
+      <c r="H15">
+        <v>0.53521973476654605</v>
+      </c>
+      <c r="I15">
+        <v>0.55529910480636302</v>
+      </c>
+      <c r="J15">
+        <v>0.53539335640265395</v>
+      </c>
+      <c r="K15">
+        <v>0.55205958002778299</v>
+      </c>
+      <c r="L15">
+        <v>0.54185046518918001</v>
+      </c>
+      <c r="M15">
+        <v>0.53687402343851798</v>
+      </c>
+      <c r="N15">
+        <v>0.54690083367748998</v>
+      </c>
+      <c r="O15">
+        <v>0.54191467179571595</v>
+      </c>
+      <c r="P15">
+        <v>0.519905705200571</v>
+      </c>
+      <c r="Q15">
+        <v>0.51353863396305</v>
+      </c>
+      <c r="R15">
+        <v>0.53082392874327</v>
+      </c>
+      <c r="S15">
+        <v>0.502136808206881</v>
+      </c>
+      <c r="T15">
+        <v>0.50401674794915696</v>
+      </c>
+      <c r="U15">
+        <v>0.49087591744575299</v>
+      </c>
+      <c r="V15">
+        <v>0.46277702157567202</v>
+      </c>
+      <c r="W15">
+        <v>0.44898297884332899</v>
+      </c>
+      <c r="X15">
+        <v>0.42748525840857599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>7.9015103686076393E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.15952376204056301</v>
+      </c>
+      <c r="D16">
+        <v>0.243544002718314</v>
+      </c>
+      <c r="E16">
+        <v>0.303172908985057</v>
+      </c>
+      <c r="F16">
+        <v>0.38112126886220898</v>
+      </c>
+      <c r="G16">
+        <v>0.34029427466577</v>
+      </c>
+      <c r="H16">
+        <v>0.396014545572347</v>
+      </c>
+      <c r="I16">
+        <v>0.437818262091349</v>
+      </c>
+      <c r="J16">
+        <v>0.460538177905292</v>
+      </c>
+      <c r="K16">
+        <v>0.49049991772370599</v>
+      </c>
+      <c r="L16">
+        <v>0.47195960881843402</v>
+      </c>
+      <c r="M16">
+        <v>0.45815209510234001</v>
+      </c>
+      <c r="N16">
+        <v>0.474015986704446</v>
+      </c>
+      <c r="O16">
+        <v>0.48624211694706498</v>
+      </c>
+      <c r="P16">
+        <v>0.49889641071583302</v>
+      </c>
+      <c r="Q16">
+        <v>0.51790871561978202</v>
+      </c>
+      <c r="R16">
+        <v>0.54773340072744203</v>
+      </c>
+      <c r="S16">
+        <v>0.53569552514948005</v>
+      </c>
+      <c r="T16">
+        <v>0.57072151652260705</v>
+      </c>
+      <c r="U16">
+        <v>0.59516043468475699</v>
+      </c>
+      <c r="V16">
+        <v>0.58147773609689102</v>
+      </c>
+      <c r="W16">
+        <v>0.56041075340945601</v>
+      </c>
+      <c r="X16">
+        <v>0.53511328224474397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FAC646-30C9-474D-90F5-9CEA76215738}">
   <dimension ref="A1:P30"/>
   <sheetViews>
@@ -25358,12 +26556,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26597,7 +27795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26609,11 +27807,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L16"/>
     </sheetView>
   </sheetViews>
@@ -27205,7 +28403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE4E835-AB81-464D-B44F-2B6F511EEA8B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -27474,7 +28672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -27862,7 +29060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -28335,6 +29533,1484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716C683-B680-4781-9660-8CD99C8C0C85}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <v>18</v>
+      </c>
+      <c r="M1">
+        <v>19</v>
+      </c>
+      <c r="N1">
+        <v>20</v>
+      </c>
+      <c r="O1">
+        <v>21</v>
+      </c>
+      <c r="P1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B2">
+        <v>734424</v>
+      </c>
+      <c r="C2">
+        <v>748195</v>
+      </c>
+      <c r="D2">
+        <v>748341</v>
+      </c>
+      <c r="E2">
+        <v>727164</v>
+      </c>
+      <c r="F2">
+        <v>712548</v>
+      </c>
+      <c r="G2">
+        <v>706433</v>
+      </c>
+      <c r="H2">
+        <v>711655</v>
+      </c>
+      <c r="I2">
+        <v>707382</v>
+      </c>
+      <c r="J2">
+        <v>701148</v>
+      </c>
+      <c r="K2">
+        <v>702464</v>
+      </c>
+      <c r="L2">
+        <v>702917</v>
+      </c>
+      <c r="M2">
+        <v>732197</v>
+      </c>
+      <c r="N2">
+        <v>743256</v>
+      </c>
+      <c r="O2">
+        <v>618019</v>
+      </c>
+      <c r="P2">
+        <v>461000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B3">
+        <v>745821</v>
+      </c>
+      <c r="C3">
+        <v>737258</v>
+      </c>
+      <c r="D3">
+        <v>744900</v>
+      </c>
+      <c r="E3">
+        <v>729952</v>
+      </c>
+      <c r="F3">
+        <v>700812</v>
+      </c>
+      <c r="G3">
+        <v>698444</v>
+      </c>
+      <c r="H3">
+        <v>713424</v>
+      </c>
+      <c r="I3">
+        <v>694800</v>
+      </c>
+      <c r="J3">
+        <v>705588</v>
+      </c>
+      <c r="K3">
+        <v>701915</v>
+      </c>
+      <c r="L3">
+        <v>706498</v>
+      </c>
+      <c r="M3">
+        <v>728894</v>
+      </c>
+      <c r="N3">
+        <v>733637</v>
+      </c>
+      <c r="O3">
+        <v>612183</v>
+      </c>
+      <c r="P3">
+        <v>474495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B4">
+        <v>735308</v>
+      </c>
+      <c r="C4">
+        <v>754907</v>
+      </c>
+      <c r="D4">
+        <v>738290</v>
+      </c>
+      <c r="E4">
+        <v>610229</v>
+      </c>
+      <c r="F4">
+        <v>708759</v>
+      </c>
+      <c r="G4">
+        <v>711519</v>
+      </c>
+      <c r="H4">
+        <v>708948</v>
+      </c>
+      <c r="I4">
+        <v>712128</v>
+      </c>
+      <c r="J4">
+        <v>697964</v>
+      </c>
+      <c r="K4">
+        <v>705969</v>
+      </c>
+      <c r="L4">
+        <v>720668</v>
+      </c>
+      <c r="M4">
+        <v>734747</v>
+      </c>
+      <c r="N4">
+        <v>742033</v>
+      </c>
+      <c r="O4">
+        <v>619070</v>
+      </c>
+      <c r="P4">
+        <v>474236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B5">
+        <v>739831</v>
+      </c>
+      <c r="C5">
+        <v>749611</v>
+      </c>
+      <c r="D5">
+        <v>738011</v>
+      </c>
+      <c r="E5">
+        <v>727950</v>
+      </c>
+      <c r="F5">
+        <v>708501</v>
+      </c>
+      <c r="G5">
+        <v>706039</v>
+      </c>
+      <c r="H5">
+        <v>706422</v>
+      </c>
+      <c r="I5">
+        <v>690378</v>
+      </c>
+      <c r="J5">
+        <v>704943</v>
+      </c>
+      <c r="K5">
+        <v>686347</v>
+      </c>
+      <c r="L5">
+        <v>702341</v>
+      </c>
+      <c r="M5">
+        <v>722324</v>
+      </c>
+      <c r="N5">
+        <v>732866</v>
+      </c>
+      <c r="O5">
+        <v>604694</v>
+      </c>
+      <c r="P5">
+        <v>455077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B6">
+        <v>737945</v>
+      </c>
+      <c r="C6">
+        <v>749852</v>
+      </c>
+      <c r="D6">
+        <v>745361</v>
+      </c>
+      <c r="E6">
+        <v>728041</v>
+      </c>
+      <c r="F6">
+        <v>706700</v>
+      </c>
+      <c r="G6">
+        <v>702329</v>
+      </c>
+      <c r="H6">
+        <v>705933</v>
+      </c>
+      <c r="I6">
+        <v>703026</v>
+      </c>
+      <c r="J6">
+        <v>697505</v>
+      </c>
+      <c r="K6">
+        <v>676278</v>
+      </c>
+      <c r="L6">
+        <v>711002</v>
+      </c>
+      <c r="M6">
+        <v>718661</v>
+      </c>
+      <c r="N6">
+        <v>724460</v>
+      </c>
+      <c r="O6">
+        <v>607144</v>
+      </c>
+      <c r="P6">
+        <v>465476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B7">
+        <v>745355</v>
+      </c>
+      <c r="C7">
+        <v>754119</v>
+      </c>
+      <c r="D7">
+        <v>746997</v>
+      </c>
+      <c r="E7">
+        <v>733993</v>
+      </c>
+      <c r="F7">
+        <v>712030</v>
+      </c>
+      <c r="G7">
+        <v>707204</v>
+      </c>
+      <c r="H7">
+        <v>707444</v>
+      </c>
+      <c r="I7">
+        <v>704673</v>
+      </c>
+      <c r="J7">
+        <v>699100</v>
+      </c>
+      <c r="K7">
+        <v>692209</v>
+      </c>
+      <c r="L7">
+        <v>713111</v>
+      </c>
+      <c r="M7">
+        <v>726461</v>
+      </c>
+      <c r="N7">
+        <v>731648</v>
+      </c>
+      <c r="O7">
+        <v>602289</v>
+      </c>
+      <c r="P7">
+        <v>474669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B8">
+        <v>743167</v>
+      </c>
+      <c r="C8">
+        <v>750316</v>
+      </c>
+      <c r="D8">
+        <v>745081</v>
+      </c>
+      <c r="E8">
+        <v>724445</v>
+      </c>
+      <c r="F8">
+        <v>713362</v>
+      </c>
+      <c r="G8">
+        <v>708524</v>
+      </c>
+      <c r="H8">
+        <v>701135</v>
+      </c>
+      <c r="I8">
+        <v>690956</v>
+      </c>
+      <c r="J8">
+        <v>694351</v>
+      </c>
+      <c r="K8">
+        <v>702972</v>
+      </c>
+      <c r="L8">
+        <v>716611</v>
+      </c>
+      <c r="M8">
+        <v>728579</v>
+      </c>
+      <c r="N8">
+        <v>729400</v>
+      </c>
+      <c r="O8">
+        <v>595884</v>
+      </c>
+      <c r="P8">
+        <v>474358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B9">
+        <v>618525</v>
+      </c>
+      <c r="C9">
+        <v>636566</v>
+      </c>
+      <c r="D9">
+        <v>641578</v>
+      </c>
+      <c r="E9">
+        <v>636890</v>
+      </c>
+      <c r="F9">
+        <v>616119</v>
+      </c>
+      <c r="G9">
+        <v>630959</v>
+      </c>
+      <c r="H9">
+        <v>663526</v>
+      </c>
+      <c r="I9">
+        <v>658664</v>
+      </c>
+      <c r="J9">
+        <v>660256</v>
+      </c>
+      <c r="K9">
+        <v>668391</v>
+      </c>
+      <c r="L9">
+        <v>663992</v>
+      </c>
+      <c r="M9">
+        <v>677412</v>
+      </c>
+      <c r="N9">
+        <v>697709</v>
+      </c>
+      <c r="O9">
+        <v>564384</v>
+      </c>
+      <c r="P9">
+        <v>447775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B10">
+        <v>612189</v>
+      </c>
+      <c r="C10">
+        <v>631076</v>
+      </c>
+      <c r="D10">
+        <v>659302</v>
+      </c>
+      <c r="E10">
+        <v>621485</v>
+      </c>
+      <c r="F10">
+        <v>604105</v>
+      </c>
+      <c r="G10">
+        <v>592091</v>
+      </c>
+      <c r="H10">
+        <v>620901</v>
+      </c>
+      <c r="I10">
+        <v>618413</v>
+      </c>
+      <c r="J10">
+        <v>601815</v>
+      </c>
+      <c r="K10">
+        <v>615135</v>
+      </c>
+      <c r="L10">
+        <v>646346</v>
+      </c>
+      <c r="M10">
+        <v>639032</v>
+      </c>
+      <c r="N10">
+        <v>618602</v>
+      </c>
+      <c r="O10">
+        <v>480844</v>
+      </c>
+      <c r="P10">
+        <v>415250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B11">
+        <v>718738</v>
+      </c>
+      <c r="C11">
+        <v>706336</v>
+      </c>
+      <c r="D11">
+        <v>694036</v>
+      </c>
+      <c r="E11">
+        <v>697998</v>
+      </c>
+      <c r="F11">
+        <v>676276</v>
+      </c>
+      <c r="G11">
+        <v>676478</v>
+      </c>
+      <c r="H11">
+        <v>670168</v>
+      </c>
+      <c r="I11">
+        <v>669280</v>
+      </c>
+      <c r="J11">
+        <v>667431</v>
+      </c>
+      <c r="K11">
+        <v>653325</v>
+      </c>
+      <c r="L11">
+        <v>685900</v>
+      </c>
+      <c r="M11">
+        <v>688904</v>
+      </c>
+      <c r="N11">
+        <v>710254</v>
+      </c>
+      <c r="O11">
+        <v>573136</v>
+      </c>
+      <c r="P11">
+        <v>439201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B12">
+        <v>535948</v>
+      </c>
+      <c r="C12">
+        <v>491821</v>
+      </c>
+      <c r="D12">
+        <v>543421</v>
+      </c>
+      <c r="E12">
+        <v>340681</v>
+      </c>
+      <c r="F12">
+        <v>552117</v>
+      </c>
+      <c r="G12">
+        <v>596263</v>
+      </c>
+      <c r="H12">
+        <v>639743</v>
+      </c>
+      <c r="I12">
+        <v>606887</v>
+      </c>
+      <c r="J12">
+        <v>650959</v>
+      </c>
+      <c r="K12">
+        <v>671730</v>
+      </c>
+      <c r="L12">
+        <v>673839</v>
+      </c>
+      <c r="M12">
+        <v>690619</v>
+      </c>
+      <c r="N12">
+        <v>685405</v>
+      </c>
+      <c r="O12">
+        <v>580259</v>
+      </c>
+      <c r="P12">
+        <v>433940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B13">
+        <v>581612</v>
+      </c>
+      <c r="C13">
+        <v>614654</v>
+      </c>
+      <c r="D13">
+        <v>576544</v>
+      </c>
+      <c r="E13">
+        <v>589176</v>
+      </c>
+      <c r="F13">
+        <v>565065</v>
+      </c>
+      <c r="G13">
+        <v>579465</v>
+      </c>
+      <c r="H13">
+        <v>581291</v>
+      </c>
+      <c r="I13">
+        <v>577625</v>
+      </c>
+      <c r="J13">
+        <v>598258</v>
+      </c>
+      <c r="K13">
+        <v>600650</v>
+      </c>
+      <c r="L13">
+        <v>609839</v>
+      </c>
+      <c r="M13">
+        <v>632055</v>
+      </c>
+      <c r="N13">
+        <v>649665</v>
+      </c>
+      <c r="O13">
+        <v>536888</v>
+      </c>
+      <c r="P13">
+        <v>405858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B14">
+        <v>617017</v>
+      </c>
+      <c r="C14">
+        <v>620832</v>
+      </c>
+      <c r="D14">
+        <v>603596</v>
+      </c>
+      <c r="E14">
+        <v>637160</v>
+      </c>
+      <c r="F14">
+        <v>625778</v>
+      </c>
+      <c r="G14">
+        <v>650931</v>
+      </c>
+      <c r="H14">
+        <v>658690</v>
+      </c>
+      <c r="I14">
+        <v>669415</v>
+      </c>
+      <c r="J14">
+        <v>673573</v>
+      </c>
+      <c r="K14">
+        <v>650741</v>
+      </c>
+      <c r="L14">
+        <v>658404</v>
+      </c>
+      <c r="M14">
+        <v>671206</v>
+      </c>
+      <c r="N14">
+        <v>692721</v>
+      </c>
+      <c r="O14">
+        <v>574142</v>
+      </c>
+      <c r="P14">
+        <v>430732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>8865880</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:P15" si="0">SUM(C2:C14)</f>
+        <v>8945543</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>8925458</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8505164</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>8602172</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>8666679</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>8789280</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>8703627</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>8752891</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>8728126</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>8911468</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>9091091</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>9191656</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>7568936</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>5852067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>21</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B18">
+        <v>548158</v>
+      </c>
+      <c r="C18">
+        <v>528306</v>
+      </c>
+      <c r="D18">
+        <v>484302</v>
+      </c>
+      <c r="E18">
+        <v>491549</v>
+      </c>
+      <c r="F18">
+        <v>490734</v>
+      </c>
+      <c r="G18">
+        <v>486767</v>
+      </c>
+      <c r="H18">
+        <v>510283</v>
+      </c>
+      <c r="I18">
+        <v>472250</v>
+      </c>
+      <c r="J18">
+        <v>469800</v>
+      </c>
+      <c r="K18">
+        <v>419661</v>
+      </c>
+      <c r="L18">
+        <v>406022</v>
+      </c>
+      <c r="M18">
+        <v>485309</v>
+      </c>
+      <c r="N18">
+        <v>504349</v>
+      </c>
+      <c r="O18">
+        <v>436393</v>
+      </c>
+      <c r="P18">
+        <v>341779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B19">
+        <v>556872</v>
+      </c>
+      <c r="C19">
+        <v>531281</v>
+      </c>
+      <c r="D19">
+        <v>547952</v>
+      </c>
+      <c r="E19">
+        <v>517916</v>
+      </c>
+      <c r="F19">
+        <v>463110</v>
+      </c>
+      <c r="G19">
+        <v>477876</v>
+      </c>
+      <c r="H19">
+        <v>488674</v>
+      </c>
+      <c r="I19">
+        <v>514247</v>
+      </c>
+      <c r="J19">
+        <v>501585</v>
+      </c>
+      <c r="K19">
+        <v>522761</v>
+      </c>
+      <c r="L19">
+        <v>507453</v>
+      </c>
+      <c r="M19">
+        <v>477159</v>
+      </c>
+      <c r="N19">
+        <v>467631</v>
+      </c>
+      <c r="O19">
+        <v>403588</v>
+      </c>
+      <c r="P19">
+        <v>354023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B20">
+        <v>544624</v>
+      </c>
+      <c r="C20">
+        <v>567359</v>
+      </c>
+      <c r="D20">
+        <v>531882</v>
+      </c>
+      <c r="E20">
+        <v>428740</v>
+      </c>
+      <c r="F20">
+        <v>488338</v>
+      </c>
+      <c r="G20">
+        <v>492385</v>
+      </c>
+      <c r="H20">
+        <v>461893</v>
+      </c>
+      <c r="I20">
+        <v>499947</v>
+      </c>
+      <c r="J20">
+        <v>501625</v>
+      </c>
+      <c r="K20">
+        <v>514640</v>
+      </c>
+      <c r="L20">
+        <v>527515</v>
+      </c>
+      <c r="M20">
+        <v>495681</v>
+      </c>
+      <c r="N20">
+        <v>463245</v>
+      </c>
+      <c r="O20">
+        <v>439963</v>
+      </c>
+      <c r="P20">
+        <v>334198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B21">
+        <v>550121</v>
+      </c>
+      <c r="C21">
+        <v>559391</v>
+      </c>
+      <c r="D21">
+        <v>517916</v>
+      </c>
+      <c r="E21">
+        <v>500207</v>
+      </c>
+      <c r="F21">
+        <v>457180</v>
+      </c>
+      <c r="G21">
+        <v>408805</v>
+      </c>
+      <c r="H21">
+        <v>466821</v>
+      </c>
+      <c r="I21">
+        <v>457007</v>
+      </c>
+      <c r="J21">
+        <v>512275</v>
+      </c>
+      <c r="K21">
+        <v>508526</v>
+      </c>
+      <c r="L21">
+        <v>509489</v>
+      </c>
+      <c r="M21">
+        <v>532281</v>
+      </c>
+      <c r="N21">
+        <v>427646</v>
+      </c>
+      <c r="O21">
+        <v>377098</v>
+      </c>
+      <c r="P21">
+        <v>228966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B22">
+        <v>554136</v>
+      </c>
+      <c r="C22">
+        <v>531779</v>
+      </c>
+      <c r="D22">
+        <v>560727</v>
+      </c>
+      <c r="E22">
+        <v>542629</v>
+      </c>
+      <c r="F22">
+        <v>538640</v>
+      </c>
+      <c r="G22">
+        <v>525483</v>
+      </c>
+      <c r="H22">
+        <v>511440</v>
+      </c>
+      <c r="I22">
+        <v>520428</v>
+      </c>
+      <c r="J22">
+        <v>421896</v>
+      </c>
+      <c r="K22">
+        <v>469040</v>
+      </c>
+      <c r="L22">
+        <v>511998</v>
+      </c>
+      <c r="M22">
+        <v>508960</v>
+      </c>
+      <c r="N22">
+        <v>526298</v>
+      </c>
+      <c r="O22">
+        <v>428496</v>
+      </c>
+      <c r="P22">
+        <v>370255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B23">
+        <v>562174</v>
+      </c>
+      <c r="C23">
+        <v>524590</v>
+      </c>
+      <c r="D23">
+        <v>517846</v>
+      </c>
+      <c r="E23">
+        <v>509697</v>
+      </c>
+      <c r="F23">
+        <v>499049</v>
+      </c>
+      <c r="G23">
+        <v>501116</v>
+      </c>
+      <c r="H23">
+        <v>496132</v>
+      </c>
+      <c r="I23">
+        <v>499626</v>
+      </c>
+      <c r="J23">
+        <v>454295</v>
+      </c>
+      <c r="K23">
+        <v>446816</v>
+      </c>
+      <c r="L23">
+        <v>497043</v>
+      </c>
+      <c r="M23">
+        <v>507719</v>
+      </c>
+      <c r="N23">
+        <v>506779</v>
+      </c>
+      <c r="O23">
+        <v>458367</v>
+      </c>
+      <c r="P23">
+        <v>373758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B24">
+        <v>545360</v>
+      </c>
+      <c r="C24">
+        <v>537550</v>
+      </c>
+      <c r="D24">
+        <v>540913</v>
+      </c>
+      <c r="E24">
+        <v>531224</v>
+      </c>
+      <c r="F24">
+        <v>537123</v>
+      </c>
+      <c r="G24">
+        <v>548303</v>
+      </c>
+      <c r="H24">
+        <v>561075</v>
+      </c>
+      <c r="I24">
+        <v>551253</v>
+      </c>
+      <c r="J24">
+        <v>544580</v>
+      </c>
+      <c r="K24">
+        <v>444572</v>
+      </c>
+      <c r="L24">
+        <v>459999</v>
+      </c>
+      <c r="M24">
+        <v>541696</v>
+      </c>
+      <c r="N24">
+        <v>551636</v>
+      </c>
+      <c r="O24">
+        <v>464044</v>
+      </c>
+      <c r="P24">
+        <v>368516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B25">
+        <v>457344</v>
+      </c>
+      <c r="C25">
+        <v>449662</v>
+      </c>
+      <c r="D25">
+        <v>438395</v>
+      </c>
+      <c r="E25">
+        <v>420464</v>
+      </c>
+      <c r="F25">
+        <v>410753</v>
+      </c>
+      <c r="G25">
+        <v>450686</v>
+      </c>
+      <c r="H25">
+        <v>466246</v>
+      </c>
+      <c r="I25">
+        <v>434481</v>
+      </c>
+      <c r="J25">
+        <v>367598</v>
+      </c>
+      <c r="K25">
+        <v>429469</v>
+      </c>
+      <c r="L25">
+        <v>478746</v>
+      </c>
+      <c r="M25">
+        <v>485188</v>
+      </c>
+      <c r="N25">
+        <v>460637</v>
+      </c>
+      <c r="O25">
+        <v>360452</v>
+      </c>
+      <c r="P25">
+        <v>330994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B26">
+        <v>439500</v>
+      </c>
+      <c r="C26">
+        <v>470712</v>
+      </c>
+      <c r="D26">
+        <v>444811</v>
+      </c>
+      <c r="E26">
+        <v>417644</v>
+      </c>
+      <c r="F26">
+        <v>395240</v>
+      </c>
+      <c r="G26">
+        <v>405731</v>
+      </c>
+      <c r="H26">
+        <v>437988</v>
+      </c>
+      <c r="I26">
+        <v>427825</v>
+      </c>
+      <c r="J26">
+        <v>434772</v>
+      </c>
+      <c r="K26">
+        <v>443056</v>
+      </c>
+      <c r="L26">
+        <v>450388</v>
+      </c>
+      <c r="M26">
+        <v>358443</v>
+      </c>
+      <c r="N26">
+        <v>393334</v>
+      </c>
+      <c r="O26">
+        <v>341731</v>
+      </c>
+      <c r="P26">
+        <v>314396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B27">
+        <v>536872</v>
+      </c>
+      <c r="C27">
+        <v>506267</v>
+      </c>
+      <c r="D27">
+        <v>484903</v>
+      </c>
+      <c r="E27">
+        <v>495539</v>
+      </c>
+      <c r="F27">
+        <v>447455</v>
+      </c>
+      <c r="G27">
+        <v>429057</v>
+      </c>
+      <c r="H27">
+        <v>438316</v>
+      </c>
+      <c r="I27">
+        <v>450661</v>
+      </c>
+      <c r="J27">
+        <v>427281</v>
+      </c>
+      <c r="K27">
+        <v>419969</v>
+      </c>
+      <c r="L27">
+        <v>453741</v>
+      </c>
+      <c r="M27">
+        <v>460063</v>
+      </c>
+      <c r="N27">
+        <v>487930</v>
+      </c>
+      <c r="O27">
+        <v>395273</v>
+      </c>
+      <c r="P27">
+        <v>301231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B28">
+        <v>409732</v>
+      </c>
+      <c r="C28">
+        <v>345815</v>
+      </c>
+      <c r="D28">
+        <v>411769</v>
+      </c>
+      <c r="E28">
+        <v>236150</v>
+      </c>
+      <c r="F28">
+        <v>415084</v>
+      </c>
+      <c r="G28">
+        <v>418755</v>
+      </c>
+      <c r="H28">
+        <v>462783</v>
+      </c>
+      <c r="I28">
+        <v>422515</v>
+      </c>
+      <c r="J28">
+        <v>404615</v>
+      </c>
+      <c r="K28">
+        <v>441254</v>
+      </c>
+      <c r="L28">
+        <v>452255</v>
+      </c>
+      <c r="M28">
+        <v>473573</v>
+      </c>
+      <c r="N28">
+        <v>483869</v>
+      </c>
+      <c r="O28">
+        <v>392862</v>
+      </c>
+      <c r="P28">
+        <v>312192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B29">
+        <v>440007</v>
+      </c>
+      <c r="C29">
+        <v>463843</v>
+      </c>
+      <c r="D29">
+        <v>421522</v>
+      </c>
+      <c r="E29">
+        <v>424083</v>
+      </c>
+      <c r="F29">
+        <v>424328</v>
+      </c>
+      <c r="G29">
+        <v>424022</v>
+      </c>
+      <c r="H29">
+        <v>415927</v>
+      </c>
+      <c r="I29">
+        <v>410663</v>
+      </c>
+      <c r="J29">
+        <v>401631</v>
+      </c>
+      <c r="K29">
+        <v>436425</v>
+      </c>
+      <c r="L29">
+        <v>434925</v>
+      </c>
+      <c r="M29">
+        <v>473652</v>
+      </c>
+      <c r="N29">
+        <v>452337</v>
+      </c>
+      <c r="O29">
+        <v>383356</v>
+      </c>
+      <c r="P29">
+        <v>308833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B30">
+        <v>446262</v>
+      </c>
+      <c r="C30">
+        <v>470641</v>
+      </c>
+      <c r="D30">
+        <v>426395</v>
+      </c>
+      <c r="E30">
+        <v>429374</v>
+      </c>
+      <c r="F30">
+        <v>466379</v>
+      </c>
+      <c r="G30">
+        <v>498136</v>
+      </c>
+      <c r="H30">
+        <v>493181</v>
+      </c>
+      <c r="I30">
+        <v>494340</v>
+      </c>
+      <c r="J30">
+        <v>431686</v>
+      </c>
+      <c r="K30">
+        <v>413523</v>
+      </c>
+      <c r="L30">
+        <v>430083</v>
+      </c>
+      <c r="M30">
+        <v>470380</v>
+      </c>
+      <c r="N30">
+        <v>486820</v>
+      </c>
+      <c r="O30">
+        <v>398060</v>
+      </c>
+      <c r="P30">
+        <v>336070</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7F9FB-122C-49B0-B14B-F428CCFED8E6}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -29599,7 +32275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA92E9-F73E-4997-A8AA-C8273709BE10}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
@@ -32973,7 +35649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC3709-77B6-421E-B5D0-F9BC0815F8A0}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
@@ -36347,7 +39023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F734B-C7D2-4779-AAE6-824E33DF8F1F}">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -37197,7 +39873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2E3D0-3DC2-4DB0-A7A4-1E7BFDD789B9}">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -38028,12 +40704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100AA540-0832-4110-933D-A2F4B5ECE0BA}">
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38921,7 +41597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90E7C5-D6B5-4122-8A46-7038DC14E692}">
   <dimension ref="A1:X16"/>
   <sheetViews>
@@ -40116,1201 +42792,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B1A811-A38F-4335-A6D5-4CAA636AF908}">
-  <dimension ref="A1:X16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-      <c r="D1">
-        <v>15</v>
-      </c>
-      <c r="E1">
-        <v>20</v>
-      </c>
-      <c r="F1">
-        <v>25</v>
-      </c>
-      <c r="G1">
-        <v>30</v>
-      </c>
-      <c r="H1">
-        <v>35</v>
-      </c>
-      <c r="I1">
-        <v>40</v>
-      </c>
-      <c r="J1">
-        <v>45</v>
-      </c>
-      <c r="K1">
-        <v>50</v>
-      </c>
-      <c r="L1">
-        <v>55</v>
-      </c>
-      <c r="M1">
-        <v>60</v>
-      </c>
-      <c r="N1">
-        <v>65</v>
-      </c>
-      <c r="O1">
-        <v>70</v>
-      </c>
-      <c r="P1">
-        <v>75</v>
-      </c>
-      <c r="Q1">
-        <v>80</v>
-      </c>
-      <c r="R1">
-        <v>85</v>
-      </c>
-      <c r="S1">
-        <v>90</v>
-      </c>
-      <c r="T1">
-        <v>95</v>
-      </c>
-      <c r="U1">
-        <v>100</v>
-      </c>
-      <c r="V1">
-        <v>105</v>
-      </c>
-      <c r="W1">
-        <v>110</v>
-      </c>
-      <c r="X1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.140725844167991</v>
-      </c>
-      <c r="C2">
-        <v>0.212302973502598</v>
-      </c>
-      <c r="D2">
-        <v>0.272598262664487</v>
-      </c>
-      <c r="E2">
-        <v>0.30479582516741099</v>
-      </c>
-      <c r="F2">
-        <v>0.34253357159967901</v>
-      </c>
-      <c r="G2">
-        <v>0.33930418480368901</v>
-      </c>
-      <c r="H2">
-        <v>0.38916358473037899</v>
-      </c>
-      <c r="I2">
-        <v>0.41153904484168002</v>
-      </c>
-      <c r="J2">
-        <v>0.41542395619811601</v>
-      </c>
-      <c r="K2">
-        <v>0.44649572059598303</v>
-      </c>
-      <c r="L2">
-        <v>0.45180277182537798</v>
-      </c>
-      <c r="M2">
-        <v>0.41449070115732001</v>
-      </c>
-      <c r="N2">
-        <v>0.39794823810114999</v>
-      </c>
-      <c r="O2">
-        <v>0.377327647297236</v>
-      </c>
-      <c r="P2">
-        <v>0.35432417513574699</v>
-      </c>
-      <c r="Q2">
-        <v>0.33712136370013102</v>
-      </c>
-      <c r="R2">
-        <v>0.329311506878532</v>
-      </c>
-      <c r="S2">
-        <v>0.307866107886271</v>
-      </c>
-      <c r="T2">
-        <v>0.28852491954231402</v>
-      </c>
-      <c r="U2">
-        <v>0.26562471516771402</v>
-      </c>
-      <c r="V2">
-        <v>0.24396939171720999</v>
-      </c>
-      <c r="W2">
-        <v>0.236286439777697</v>
-      </c>
-      <c r="X2">
-        <v>0.221827528065869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.14131697569589599</v>
-      </c>
-      <c r="C3">
-        <v>0.20817032422720999</v>
-      </c>
-      <c r="D3">
-        <v>0.27888798377731899</v>
-      </c>
-      <c r="E3">
-        <v>0.33631633227076602</v>
-      </c>
-      <c r="F3">
-        <v>0.38546324692605899</v>
-      </c>
-      <c r="G3">
-        <v>0.38769878840011202</v>
-      </c>
-      <c r="H3">
-        <v>0.413248215302014</v>
-      </c>
-      <c r="I3">
-        <v>0.41100115474411197</v>
-      </c>
-      <c r="J3">
-        <v>0.43128436456631303</v>
-      </c>
-      <c r="K3">
-        <v>0.48877898652658203</v>
-      </c>
-      <c r="L3">
-        <v>0.50939998356440896</v>
-      </c>
-      <c r="M3">
-        <v>0.48818475713342302</v>
-      </c>
-      <c r="N3">
-        <v>0.484804739089778</v>
-      </c>
-      <c r="O3">
-        <v>0.47314007252006601</v>
-      </c>
-      <c r="P3">
-        <v>0.45857433864429797</v>
-      </c>
-      <c r="Q3">
-        <v>0.432059159452931</v>
-      </c>
-      <c r="R3">
-        <v>0.39996515593174797</v>
-      </c>
-      <c r="S3">
-        <v>0.35952088051961001</v>
-      </c>
-      <c r="T3">
-        <v>0.33358436747495201</v>
-      </c>
-      <c r="U3">
-        <v>0.30888273567408697</v>
-      </c>
-      <c r="V3">
-        <v>0.28835487743580202</v>
-      </c>
-      <c r="W3">
-        <v>0.27104563089142403</v>
-      </c>
-      <c r="X3">
-        <v>0.25033045908128898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.13052543786488699</v>
-      </c>
-      <c r="C4">
-        <v>0.19656410951477299</v>
-      </c>
-      <c r="D4">
-        <v>0.30687878189359502</v>
-      </c>
-      <c r="E4">
-        <v>0.36927978745932999</v>
-      </c>
-      <c r="F4">
-        <v>0.37944924730086999</v>
-      </c>
-      <c r="G4">
-        <v>0.35942564312202502</v>
-      </c>
-      <c r="H4">
-        <v>0.41979896697872499</v>
-      </c>
-      <c r="I4">
-        <v>0.43426571761849198</v>
-      </c>
-      <c r="J4">
-        <v>0.43142948486478999</v>
-      </c>
-      <c r="K4">
-        <v>0.463558951841199</v>
-      </c>
-      <c r="L4">
-        <v>0.46235839580413501</v>
-      </c>
-      <c r="M4">
-        <v>0.43392205315356702</v>
-      </c>
-      <c r="N4">
-        <v>0.42900142694499699</v>
-      </c>
-      <c r="O4">
-        <v>0.42742206722127801</v>
-      </c>
-      <c r="P4">
-        <v>0.41441749295846803</v>
-      </c>
-      <c r="Q4">
-        <v>0.38478491112464502</v>
-      </c>
-      <c r="R4">
-        <v>0.360976037914089</v>
-      </c>
-      <c r="S4">
-        <v>0.33342078221223298</v>
-      </c>
-      <c r="T4">
-        <v>0.30483180409069099</v>
-      </c>
-      <c r="U4">
-        <v>0.28455875286571902</v>
-      </c>
-      <c r="V4">
-        <v>0.26385540892439402</v>
-      </c>
-      <c r="W4">
-        <v>0.25145687139359801</v>
-      </c>
-      <c r="X4">
-        <v>0.23575277024008001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.12864733849165599</v>
-      </c>
-      <c r="C5">
-        <v>0.24846250611503201</v>
-      </c>
-      <c r="D5">
-        <v>0.35474326630555703</v>
-      </c>
-      <c r="E5">
-        <v>0.37337889297882798</v>
-      </c>
-      <c r="F5">
-        <v>0.41114866850861198</v>
-      </c>
-      <c r="G5">
-        <v>0.40940229689756602</v>
-      </c>
-      <c r="H5">
-        <v>0.44525990306093899</v>
-      </c>
-      <c r="I5">
-        <v>0.48060087054404399</v>
-      </c>
-      <c r="J5">
-        <v>0.50544341978658702</v>
-      </c>
-      <c r="K5">
-        <v>0.54779823241094505</v>
-      </c>
-      <c r="L5">
-        <v>0.55146271257894497</v>
-      </c>
-      <c r="M5">
-        <v>0.522730286792503</v>
-      </c>
-      <c r="N5">
-        <v>0.496989448865226</v>
-      </c>
-      <c r="O5">
-        <v>0.480845224041835</v>
-      </c>
-      <c r="P5">
-        <v>0.45727943261614801</v>
-      </c>
-      <c r="Q5">
-        <v>0.426289508811031</v>
-      </c>
-      <c r="R5">
-        <v>0.40951059206265999</v>
-      </c>
-      <c r="S5">
-        <v>0.38278107085539498</v>
-      </c>
-      <c r="T5">
-        <v>0.35700528606952597</v>
-      </c>
-      <c r="U5">
-        <v>0.31832321933532498</v>
-      </c>
-      <c r="V5">
-        <v>0.29438428711319797</v>
-      </c>
-      <c r="W5">
-        <v>0.27563303283559099</v>
-      </c>
-      <c r="X5">
-        <v>0.25406489545389399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>9.0752804922186001E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.21392734608024</v>
-      </c>
-      <c r="D6">
-        <v>0.35851407214451497</v>
-      </c>
-      <c r="E6">
-        <v>0.41562359087587197</v>
-      </c>
-      <c r="F6">
-        <v>0.45983042854927397</v>
-      </c>
-      <c r="G6">
-        <v>0.51327330439852303</v>
-      </c>
-      <c r="H6">
-        <v>0.56432651035171599</v>
-      </c>
-      <c r="I6">
-        <v>0.56289779845679799</v>
-      </c>
-      <c r="J6">
-        <v>0.58452075969704798</v>
-      </c>
-      <c r="K6">
-        <v>0.59141588341530504</v>
-      </c>
-      <c r="L6">
-        <v>0.59761929260859403</v>
-      </c>
-      <c r="M6">
-        <v>0.54986062239295597</v>
-      </c>
-      <c r="N6">
-        <v>0.553662140272563</v>
-      </c>
-      <c r="O6">
-        <v>0.53580561536985905</v>
-      </c>
-      <c r="P6">
-        <v>0.48704822667519199</v>
-      </c>
-      <c r="Q6">
-        <v>0.45029806083803497</v>
-      </c>
-      <c r="R6">
-        <v>0.43521839114732203</v>
-      </c>
-      <c r="S6">
-        <v>0.39829118383609402</v>
-      </c>
-      <c r="T6">
-        <v>0.357235066772851</v>
-      </c>
-      <c r="U6">
-        <v>0.31579591846254601</v>
-      </c>
-      <c r="V6">
-        <v>0.286295858317348</v>
-      </c>
-      <c r="W6">
-        <v>0.26818139993289503</v>
-      </c>
-      <c r="X6">
-        <v>0.25273696695806802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.14879369300911799</v>
-      </c>
-      <c r="C7">
-        <v>0.29907445266327098</v>
-      </c>
-      <c r="D7">
-        <v>0.41457506361323099</v>
-      </c>
-      <c r="E7">
-        <v>0.44969622078055799</v>
-      </c>
-      <c r="F7">
-        <v>0.48309217960540801</v>
-      </c>
-      <c r="G7">
-        <v>0.461559065531644</v>
-      </c>
-      <c r="H7">
-        <v>0.51031859786015399</v>
-      </c>
-      <c r="I7">
-        <v>0.52296974128686102</v>
-      </c>
-      <c r="J7">
-        <v>0.54379386955306197</v>
-      </c>
-      <c r="K7">
-        <v>0.59001005788101102</v>
-      </c>
-      <c r="L7">
-        <v>0.59556008287816398</v>
-      </c>
-      <c r="M7">
-        <v>0.56976231126952404</v>
-      </c>
-      <c r="N7">
-        <v>0.54968926796902295</v>
-      </c>
-      <c r="O7">
-        <v>0.52159005853989904</v>
-      </c>
-      <c r="P7">
-        <v>0.50248184591143097</v>
-      </c>
-      <c r="Q7">
-        <v>0.4696102378973</v>
-      </c>
-      <c r="R7">
-        <v>0.46189632610766201</v>
-      </c>
-      <c r="S7">
-        <v>0.42794194233229099</v>
-      </c>
-      <c r="T7">
-        <v>0.39433530684426099</v>
-      </c>
-      <c r="U7">
-        <v>0.35732273671577403</v>
-      </c>
-      <c r="V7">
-        <v>0.32298956931045703</v>
-      </c>
-      <c r="W7">
-        <v>0.29953765941858801</v>
-      </c>
-      <c r="X7">
-        <v>0.279596310347276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.13379690125070001</v>
-      </c>
-      <c r="C8">
-        <v>0.25905816388090402</v>
-      </c>
-      <c r="D8">
-        <v>0.39949400463344398</v>
-      </c>
-      <c r="E8">
-        <v>0.45745816640415998</v>
-      </c>
-      <c r="F8">
-        <v>0.46465964060864501</v>
-      </c>
-      <c r="G8">
-        <v>0.45991806398539697</v>
-      </c>
-      <c r="H8">
-        <v>0.48214861230345302</v>
-      </c>
-      <c r="I8">
-        <v>0.49676184578426902</v>
-      </c>
-      <c r="J8">
-        <v>0.49193614800185997</v>
-      </c>
-      <c r="K8">
-        <v>0.50279462966055</v>
-      </c>
-      <c r="L8">
-        <v>0.51791941381598405</v>
-      </c>
-      <c r="M8">
-        <v>0.47443264776543298</v>
-      </c>
-      <c r="N8">
-        <v>0.45377076440218</v>
-      </c>
-      <c r="O8">
-        <v>0.42579853209773599</v>
-      </c>
-      <c r="P8">
-        <v>0.40729591318403402</v>
-      </c>
-      <c r="Q8">
-        <v>0.36732145710453901</v>
-      </c>
-      <c r="R8">
-        <v>0.36000065854280899</v>
-      </c>
-      <c r="S8">
-        <v>0.33176274553083401</v>
-      </c>
-      <c r="T8">
-        <v>0.29563291098519101</v>
-      </c>
-      <c r="U8">
-        <v>0.25939272919395201</v>
-      </c>
-      <c r="V8">
-        <v>0.23604149140681599</v>
-      </c>
-      <c r="W8">
-        <v>0.21734477090837701</v>
-      </c>
-      <c r="X8">
-        <v>0.204199209921752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.124647203072225</v>
-      </c>
-      <c r="C9">
-        <v>0.214850166865521</v>
-      </c>
-      <c r="D9">
-        <v>0.30632070045376097</v>
-      </c>
-      <c r="E9">
-        <v>0.35415738788760498</v>
-      </c>
-      <c r="F9">
-        <v>0.37172068883887999</v>
-      </c>
-      <c r="G9">
-        <v>0.35110170793412498</v>
-      </c>
-      <c r="H9">
-        <v>0.38993219283243802</v>
-      </c>
-      <c r="I9">
-        <v>0.40950334502225799</v>
-      </c>
-      <c r="J9">
-        <v>0.43161126151095403</v>
-      </c>
-      <c r="K9">
-        <v>0.44474389773003498</v>
-      </c>
-      <c r="L9">
-        <v>0.45315682634590898</v>
-      </c>
-      <c r="M9">
-        <v>0.437114215847974</v>
-      </c>
-      <c r="N9">
-        <v>0.431013380693758</v>
-      </c>
-      <c r="O9">
-        <v>0.417511169654811</v>
-      </c>
-      <c r="P9">
-        <v>0.39593724974019101</v>
-      </c>
-      <c r="Q9">
-        <v>0.37705356525880901</v>
-      </c>
-      <c r="R9">
-        <v>0.368745595241946</v>
-      </c>
-      <c r="S9">
-        <v>0.34968190525641202</v>
-      </c>
-      <c r="T9">
-        <v>0.327756606332051</v>
-      </c>
-      <c r="U9">
-        <v>0.30336549266139801</v>
-      </c>
-      <c r="V9">
-        <v>0.28552353892535398</v>
-      </c>
-      <c r="W9">
-        <v>0.26608755168501502</v>
-      </c>
-      <c r="X9">
-        <v>0.24595549675496101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0.118118628359592</v>
-      </c>
-      <c r="C10">
-        <v>0.21693149531726799</v>
-      </c>
-      <c r="D10">
-        <v>0.29992041639605099</v>
-      </c>
-      <c r="E10">
-        <v>0.35233139963718202</v>
-      </c>
-      <c r="F10">
-        <v>0.38290810471254699</v>
-      </c>
-      <c r="G10">
-        <v>0.40671670803552701</v>
-      </c>
-      <c r="H10">
-        <v>0.45835177077716099</v>
-      </c>
-      <c r="I10">
-        <v>0.47130450335037199</v>
-      </c>
-      <c r="J10">
-        <v>0.48322476097109701</v>
-      </c>
-      <c r="K10">
-        <v>0.49913512470862897</v>
-      </c>
-      <c r="L10">
-        <v>0.51318161594704204</v>
-      </c>
-      <c r="M10">
-        <v>0.50166270414743597</v>
-      </c>
-      <c r="N10">
-        <v>0.49406051720008198</v>
-      </c>
-      <c r="O10">
-        <v>0.48126485949013798</v>
-      </c>
-      <c r="P10">
-        <v>0.448208601359672</v>
-      </c>
-      <c r="Q10">
-        <v>0.41346020822432999</v>
-      </c>
-      <c r="R10">
-        <v>0.40669196936798901</v>
-      </c>
-      <c r="S10">
-        <v>0.38858369153864403</v>
-      </c>
-      <c r="T10">
-        <v>0.36719345875529502</v>
-      </c>
-      <c r="U10">
-        <v>0.33775153968337601</v>
-      </c>
-      <c r="V10">
-        <v>0.30901792511592402</v>
-      </c>
-      <c r="W10">
-        <v>0.28732630409541299</v>
-      </c>
-      <c r="X10">
-        <v>0.27227040227252203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0.10914508365803301</v>
-      </c>
-      <c r="C11">
-        <v>0.21328410725737901</v>
-      </c>
-      <c r="D11">
-        <v>0.28233604165731402</v>
-      </c>
-      <c r="E11">
-        <v>0.31554864762790102</v>
-      </c>
-      <c r="F11">
-        <v>0.35032310296607</v>
-      </c>
-      <c r="G11">
-        <v>0.34270727923467798</v>
-      </c>
-      <c r="H11">
-        <v>0.388267528414939</v>
-      </c>
-      <c r="I11">
-        <v>0.42467138828406797</v>
-      </c>
-      <c r="J11">
-        <v>0.43290888526667498</v>
-      </c>
-      <c r="K11">
-        <v>0.44459822553192202</v>
-      </c>
-      <c r="L11">
-        <v>0.45724306588180302</v>
-      </c>
-      <c r="M11">
-        <v>0.45965578738273699</v>
-      </c>
-      <c r="N11">
-        <v>0.43990694723485202</v>
-      </c>
-      <c r="O11">
-        <v>0.41230060067091201</v>
-      </c>
-      <c r="P11">
-        <v>0.38157988668385401</v>
-      </c>
-      <c r="Q11">
-        <v>0.35460810786786701</v>
-      </c>
-      <c r="R11">
-        <v>0.33926144322443602</v>
-      </c>
-      <c r="S11">
-        <v>0.321264220720475</v>
-      </c>
-      <c r="T11">
-        <v>0.304215986126808</v>
-      </c>
-      <c r="U11">
-        <v>0.28399275586109701</v>
-      </c>
-      <c r="V11">
-        <v>0.25740834989614803</v>
-      </c>
-      <c r="W11">
-        <v>0.24404128331428199</v>
-      </c>
-      <c r="X11">
-        <v>0.23071010281500501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.119079587017917</v>
-      </c>
-      <c r="C12">
-        <v>0.22936052094062601</v>
-      </c>
-      <c r="D12">
-        <v>0.30951443099620402</v>
-      </c>
-      <c r="E12">
-        <v>0.37799876257384601</v>
-      </c>
-      <c r="F12">
-        <v>0.376261293058958</v>
-      </c>
-      <c r="G12">
-        <v>0.39224322252504101</v>
-      </c>
-      <c r="H12">
-        <v>0.438485072147695</v>
-      </c>
-      <c r="I12">
-        <v>0.45860428951742599</v>
-      </c>
-      <c r="J12">
-        <v>0.481395015255071</v>
-      </c>
-      <c r="K12">
-        <v>0.54322361430223698</v>
-      </c>
-      <c r="L12">
-        <v>0.58157074921859597</v>
-      </c>
-      <c r="M12">
-        <v>0.58834691124570704</v>
-      </c>
-      <c r="N12">
-        <v>0.56076295184508795</v>
-      </c>
-      <c r="O12">
-        <v>0.54126476175885196</v>
-      </c>
-      <c r="P12">
-        <v>0.51852648821539205</v>
-      </c>
-      <c r="Q12">
-        <v>0.495316422925416</v>
-      </c>
-      <c r="R12">
-        <v>0.47991602682080597</v>
-      </c>
-      <c r="S12">
-        <v>0.45229585998628602</v>
-      </c>
-      <c r="T12">
-        <v>0.42559761535458501</v>
-      </c>
-      <c r="U12">
-        <v>0.39765736537795598</v>
-      </c>
-      <c r="V12">
-        <v>0.37666748367104202</v>
-      </c>
-      <c r="W12">
-        <v>0.34776146430409099</v>
-      </c>
-      <c r="X12">
-        <v>0.31928974343370098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.13999245069359201</v>
-      </c>
-      <c r="C13">
-        <v>0.27804790203493601</v>
-      </c>
-      <c r="D13">
-        <v>0.41648770947578301</v>
-      </c>
-      <c r="E13">
-        <v>0.49816124021177399</v>
-      </c>
-      <c r="F13">
-        <v>0.54195853675794203</v>
-      </c>
-      <c r="G13">
-        <v>0.52757047441209304</v>
-      </c>
-      <c r="H13">
-        <v>0.55860703484472196</v>
-      </c>
-      <c r="I13">
-        <v>0.60489072417654599</v>
-      </c>
-      <c r="J13">
-        <v>0.62502855677744695</v>
-      </c>
-      <c r="K13">
-        <v>0.64361679124924798</v>
-      </c>
-      <c r="L13">
-        <v>0.67052032404554796</v>
-      </c>
-      <c r="M13">
-        <v>0.66113544459001805</v>
-      </c>
-      <c r="N13">
-        <v>0.66771959912149503</v>
-      </c>
-      <c r="O13">
-        <v>0.66371940652919503</v>
-      </c>
-      <c r="P13">
-        <v>0.62664089155969604</v>
-      </c>
-      <c r="Q13">
-        <v>0.58011769203608199</v>
-      </c>
-      <c r="R13">
-        <v>0.53687067964981205</v>
-      </c>
-      <c r="S13">
-        <v>0.49171179320944902</v>
-      </c>
-      <c r="T13">
-        <v>0.43877968654559302</v>
-      </c>
-      <c r="U13">
-        <v>0.38615580376413799</v>
-      </c>
-      <c r="V13">
-        <v>0.338803399671121</v>
-      </c>
-      <c r="W13">
-        <v>0.30405087182381801</v>
-      </c>
-      <c r="X13">
-        <v>0.269312158912976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.14984939759036101</v>
-      </c>
-      <c r="C14">
-        <v>0.322312523088289</v>
-      </c>
-      <c r="D14">
-        <v>0.55106145717174004</v>
-      </c>
-      <c r="E14">
-        <v>0.59659477355637602</v>
-      </c>
-      <c r="F14">
-        <v>0.61888611210281996</v>
-      </c>
-      <c r="G14">
-        <v>0.56883739529671895</v>
-      </c>
-      <c r="H14">
-        <v>0.58054739750251905</v>
-      </c>
-      <c r="I14">
-        <v>0.61745042616581702</v>
-      </c>
-      <c r="J14">
-        <v>0.63432475998438997</v>
-      </c>
-      <c r="K14">
-        <v>0.66346800862111099</v>
-      </c>
-      <c r="L14">
-        <v>0.69212337924781198</v>
-      </c>
-      <c r="M14">
-        <v>0.68674382453738003</v>
-      </c>
-      <c r="N14">
-        <v>0.68075908401072405</v>
-      </c>
-      <c r="O14">
-        <v>0.65734374442076304</v>
-      </c>
-      <c r="P14">
-        <v>0.62141264163852195</v>
-      </c>
-      <c r="Q14">
-        <v>0.57939985529323201</v>
-      </c>
-      <c r="R14">
-        <v>0.55379366977975897</v>
-      </c>
-      <c r="S14">
-        <v>0.52080201088586997</v>
-      </c>
-      <c r="T14">
-        <v>0.48230120228182999</v>
-      </c>
-      <c r="U14">
-        <v>0.437403312616024</v>
-      </c>
-      <c r="V14">
-        <v>0.39387206905152999</v>
-      </c>
-      <c r="W14">
-        <v>0.36553843447265599</v>
-      </c>
-      <c r="X14">
-        <v>0.32159028050715399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.121665707157935</v>
-      </c>
-      <c r="C15">
-        <v>0.22660089282364801</v>
-      </c>
-      <c r="D15">
-        <v>0.36047685743135399</v>
-      </c>
-      <c r="E15">
-        <v>0.46741026490687299</v>
-      </c>
-      <c r="F15">
-        <v>0.51143095254183801</v>
-      </c>
-      <c r="G15">
-        <v>0.51685134344925998</v>
-      </c>
-      <c r="H15">
-        <v>0.53521973476654605</v>
-      </c>
-      <c r="I15">
-        <v>0.55529910480636302</v>
-      </c>
-      <c r="J15">
-        <v>0.53539335640265395</v>
-      </c>
-      <c r="K15">
-        <v>0.55205958002778299</v>
-      </c>
-      <c r="L15">
-        <v>0.54185046518918001</v>
-      </c>
-      <c r="M15">
-        <v>0.53687402343851798</v>
-      </c>
-      <c r="N15">
-        <v>0.54690083367748998</v>
-      </c>
-      <c r="O15">
-        <v>0.54191467179571595</v>
-      </c>
-      <c r="P15">
-        <v>0.519905705200571</v>
-      </c>
-      <c r="Q15">
-        <v>0.51353863396305</v>
-      </c>
-      <c r="R15">
-        <v>0.53082392874327</v>
-      </c>
-      <c r="S15">
-        <v>0.502136808206881</v>
-      </c>
-      <c r="T15">
-        <v>0.50401674794915696</v>
-      </c>
-      <c r="U15">
-        <v>0.49087591744575299</v>
-      </c>
-      <c r="V15">
-        <v>0.46277702157567202</v>
-      </c>
-      <c r="W15">
-        <v>0.44898297884332899</v>
-      </c>
-      <c r="X15">
-        <v>0.42748525840857599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>7.9015103686076393E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.15952376204056301</v>
-      </c>
-      <c r="D16">
-        <v>0.243544002718314</v>
-      </c>
-      <c r="E16">
-        <v>0.303172908985057</v>
-      </c>
-      <c r="F16">
-        <v>0.38112126886220898</v>
-      </c>
-      <c r="G16">
-        <v>0.34029427466577</v>
-      </c>
-      <c r="H16">
-        <v>0.396014545572347</v>
-      </c>
-      <c r="I16">
-        <v>0.437818262091349</v>
-      </c>
-      <c r="J16">
-        <v>0.460538177905292</v>
-      </c>
-      <c r="K16">
-        <v>0.49049991772370599</v>
-      </c>
-      <c r="L16">
-        <v>0.47195960881843402</v>
-      </c>
-      <c r="M16">
-        <v>0.45815209510234001</v>
-      </c>
-      <c r="N16">
-        <v>0.474015986704446</v>
-      </c>
-      <c r="O16">
-        <v>0.48624211694706498</v>
-      </c>
-      <c r="P16">
-        <v>0.49889641071583302</v>
-      </c>
-      <c r="Q16">
-        <v>0.51790871561978202</v>
-      </c>
-      <c r="R16">
-        <v>0.54773340072744203</v>
-      </c>
-      <c r="S16">
-        <v>0.53569552514948005</v>
-      </c>
-      <c r="T16">
-        <v>0.57072151652260705</v>
-      </c>
-      <c r="U16">
-        <v>0.59516043468475699</v>
-      </c>
-      <c r="V16">
-        <v>0.58147773609689102</v>
-      </c>
-      <c r="W16">
-        <v>0.56041075340945601</v>
-      </c>
-      <c r="X16">
-        <v>0.53511328224474397</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555EAC65-129E-484B-95F1-DF46294AC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF471A56-07DB-4C25-ACF6-5DADFA8B859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,18 @@
     <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId9"/>
     <sheet name="Sheet4" sheetId="12" state="hidden" r:id="rId10"/>
     <sheet name="raw_access_reliab_30min" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="access_reliab_home" sheetId="14" r:id="rId12"/>
-    <sheet name="access_reliab_away" sheetId="20" r:id="rId13"/>
-    <sheet name="access_reliab_normal" sheetId="19" r:id="rId14"/>
-    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId15"/>
-    <sheet name="peak_number" sheetId="17" r:id="rId16"/>
-    <sheet name="peak_hour" sheetId="18" r:id="rId17"/>
+    <sheet name="_xltb_storage_" sheetId="23" state="veryHidden" r:id="rId12"/>
+    <sheet name="access_reliab_home" sheetId="14" r:id="rId13"/>
+    <sheet name="access_reliab_away" sheetId="20" r:id="rId14"/>
+    <sheet name="access_reliab_normal" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId16"/>
+    <sheet name="peak_number" sheetId="17" r:id="rId17"/>
+    <sheet name="peak_hour" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">peak_hour!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">peak_number!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet8!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">peak_hour!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">peak_number!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet8!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>football</t>
   </si>
@@ -85,6 +86,30 @@
   </si>
   <si>
     <t>reliab</t>
+  </si>
+  <si>
+    <t>XL Toolbox Settings</t>
+  </si>
+  <si>
+    <t>export_preset</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;_x000D_
+&lt;Preset xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;_x000D_
+  &lt;Name&gt;Tiff, 800 dpi, RGB, Transparent canvas&lt;/Name&gt;_x000D_
+  &lt;Dpi&gt;800&lt;/Dpi&gt;_x000D_
+  &lt;FileType&gt;Tiff&lt;/FileType&gt;_x000D_
+  &lt;ColorSpace&gt;Rgb&lt;/ColorSpace&gt;_x000D_
+  &lt;Transparency&gt;TransparentCanvas&lt;/Transparency&gt;_x000D_
+  &lt;UseColorProfile&gt;false&lt;/UseColorProfile&gt;_x000D_
+  &lt;ColorProfile&gt;P2717H&lt;/ColorProfile&gt;_x000D_
+&lt;/Preset&gt;</t>
+  </si>
+  <si>
+    <t>export_path</t>
+  </si>
+  <si>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\7pm.tif</t>
   </si>
 </sst>
 </file>
@@ -123,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -131,6 +156,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,368 +1021,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_normal!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reliab</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>access_reliab_normal!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>access_reliab_normal!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.34083994593771799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28693953299804598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.293557217380921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33146870032396297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35539378527190302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50630656126787199</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44110603180566199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36542599840055001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41909672113965901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.31372937205773999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.42130995886023398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38817687259210498</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.36276053367396499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.33762154043634401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.42393598522551401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE02-40E5-AC1A-4851F7DC5F42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="64536943"/>
-        <c:axId val="64536111"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="64536943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64536111"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="64536111"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64536943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>access_reliab_normal!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1658,7 +1325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2402,7 +2069,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3138,7 +2805,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3610,7 +3277,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11447,7 +11114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$8</c:f>
+              <c:f>access_reliab_home!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11470,7 +11137,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11524,7 +11191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$8:$P$8</c:f>
+              <c:f>access_reliab_home!$B$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11588,7 +11255,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$9</c:f>
+              <c:f>access_reliab_home!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11611,7 +11278,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11665,7 +11332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$9:$P$9</c:f>
+              <c:f>access_reliab_home!$B$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11729,7 +11396,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$10</c:f>
+              <c:f>access_reliab_home!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11752,7 +11419,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11806,7 +11473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$10:$P$10</c:f>
+              <c:f>access_reliab_home!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11870,7 +11537,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$11</c:f>
+              <c:f>access_reliab_home!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11893,7 +11560,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11947,7 +11614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$11:$P$11</c:f>
+              <c:f>access_reliab_home!$B$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12011,7 +11678,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$12</c:f>
+              <c:f>access_reliab_home!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12034,7 +11701,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12088,7 +11755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$12:$P$12</c:f>
+              <c:f>access_reliab_home!$B$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12152,7 +11819,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$13</c:f>
+              <c:f>access_reliab_home!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12175,7 +11842,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12229,7 +11896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$13:$P$13</c:f>
+              <c:f>access_reliab_home!$B$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12293,7 +11960,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$14</c:f>
+              <c:f>access_reliab_home!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12318,7 +11985,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12372,7 +12039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$14:$P$14</c:f>
+              <c:f>access_reliab_home!$B$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12436,7 +12103,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$15</c:f>
+              <c:f>access_reliab_home!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12461,7 +12128,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12515,7 +12182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$15:$P$15</c:f>
+              <c:f>access_reliab_home!$B$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -12831,691 +12498,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10/5/2019</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>access_reliab_home!$B$17:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>access_reliab_home!$B$18:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.33875113621123798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39518475428973199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43128831951957403</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.408563200878235</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51138326759115404</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57666230827139497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52896084103705998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.485107431084562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56204230939358402</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55565053611099802</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.51165532759878396</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49741231092263399</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.455647326460762</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.449975080513973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45802058885041702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C4E-4C56-9D44-4EF5B56F6CA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="640450383"/>
-        <c:axId val="640466607"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="640450383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="640466607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="640466607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="640450383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>access_reliab_home!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10/6/2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>access_reliab_home!$B$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.34485140541808001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.340048374035334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42496273526981199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45529750683217102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54972002274815102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72708014823693401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51326097155012296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51065082154102603</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.37610267922502499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.34967926910325098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37852043910663402</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35703509988145299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.71372116189558599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.60354602782300604</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98753089978424702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>access_reliab!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BEE-418A-BA01-8CA637A5E276}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="630945359"/>
-        <c:axId val="640460783"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="630945359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="640460783"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="640460783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="630945359"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>access_reliab_home!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -14136,7 +13118,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14150,52 +13132,164 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7150286769709345E-2"/>
+          <c:y val="5.7060367454068242E-2"/>
+          <c:w val="0.89587440458831535"/>
+          <c:h val="0.81138050452026833"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$8</c:f>
+              <c:f>access_reliab_home!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/1/2018</c:v>
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_home!$B$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.35679938550005724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34974856273915095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41366661661014398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44402030265143672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51070353571369476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52325109266163694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4814187566166872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43291018243215629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38960839816689929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36313753331235321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39300178867959246</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53742579047874728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61427207368820602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48364407928286196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51690968557496275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FA9-401C-AB4A-09126690CC27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_home!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14214,7 +13308,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$7:$P$7</c:f>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14268,54 +13362,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$8:$P$8</c:f>
+              <c:f>access_reliab_home!$B$6:$P$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.33980348731569998</c:v>
+                  <c:v>0.35679938550005724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41621522375289999</c:v>
+                  <c:v>0.34974856273915095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.545194940347138</c:v>
+                  <c:v>0.41366661661014398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47933166378122999</c:v>
+                  <c:v>0.44402030265143672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45200454828888897</c:v>
+                  <c:v>0.51070353571369476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45127545622443499</c:v>
+                  <c:v>0.52325109266163694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39462807892875101</c:v>
+                  <c:v>0.4814187566166872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.497897300158814</c:v>
+                  <c:v>0.43291018243215629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49243933588761102</c:v>
+                  <c:v>0.38960839816689929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67388439716819004</c:v>
+                  <c:v>0.36313753331235321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73122884966824397</c:v>
+                  <c:v>0.39300178867959246</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.508723308242789</c:v>
+                  <c:v>0.53742579047874728</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47369381122992199</c:v>
+                  <c:v>0.61427207368820602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41619824332654198</c:v>
+                  <c:v>0.48364407928286196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.348824825398868</c:v>
+                  <c:v>0.51690968557496275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14323,7 +13417,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D4A-4742-8F3E-DD3D50AD12D9}"/>
+              <c16:uniqueId val="{00000002-6FA9-401C-AB4A-09126690CC27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14336,11 +13430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1567559567"/>
-        <c:axId val="1567564975"/>
+        <c:axId val="2005706896"/>
+        <c:axId val="2005694416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1567559567"/>
+        <c:axId val="2005706896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14353,7 +13447,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -14372,6 +13466,406 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91806965101584526"/>
+              <c:y val="0.77013888888888893"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005694416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2005694416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accessibility Unreliability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005706896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7150286769709345E-2"/>
+          <c:y val="5.7060367454068242E-2"/>
+          <c:w val="0.89587440458831535"/>
+          <c:h val="0.81138050452026833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_home!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_home!$B$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.34062403382285977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39272007134388232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40762120059802792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43192611718692286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37780760482298786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37356285210029261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37364259373076825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40320754878035514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55180812207988694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53434287737317698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49030138874504881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41405555845808895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42581847989815275</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41460419605980137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31273003964569901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9089-46D6-81A5-64D703F060FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2005706896"/>
+        <c:axId val="2005694416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2005706896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91806965101584526"/>
+              <c:y val="0.77013888888888893"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14385,7 +13879,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -14423,7 +13917,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14438,7 +13932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1567564975"/>
+        <c:crossAx val="2005694416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14446,7 +13940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1567564975"/>
+        <c:axId val="2005694416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14473,7 +13967,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -14487,13 +13981,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Accessibility</a:t>
+                  <a:t>Accessibility Unreliability</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Unreliability</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -14510,7 +13999,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -14526,7 +14015,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14542,7 +14031,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14557,7 +14046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1567559567"/>
+        <c:crossAx val="2005706896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14600,7 +14089,467 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7150286769709345E-2"/>
+          <c:y val="5.7060367454068242E-2"/>
+          <c:w val="0.89587440458831535"/>
+          <c:h val="0.81138050452026833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_home!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_home!$B$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.33875113621123798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39518475428973199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43128831951957403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.408563200878235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51138326759115404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57666230827139497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52896084103705998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.485107431084562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56204230939358402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55565053611099802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51165532759878396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49741231092263399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.455647326460762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.449975080513973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45802058885041702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BC3-456A-801B-90937F47094C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2005706896"/>
+        <c:axId val="2005694416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2005706896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91806965101584526"/>
+              <c:y val="0.77013888888888893"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005694416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2005694416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accessibility Unreliability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005706896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -14668,11 +14617,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_home!$A$2</c:f>
+              <c:f>access_reliab_normal!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9/8/2018</c:v>
+                  <c:v>reliab</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14691,7 +14640,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_home!$B$1:$P$1</c:f>
+              <c:f>access_reliab_normal!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14745,54 +14694,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_home!$B$2:$P$2</c:f>
+              <c:f>access_reliab_normal!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.33930418480368901</c:v>
+                  <c:v>0.34083994593771799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38769878840011202</c:v>
+                  <c:v>0.28693953299804598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35942564312202502</c:v>
+                  <c:v>0.293557217380921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40940229689756602</c:v>
+                  <c:v>0.33146870032396297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51327330439852303</c:v>
+                  <c:v>0.35539378527190302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.461559065531644</c:v>
+                  <c:v>0.50630656126787199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45991806398539697</c:v>
+                  <c:v>0.44110603180566199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35110170793412498</c:v>
+                  <c:v>0.36542599840055001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40671670803552701</c:v>
+                  <c:v>0.41909672113965901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34270727923467798</c:v>
+                  <c:v>0.31372937205773999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39224322252504101</c:v>
+                  <c:v>0.42130995886023398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52757047441209304</c:v>
+                  <c:v>0.38817687259210498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56883739529671895</c:v>
+                  <c:v>0.36276053367396499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51685134344925998</c:v>
+                  <c:v>0.33762154043634401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.34029427466577</c:v>
+                  <c:v>0.42393598522551401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14800,7 +14749,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3F9-4275-A228-CDFBF99B85B2}"/>
+              <c16:uniqueId val="{00000000-FE02-40E5-AC1A-4851F7DC5F42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14813,11 +14762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="174340255"/>
-        <c:axId val="174340671"/>
+        <c:axId val="64536943"/>
+        <c:axId val="64536111"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174340255"/>
+        <c:axId val="64536943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14860,7 +14809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174340671"/>
+        <c:crossAx val="64536111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14868,7 +14817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174340671"/>
+        <c:axId val="64536111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14919,7 +14868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174340255"/>
+        <c:crossAx val="64536943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15136,86 +15085,6 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17640,1038 +17509,6 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23444,13 +22281,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23478,23 +22315,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71435</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>71435</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E86F45-FF84-4C05-8FFE-784664BC5715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B21236-82E9-49E1-A20B-D02A1A6D802A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23514,23 +22351,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71435</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>71435</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6169F1DE-486E-4A0A-88AE-332C257B27BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B092235E-B245-867B-45C5-42EC822912BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23550,27 +22387,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71435</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>71435</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B21236-82E9-49E1-A20B-D02A1A6D802A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBE5247-E351-4AFF-961E-6911C2CA8D0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -23586,27 +22425,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0290EBF-8936-423B-BD19-D33C3F81BD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D16E4C-E3F6-42DA-AE8F-FC45CB005B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -23615,42 +22456,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EB26A7-2ED9-490E-BE2F-CC95965E4DE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23819,16 +22624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26557,11 +25362,45 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC023FC-DA28-479F-B531-4EB0E9FE3D5E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26852,233 +25691,177 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <f>AVERAGE(B2:B5)</f>
         <v>0.35679938550005724</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <f t="shared" ref="C6:P6" si="0">AVERAGE(C2:C5)</f>
         <v>0.34974856273915095</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0.41366661661014398</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>0.44402030265143672</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>0.51070353571369476</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>0.52325109266163694</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>0.4814187566166872</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>0.43291018243215629</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>0.38960839816689929</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>0.36313753331235321</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <f t="shared" si="0"/>
         <v>0.39300178867959246</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <f t="shared" si="0"/>
         <v>0.53742579047874728</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <f t="shared" si="0"/>
         <v>0.61427207368820602</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
         <v>0.48364407928286196</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <f t="shared" si="0"/>
         <v>0.51690968557496275</v>
       </c>
-      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>18</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>19</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B8">
-        <v>0.33980348731569998</v>
-      </c>
-      <c r="C8">
-        <v>0.41621522375289999</v>
-      </c>
-      <c r="D8">
-        <v>0.545194940347138</v>
-      </c>
-      <c r="E8">
-        <v>0.47933166378122999</v>
-      </c>
-      <c r="F8">
-        <v>0.45200454828888897</v>
-      </c>
-      <c r="G8">
-        <v>0.45127545622443499</v>
-      </c>
-      <c r="H8">
-        <v>0.39462807892875101</v>
-      </c>
-      <c r="I8">
-        <v>0.497897300158814</v>
-      </c>
-      <c r="J8">
-        <v>0.49243933588761102</v>
-      </c>
-      <c r="K8">
-        <v>0.67388439716819004</v>
-      </c>
-      <c r="L8">
-        <v>0.73122884966824397</v>
-      </c>
-      <c r="M8">
-        <v>0.508723308242789</v>
-      </c>
-      <c r="N8">
-        <v>0.47369381122992199</v>
-      </c>
-      <c r="O8">
-        <v>0.41619824332654198</v>
-      </c>
-      <c r="P8">
-        <v>0.348824825398868</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>18</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43386</v>
+        <v>43344</v>
       </c>
       <c r="B9">
-        <v>0.33170376947175401</v>
+        <v>0.33980348731569998</v>
       </c>
       <c r="C9">
-        <v>0.41008200775134002</v>
+        <v>0.41621522375289999</v>
       </c>
       <c r="D9">
-        <v>0.329276100490969</v>
+        <v>0.545194940347138</v>
       </c>
       <c r="E9">
-        <v>0.34169202162066498</v>
+        <v>0.47933166378122999</v>
       </c>
       <c r="F9">
-        <v>0.31200802019901902</v>
+        <v>0.45200454828888897</v>
       </c>
       <c r="G9">
-        <v>0.33653990709499598</v>
+        <v>0.45127545622443499</v>
       </c>
       <c r="H9">
-        <v>0.38028507742843698</v>
+        <v>0.39462807892875101</v>
       </c>
       <c r="I9">
-        <v>0.35086121423136302</v>
+        <v>0.497897300158814</v>
       </c>
       <c r="J9">
-        <v>0.65326288943246602</v>
+        <v>0.49243933588761102</v>
       </c>
       <c r="K9">
-        <v>0.44183438512706802</v>
+        <v>0.67388439716819004</v>
       </c>
       <c r="L9">
-        <v>0.38868120578595999</v>
+        <v>0.73122884966824397</v>
       </c>
       <c r="M9">
-        <v>0.41201862621816998</v>
+        <v>0.508723308242789</v>
       </c>
       <c r="N9">
-        <v>0.37652052639379202</v>
+        <v>0.47369381122992199</v>
       </c>
       <c r="O9">
-        <v>0.41691871102647399</v>
+        <v>0.41619824332654198</v>
       </c>
       <c r="P9">
-        <v>0.257176810576494</v>
+        <v>0.348824825398868</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S9" s="3">
         <v>0.5</v>
@@ -27086,55 +25869,55 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43407</v>
+        <v>43386</v>
       </c>
       <c r="B10">
-        <v>0.32584395578593101</v>
+        <v>0.33170376947175401</v>
       </c>
       <c r="C10">
-        <v>0.43753979298118501</v>
+        <v>0.41008200775134002</v>
       </c>
       <c r="D10">
-        <v>0.44250800431016102</v>
+        <v>0.329276100490969</v>
       </c>
       <c r="E10">
-        <v>0.44005752437232298</v>
+        <v>0.34169202162066498</v>
       </c>
       <c r="F10">
-        <v>0.42677372362232902</v>
+        <v>0.31200802019901902</v>
       </c>
       <c r="G10">
-        <v>0.41125807198333297</v>
+        <v>0.33653990709499598</v>
       </c>
       <c r="H10">
-        <v>0.42591890867752902</v>
+        <v>0.38028507742843698</v>
       </c>
       <c r="I10">
-        <v>0.41040097993298902</v>
+        <v>0.35086121423136302</v>
       </c>
       <c r="J10">
-        <v>0.53886791622183805</v>
+        <v>0.65326288943246602</v>
       </c>
       <c r="K10">
-        <v>0.54920369906180599</v>
+        <v>0.44183438512706802</v>
       </c>
       <c r="L10">
-        <v>0.43470685634844403</v>
+        <v>0.38868120578595999</v>
       </c>
       <c r="M10">
-        <v>0.43083280318443801</v>
+        <v>0.41201862621816998</v>
       </c>
       <c r="N10">
-        <v>0.44372201689493801</v>
+        <v>0.37652052639379202</v>
       </c>
       <c r="O10">
-        <v>0.313988572475767</v>
+        <v>0.41691871102647399</v>
       </c>
       <c r="P10">
-        <v>0.269990207567463</v>
+        <v>0.257176810576494</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10">
         <v>17</v>
@@ -27145,55 +25928,55 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43428</v>
+        <v>43407</v>
       </c>
       <c r="B11">
-        <v>0.36270903623294698</v>
+        <v>0.32584395578593101</v>
       </c>
       <c r="C11">
-        <v>0.39580690168356403</v>
+        <v>0.43753979298118501</v>
       </c>
       <c r="D11">
-        <v>0.37745071758304899</v>
+        <v>0.44250800431016102</v>
       </c>
       <c r="E11">
-        <v>0.36372791891932499</v>
+        <v>0.44005752437232298</v>
       </c>
       <c r="F11">
-        <v>0.32811665112087901</v>
+        <v>0.42677372362232902</v>
       </c>
       <c r="G11">
-        <v>0.29221251753136401</v>
+        <v>0.41125807198333297</v>
       </c>
       <c r="H11">
-        <v>0.24962794635298299</v>
+        <v>0.42591890867752902</v>
       </c>
       <c r="I11">
-        <v>0.25342809925750898</v>
+        <v>0.41040097993298902</v>
       </c>
       <c r="J11">
-        <v>0.27502111719122901</v>
+        <v>0.53886791622183805</v>
       </c>
       <c r="K11">
-        <v>0.58123318607559604</v>
+        <v>0.54920369906180599</v>
       </c>
       <c r="L11">
-        <v>0.55785338663779704</v>
+        <v>0.43470685634844403</v>
       </c>
       <c r="M11">
-        <v>0.34499608636578399</v>
+        <v>0.43083280318443801</v>
       </c>
       <c r="N11">
-        <v>0.32224872923449499</v>
+        <v>0.44372201689493801</v>
       </c>
       <c r="O11">
-        <v>0.28411098947513502</v>
+        <v>0.313988572475767</v>
       </c>
       <c r="P11">
-        <v>0.28721141008802797</v>
+        <v>0.269990207567463</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R11">
         <v>17</v>
@@ -27204,58 +25987,58 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43715</v>
+        <v>43428</v>
       </c>
       <c r="B12">
-        <v>0.35242836901763203</v>
+        <v>0.36270903623294698</v>
       </c>
       <c r="C12">
-        <v>0.41565442487913101</v>
+        <v>0.39580690168356403</v>
       </c>
       <c r="D12">
-        <v>0.463470158190672</v>
+        <v>0.37745071758304899</v>
       </c>
       <c r="E12">
-        <v>0.51473134441949797</v>
+        <v>0.36372791891932499</v>
       </c>
       <c r="F12">
-        <v>0.49997443719218099</v>
+        <v>0.32811665112087901</v>
       </c>
       <c r="G12">
-        <v>0.39999689362438501</v>
+        <v>0.29221251753136401</v>
       </c>
       <c r="H12">
-        <v>0.42312427345221099</v>
+        <v>0.24962794635298299</v>
       </c>
       <c r="I12">
-        <v>0.51597883451750404</v>
+        <v>0.25342809925750898</v>
       </c>
       <c r="J12">
-        <v>0.79613599638735699</v>
+        <v>0.27502111719122901</v>
       </c>
       <c r="K12">
-        <v>0.55631954809311002</v>
+        <v>0.58123318607559604</v>
       </c>
       <c r="L12">
-        <v>0.38694004754086703</v>
+        <v>0.55785338663779704</v>
       </c>
       <c r="M12">
-        <v>0.39618457175362898</v>
+        <v>0.34499608636578399</v>
       </c>
       <c r="N12">
-        <v>0.51466121913784602</v>
+        <v>0.32224872923449499</v>
       </c>
       <c r="O12">
-        <v>0.56576742534373503</v>
+        <v>0.28411098947513502</v>
       </c>
       <c r="P12">
-        <v>0.352819084333855</v>
+        <v>0.28721141008802797</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S12" s="3">
         <v>0.5</v>
@@ -27263,52 +26046,52 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43764</v>
+        <v>43715</v>
       </c>
       <c r="B13">
-        <v>0.30804525885212702</v>
+        <v>0.35242836901763203</v>
       </c>
       <c r="C13">
-        <v>0.42220840622876299</v>
+        <v>0.41565442487913101</v>
       </c>
       <c r="D13">
-        <v>0.319722951460649</v>
+        <v>0.463470158190672</v>
       </c>
       <c r="E13">
-        <v>0.44264662290916701</v>
+        <v>0.51473134441949797</v>
       </c>
       <c r="F13">
-        <v>0.330133177862794</v>
+        <v>0.49997443719218099</v>
       </c>
       <c r="G13">
-        <v>0.42389464006399902</v>
+        <v>0.39999689362438501</v>
       </c>
       <c r="H13">
-        <v>0.38238223962418599</v>
+        <v>0.42312427345221099</v>
       </c>
       <c r="I13">
-        <v>0.43636793959977699</v>
+        <v>0.51597883451750404</v>
       </c>
       <c r="J13">
-        <v>0.608835559729619</v>
+        <v>0.79613599638735699</v>
       </c>
       <c r="K13">
-        <v>0.52232047754807798</v>
+        <v>0.55631954809311002</v>
       </c>
       <c r="L13">
-        <v>0.48995367657626698</v>
+        <v>0.38694004754086703</v>
       </c>
       <c r="M13">
-        <v>0.45831582459303999</v>
+        <v>0.39618457175362898</v>
       </c>
       <c r="N13">
-        <v>0.416509427138337</v>
+        <v>0.51466121913784602</v>
       </c>
       <c r="O13">
-        <v>0.477004647942534</v>
+        <v>0.56576742534373503</v>
       </c>
       <c r="P13">
-        <v>0.389977962279622</v>
+        <v>0.352819084333855</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -27322,52 +26105,52 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43778</v>
+        <v>43764</v>
       </c>
       <c r="B14">
-        <v>0.321824425520503</v>
+        <v>0.30804525885212702</v>
       </c>
       <c r="C14">
-        <v>0.32513371981467798</v>
+        <v>0.42220840622876299</v>
       </c>
       <c r="D14">
-        <v>0.367767281423033</v>
+        <v>0.319722951460649</v>
       </c>
       <c r="E14">
-        <v>0.38929407686702799</v>
+        <v>0.44264662290916701</v>
       </c>
       <c r="F14">
-        <v>0.33167031164570798</v>
+        <v>0.330133177862794</v>
       </c>
       <c r="G14">
-        <v>0.36659182778251997</v>
+        <v>0.42389464006399902</v>
       </c>
       <c r="H14">
-        <v>0.39757938292056</v>
+        <v>0.38238223962418599</v>
       </c>
       <c r="I14">
-        <v>0.40656694175029101</v>
+        <v>0.43636793959977699</v>
       </c>
       <c r="J14">
-        <v>0.489571273133796</v>
+        <v>0.608835559729619</v>
       </c>
       <c r="K14">
-        <v>0.376296041702468</v>
+        <v>0.52232047754807798</v>
       </c>
       <c r="L14">
-        <v>0.40217048916479797</v>
+        <v>0.48995367657626698</v>
       </c>
       <c r="M14">
-        <v>0.33442907451039999</v>
+        <v>0.45831582459303999</v>
       </c>
       <c r="N14">
-        <v>0.43624112111102997</v>
+        <v>0.416509427138337</v>
       </c>
       <c r="O14">
-        <v>0.40049457945095401</v>
+        <v>0.477004647942534</v>
       </c>
       <c r="P14">
-        <v>0.31416655603513799</v>
+        <v>0.389977962279622</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -27381,58 +26164,58 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43792</v>
+        <v>43778</v>
       </c>
       <c r="B15">
-        <v>0.382633968386284</v>
+        <v>0.321824425520503</v>
       </c>
       <c r="C15">
-        <v>0.31912009365949801</v>
+        <v>0.32513371981467798</v>
       </c>
       <c r="D15">
-        <v>0.41557945097855198</v>
+        <v>0.367767281423033</v>
       </c>
       <c r="E15">
-        <v>0.483927764606147</v>
+        <v>0.38929407686702799</v>
       </c>
       <c r="F15">
-        <v>0.34177996865210403</v>
+        <v>0.33167031164570798</v>
       </c>
       <c r="G15">
-        <v>0.30673350249730902</v>
+        <v>0.36659182778251997</v>
       </c>
       <c r="H15">
-        <v>0.33559484246148902</v>
+        <v>0.39757938292056</v>
       </c>
       <c r="I15">
-        <v>0.35415908079459402</v>
+        <v>0.40656694175029101</v>
       </c>
       <c r="J15">
-        <v>0.56033088865517899</v>
+        <v>0.489571273133796</v>
       </c>
       <c r="K15">
-        <v>0.57365128420910005</v>
+        <v>0.376296041702468</v>
       </c>
       <c r="L15">
-        <v>0.53087659823801403</v>
+        <v>0.40217048916479797</v>
       </c>
       <c r="M15">
-        <v>0.42694417279646202</v>
+        <v>0.33442907451039999</v>
       </c>
       <c r="N15">
-        <v>0.42295098804486198</v>
+        <v>0.43624112111102997</v>
       </c>
       <c r="O15">
-        <v>0.44235039943727</v>
+        <v>0.40049457945095401</v>
       </c>
       <c r="P15">
-        <v>0.28167346088612399</v>
+        <v>0.31416655603513799</v>
       </c>
       <c r="Q15">
         <v>11</v>
       </c>
       <c r="R15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S15" s="3">
         <v>0.5</v>
@@ -27440,280 +26223,305 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B16">
+        <v>0.382633968386284</v>
+      </c>
+      <c r="C16">
+        <v>0.31912009365949801</v>
+      </c>
+      <c r="D16">
+        <v>0.41557945097855198</v>
+      </c>
+      <c r="E16">
+        <v>0.483927764606147</v>
+      </c>
+      <c r="F16">
+        <v>0.34177996865210403</v>
+      </c>
+      <c r="G16">
+        <v>0.30673350249730902</v>
+      </c>
+      <c r="H16">
+        <v>0.33559484246148902</v>
+      </c>
+      <c r="I16">
+        <v>0.35415908079459402</v>
+      </c>
+      <c r="J16">
+        <v>0.56033088865517899</v>
+      </c>
+      <c r="K16">
+        <v>0.57365128420910005</v>
+      </c>
+      <c r="L16">
+        <v>0.53087659823801403</v>
+      </c>
+      <c r="M16">
+        <v>0.42694417279646202</v>
+      </c>
+      <c r="N16">
+        <v>0.42295098804486198</v>
+      </c>
+      <c r="O16">
+        <v>0.44235039943727</v>
+      </c>
+      <c r="P16">
+        <v>0.28167346088612399</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B16">
-        <f>AVERAGE(B8:B15)</f>
+      <c r="B17">
+        <f>AVERAGE(B9:B16)</f>
         <v>0.34062403382285977</v>
       </c>
-      <c r="C16">
-        <f t="shared" ref="C16:P16" si="1">AVERAGE(C8:C15)</f>
+      <c r="C17">
+        <f t="shared" ref="C17:P17" si="1">AVERAGE(C9:C16)</f>
         <v>0.39272007134388232</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>0.40762120059802792</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>0.43192611718692286</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>0.37780760482298786</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>0.37356285210029261</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>0.37364259373076825</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>0.40320754878035514</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>0.55180812207988694</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>0.53434287737317698</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <f t="shared" si="1"/>
         <v>0.49030138874504881</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>0.41405555845808895</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>0.42581847989815275</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <f t="shared" si="1"/>
         <v>0.41460419605980137</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <f t="shared" si="1"/>
         <v>0.31273003964569901</v>
       </c>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>13</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>15</v>
       </c>
-      <c r="J17">
+      <c r="J20">
         <v>16</v>
       </c>
-      <c r="K17">
+      <c r="K20">
         <v>17</v>
       </c>
-      <c r="L17">
+      <c r="L20">
         <v>18</v>
       </c>
-      <c r="M17">
+      <c r="M20">
         <v>19</v>
       </c>
-      <c r="N17">
+      <c r="N20">
         <v>20</v>
       </c>
-      <c r="O17">
+      <c r="O20">
         <v>21</v>
       </c>
-      <c r="P17">
+      <c r="P20">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>43743</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <v>0.33875113621123798</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>0.39518475428973199</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>0.43128831951957403</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>0.408563200878235</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>0.51138326759115404</v>
       </c>
-      <c r="G18">
+      <c r="G21">
         <v>0.57666230827139497</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>0.52896084103705998</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>0.485107431084562</v>
       </c>
-      <c r="J18">
+      <c r="J21">
         <v>0.56204230939358402</v>
       </c>
-      <c r="K18">
+      <c r="K21">
         <v>0.55565053611099802</v>
       </c>
-      <c r="L18">
+      <c r="L21">
         <v>0.51165532759878396</v>
       </c>
-      <c r="M18">
+      <c r="M21">
         <v>0.49741231092263399</v>
       </c>
-      <c r="N18">
+      <c r="N21">
         <v>0.455647326460762</v>
       </c>
-      <c r="O18">
+      <c r="O21">
         <v>0.449975080513973</v>
       </c>
-      <c r="P18">
+      <c r="P21">
         <v>0.45802058885041702</v>
       </c>
-      <c r="R18">
+      <c r="R21">
         <v>16</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S21" s="3">
         <v>0.8125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43351</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43365</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43729</v>
-      </c>
-      <c r="B27">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43379</v>
+        <v>43351</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43344</v>
+        <v>43365</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43386</v>
+        <v>43729</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43407</v>
+        <v>43379</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43428</v>
+        <v>43344</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3">
         <v>0.5</v>
@@ -27721,13 +26529,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43715</v>
+        <v>43386</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="3">
         <v>0.5</v>
@@ -27735,13 +26543,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43764</v>
+        <v>43407</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>0.5</v>
@@ -27749,13 +26557,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43778</v>
+        <v>43428</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3">
         <v>0.5</v>
@@ -27763,13 +26571,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43792</v>
+        <v>43715</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3">
         <v>0.5</v>
@@ -27777,25 +26585,68 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43743</v>
+        <v>43764</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>16</v>
       </c>
       <c r="D37" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3">
         <v>0.8125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27807,7 +26658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -28403,7 +27254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE4E835-AB81-464D-B44F-2B6F511EEA8B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -28672,7 +27523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -29060,12 +27911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29109,11 +27960,11 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E14" si="0">(D2-B2)*24</f>
+        <f>(D2-B2)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F13" si="1">(C2-G2)*24</f>
+        <f>(C2-G2)*24</f>
         <v>1.3999999999999977</v>
       </c>
       <c r="G2" s="3">
@@ -29138,18 +27989,18 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>(D3-B3)*24</f>
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f>(C3-G3)*24</f>
         <v>1.6999999999999993</v>
       </c>
       <c r="G3" s="3">
         <v>0.63750000000000007</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H14" si="2">G3-D3</f>
+        <f t="shared" ref="H3:H14" si="0">G3-D3</f>
         <v>0.13750000000000007</v>
       </c>
     </row>
@@ -29167,18 +28018,18 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>(D4-B4)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>(C4-G4)*24</f>
         <v>1.2500000000000009</v>
       </c>
       <c r="G4" s="3">
         <v>0.65625</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
     </row>
@@ -29196,18 +28047,18 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>(D5-B5)*24</f>
         <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f>(C5-G5)*24</f>
         <v>0.86666666666666892</v>
       </c>
       <c r="G5" s="3">
         <v>0.67222222222222217</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.17222222222222217</v>
       </c>
     </row>
@@ -29225,18 +28076,18 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>(D6-B6)*24</f>
         <v>1.0000000000000004</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f>(C6-G6)*24</f>
         <v>0.83333333333333304</v>
       </c>
       <c r="G6" s="3">
         <v>0.63194444444444442</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.13194444444444442</v>
       </c>
     </row>
@@ -29254,18 +28105,18 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>(D7-B7)*24</f>
         <v>1.0000000000000004</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>(C7-G7)*24</f>
         <v>0.9833333333333325</v>
       </c>
       <c r="G7" s="3">
         <v>0.62569444444444444</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.12569444444444444</v>
       </c>
     </row>
@@ -29283,18 +28134,18 @@
         <v>0.5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>(D8-B8)*24</f>
         <v>1.0000000000000004</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>(C8-G8)*24</f>
         <v>0.41666666666666519</v>
       </c>
       <c r="G8" s="3">
         <v>0.64930555555555558</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.14930555555555558</v>
       </c>
     </row>
@@ -29312,18 +28163,18 @@
         <v>0.5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>(D9-B9)*24</f>
         <v>1.0000000000000004</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f>(C9-G9)*24</f>
         <v>1.5500000000000025</v>
       </c>
       <c r="G9" s="3">
         <v>0.64374999999999993</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.14374999999999993</v>
       </c>
     </row>
@@ -29341,18 +28192,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>(D10-B10)*24</f>
         <v>3.5000000000000009</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f>(C10-G10)*24</f>
         <v>1.3000000000000007</v>
       </c>
       <c r="G10" s="3">
         <v>0.77916666666666667</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.1333333333333333</v>
       </c>
     </row>
@@ -29370,18 +28221,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>(D11-B11)*24</f>
         <v>1.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>(C11-G11)*24</f>
         <v>1.1499999999999986</v>
       </c>
       <c r="G11" s="3">
         <v>0.78541666666666676</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.13958333333333339</v>
       </c>
     </row>
@@ -29399,18 +28250,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>(D12-B12)*24</f>
         <v>3.5000000000000009</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>(C12-G12)*24</f>
         <v>0.13333333333333286</v>
       </c>
       <c r="G12" s="3">
         <v>0.78611111111111109</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.14027777777777772</v>
       </c>
     </row>
@@ -29428,18 +28279,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>(D13-B13)*24</f>
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f>(C13-G13)*24</f>
         <v>2.1999999999999975</v>
       </c>
       <c r="G13" s="3">
         <v>0.82500000000000007</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.15833333333333344</v>
       </c>
     </row>
@@ -29454,19 +28305,27 @@
         <v>0.8125</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>(D14-B14)*24</f>
         <v>3.5000000000000009</v>
       </c>
       <c r="G14" s="3">
         <v>0.95972222222222225</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.14722222222222225</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
+      <c r="E15">
+        <f>AVERAGE(E2:E14)</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(F2:F13)</f>
+        <v>1.1486111111111108</v>
+      </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
@@ -29536,8 +28395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716C683-B680-4781-9660-8CD99C8C0C85}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OSU\academic\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF471A56-07DB-4C25-ACF6-5DADFA8B859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A9137-4367-4388-A878-4DA7AFA09C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -3159,6 +3159,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13132,7 +13187,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Game Start: 3:30 / 4:00 pm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -13656,7 +13729,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Game Start: 12:00</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>pm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -14116,7 +14252,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Game Start: 7:30</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> pm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -22625,15 +22821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25399,8 +25595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27527,7 +27723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:M20"/>
     </sheetView>
   </sheetViews>
@@ -27915,7 +28111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -27960,11 +28156,11 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <f>(D2-B2)*24</f>
+        <f t="shared" ref="E2:E14" si="0">(D2-B2)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F2">
-        <f>(C2-G2)*24</f>
+        <f t="shared" ref="F2:F13" si="1">(C2-G2)*24</f>
         <v>1.3999999999999977</v>
       </c>
       <c r="G2" s="3">
@@ -27989,18 +28185,18 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f>(D3-B3)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F3">
-        <f>(C3-G3)*24</f>
+        <f t="shared" si="1"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="G3" s="3">
         <v>0.63750000000000007</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H14" si="0">G3-D3</f>
+        <f t="shared" ref="H3:H14" si="2">G3-D3</f>
         <v>0.13750000000000007</v>
       </c>
     </row>
@@ -28018,18 +28214,18 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <f>(D4-B4)*24</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="F4">
-        <f>(C4-G4)*24</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
       <c r="G4" s="3">
         <v>0.65625</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
     </row>
@@ -28047,18 +28243,18 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <f>(D5-B5)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5">
-        <f>(C5-G5)*24</f>
+        <f t="shared" si="1"/>
         <v>0.86666666666666892</v>
       </c>
       <c r="G5" s="3">
         <v>0.67222222222222217</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17222222222222217</v>
       </c>
     </row>
@@ -28076,18 +28272,18 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <f>(D6-B6)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F6">
-        <f>(C6-G6)*24</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333304</v>
       </c>
       <c r="G6" s="3">
         <v>0.63194444444444442</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13194444444444442</v>
       </c>
     </row>
@@ -28105,18 +28301,18 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f>(D7-B7)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F7">
-        <f>(C7-G7)*24</f>
+        <f t="shared" si="1"/>
         <v>0.9833333333333325</v>
       </c>
       <c r="G7" s="3">
         <v>0.62569444444444444</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12569444444444444</v>
       </c>
     </row>
@@ -28134,18 +28330,18 @@
         <v>0.5</v>
       </c>
       <c r="E8">
-        <f>(D8-B8)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F8">
-        <f>(C8-G8)*24</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666519</v>
       </c>
       <c r="G8" s="3">
         <v>0.64930555555555558</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14930555555555558</v>
       </c>
     </row>
@@ -28163,18 +28359,18 @@
         <v>0.5</v>
       </c>
       <c r="E9">
-        <f>(D9-B9)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F9">
-        <f>(C9-G9)*24</f>
+        <f t="shared" si="1"/>
         <v>1.5500000000000025</v>
       </c>
       <c r="G9" s="3">
         <v>0.64374999999999993</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14374999999999993</v>
       </c>
     </row>
@@ -28192,18 +28388,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E10">
-        <f>(D10-B10)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="F10">
-        <f>(C10-G10)*24</f>
+        <f t="shared" si="1"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="G10" s="3">
         <v>0.77916666666666667</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1333333333333333</v>
       </c>
     </row>
@@ -28221,18 +28417,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E11">
-        <f>(D11-B11)*24</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="F11">
-        <f>(C11-G11)*24</f>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="G11" s="3">
         <v>0.78541666666666676</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13958333333333339</v>
       </c>
     </row>
@@ -28250,18 +28446,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E12">
-        <f>(D12-B12)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="F12">
-        <f>(C12-G12)*24</f>
+        <f t="shared" si="1"/>
         <v>0.13333333333333286</v>
       </c>
       <c r="G12" s="3">
         <v>0.78611111111111109</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14027777777777772</v>
       </c>
     </row>
@@ -28279,18 +28475,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E13">
-        <f>(D13-B13)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F13">
-        <f>(C13-G13)*24</f>
+        <f t="shared" si="1"/>
         <v>2.1999999999999975</v>
       </c>
       <c r="G13" s="3">
         <v>0.82500000000000007</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15833333333333344</v>
       </c>
     </row>
@@ -28305,14 +28501,14 @@
         <v>0.8125</v>
       </c>
       <c r="E14">
-        <f>(D14-B14)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="G14" s="3">
         <v>0.95972222222222225</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14722222222222225</v>
       </c>
     </row>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OSU\academic\COTA-AccessibilityReliability\ana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A9137-4367-4388-A878-4DA7AFA09C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BE2AFC-36D3-4C19-BDBF-E13F4C62EFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
-    <sheet name="access_access_home" sheetId="22" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="football" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="control" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="30 minutes" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="60 minutes" sheetId="9" state="hidden" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="12" state="hidden" r:id="rId10"/>
-    <sheet name="raw_access_reliab_30min" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="_xltb_storage_" sheetId="23" state="veryHidden" r:id="rId12"/>
-    <sheet name="access_reliab_home" sheetId="14" r:id="rId13"/>
-    <sheet name="access_reliab_away" sheetId="20" r:id="rId14"/>
-    <sheet name="access_reliab_normal" sheetId="19" r:id="rId15"/>
-    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId16"/>
-    <sheet name="peak_number" sheetId="17" r:id="rId17"/>
-    <sheet name="peak_hour" sheetId="18" r:id="rId18"/>
+    <sheet name="peaks_example" sheetId="24" r:id="rId2"/>
+    <sheet name="access_access_home" sheetId="22" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="football" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="control" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="30 minutes" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="60 minutes" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="raw_access_reliab_30min" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="_xltb_storage_" sheetId="23" state="veryHidden" r:id="rId13"/>
+    <sheet name="access_reliab_home" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="25" r:id="rId15"/>
+    <sheet name="access_reliab_away" sheetId="20" r:id="rId16"/>
+    <sheet name="access_reliab_normal" sheetId="19" r:id="rId17"/>
+    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId18"/>
+    <sheet name="peak_number" sheetId="17" r:id="rId19"/>
+    <sheet name="peak_hour" sheetId="18" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">peak_hour!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">peak_number!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet8!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">peak_hour!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">peak_number!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Sheet8!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>football</t>
   </si>
@@ -85,9 +87,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>reliab</t>
-  </si>
-  <si>
     <t>XL Toolbox Settings</t>
   </si>
   <si>
@@ -109,7 +108,19 @@
     <t>export_path</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\7pm.tif</t>
+    <t>Before-game Peak Value</t>
+  </si>
+  <si>
+    <t>After-game Peak Value</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\peak_example.tif</t>
   </si>
 </sst>
 </file>
@@ -202,11 +213,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$10</c:f>
+              <c:f>peaks_example!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>Line</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -225,542 +236,92 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:f>peaks_example!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$X$10</c:f>
+              <c:f>peaks_example!$B$2:$L$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.8387697671706003E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9489350143824941E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5378524303770402E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4181771307869644E-3</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0233274464476361E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1920020971769638E-3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.13952785163585E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2984007255188557E-2</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.669524947881031E-3</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.2798733802412188E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.3219281066108661E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.4580794205028502E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.4293919548568139E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.3022437505511602E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9067023285232465E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.1805854361168837E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3994530774132097E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4073081133754328E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1491159705568688E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0394351451939898E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0618301658366969E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1091673033817584E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0528687326389452E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$11:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-6.4476776203085812E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.6231754967670495E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2299561060331059E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6890910907843586E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9851388401699976E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9991510038933245E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3386317240944152E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9910683052668585E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3984312501153349E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8347251510620721E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0157202958390963E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5146109707401656E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0884930076789201E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0519479215331251E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.434205923338209E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0013164561400481E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0215525674903914E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6251128449017491E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1558024163389495E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1075970446122758E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-9.8591509218048934E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.2965913069650864E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.5153109226237749E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$12:$X$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-2.1129368620896871E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6911297674326926E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6849155442874029E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7541897066203995E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4753901740813127E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0714140154615894E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6380751059863463E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9609741973421799E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8628226394976861E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.616503329444942E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10108524840543764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5263123330311006E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2608117803760159E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.8857559319311996E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2710397952802994E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3929713170720557E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.7718606471242337E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9071161185335175E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.1183055893143157E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.1450332385680928E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.1910026687987452E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.1417172342984439E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.0939058130464796E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27DD-4959-AAB7-B377C4DBC6FF}"/>
+              <c16:uniqueId val="{00000000-AFAC-4874-9F69-321C61D8322D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -773,28 +334,80 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1065174927"/>
-        <c:axId val="1534988863"/>
+        <c:axId val="84468752"/>
+        <c:axId val="84462096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1065174927"/>
+        <c:axId val="84468752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -805,7 +418,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -820,7 +433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534988863"/>
+        <c:crossAx val="84462096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -828,34 +441,85 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1534988863"/>
+        <c:axId val="84462096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unreliability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.7501517223412704E-3"/>
+              <c:y val="0.31192998116397885"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -864,7 +528,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -879,9 +543,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1065174927"/>
+        <c:crossAx val="84468752"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -891,37 +555,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -953,7 +586,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1021,9 +654,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_normal!$L$1</c:f>
+              <c:f>access_reliab_normal!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/27/2018</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1041,7 +677,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_normal!$K$2:$K$16</c:f>
+              <c:f>access_reliab_normal!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1095,54 +731,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_normal!$L$2:$L$16</c:f>
+              <c:f>access_reliab_normal!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.32427043179773102</c:v>
+                  <c:v>0.34083994593771799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.290648027240413</c:v>
+                  <c:v>0.28693953299804598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.350709921628858</c:v>
+                  <c:v>0.293557217380921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42664954772389202</c:v>
+                  <c:v>0.33146870032396297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42227291753871898</c:v>
+                  <c:v>0.35539378527190302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45120167783912501</c:v>
+                  <c:v>0.50630656126787199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38320073172561903</c:v>
+                  <c:v>0.44110603180566199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39283537003402502</c:v>
+                  <c:v>0.36542599840055001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41326792027463199</c:v>
+                  <c:v>0.41909672113965901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36347420984316697</c:v>
+                  <c:v>0.31372937205773999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38960271925172302</c:v>
+                  <c:v>0.42130995886023398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43210525222736801</c:v>
+                  <c:v>0.38817687259210498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41756400811391697</c:v>
+                  <c:v>0.36276053367396499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38918371040723898</c:v>
+                  <c:v>0.33762154043634401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.38495326479471698</c:v>
+                  <c:v>0.42393598522551401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,7 +786,430 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AABD-46A4-A063-7FF96731795A}"/>
+              <c16:uniqueId val="{00000000-6EDE-4162-9A3C-59FDA92D5EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_normal!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12/1/2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.31639120852601199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34641736341159002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40949331182159299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38171532240453399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.368022089914189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34296701165909199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.380938557735292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37549300009098402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40282303568559802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43612611199498003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45850583730920402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37088045930489599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.378835359823953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40961496230144201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25524164720785197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EDE-4162-9A3C-59FDA92D5EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_normal!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12/8/2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.28069543315900802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27439885384451101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.327598395213333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37772948908204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39273082083180799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38850092876651299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34773590367358498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37926821905126001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41691973793139903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44176719463515202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44081621058996101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40732259202450999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34131133062513802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.348187743931621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35095337095337098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6EDE-4162-9A3C-59FDA92D5EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>access_reliab_normal!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/12/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>access_reliab_normal!$B$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.32427043179773102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.290648027240413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.350709921628858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42664954772389202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42227291753871898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45120167783912501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38320073172561903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39283537003402502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41326792027463199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36347420984316697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38960271925172302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43210525222736801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41756400811391697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38918371040723898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38495326479471698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6EDE-4162-9A3C-59FDA92D5EF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1163,11 +1222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="54721471"/>
-        <c:axId val="54713567"/>
+        <c:axId val="2128111744"/>
+        <c:axId val="2128115904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54721471"/>
+        <c:axId val="2128111744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54713567"/>
+        <c:crossAx val="2128115904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54713567"/>
+        <c:axId val="2128115904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54721471"/>
+        <c:crossAx val="2128111744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,6 +1340,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4088,6 +4178,795 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>7.8387697671706003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9489350143824941E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5378524303770402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4181771307869644E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0233274464476361E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1920020971769638E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.13952785163585E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2984007255188557E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.669524947881031E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.2798733802412188E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.3219281066108661E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4580794205028502E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4293919548568139E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3022437505511602E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9067023285232465E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1805854361168837E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3994530774132097E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4073081133754328E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1491159705568688E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0394351451939898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0618301658366969E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1091673033817584E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0528687326389452E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-6.4476776203085812E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6231754967670495E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2299561060331059E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6890910907843586E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9851388401699976E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9991510038933245E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3386317240944152E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9910683052668585E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3984312501153349E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8347251510620721E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0157202958390963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5146109707401656E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0884930076789201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0519479215331251E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.434205923338209E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0013164561400481E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0215525674903914E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6251128449017491E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1558024163389495E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1075970446122758E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.8591509218048934E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2965913069650864E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.5153109226237749E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-2.1129368620896871E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6911297674326926E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6849155442874029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7541897066203995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4753901740813127E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0714140154615894E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6380751059863463E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9609741973421799E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8628226394976861E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.616503329444942E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10108524840543764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5263123330311006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2608117803760159E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8857559319311996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2710397952802994E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3929713170720557E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7718606471242337E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9071161185335175E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1183055893143157E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1450332385680928E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1910026687987452E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1417172342984439E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0939058130464796E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1065174927"/>
+        <c:axId val="1534988863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1065174927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534988863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1534988863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065174927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7609,7 +8488,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11114,7 +11993,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12498,7 +13377,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13173,7 +14052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13715,7 +14594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13946,526 +14825,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9089-46D6-81A5-64D703F060FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2005706896"/>
-        <c:axId val="2005694416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2005706896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Hour</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.91806965101584526"/>
-              <c:y val="0.77013888888888893"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2005694416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2005694416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accessibility Unreliability</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2005706896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Game Start: 7:30</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> pm</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.7150286769709345E-2"/>
-          <c:y val="5.7060367454068242E-2"/>
-          <c:w val="0.89587440458831535"/>
-          <c:h val="0.81138050452026833"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>access_reliab_home!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>access_reliab_home!$B$1:$P$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>access_reliab_home!$B$21:$P$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.33875113621123798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39518475428973199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43128831951957403</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.408563200878235</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51138326759115404</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57666230827139497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52896084103705998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.485107431084562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56204230939358402</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55565053611099802</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.51165532759878396</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49741231092263399</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.455647326460762</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.449975080513973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45802058885041702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BC3-456A-801B-90937F47094C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14773,6 +15132,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Game Start: 7:30</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> pm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14786,7 +15175,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14804,7 +15193,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7150286769709345E-2"/>
+          <c:y val="5.7060367454068242E-2"/>
+          <c:w val="0.89587440458831535"/>
+          <c:h val="0.81138050452026833"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -14813,11 +15212,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>access_reliab_normal!$C$1</c:f>
+              <c:f>access_reliab_home!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reliab</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14836,7 +15235,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>access_reliab_normal!$B$2:$B$16</c:f>
+              <c:f>access_reliab_home!$B$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14890,54 +15289,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>access_reliab_normal!$C$2:$C$16</c:f>
+              <c:f>access_reliab_home!$B$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.34083994593771799</c:v>
+                  <c:v>0.33875113621123798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28693953299804598</c:v>
+                  <c:v>0.39518475428973199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.293557217380921</c:v>
+                  <c:v>0.43128831951957403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33146870032396297</c:v>
+                  <c:v>0.408563200878235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35539378527190302</c:v>
+                  <c:v>0.51138326759115404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50630656126787199</c:v>
+                  <c:v>0.57666230827139497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44110603180566199</c:v>
+                  <c:v>0.52896084103705998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36542599840055001</c:v>
+                  <c:v>0.485107431084562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41909672113965901</c:v>
+                  <c:v>0.56204230939358402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31372937205773999</c:v>
+                  <c:v>0.55565053611099802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42130995886023398</c:v>
+                  <c:v>0.51165532759878396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38817687259210498</c:v>
+                  <c:v>0.49741231092263399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36276053367396499</c:v>
+                  <c:v>0.455647326460762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33762154043634401</c:v>
+                  <c:v>0.449975080513973</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.42393598522551401</c:v>
+                  <c:v>0.45802058885041702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14945,7 +15344,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE02-40E5-AC1A-4851F7DC5F42}"/>
+              <c16:uniqueId val="{00000000-4BC3-456A-801B-90937F47094C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14958,16 +15357,79 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="64536943"/>
-        <c:axId val="64536111"/>
+        <c:axId val="2005706896"/>
+        <c:axId val="2005694416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64536943"/>
+        <c:axId val="2005706896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91806965101584526"/>
+              <c:y val="0.77013888888888893"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14990,7 +15452,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15005,7 +15467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64536111"/>
+        <c:crossAx val="2005694416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15013,7 +15475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64536111"/>
+        <c:axId val="2005694416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15033,7 +15495,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accessibility Unreliability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15049,7 +15566,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15064,7 +15581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64536943"/>
+        <c:crossAx val="2005706896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15107,7 +15624,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -22352,6 +22869,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98102363-9182-05BD-3322-AC04C86B44CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -22389,7 +22947,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22430,7 +22988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22471,7 +23029,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22517,7 +23075,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>71435</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -22547,16 +23105,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22583,16 +23141,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22621,16 +23179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22660,27 +23218,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC19BB-410E-84CC-323D-2699073C0FD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EF9061-9653-C372-9359-70EEE4F9F0C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22698,59 +23256,23 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>995360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FAD9D8-260A-9A5A-70F8-68EDA5E04F58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442910</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>166685</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22816,7 +23338,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23529,6 +24051,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90E7C5-D6B5-4122-8A46-7038DC14E692}">
+  <dimension ref="A1:X16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>30</v>
+      </c>
+      <c r="H1">
+        <v>35</v>
+      </c>
+      <c r="I1">
+        <v>40</v>
+      </c>
+      <c r="J1">
+        <v>45</v>
+      </c>
+      <c r="K1">
+        <v>50</v>
+      </c>
+      <c r="L1">
+        <v>55</v>
+      </c>
+      <c r="M1">
+        <v>60</v>
+      </c>
+      <c r="N1">
+        <v>65</v>
+      </c>
+      <c r="O1">
+        <v>70</v>
+      </c>
+      <c r="P1">
+        <v>75</v>
+      </c>
+      <c r="Q1">
+        <v>80</v>
+      </c>
+      <c r="R1">
+        <v>85</v>
+      </c>
+      <c r="S1">
+        <v>90</v>
+      </c>
+      <c r="T1">
+        <v>95</v>
+      </c>
+      <c r="U1">
+        <v>100</v>
+      </c>
+      <c r="V1">
+        <v>105</v>
+      </c>
+      <c r="W1">
+        <v>110</v>
+      </c>
+      <c r="X1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.14315216370975301</v>
+      </c>
+      <c r="C2">
+        <v>0.21559396584309801</v>
+      </c>
+      <c r="D2">
+        <v>0.27609150521348502</v>
+      </c>
+      <c r="E2">
+        <v>0.33061134933770803</v>
+      </c>
+      <c r="F2">
+        <v>0.34382806770058999</v>
+      </c>
+      <c r="G2">
+        <v>0.33980348731569998</v>
+      </c>
+      <c r="H2">
+        <v>0.36448155943187899</v>
+      </c>
+      <c r="I2">
+        <v>0.38036677356290999</v>
+      </c>
+      <c r="J2">
+        <v>0.37607767741623399</v>
+      </c>
+      <c r="K2">
+        <v>0.39641339037428602</v>
+      </c>
+      <c r="L2">
+        <v>0.41389990486704298</v>
+      </c>
+      <c r="M2">
+        <v>0.38565500483980097</v>
+      </c>
+      <c r="N2">
+        <v>0.39359094500960401</v>
+      </c>
+      <c r="O2">
+        <v>0.382075008824517</v>
+      </c>
+      <c r="P2">
+        <v>0.357610572936576</v>
+      </c>
+      <c r="Q2">
+        <v>0.34725775611253701</v>
+      </c>
+      <c r="R2">
+        <v>0.32995341065414402</v>
+      </c>
+      <c r="S2">
+        <v>0.31080630669796799</v>
+      </c>
+      <c r="T2">
+        <v>0.27850756494283102</v>
+      </c>
+      <c r="U2">
+        <v>0.248374850513881</v>
+      </c>
+      <c r="V2">
+        <v>0.21554291804275799</v>
+      </c>
+      <c r="W2">
+        <v>0.197085897520756</v>
+      </c>
+      <c r="X2">
+        <v>0.17716065333655001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.14698064816973599</v>
+      </c>
+      <c r="C3">
+        <v>0.24741877753303901</v>
+      </c>
+      <c r="D3">
+        <v>0.32079789262685399</v>
+      </c>
+      <c r="E3">
+        <v>0.38624165749732098</v>
+      </c>
+      <c r="F3">
+        <v>0.42412865530905602</v>
+      </c>
+      <c r="G3">
+        <v>0.41621522375289999</v>
+      </c>
+      <c r="H3">
+        <v>0.423456458951327</v>
+      </c>
+      <c r="I3">
+        <v>0.40965072671977898</v>
+      </c>
+      <c r="J3">
+        <v>0.420854383792655</v>
+      </c>
+      <c r="K3">
+        <v>0.455483107293642</v>
+      </c>
+      <c r="L3">
+        <v>0.479382182191748</v>
+      </c>
+      <c r="M3">
+        <v>0.46361461929706499</v>
+      </c>
+      <c r="N3">
+        <v>0.46495532475666901</v>
+      </c>
+      <c r="O3">
+        <v>0.44267550598585398</v>
+      </c>
+      <c r="P3">
+        <v>0.40674273125507099</v>
+      </c>
+      <c r="Q3">
+        <v>0.38927585592269098</v>
+      </c>
+      <c r="R3">
+        <v>0.37557012542759399</v>
+      </c>
+      <c r="S3">
+        <v>0.34802911656888502</v>
+      </c>
+      <c r="T3">
+        <v>0.31985051396910003</v>
+      </c>
+      <c r="U3">
+        <v>0.29734912699592903</v>
+      </c>
+      <c r="V3">
+        <v>0.271188141424477</v>
+      </c>
+      <c r="W3">
+        <v>0.24676946041196901</v>
+      </c>
+      <c r="X3">
+        <v>0.225820861540767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.154774868614175</v>
+      </c>
+      <c r="C4">
+        <v>0.24886717014660101</v>
+      </c>
+      <c r="D4">
+        <v>0.39039191139228402</v>
+      </c>
+      <c r="E4">
+        <v>0.50593473375465503</v>
+      </c>
+      <c r="F4">
+        <v>0.53366479761696095</v>
+      </c>
+      <c r="G4">
+        <v>0.545194940347138</v>
+      </c>
+      <c r="H4">
+        <v>0.60203200413823899</v>
+      </c>
+      <c r="I4">
+        <v>0.63175564912038495</v>
+      </c>
+      <c r="J4">
+        <v>0.65185409680283302</v>
+      </c>
+      <c r="K4">
+        <v>0.66788588573494301</v>
+      </c>
+      <c r="L4">
+        <v>0.68138252291118695</v>
+      </c>
+      <c r="M4">
+        <v>0.63136286866156099</v>
+      </c>
+      <c r="N4">
+        <v>0.62970744538622703</v>
+      </c>
+      <c r="O4">
+        <v>0.60874018666624397</v>
+      </c>
+      <c r="P4">
+        <v>0.56111420837136605</v>
+      </c>
+      <c r="Q4">
+        <v>0.51773386648018604</v>
+      </c>
+      <c r="R4">
+        <v>0.47949921578391003</v>
+      </c>
+      <c r="S4">
+        <v>0.42034085842663499</v>
+      </c>
+      <c r="T4">
+        <v>0.38477765940173397</v>
+      </c>
+      <c r="U4">
+        <v>0.34807269579464101</v>
+      </c>
+      <c r="V4">
+        <v>0.31241976586176101</v>
+      </c>
+      <c r="W4">
+        <v>0.27650295237826999</v>
+      </c>
+      <c r="X4">
+        <v>0.24579529163425401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.14929416797376299</v>
+      </c>
+      <c r="C5">
+        <v>0.26898949707853798</v>
+      </c>
+      <c r="D5">
+        <v>0.39559895555275099</v>
+      </c>
+      <c r="E5">
+        <v>0.507270930396724</v>
+      </c>
+      <c r="F5">
+        <v>0.52026052213190499</v>
+      </c>
+      <c r="G5">
+        <v>0.47933166378122999</v>
+      </c>
+      <c r="H5">
+        <v>0.52259605441551504</v>
+      </c>
+      <c r="I5">
+        <v>0.56403561411796699</v>
+      </c>
+      <c r="J5">
+        <v>0.58568351103267602</v>
+      </c>
+      <c r="K5">
+        <v>0.56695054449476301</v>
+      </c>
+      <c r="L5">
+        <v>0.54687273585832896</v>
+      </c>
+      <c r="M5">
+        <v>0.51542867134454295</v>
+      </c>
+      <c r="N5">
+        <v>0.49503316812699699</v>
+      </c>
+      <c r="O5">
+        <v>0.47186990282702201</v>
+      </c>
+      <c r="P5">
+        <v>0.45996859972270598</v>
+      </c>
+      <c r="Q5">
+        <v>0.411340007140928</v>
+      </c>
+      <c r="R5">
+        <v>0.39650644274093</v>
+      </c>
+      <c r="S5">
+        <v>0.37696379140048097</v>
+      </c>
+      <c r="T5">
+        <v>0.333891626223076</v>
+      </c>
+      <c r="U5">
+        <v>0.29664227328343001</v>
+      </c>
+      <c r="V5">
+        <v>0.25657879498172298</v>
+      </c>
+      <c r="W5">
+        <v>0.23647350672984699</v>
+      </c>
+      <c r="X5">
+        <v>0.21200926455439101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.13471502590673501</v>
+      </c>
+      <c r="C6">
+        <v>0.24816300450818199</v>
+      </c>
+      <c r="D6">
+        <v>0.42264680312969199</v>
+      </c>
+      <c r="E6">
+        <v>0.41152959815641599</v>
+      </c>
+      <c r="F6">
+        <v>0.45392025005915199</v>
+      </c>
+      <c r="G6">
+        <v>0.45200454828888897</v>
+      </c>
+      <c r="H6">
+        <v>0.45351118801854501</v>
+      </c>
+      <c r="I6">
+        <v>0.47534680446295402</v>
+      </c>
+      <c r="J6">
+        <v>0.46733037324823001</v>
+      </c>
+      <c r="K6">
+        <v>0.47796919463610399</v>
+      </c>
+      <c r="L6">
+        <v>0.46753574551371602</v>
+      </c>
+      <c r="M6">
+        <v>0.44356179869283102</v>
+      </c>
+      <c r="N6">
+        <v>0.43439993767399199</v>
+      </c>
+      <c r="O6">
+        <v>0.42476568335827902</v>
+      </c>
+      <c r="P6">
+        <v>0.39745697379157802</v>
+      </c>
+      <c r="Q6">
+        <v>0.36397302073802701</v>
+      </c>
+      <c r="R6">
+        <v>0.34867697797971597</v>
+      </c>
+      <c r="S6">
+        <v>0.32817755334765703</v>
+      </c>
+      <c r="T6">
+        <v>0.306107744316792</v>
+      </c>
+      <c r="U6">
+        <v>0.28020129481448802</v>
+      </c>
+      <c r="V6">
+        <v>0.25206592132842398</v>
+      </c>
+      <c r="W6">
+        <v>0.23324315595315001</v>
+      </c>
+      <c r="X6">
+        <v>0.211071257219241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.14161168708765301</v>
+      </c>
+      <c r="C7">
+        <v>0.19318818198788301</v>
+      </c>
+      <c r="D7">
+        <v>0.321490104772991</v>
+      </c>
+      <c r="E7">
+        <v>0.38573373653103699</v>
+      </c>
+      <c r="F7">
+        <v>0.43228680065181901</v>
+      </c>
+      <c r="G7">
+        <v>0.45127545622443499</v>
+      </c>
+      <c r="H7">
+        <v>0.50755475047230902</v>
+      </c>
+      <c r="I7">
+        <v>0.51657876077906395</v>
+      </c>
+      <c r="J7">
+        <v>0.51636734842096299</v>
+      </c>
+      <c r="K7">
+        <v>0.53385138009105804</v>
+      </c>
+      <c r="L7">
+        <v>0.51134669730557303</v>
+      </c>
+      <c r="M7">
+        <v>0.48495515222975499</v>
+      </c>
+      <c r="N7">
+        <v>0.47103844008278301</v>
+      </c>
+      <c r="O7">
+        <v>0.45953664205982198</v>
+      </c>
+      <c r="P7">
+        <v>0.42281030928067398</v>
+      </c>
+      <c r="Q7">
+        <v>0.38104793638826601</v>
+      </c>
+      <c r="R7">
+        <v>0.35746340419758699</v>
+      </c>
+      <c r="S7">
+        <v>0.31476908794383801</v>
+      </c>
+      <c r="T7">
+        <v>0.27900435530057199</v>
+      </c>
+      <c r="U7">
+        <v>0.25323804387725901</v>
+      </c>
+      <c r="V7">
+        <v>0.22686406027748199</v>
+      </c>
+      <c r="W7">
+        <v>0.20893112266730501</v>
+      </c>
+      <c r="X7">
+        <v>0.194075241745266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.13340184034751701</v>
+      </c>
+      <c r="C8">
+        <v>0.241791880214801</v>
+      </c>
+      <c r="D8">
+        <v>0.35327648704994002</v>
+      </c>
+      <c r="E8">
+        <v>0.35951028975677801</v>
+      </c>
+      <c r="F8">
+        <v>0.39295041121601798</v>
+      </c>
+      <c r="G8">
+        <v>0.39462807892875101</v>
+      </c>
+      <c r="H8">
+        <v>0.42697315982274497</v>
+      </c>
+      <c r="I8">
+        <v>0.45675652975540498</v>
+      </c>
+      <c r="J8">
+        <v>0.47591375266789099</v>
+      </c>
+      <c r="K8">
+        <v>0.498760322187002</v>
+      </c>
+      <c r="L8">
+        <v>0.52745158113025004</v>
+      </c>
+      <c r="M8">
+        <v>0.52627376686025096</v>
+      </c>
+      <c r="N8">
+        <v>0.53428403506766997</v>
+      </c>
+      <c r="O8">
+        <v>0.52537803804854499</v>
+      </c>
+      <c r="P8">
+        <v>0.50531469660429096</v>
+      </c>
+      <c r="Q8">
+        <v>0.48281110257271298</v>
+      </c>
+      <c r="R8">
+        <v>0.47933096327028102</v>
+      </c>
+      <c r="S8">
+        <v>0.44309191996996899</v>
+      </c>
+      <c r="T8">
+        <v>0.40279622757810901</v>
+      </c>
+      <c r="U8">
+        <v>0.36321483255794301</v>
+      </c>
+      <c r="V8">
+        <v>0.32627866513926002</v>
+      </c>
+      <c r="W8">
+        <v>0.283705120785819</v>
+      </c>
+      <c r="X8">
+        <v>0.25270725879171901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.144052263007002</v>
+      </c>
+      <c r="C9">
+        <v>0.26471116217283502</v>
+      </c>
+      <c r="D9">
+        <v>0.40201166806501298</v>
+      </c>
+      <c r="E9">
+        <v>0.46390078173259203</v>
+      </c>
+      <c r="F9">
+        <v>0.48954253598706199</v>
+      </c>
+      <c r="G9">
+        <v>0.497897300158814</v>
+      </c>
+      <c r="H9">
+        <v>0.54277324642743496</v>
+      </c>
+      <c r="I9">
+        <v>0.55956035952743299</v>
+      </c>
+      <c r="J9">
+        <v>0.56183791356809398</v>
+      </c>
+      <c r="K9">
+        <v>0.55681153909364201</v>
+      </c>
+      <c r="L9">
+        <v>0.54581781689486397</v>
+      </c>
+      <c r="M9">
+        <v>0.53423746506747205</v>
+      </c>
+      <c r="N9">
+        <v>0.51088300482568905</v>
+      </c>
+      <c r="O9">
+        <v>0.47536885243263299</v>
+      </c>
+      <c r="P9">
+        <v>0.44519129549661901</v>
+      </c>
+      <c r="Q9">
+        <v>0.41152040136481699</v>
+      </c>
+      <c r="R9">
+        <v>0.40051495687212502</v>
+      </c>
+      <c r="S9">
+        <v>0.37830617856349102</v>
+      </c>
+      <c r="T9">
+        <v>0.34483263472776499</v>
+      </c>
+      <c r="U9">
+        <v>0.30383918873374799</v>
+      </c>
+      <c r="V9">
+        <v>0.28369362923611502</v>
+      </c>
+      <c r="W9">
+        <v>0.26140354766427798</v>
+      </c>
+      <c r="X9">
+        <v>0.24215229028353499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.12664711086278299</v>
+      </c>
+      <c r="C10">
+        <v>0.250670361905447</v>
+      </c>
+      <c r="D10">
+        <v>0.37695390586147298</v>
+      </c>
+      <c r="E10">
+        <v>0.40034944063420802</v>
+      </c>
+      <c r="F10">
+        <v>0.452443685634421</v>
+      </c>
+      <c r="G10">
+        <v>0.49243933588761102</v>
+      </c>
+      <c r="H10">
+        <v>0.52153748440040204</v>
+      </c>
+      <c r="I10">
+        <v>0.56797602885070397</v>
+      </c>
+      <c r="J10">
+        <v>0.60960237731672196</v>
+      </c>
+      <c r="K10">
+        <v>0.65940461778440795</v>
+      </c>
+      <c r="L10">
+        <v>0.68908814257453799</v>
+      </c>
+      <c r="M10">
+        <v>0.67383865205057702</v>
+      </c>
+      <c r="N10">
+        <v>0.65323724407327</v>
+      </c>
+      <c r="O10">
+        <v>0.61613587058461206</v>
+      </c>
+      <c r="P10">
+        <v>0.58477336294009097</v>
+      </c>
+      <c r="Q10">
+        <v>0.55678659340678005</v>
+      </c>
+      <c r="R10">
+        <v>0.52116939813415797</v>
+      </c>
+      <c r="S10">
+        <v>0.48434052667851202</v>
+      </c>
+      <c r="T10">
+        <v>0.449869963402171</v>
+      </c>
+      <c r="U10">
+        <v>0.40054183729421999</v>
+      </c>
+      <c r="V10">
+        <v>0.35851422972566099</v>
+      </c>
+      <c r="W10">
+        <v>0.33372451497964201</v>
+      </c>
+      <c r="X10">
+        <v>0.30753381024597598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.17540537916302501</v>
+      </c>
+      <c r="C11">
+        <v>0.33354863221884501</v>
+      </c>
+      <c r="D11">
+        <v>0.53074443983534803</v>
+      </c>
+      <c r="E11">
+        <v>0.61408311112159897</v>
+      </c>
+      <c r="F11">
+        <v>0.64152021921566804</v>
+      </c>
+      <c r="G11">
+        <v>0.67388439716819004</v>
+      </c>
+      <c r="H11">
+        <v>0.71320589464076201</v>
+      </c>
+      <c r="I11">
+        <v>0.74541680093200802</v>
+      </c>
+      <c r="J11">
+        <v>0.755342226631604</v>
+      </c>
+      <c r="K11">
+        <v>0.75758870269786804</v>
+      </c>
+      <c r="L11">
+        <v>0.74320574444081999</v>
+      </c>
+      <c r="M11">
+        <v>0.77195861800833399</v>
+      </c>
+      <c r="N11">
+        <v>0.76246011011457304</v>
+      </c>
+      <c r="O11">
+        <v>0.73408711481309297</v>
+      </c>
+      <c r="P11">
+        <v>0.69621599929228495</v>
+      </c>
+      <c r="Q11">
+        <v>0.64200294665271296</v>
+      </c>
+      <c r="R11">
+        <v>0.59918866798868298</v>
+      </c>
+      <c r="S11">
+        <v>0.55717245773454305</v>
+      </c>
+      <c r="T11">
+        <v>0.511630394851188</v>
+      </c>
+      <c r="U11">
+        <v>0.46560585741000998</v>
+      </c>
+      <c r="V11">
+        <v>0.421160927138094</v>
+      </c>
+      <c r="W11">
+        <v>0.38735157661561698</v>
+      </c>
+      <c r="X11">
+        <v>0.35982159195123398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0.147140133460438</v>
+      </c>
+      <c r="C12">
+        <v>0.31868483456920199</v>
+      </c>
+      <c r="D12">
+        <v>0.58582589650550798</v>
+      </c>
+      <c r="E12">
+        <v>0.70743284436315601</v>
+      </c>
+      <c r="F12">
+        <v>0.73821587306346004</v>
+      </c>
+      <c r="G12">
+        <v>0.73122884966824397</v>
+      </c>
+      <c r="H12">
+        <v>0.76949994415123801</v>
+      </c>
+      <c r="I12">
+        <v>0.81500240377078403</v>
+      </c>
+      <c r="J12">
+        <v>0.838461776765558</v>
+      </c>
+      <c r="K12">
+        <v>0.86803692286223499</v>
+      </c>
+      <c r="L12">
+        <v>0.86888528231189599</v>
+      </c>
+      <c r="M12">
+        <v>0.82071792898700602</v>
+      </c>
+      <c r="N12">
+        <v>0.773267629065714</v>
+      </c>
+      <c r="O12">
+        <v>0.76263655114461004</v>
+      </c>
+      <c r="P12">
+        <v>0.74468715057188395</v>
+      </c>
+      <c r="Q12">
+        <v>0.71276309197044696</v>
+      </c>
+      <c r="R12">
+        <v>0.65024219123063498</v>
+      </c>
+      <c r="S12">
+        <v>0.58676460854024304</v>
+      </c>
+      <c r="T12">
+        <v>0.53715750730089895</v>
+      </c>
+      <c r="U12">
+        <v>0.481572422762574</v>
+      </c>
+      <c r="V12">
+        <v>0.43195501587375501</v>
+      </c>
+      <c r="W12">
+        <v>0.39346559508281198</v>
+      </c>
+      <c r="X12">
+        <v>0.34602396950383302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.14117981251775399</v>
+      </c>
+      <c r="C13">
+        <v>0.314903265374393</v>
+      </c>
+      <c r="D13">
+        <v>0.47953617343080401</v>
+      </c>
+      <c r="E13">
+        <v>0.55769551164572995</v>
+      </c>
+      <c r="F13">
+        <v>0.53039687340957697</v>
+      </c>
+      <c r="G13">
+        <v>0.508723308242789</v>
+      </c>
+      <c r="H13">
+        <v>0.52655641425920896</v>
+      </c>
+      <c r="I13">
+        <v>0.54495178863990301</v>
+      </c>
+      <c r="J13">
+        <v>0.56933183693917599</v>
+      </c>
+      <c r="K13">
+        <v>0.62464995183387695</v>
+      </c>
+      <c r="L13">
+        <v>0.59748779321021905</v>
+      </c>
+      <c r="M13">
+        <v>0.543963283521255</v>
+      </c>
+      <c r="N13">
+        <v>0.52408596393227902</v>
+      </c>
+      <c r="O13">
+        <v>0.51123417528534598</v>
+      </c>
+      <c r="P13">
+        <v>0.46926223892467001</v>
+      </c>
+      <c r="Q13">
+        <v>0.45276530651732</v>
+      </c>
+      <c r="R13">
+        <v>0.44132879732341901</v>
+      </c>
+      <c r="S13">
+        <v>0.40073706396025899</v>
+      </c>
+      <c r="T13">
+        <v>0.35273702618234698</v>
+      </c>
+      <c r="U13">
+        <v>0.31540337012437297</v>
+      </c>
+      <c r="V13">
+        <v>0.28025021249075799</v>
+      </c>
+      <c r="W13">
+        <v>0.26089885316278799</v>
+      </c>
+      <c r="X13">
+        <v>0.238949046587772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.15126010908406901</v>
+      </c>
+      <c r="C14">
+        <v>0.27297590083290402</v>
+      </c>
+      <c r="D14">
+        <v>0.404706015441613</v>
+      </c>
+      <c r="E14">
+        <v>0.47669797687861198</v>
+      </c>
+      <c r="F14">
+        <v>0.46781433284734097</v>
+      </c>
+      <c r="G14">
+        <v>0.47369381122992199</v>
+      </c>
+      <c r="H14">
+        <v>0.51160846771592094</v>
+      </c>
+      <c r="I14">
+        <v>0.52400185729260995</v>
+      </c>
+      <c r="J14">
+        <v>0.55245579598742001</v>
+      </c>
+      <c r="K14">
+        <v>0.59929819427491804</v>
+      </c>
+      <c r="L14">
+        <v>0.60731818092687695</v>
+      </c>
+      <c r="M14">
+        <v>0.56916453315776905</v>
+      </c>
+      <c r="N14">
+        <v>0.53280545244270405</v>
+      </c>
+      <c r="O14">
+        <v>0.50948305093115298</v>
+      </c>
+      <c r="P14">
+        <v>0.47455722592692601</v>
+      </c>
+      <c r="Q14">
+        <v>0.44666899874293903</v>
+      </c>
+      <c r="R14">
+        <v>0.43973401007860802</v>
+      </c>
+      <c r="S14">
+        <v>0.40151425227925802</v>
+      </c>
+      <c r="T14">
+        <v>0.35453435670737099</v>
+      </c>
+      <c r="U14">
+        <v>0.31341667418631602</v>
+      </c>
+      <c r="V14">
+        <v>0.28140167449279702</v>
+      </c>
+      <c r="W14">
+        <v>0.25433654624907598</v>
+      </c>
+      <c r="X14">
+        <v>0.23405786879637799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0.10614101592115199</v>
+      </c>
+      <c r="C15">
+        <v>0.20075666697425401</v>
+      </c>
+      <c r="D15">
+        <v>0.32358793493709498</v>
+      </c>
+      <c r="E15">
+        <v>0.38435519705487498</v>
+      </c>
+      <c r="F15">
+        <v>0.45334543029068503</v>
+      </c>
+      <c r="G15">
+        <v>0.41619824332654198</v>
+      </c>
+      <c r="H15">
+        <v>0.42710669303205601</v>
+      </c>
+      <c r="I15">
+        <v>0.45301580149380499</v>
+      </c>
+      <c r="J15">
+        <v>0.46623400371938301</v>
+      </c>
+      <c r="K15">
+        <v>0.46244475504349603</v>
+      </c>
+      <c r="L15">
+        <v>0.46092995898099098</v>
+      </c>
+      <c r="M15">
+        <v>0.418365726857926</v>
+      </c>
+      <c r="N15">
+        <v>0.412593517761631</v>
+      </c>
+      <c r="O15">
+        <v>0.41443382967021702</v>
+      </c>
+      <c r="P15">
+        <v>0.41125965543584803</v>
+      </c>
+      <c r="Q15">
+        <v>0.43494580964003898</v>
+      </c>
+      <c r="R15">
+        <v>0.43456307746478501</v>
+      </c>
+      <c r="S15">
+        <v>0.410578214517547</v>
+      </c>
+      <c r="T15">
+        <v>0.40716491779876002</v>
+      </c>
+      <c r="U15">
+        <v>0.37591729202815399</v>
+      </c>
+      <c r="V15">
+        <v>0.35438589069093002</v>
+      </c>
+      <c r="W15">
+        <v>0.33078856883664498</v>
+      </c>
+      <c r="X15">
+        <v>0.30894028132259299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>5.4887611082069999E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.12718937345715201</v>
+      </c>
+      <c r="D16">
+        <v>0.26349472735014901</v>
+      </c>
+      <c r="E16">
+        <v>0.358008055549419</v>
+      </c>
+      <c r="F16">
+        <v>0.351128697745269</v>
+      </c>
+      <c r="G16">
+        <v>0.348824825398868</v>
+      </c>
+      <c r="H16">
+        <v>0.36986777156680001</v>
+      </c>
+      <c r="I16">
+        <v>0.372104007951571</v>
+      </c>
+      <c r="J16">
+        <v>0.41892272784159201</v>
+      </c>
+      <c r="K16">
+        <v>0.44642911887835501</v>
+      </c>
+      <c r="L16">
+        <v>0.423078782477462</v>
+      </c>
+      <c r="M16">
+        <v>0.40187124366992999</v>
+      </c>
+      <c r="N16">
+        <v>0.394716788053948</v>
+      </c>
+      <c r="O16">
+        <v>0.40220578340472501</v>
+      </c>
+      <c r="P16">
+        <v>0.42183080510516402</v>
+      </c>
+      <c r="Q16">
+        <v>0.45633956662041297</v>
+      </c>
+      <c r="R16">
+        <v>0.480333214783837</v>
+      </c>
+      <c r="S16">
+        <v>0.44973862096443601</v>
+      </c>
+      <c r="T16">
+        <v>0.45992101476041602</v>
+      </c>
+      <c r="U16">
+        <v>0.475980952753354</v>
+      </c>
+      <c r="V16">
+        <v>0.46062380944891601</v>
+      </c>
+      <c r="W16">
+        <v>0.43595469663661002</v>
+      </c>
+      <c r="X16">
+        <v>0.41670881190218101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B1A811-A38F-4335-A6D5-4CAA636AF908}">
   <dimension ref="A1:X16"/>
   <sheetViews>
@@ -24725,7 +26444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FAC646-30C9-474D-90F5-9CEA76215738}">
   <dimension ref="A1:P30"/>
   <sheetViews>
@@ -25557,7 +27276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC023FC-DA28-479F-B531-4EB0E9FE3D5E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -25567,23 +27286,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -25591,12 +27310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25604,7 +27323,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>8</v>
       </c>
@@ -25650,8 +27369,17 @@
       <c r="P1">
         <v>22</v>
       </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43351</v>
       </c>
@@ -25706,11 +27434,35 @@
       <c r="R2">
         <v>20</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2">
+        <f>R2-Q2</f>
+        <v>8</v>
+      </c>
+      <c r="T2" s="3">
         <v>0.64583333333333337</v>
       </c>
+      <c r="U2">
+        <f>MAX(B2:H2)</f>
+        <v>0.51327330439852303</v>
+      </c>
+      <c r="V2">
+        <f>MAX(J2:P2)</f>
+        <v>0.56883739529671895</v>
+      </c>
+      <c r="W2">
+        <f>(SUM(B2:P2)-U2-V2)/13</f>
+        <v>0.40729177330745592</v>
+      </c>
+      <c r="Y2">
+        <f>U2-W2</f>
+        <v>0.10598153109106712</v>
+      </c>
+      <c r="Z2">
+        <f>V2-W2</f>
+        <v>0.16154562198926303</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43365</v>
       </c>
@@ -25765,11 +27517,35 @@
       <c r="R3">
         <v>20</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3">
+        <f t="shared" ref="S3:S5" si="0">R3-Q3</f>
+        <v>6</v>
+      </c>
+      <c r="T3" s="3">
         <v>0.64583333333333337</v>
       </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U5" si="1">MAX(B3:H3)</f>
+        <v>0.53487496021805903</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V5" si="2">MAX(J3:P3)</f>
+        <v>0.60181545402540704</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W5" si="3">(SUM(B3:P3)-U3-V3)/13</f>
+        <v>0.4038954516513375</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y16" si="4">U3-W3</f>
+        <v>0.13097950856672153</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z5" si="5">V3-W3</f>
+        <v>0.19792000237406954</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43729</v>
       </c>
@@ -25824,11 +27600,35 @@
       <c r="R4">
         <v>19</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T4" s="3">
         <v>0.64583333333333337</v>
       </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>0.52845106770569705</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.78279949671216897</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>0.42573676701250973</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>0.10271430069318732</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>0.35706272969965924</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43379</v>
       </c>
@@ -25883,11 +27683,35 @@
       <c r="R5">
         <v>22</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="T5" s="3">
         <v>0.66666666666666663</v>
       </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>0.72708014823693401</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>0.98753089978424702</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>0.45518434726381929</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>0.27189580097311472</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>0.53234655252042773</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -25896,67 +27720,68 @@
         <v>0.35679938550005724</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" ref="C6:P6" si="0">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C6:P6" si="6">AVERAGE(C2:C5)</f>
         <v>0.34974856273915095</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.41366661661014398</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.44402030265143672</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.51070353571369476</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.52325109266163694</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.4814187566166872</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.43291018243215629</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.38960839816689929</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.36313753331235321</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.39300178867959246</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.53742579047874728</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.61427207368820602</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.48364407928286196</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.51690968557496275</v>
       </c>
+      <c r="Y6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>8</v>
@@ -26004,7 +27829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43344</v>
       </c>
@@ -26059,11 +27884,35 @@
       <c r="R9">
         <v>18</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9">
+        <f>R9-Q9</f>
+        <v>8</v>
+      </c>
+      <c r="T9" s="3">
         <v>0.5</v>
       </c>
+      <c r="U9">
+        <f>MAX(B9:F9)</f>
+        <v>0.545194940347138</v>
+      </c>
+      <c r="V9">
+        <f>MAX(G9:P9)</f>
+        <v>0.73122884966824397</v>
+      </c>
+      <c r="W9">
+        <f>(SUM(B9:P9)-U9-V9)/13</f>
+        <v>0.45730151382343387</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>8.7893426523704132E-2</v>
+      </c>
+      <c r="Z9">
+        <f>V9-W9</f>
+        <v>0.2739273358448101</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43386</v>
       </c>
@@ -26118,11 +27967,35 @@
       <c r="R10">
         <v>17</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10">
+        <f t="shared" ref="S10:S16" si="7">R10-Q10</f>
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
         <v>0.5</v>
       </c>
+      <c r="U10">
+        <f t="shared" ref="U10:U16" si="8">MAX(B10:F10)</f>
+        <v>0.41008200775134002</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V16" si="9">MAX(G10:P10)</f>
+        <v>0.65326288943246602</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10:W16" si="10">(SUM(B10:P10)-U10-V10)/13</f>
+        <v>0.35965510582039706</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>5.0426901930942958E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z16" si="11">V10-W10</f>
+        <v>0.29360778361206896</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43407</v>
       </c>
@@ -26177,11 +28050,35 @@
       <c r="R11">
         <v>17</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T11" s="3">
         <v>0.5</v>
       </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>0.44250800431016102</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>0.54920369906180599</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>0.40845394846526972</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>3.4054055844891296E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="11"/>
+        <v>0.14074975059653627</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43428</v>
       </c>
@@ -26236,11 +28133,35 @@
       <c r="R12">
         <v>17</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
         <v>0.5</v>
       </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>0.39580690168356403</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="9"/>
+        <v>0.58123318607559604</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>0.3306703543069634</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>6.5136547376600629E-2</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="11"/>
+        <v>0.25056283176863264</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43715</v>
       </c>
@@ -26295,11 +28216,35 @@
       <c r="R13">
         <v>16</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13">
+        <f>R13-Q13</f>
+        <v>5</v>
+      </c>
+      <c r="T13" s="3">
         <v>0.5</v>
       </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>0.51473134441949797</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>0.79613599638735699</v>
+      </c>
+      <c r="W13">
+        <f>(SUM(B13:P13)-U13-V13)/13</f>
+        <v>0.44948609900590453</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>6.5245245413593445E-2</v>
+      </c>
+      <c r="Z13">
+        <f>V13-W13</f>
+        <v>0.34664989738145247</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43764</v>
       </c>
@@ -26354,11 +28299,35 @@
       <c r="R14">
         <v>16</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>0.5</v>
       </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>0.44264662290916701</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>0.608835559729619</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="10"/>
+        <v>0.4136028176746287</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>2.9043805234538311E-2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="11"/>
+        <v>0.1952327420549903</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43778</v>
       </c>
@@ -26413,11 +28382,35 @@
       <c r="R15">
         <v>16</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>0.5</v>
       </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>0.38929407686702799</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>0.489571273133796</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>0.36776398098708313</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>2.1530095879944866E-2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="11"/>
+        <v>0.12180729214671288</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43792</v>
       </c>
@@ -26472,11 +28465,35 @@
       <c r="R16">
         <v>17</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="T16" s="3">
         <v>0.5</v>
       </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>0.483927764606147</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>0.57365128420910005</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>0.39390210888367244</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>9.0025655722474562E-2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="11"/>
+        <v>0.17974917532542761</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -26485,72 +28502,84 @@
         <v>0.34062403382285977</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:P17" si="1">AVERAGE(C9:C16)</f>
+        <f t="shared" ref="C17:P17" si="12">AVERAGE(C9:C16)</f>
         <v>0.39272007134388232</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.40762120059802792</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.43192611718692286</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.37780760482298786</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.37356285210029261</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.37364259373076825</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.40320754878035514</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.55180812207988694</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.53434287737317698</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.49030138874504881</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.41405555845808895</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.42581847989815275</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.41460419605980137</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.31273003964569901</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17">
+        <f>AVERAGE(S2:S16)</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="Y17">
+        <f>AVERAGE(Y2:Y16)</f>
+        <v>8.7910572937565087E-2</v>
+      </c>
+      <c r="Z17">
+        <f>AVERAGE(Z2:Z16)</f>
+        <v>0.25426347627617091</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8</v>
       </c>
@@ -26597,7 +28626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43743</v>
       </c>
@@ -26649,11 +28678,11 @@
       <c r="R21">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43351</v>
       </c>
@@ -26667,7 +28696,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43365</v>
       </c>
@@ -26681,7 +28710,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43729</v>
       </c>
@@ -26695,7 +28724,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43379</v>
       </c>
@@ -26709,7 +28738,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43344</v>
       </c>
@@ -26842,7 +28871,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE42B3-3153-4009-AD8B-527EDDF118FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26854,594 +28895,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L16"/>
+      <selection activeCell="B6" sqref="B6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
         <v>9</v>
       </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <v>18</v>
+      </c>
+      <c r="M1">
+        <v>19</v>
+      </c>
+      <c r="N1">
+        <v>20</v>
+      </c>
+      <c r="O1">
+        <v>21</v>
+      </c>
+      <c r="P1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43400</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0.34083994593771799</v>
       </c>
       <c r="C2">
-        <v>0.34083994593771799</v>
-      </c>
-      <c r="D2" s="1">
+        <v>0.28693953299804598</v>
+      </c>
+      <c r="D2">
+        <v>0.293557217380921</v>
+      </c>
+      <c r="E2">
+        <v>0.33146870032396297</v>
+      </c>
+      <c r="F2">
+        <v>0.35539378527190302</v>
+      </c>
+      <c r="G2">
+        <v>0.50630656126787199</v>
+      </c>
+      <c r="H2">
+        <v>0.44110603180566199</v>
+      </c>
+      <c r="I2">
+        <v>0.36542599840055001</v>
+      </c>
+      <c r="J2">
+        <v>0.41909672113965901</v>
+      </c>
+      <c r="K2">
+        <v>0.31372937205773999</v>
+      </c>
+      <c r="L2">
+        <v>0.42130995886023398</v>
+      </c>
+      <c r="M2">
+        <v>0.38817687259210498</v>
+      </c>
+      <c r="N2">
+        <v>0.36276053367396499</v>
+      </c>
+      <c r="O2">
+        <v>0.33762154043634401</v>
+      </c>
+      <c r="P2">
+        <v>0.42393598522551401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43435</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B3">
+        <v>0.31639120852601199</v>
+      </c>
+      <c r="C3">
+        <v>0.34641736341159002</v>
+      </c>
+      <c r="D3">
+        <v>0.40949331182159299</v>
+      </c>
+      <c r="E3">
+        <v>0.38171532240453399</v>
+      </c>
+      <c r="F3">
+        <v>0.368022089914189</v>
+      </c>
+      <c r="G3">
+        <v>0.34296701165909199</v>
+      </c>
+      <c r="H3">
+        <v>0.380938557735292</v>
+      </c>
+      <c r="I3">
+        <v>0.37549300009098402</v>
+      </c>
+      <c r="J3">
+        <v>0.40282303568559802</v>
+      </c>
+      <c r="K3">
+        <v>0.43612611199498003</v>
+      </c>
+      <c r="L3">
+        <v>0.45850583730920402</v>
+      </c>
+      <c r="M3">
+        <v>0.37088045930489599</v>
+      </c>
+      <c r="N3">
+        <v>0.378835359823953</v>
+      </c>
+      <c r="O3">
+        <v>0.40961496230144201</v>
+      </c>
+      <c r="P3">
+        <v>0.25524164720785197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43442</v>
       </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="B4">
+        <v>0.28069543315900802</v>
+      </c>
+      <c r="C4">
+        <v>0.27439885384451101</v>
+      </c>
+      <c r="D4">
+        <v>0.327598395213333</v>
+      </c>
+      <c r="E4">
+        <v>0.37772948908204301</v>
+      </c>
+      <c r="F4">
+        <v>0.39273082083180799</v>
+      </c>
+      <c r="G4">
+        <v>0.38850092876651299</v>
+      </c>
+      <c r="H4">
+        <v>0.34773590367358498</v>
+      </c>
+      <c r="I4">
+        <v>0.37926821905126001</v>
+      </c>
+      <c r="J4">
+        <v>0.41691973793139903</v>
+      </c>
+      <c r="K4">
+        <v>0.44176719463515202</v>
+      </c>
+      <c r="L4">
+        <v>0.44081621058996101</v>
+      </c>
+      <c r="M4">
+        <v>0.40732259202450999</v>
+      </c>
+      <c r="N4">
+        <v>0.34131133062513802</v>
+      </c>
+      <c r="O4">
+        <v>0.348187743931621</v>
+      </c>
+      <c r="P4">
+        <v>0.35095337095337098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43750</v>
       </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
+      <c r="B5">
         <v>0.32427043179773102</v>
       </c>
+      <c r="C5">
+        <v>0.290648027240413</v>
+      </c>
+      <c r="D5">
+        <v>0.350709921628858</v>
+      </c>
+      <c r="E5">
+        <v>0.42664954772389202</v>
+      </c>
+      <c r="F5">
+        <v>0.42227291753871898</v>
+      </c>
+      <c r="G5">
+        <v>0.45120167783912501</v>
+      </c>
+      <c r="H5">
+        <v>0.38320073172561903</v>
+      </c>
+      <c r="I5">
+        <v>0.39283537003402502</v>
+      </c>
+      <c r="J5">
+        <v>0.41326792027463199</v>
+      </c>
+      <c r="K5">
+        <v>0.36347420984316697</v>
+      </c>
+      <c r="L5">
+        <v>0.38960271925172302</v>
+      </c>
+      <c r="M5">
+        <v>0.43210525222736801</v>
+      </c>
+      <c r="N5">
+        <v>0.41756400811391697</v>
+      </c>
+      <c r="O5">
+        <v>0.38918371040723898</v>
+      </c>
+      <c r="P5">
+        <v>0.38495326479471698</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.28693953299804598</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>0.34641736341159002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>0.27439885384451101</v>
-      </c>
-      <c r="J3" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>0.290648027240413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.293557217380921</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0.40949331182159299</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0.327598395213333</v>
-      </c>
-      <c r="J4" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>0.350709921628858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0.33146870032396297</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>0.38171532240453399</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>0.37772948908204301</v>
-      </c>
-      <c r="J5" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>0.42664954772389202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43400</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>12</v>
+        <f>AVERAGE(B2:B5)</f>
+        <v>0.31554925485511726</v>
       </c>
       <c r="C6">
-        <v>0.35539378527190302</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43435</v>
+        <f t="shared" ref="C6:P6" si="0">AVERAGE(C2:C5)</f>
+        <v>0.29960094437363999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.34533971151117626</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0.37939076488360801</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43442</v>
+        <f t="shared" si="0"/>
+        <v>0.38460490338915471</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.42224404488315048</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0.3882453062350395</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>43750</v>
+        <f t="shared" si="0"/>
+        <v>0.37825564689420477</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.413026853757822</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0.38877422213275975</v>
       </c>
       <c r="L6">
-        <v>0.42227291753871898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.50630656126787199</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>0.34296701165909199</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H7">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>0.38850092876651299</v>
-      </c>
-      <c r="J7" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K7">
-        <v>13</v>
-      </c>
-      <c r="L7">
-        <v>0.45120167783912501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>0.44110603180566199</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>0.380938557735292</v>
-      </c>
-      <c r="G8" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>0.34773590367358498</v>
-      </c>
-      <c r="J8" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K8">
-        <v>14</v>
-      </c>
-      <c r="L8">
-        <v>0.38320073172561903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>0.36542599840055001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>0.37549300009098402</v>
-      </c>
-      <c r="G9" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>0.37926821905126001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>0.39283537003402502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0.41909672113965901</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>0.40282303568559802</v>
-      </c>
-      <c r="G10" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>0.41691973793139903</v>
-      </c>
-      <c r="J10" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K10">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>0.41326792027463199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.31372937205773999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>0.43612611199498003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>0.44176719463515202</v>
-      </c>
-      <c r="J11" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K11">
-        <v>17</v>
-      </c>
-      <c r="L11">
-        <v>0.36347420984316697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0.42130995886023398</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <v>0.38960271925172302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>0.38817687259210498</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E13">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>0.37088045930489599</v>
-      </c>
-      <c r="G13" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H13">
-        <v>19</v>
-      </c>
-      <c r="I13">
-        <v>0.40732259202450999</v>
-      </c>
-      <c r="J13" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K13">
-        <v>19</v>
-      </c>
-      <c r="L13">
-        <v>0.43210525222736801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>0.36276053367396499</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>0.378835359823953</v>
-      </c>
-      <c r="G14" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>0.34131133062513802</v>
-      </c>
-      <c r="J14" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14">
-        <v>0.41756400811391697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>0.33762154043634401</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E15">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>0.40961496230144201</v>
-      </c>
-      <c r="G15" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H15">
-        <v>21</v>
-      </c>
-      <c r="I15">
-        <v>0.348187743931621</v>
-      </c>
-      <c r="J15" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K15">
-        <v>21</v>
-      </c>
-      <c r="L15">
-        <v>0.38918371040723898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43400</v>
-      </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>0.42393598522551401</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43435</v>
-      </c>
-      <c r="E16">
-        <v>22</v>
-      </c>
-      <c r="F16">
-        <v>0.25524164720785197</v>
-      </c>
-      <c r="G16" s="1">
-        <v>43442</v>
-      </c>
-      <c r="H16">
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <v>0.35095337095337098</v>
-      </c>
-      <c r="J16" s="1">
-        <v>43750</v>
-      </c>
-      <c r="K16">
-        <v>22</v>
-      </c>
-      <c r="L16">
-        <v>0.38495326479471698</v>
+        <f t="shared" si="0"/>
+        <v>0.42755868150278054</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.39962129403721974</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.37511780805924322</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.37115198926916149</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.35377106704536349</v>
       </c>
     </row>
   </sheetData>
@@ -27450,7 +29225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE4E835-AB81-464D-B44F-2B6F511EEA8B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -27719,11 +29494,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6:M20"/>
     </sheetView>
   </sheetViews>
@@ -28107,12 +29882,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1800616-E4B5-4591-AEE9-4623546F6229}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>9</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>14</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28587,11 +30452,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716C683-B680-4781-9660-8CD99C8C0C85}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -30065,7 +31930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7F9FB-122C-49B0-B14B-F428CCFED8E6}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -31330,7 +33195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA92E9-F73E-4997-A8AA-C8273709BE10}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
@@ -34704,7 +36569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC3709-77B6-421E-B5D0-F9BC0815F8A0}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
@@ -38078,7 +39943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F734B-C7D2-4779-AAE6-824E33DF8F1F}">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -38928,7 +40793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2E3D0-3DC2-4DB0-A7A4-1E7BFDD789B9}">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -39759,7 +41624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100AA540-0832-4110-933D-A2F4B5ECE0BA}">
   <dimension ref="A1:X12"/>
   <sheetViews>
@@ -40650,1201 +42515,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90E7C5-D6B5-4122-8A46-7038DC14E692}">
-  <dimension ref="A1:X16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-      <c r="D1">
-        <v>15</v>
-      </c>
-      <c r="E1">
-        <v>20</v>
-      </c>
-      <c r="F1">
-        <v>25</v>
-      </c>
-      <c r="G1">
-        <v>30</v>
-      </c>
-      <c r="H1">
-        <v>35</v>
-      </c>
-      <c r="I1">
-        <v>40</v>
-      </c>
-      <c r="J1">
-        <v>45</v>
-      </c>
-      <c r="K1">
-        <v>50</v>
-      </c>
-      <c r="L1">
-        <v>55</v>
-      </c>
-      <c r="M1">
-        <v>60</v>
-      </c>
-      <c r="N1">
-        <v>65</v>
-      </c>
-      <c r="O1">
-        <v>70</v>
-      </c>
-      <c r="P1">
-        <v>75</v>
-      </c>
-      <c r="Q1">
-        <v>80</v>
-      </c>
-      <c r="R1">
-        <v>85</v>
-      </c>
-      <c r="S1">
-        <v>90</v>
-      </c>
-      <c r="T1">
-        <v>95</v>
-      </c>
-      <c r="U1">
-        <v>100</v>
-      </c>
-      <c r="V1">
-        <v>105</v>
-      </c>
-      <c r="W1">
-        <v>110</v>
-      </c>
-      <c r="X1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.14315216370975301</v>
-      </c>
-      <c r="C2">
-        <v>0.21559396584309801</v>
-      </c>
-      <c r="D2">
-        <v>0.27609150521348502</v>
-      </c>
-      <c r="E2">
-        <v>0.33061134933770803</v>
-      </c>
-      <c r="F2">
-        <v>0.34382806770058999</v>
-      </c>
-      <c r="G2">
-        <v>0.33980348731569998</v>
-      </c>
-      <c r="H2">
-        <v>0.36448155943187899</v>
-      </c>
-      <c r="I2">
-        <v>0.38036677356290999</v>
-      </c>
-      <c r="J2">
-        <v>0.37607767741623399</v>
-      </c>
-      <c r="K2">
-        <v>0.39641339037428602</v>
-      </c>
-      <c r="L2">
-        <v>0.41389990486704298</v>
-      </c>
-      <c r="M2">
-        <v>0.38565500483980097</v>
-      </c>
-      <c r="N2">
-        <v>0.39359094500960401</v>
-      </c>
-      <c r="O2">
-        <v>0.382075008824517</v>
-      </c>
-      <c r="P2">
-        <v>0.357610572936576</v>
-      </c>
-      <c r="Q2">
-        <v>0.34725775611253701</v>
-      </c>
-      <c r="R2">
-        <v>0.32995341065414402</v>
-      </c>
-      <c r="S2">
-        <v>0.31080630669796799</v>
-      </c>
-      <c r="T2">
-        <v>0.27850756494283102</v>
-      </c>
-      <c r="U2">
-        <v>0.248374850513881</v>
-      </c>
-      <c r="V2">
-        <v>0.21554291804275799</v>
-      </c>
-      <c r="W2">
-        <v>0.197085897520756</v>
-      </c>
-      <c r="X2">
-        <v>0.17716065333655001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.14698064816973599</v>
-      </c>
-      <c r="C3">
-        <v>0.24741877753303901</v>
-      </c>
-      <c r="D3">
-        <v>0.32079789262685399</v>
-      </c>
-      <c r="E3">
-        <v>0.38624165749732098</v>
-      </c>
-      <c r="F3">
-        <v>0.42412865530905602</v>
-      </c>
-      <c r="G3">
-        <v>0.41621522375289999</v>
-      </c>
-      <c r="H3">
-        <v>0.423456458951327</v>
-      </c>
-      <c r="I3">
-        <v>0.40965072671977898</v>
-      </c>
-      <c r="J3">
-        <v>0.420854383792655</v>
-      </c>
-      <c r="K3">
-        <v>0.455483107293642</v>
-      </c>
-      <c r="L3">
-        <v>0.479382182191748</v>
-      </c>
-      <c r="M3">
-        <v>0.46361461929706499</v>
-      </c>
-      <c r="N3">
-        <v>0.46495532475666901</v>
-      </c>
-      <c r="O3">
-        <v>0.44267550598585398</v>
-      </c>
-      <c r="P3">
-        <v>0.40674273125507099</v>
-      </c>
-      <c r="Q3">
-        <v>0.38927585592269098</v>
-      </c>
-      <c r="R3">
-        <v>0.37557012542759399</v>
-      </c>
-      <c r="S3">
-        <v>0.34802911656888502</v>
-      </c>
-      <c r="T3">
-        <v>0.31985051396910003</v>
-      </c>
-      <c r="U3">
-        <v>0.29734912699592903</v>
-      </c>
-      <c r="V3">
-        <v>0.271188141424477</v>
-      </c>
-      <c r="W3">
-        <v>0.24676946041196901</v>
-      </c>
-      <c r="X3">
-        <v>0.225820861540767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.154774868614175</v>
-      </c>
-      <c r="C4">
-        <v>0.24886717014660101</v>
-      </c>
-      <c r="D4">
-        <v>0.39039191139228402</v>
-      </c>
-      <c r="E4">
-        <v>0.50593473375465503</v>
-      </c>
-      <c r="F4">
-        <v>0.53366479761696095</v>
-      </c>
-      <c r="G4">
-        <v>0.545194940347138</v>
-      </c>
-      <c r="H4">
-        <v>0.60203200413823899</v>
-      </c>
-      <c r="I4">
-        <v>0.63175564912038495</v>
-      </c>
-      <c r="J4">
-        <v>0.65185409680283302</v>
-      </c>
-      <c r="K4">
-        <v>0.66788588573494301</v>
-      </c>
-      <c r="L4">
-        <v>0.68138252291118695</v>
-      </c>
-      <c r="M4">
-        <v>0.63136286866156099</v>
-      </c>
-      <c r="N4">
-        <v>0.62970744538622703</v>
-      </c>
-      <c r="O4">
-        <v>0.60874018666624397</v>
-      </c>
-      <c r="P4">
-        <v>0.56111420837136605</v>
-      </c>
-      <c r="Q4">
-        <v>0.51773386648018604</v>
-      </c>
-      <c r="R4">
-        <v>0.47949921578391003</v>
-      </c>
-      <c r="S4">
-        <v>0.42034085842663499</v>
-      </c>
-      <c r="T4">
-        <v>0.38477765940173397</v>
-      </c>
-      <c r="U4">
-        <v>0.34807269579464101</v>
-      </c>
-      <c r="V4">
-        <v>0.31241976586176101</v>
-      </c>
-      <c r="W4">
-        <v>0.27650295237826999</v>
-      </c>
-      <c r="X4">
-        <v>0.24579529163425401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.14929416797376299</v>
-      </c>
-      <c r="C5">
-        <v>0.26898949707853798</v>
-      </c>
-      <c r="D5">
-        <v>0.39559895555275099</v>
-      </c>
-      <c r="E5">
-        <v>0.507270930396724</v>
-      </c>
-      <c r="F5">
-        <v>0.52026052213190499</v>
-      </c>
-      <c r="G5">
-        <v>0.47933166378122999</v>
-      </c>
-      <c r="H5">
-        <v>0.52259605441551504</v>
-      </c>
-      <c r="I5">
-        <v>0.56403561411796699</v>
-      </c>
-      <c r="J5">
-        <v>0.58568351103267602</v>
-      </c>
-      <c r="K5">
-        <v>0.56695054449476301</v>
-      </c>
-      <c r="L5">
-        <v>0.54687273585832896</v>
-      </c>
-      <c r="M5">
-        <v>0.51542867134454295</v>
-      </c>
-      <c r="N5">
-        <v>0.49503316812699699</v>
-      </c>
-      <c r="O5">
-        <v>0.47186990282702201</v>
-      </c>
-      <c r="P5">
-        <v>0.45996859972270598</v>
-      </c>
-      <c r="Q5">
-        <v>0.411340007140928</v>
-      </c>
-      <c r="R5">
-        <v>0.39650644274093</v>
-      </c>
-      <c r="S5">
-        <v>0.37696379140048097</v>
-      </c>
-      <c r="T5">
-        <v>0.333891626223076</v>
-      </c>
-      <c r="U5">
-        <v>0.29664227328343001</v>
-      </c>
-      <c r="V5">
-        <v>0.25657879498172298</v>
-      </c>
-      <c r="W5">
-        <v>0.23647350672984699</v>
-      </c>
-      <c r="X5">
-        <v>0.21200926455439101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.13471502590673501</v>
-      </c>
-      <c r="C6">
-        <v>0.24816300450818199</v>
-      </c>
-      <c r="D6">
-        <v>0.42264680312969199</v>
-      </c>
-      <c r="E6">
-        <v>0.41152959815641599</v>
-      </c>
-      <c r="F6">
-        <v>0.45392025005915199</v>
-      </c>
-      <c r="G6">
-        <v>0.45200454828888897</v>
-      </c>
-      <c r="H6">
-        <v>0.45351118801854501</v>
-      </c>
-      <c r="I6">
-        <v>0.47534680446295402</v>
-      </c>
-      <c r="J6">
-        <v>0.46733037324823001</v>
-      </c>
-      <c r="K6">
-        <v>0.47796919463610399</v>
-      </c>
-      <c r="L6">
-        <v>0.46753574551371602</v>
-      </c>
-      <c r="M6">
-        <v>0.44356179869283102</v>
-      </c>
-      <c r="N6">
-        <v>0.43439993767399199</v>
-      </c>
-      <c r="O6">
-        <v>0.42476568335827902</v>
-      </c>
-      <c r="P6">
-        <v>0.39745697379157802</v>
-      </c>
-      <c r="Q6">
-        <v>0.36397302073802701</v>
-      </c>
-      <c r="R6">
-        <v>0.34867697797971597</v>
-      </c>
-      <c r="S6">
-        <v>0.32817755334765703</v>
-      </c>
-      <c r="T6">
-        <v>0.306107744316792</v>
-      </c>
-      <c r="U6">
-        <v>0.28020129481448802</v>
-      </c>
-      <c r="V6">
-        <v>0.25206592132842398</v>
-      </c>
-      <c r="W6">
-        <v>0.23324315595315001</v>
-      </c>
-      <c r="X6">
-        <v>0.211071257219241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.14161168708765301</v>
-      </c>
-      <c r="C7">
-        <v>0.19318818198788301</v>
-      </c>
-      <c r="D7">
-        <v>0.321490104772991</v>
-      </c>
-      <c r="E7">
-        <v>0.38573373653103699</v>
-      </c>
-      <c r="F7">
-        <v>0.43228680065181901</v>
-      </c>
-      <c r="G7">
-        <v>0.45127545622443499</v>
-      </c>
-      <c r="H7">
-        <v>0.50755475047230902</v>
-      </c>
-      <c r="I7">
-        <v>0.51657876077906395</v>
-      </c>
-      <c r="J7">
-        <v>0.51636734842096299</v>
-      </c>
-      <c r="K7">
-        <v>0.53385138009105804</v>
-      </c>
-      <c r="L7">
-        <v>0.51134669730557303</v>
-      </c>
-      <c r="M7">
-        <v>0.48495515222975499</v>
-      </c>
-      <c r="N7">
-        <v>0.47103844008278301</v>
-      </c>
-      <c r="O7">
-        <v>0.45953664205982198</v>
-      </c>
-      <c r="P7">
-        <v>0.42281030928067398</v>
-      </c>
-      <c r="Q7">
-        <v>0.38104793638826601</v>
-      </c>
-      <c r="R7">
-        <v>0.35746340419758699</v>
-      </c>
-      <c r="S7">
-        <v>0.31476908794383801</v>
-      </c>
-      <c r="T7">
-        <v>0.27900435530057199</v>
-      </c>
-      <c r="U7">
-        <v>0.25323804387725901</v>
-      </c>
-      <c r="V7">
-        <v>0.22686406027748199</v>
-      </c>
-      <c r="W7">
-        <v>0.20893112266730501</v>
-      </c>
-      <c r="X7">
-        <v>0.194075241745266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.13340184034751701</v>
-      </c>
-      <c r="C8">
-        <v>0.241791880214801</v>
-      </c>
-      <c r="D8">
-        <v>0.35327648704994002</v>
-      </c>
-      <c r="E8">
-        <v>0.35951028975677801</v>
-      </c>
-      <c r="F8">
-        <v>0.39295041121601798</v>
-      </c>
-      <c r="G8">
-        <v>0.39462807892875101</v>
-      </c>
-      <c r="H8">
-        <v>0.42697315982274497</v>
-      </c>
-      <c r="I8">
-        <v>0.45675652975540498</v>
-      </c>
-      <c r="J8">
-        <v>0.47591375266789099</v>
-      </c>
-      <c r="K8">
-        <v>0.498760322187002</v>
-      </c>
-      <c r="L8">
-        <v>0.52745158113025004</v>
-      </c>
-      <c r="M8">
-        <v>0.52627376686025096</v>
-      </c>
-      <c r="N8">
-        <v>0.53428403506766997</v>
-      </c>
-      <c r="O8">
-        <v>0.52537803804854499</v>
-      </c>
-      <c r="P8">
-        <v>0.50531469660429096</v>
-      </c>
-      <c r="Q8">
-        <v>0.48281110257271298</v>
-      </c>
-      <c r="R8">
-        <v>0.47933096327028102</v>
-      </c>
-      <c r="S8">
-        <v>0.44309191996996899</v>
-      </c>
-      <c r="T8">
-        <v>0.40279622757810901</v>
-      </c>
-      <c r="U8">
-        <v>0.36321483255794301</v>
-      </c>
-      <c r="V8">
-        <v>0.32627866513926002</v>
-      </c>
-      <c r="W8">
-        <v>0.283705120785819</v>
-      </c>
-      <c r="X8">
-        <v>0.25270725879171901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.144052263007002</v>
-      </c>
-      <c r="C9">
-        <v>0.26471116217283502</v>
-      </c>
-      <c r="D9">
-        <v>0.40201166806501298</v>
-      </c>
-      <c r="E9">
-        <v>0.46390078173259203</v>
-      </c>
-      <c r="F9">
-        <v>0.48954253598706199</v>
-      </c>
-      <c r="G9">
-        <v>0.497897300158814</v>
-      </c>
-      <c r="H9">
-        <v>0.54277324642743496</v>
-      </c>
-      <c r="I9">
-        <v>0.55956035952743299</v>
-      </c>
-      <c r="J9">
-        <v>0.56183791356809398</v>
-      </c>
-      <c r="K9">
-        <v>0.55681153909364201</v>
-      </c>
-      <c r="L9">
-        <v>0.54581781689486397</v>
-      </c>
-      <c r="M9">
-        <v>0.53423746506747205</v>
-      </c>
-      <c r="N9">
-        <v>0.51088300482568905</v>
-      </c>
-      <c r="O9">
-        <v>0.47536885243263299</v>
-      </c>
-      <c r="P9">
-        <v>0.44519129549661901</v>
-      </c>
-      <c r="Q9">
-        <v>0.41152040136481699</v>
-      </c>
-      <c r="R9">
-        <v>0.40051495687212502</v>
-      </c>
-      <c r="S9">
-        <v>0.37830617856349102</v>
-      </c>
-      <c r="T9">
-        <v>0.34483263472776499</v>
-      </c>
-      <c r="U9">
-        <v>0.30383918873374799</v>
-      </c>
-      <c r="V9">
-        <v>0.28369362923611502</v>
-      </c>
-      <c r="W9">
-        <v>0.26140354766427798</v>
-      </c>
-      <c r="X9">
-        <v>0.24215229028353499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0.12664711086278299</v>
-      </c>
-      <c r="C10">
-        <v>0.250670361905447</v>
-      </c>
-      <c r="D10">
-        <v>0.37695390586147298</v>
-      </c>
-      <c r="E10">
-        <v>0.40034944063420802</v>
-      </c>
-      <c r="F10">
-        <v>0.452443685634421</v>
-      </c>
-      <c r="G10">
-        <v>0.49243933588761102</v>
-      </c>
-      <c r="H10">
-        <v>0.52153748440040204</v>
-      </c>
-      <c r="I10">
-        <v>0.56797602885070397</v>
-      </c>
-      <c r="J10">
-        <v>0.60960237731672196</v>
-      </c>
-      <c r="K10">
-        <v>0.65940461778440795</v>
-      </c>
-      <c r="L10">
-        <v>0.68908814257453799</v>
-      </c>
-      <c r="M10">
-        <v>0.67383865205057702</v>
-      </c>
-      <c r="N10">
-        <v>0.65323724407327</v>
-      </c>
-      <c r="O10">
-        <v>0.61613587058461206</v>
-      </c>
-      <c r="P10">
-        <v>0.58477336294009097</v>
-      </c>
-      <c r="Q10">
-        <v>0.55678659340678005</v>
-      </c>
-      <c r="R10">
-        <v>0.52116939813415797</v>
-      </c>
-      <c r="S10">
-        <v>0.48434052667851202</v>
-      </c>
-      <c r="T10">
-        <v>0.449869963402171</v>
-      </c>
-      <c r="U10">
-        <v>0.40054183729421999</v>
-      </c>
-      <c r="V10">
-        <v>0.35851422972566099</v>
-      </c>
-      <c r="W10">
-        <v>0.33372451497964201</v>
-      </c>
-      <c r="X10">
-        <v>0.30753381024597598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0.17540537916302501</v>
-      </c>
-      <c r="C11">
-        <v>0.33354863221884501</v>
-      </c>
-      <c r="D11">
-        <v>0.53074443983534803</v>
-      </c>
-      <c r="E11">
-        <v>0.61408311112159897</v>
-      </c>
-      <c r="F11">
-        <v>0.64152021921566804</v>
-      </c>
-      <c r="G11">
-        <v>0.67388439716819004</v>
-      </c>
-      <c r="H11">
-        <v>0.71320589464076201</v>
-      </c>
-      <c r="I11">
-        <v>0.74541680093200802</v>
-      </c>
-      <c r="J11">
-        <v>0.755342226631604</v>
-      </c>
-      <c r="K11">
-        <v>0.75758870269786804</v>
-      </c>
-      <c r="L11">
-        <v>0.74320574444081999</v>
-      </c>
-      <c r="M11">
-        <v>0.77195861800833399</v>
-      </c>
-      <c r="N11">
-        <v>0.76246011011457304</v>
-      </c>
-      <c r="O11">
-        <v>0.73408711481309297</v>
-      </c>
-      <c r="P11">
-        <v>0.69621599929228495</v>
-      </c>
-      <c r="Q11">
-        <v>0.64200294665271296</v>
-      </c>
-      <c r="R11">
-        <v>0.59918866798868298</v>
-      </c>
-      <c r="S11">
-        <v>0.55717245773454305</v>
-      </c>
-      <c r="T11">
-        <v>0.511630394851188</v>
-      </c>
-      <c r="U11">
-        <v>0.46560585741000998</v>
-      </c>
-      <c r="V11">
-        <v>0.421160927138094</v>
-      </c>
-      <c r="W11">
-        <v>0.38735157661561698</v>
-      </c>
-      <c r="X11">
-        <v>0.35982159195123398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.147140133460438</v>
-      </c>
-      <c r="C12">
-        <v>0.31868483456920199</v>
-      </c>
-      <c r="D12">
-        <v>0.58582589650550798</v>
-      </c>
-      <c r="E12">
-        <v>0.70743284436315601</v>
-      </c>
-      <c r="F12">
-        <v>0.73821587306346004</v>
-      </c>
-      <c r="G12">
-        <v>0.73122884966824397</v>
-      </c>
-      <c r="H12">
-        <v>0.76949994415123801</v>
-      </c>
-      <c r="I12">
-        <v>0.81500240377078403</v>
-      </c>
-      <c r="J12">
-        <v>0.838461776765558</v>
-      </c>
-      <c r="K12">
-        <v>0.86803692286223499</v>
-      </c>
-      <c r="L12">
-        <v>0.86888528231189599</v>
-      </c>
-      <c r="M12">
-        <v>0.82071792898700602</v>
-      </c>
-      <c r="N12">
-        <v>0.773267629065714</v>
-      </c>
-      <c r="O12">
-        <v>0.76263655114461004</v>
-      </c>
-      <c r="P12">
-        <v>0.74468715057188395</v>
-      </c>
-      <c r="Q12">
-        <v>0.71276309197044696</v>
-      </c>
-      <c r="R12">
-        <v>0.65024219123063498</v>
-      </c>
-      <c r="S12">
-        <v>0.58676460854024304</v>
-      </c>
-      <c r="T12">
-        <v>0.53715750730089895</v>
-      </c>
-      <c r="U12">
-        <v>0.481572422762574</v>
-      </c>
-      <c r="V12">
-        <v>0.43195501587375501</v>
-      </c>
-      <c r="W12">
-        <v>0.39346559508281198</v>
-      </c>
-      <c r="X12">
-        <v>0.34602396950383302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.14117981251775399</v>
-      </c>
-      <c r="C13">
-        <v>0.314903265374393</v>
-      </c>
-      <c r="D13">
-        <v>0.47953617343080401</v>
-      </c>
-      <c r="E13">
-        <v>0.55769551164572995</v>
-      </c>
-      <c r="F13">
-        <v>0.53039687340957697</v>
-      </c>
-      <c r="G13">
-        <v>0.508723308242789</v>
-      </c>
-      <c r="H13">
-        <v>0.52655641425920896</v>
-      </c>
-      <c r="I13">
-        <v>0.54495178863990301</v>
-      </c>
-      <c r="J13">
-        <v>0.56933183693917599</v>
-      </c>
-      <c r="K13">
-        <v>0.62464995183387695</v>
-      </c>
-      <c r="L13">
-        <v>0.59748779321021905</v>
-      </c>
-      <c r="M13">
-        <v>0.543963283521255</v>
-      </c>
-      <c r="N13">
-        <v>0.52408596393227902</v>
-      </c>
-      <c r="O13">
-        <v>0.51123417528534598</v>
-      </c>
-      <c r="P13">
-        <v>0.46926223892467001</v>
-      </c>
-      <c r="Q13">
-        <v>0.45276530651732</v>
-      </c>
-      <c r="R13">
-        <v>0.44132879732341901</v>
-      </c>
-      <c r="S13">
-        <v>0.40073706396025899</v>
-      </c>
-      <c r="T13">
-        <v>0.35273702618234698</v>
-      </c>
-      <c r="U13">
-        <v>0.31540337012437297</v>
-      </c>
-      <c r="V13">
-        <v>0.28025021249075799</v>
-      </c>
-      <c r="W13">
-        <v>0.26089885316278799</v>
-      </c>
-      <c r="X13">
-        <v>0.238949046587772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.15126010908406901</v>
-      </c>
-      <c r="C14">
-        <v>0.27297590083290402</v>
-      </c>
-      <c r="D14">
-        <v>0.404706015441613</v>
-      </c>
-      <c r="E14">
-        <v>0.47669797687861198</v>
-      </c>
-      <c r="F14">
-        <v>0.46781433284734097</v>
-      </c>
-      <c r="G14">
-        <v>0.47369381122992199</v>
-      </c>
-      <c r="H14">
-        <v>0.51160846771592094</v>
-      </c>
-      <c r="I14">
-        <v>0.52400185729260995</v>
-      </c>
-      <c r="J14">
-        <v>0.55245579598742001</v>
-      </c>
-      <c r="K14">
-        <v>0.59929819427491804</v>
-      </c>
-      <c r="L14">
-        <v>0.60731818092687695</v>
-      </c>
-      <c r="M14">
-        <v>0.56916453315776905</v>
-      </c>
-      <c r="N14">
-        <v>0.53280545244270405</v>
-      </c>
-      <c r="O14">
-        <v>0.50948305093115298</v>
-      </c>
-      <c r="P14">
-        <v>0.47455722592692601</v>
-      </c>
-      <c r="Q14">
-        <v>0.44666899874293903</v>
-      </c>
-      <c r="R14">
-        <v>0.43973401007860802</v>
-      </c>
-      <c r="S14">
-        <v>0.40151425227925802</v>
-      </c>
-      <c r="T14">
-        <v>0.35453435670737099</v>
-      </c>
-      <c r="U14">
-        <v>0.31341667418631602</v>
-      </c>
-      <c r="V14">
-        <v>0.28140167449279702</v>
-      </c>
-      <c r="W14">
-        <v>0.25433654624907598</v>
-      </c>
-      <c r="X14">
-        <v>0.23405786879637799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.10614101592115199</v>
-      </c>
-      <c r="C15">
-        <v>0.20075666697425401</v>
-      </c>
-      <c r="D15">
-        <v>0.32358793493709498</v>
-      </c>
-      <c r="E15">
-        <v>0.38435519705487498</v>
-      </c>
-      <c r="F15">
-        <v>0.45334543029068503</v>
-      </c>
-      <c r="G15">
-        <v>0.41619824332654198</v>
-      </c>
-      <c r="H15">
-        <v>0.42710669303205601</v>
-      </c>
-      <c r="I15">
-        <v>0.45301580149380499</v>
-      </c>
-      <c r="J15">
-        <v>0.46623400371938301</v>
-      </c>
-      <c r="K15">
-        <v>0.46244475504349603</v>
-      </c>
-      <c r="L15">
-        <v>0.46092995898099098</v>
-      </c>
-      <c r="M15">
-        <v>0.418365726857926</v>
-      </c>
-      <c r="N15">
-        <v>0.412593517761631</v>
-      </c>
-      <c r="O15">
-        <v>0.41443382967021702</v>
-      </c>
-      <c r="P15">
-        <v>0.41125965543584803</v>
-      </c>
-      <c r="Q15">
-        <v>0.43494580964003898</v>
-      </c>
-      <c r="R15">
-        <v>0.43456307746478501</v>
-      </c>
-      <c r="S15">
-        <v>0.410578214517547</v>
-      </c>
-      <c r="T15">
-        <v>0.40716491779876002</v>
-      </c>
-      <c r="U15">
-        <v>0.37591729202815399</v>
-      </c>
-      <c r="V15">
-        <v>0.35438589069093002</v>
-      </c>
-      <c r="W15">
-        <v>0.33078856883664498</v>
-      </c>
-      <c r="X15">
-        <v>0.30894028132259299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>5.4887611082069999E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.12718937345715201</v>
-      </c>
-      <c r="D16">
-        <v>0.26349472735014901</v>
-      </c>
-      <c r="E16">
-        <v>0.358008055549419</v>
-      </c>
-      <c r="F16">
-        <v>0.351128697745269</v>
-      </c>
-      <c r="G16">
-        <v>0.348824825398868</v>
-      </c>
-      <c r="H16">
-        <v>0.36986777156680001</v>
-      </c>
-      <c r="I16">
-        <v>0.372104007951571</v>
-      </c>
-      <c r="J16">
-        <v>0.41892272784159201</v>
-      </c>
-      <c r="K16">
-        <v>0.44642911887835501</v>
-      </c>
-      <c r="L16">
-        <v>0.423078782477462</v>
-      </c>
-      <c r="M16">
-        <v>0.40187124366992999</v>
-      </c>
-      <c r="N16">
-        <v>0.394716788053948</v>
-      </c>
-      <c r="O16">
-        <v>0.40220578340472501</v>
-      </c>
-      <c r="P16">
-        <v>0.42183080510516402</v>
-      </c>
-      <c r="Q16">
-        <v>0.45633956662041297</v>
-      </c>
-      <c r="R16">
-        <v>0.480333214783837</v>
-      </c>
-      <c r="S16">
-        <v>0.44973862096443601</v>
-      </c>
-      <c r="T16">
-        <v>0.45992101476041602</v>
-      </c>
-      <c r="U16">
-        <v>0.475980952753354</v>
-      </c>
-      <c r="V16">
-        <v>0.46062380944891601</v>
-      </c>
-      <c r="W16">
-        <v>0.43595469663661002</v>
-      </c>
-      <c r="X16">
-        <v>0.41670881190218101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8809BD-B842-4D49-A27D-680C92490B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0DB09-4CC5-45EB-868C-9BDF728F2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>football</t>
   </si>
@@ -155,7 +155,10 @@
     <t>Accessibility Unreliability (4-week Average)</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\covid_reliab.tif</t>
+    <t>Game Start Time</t>
+  </si>
+  <si>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\sandwitch.tif</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Game Time</c:v>
+                  <c:v>Game Start Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2322,6 +2325,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8436-416B-84F7-59F6C36E7862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game End Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.033333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D49B-4609-86FB-C6BFF9FFF71E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2944,7 +3028,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Game Time</c:v>
+                  <c:v>Game Start Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3446,40 +3530,40 @@
                   <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43428</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43715</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43764</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>43778</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,22 +3578,22 @@
                   <c:v>1.9999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9999999999999996</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0000000000000004</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0000000000000004</c:v>
+                  <c:v>1.9999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0000000000000004</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.0000000000000004</c:v>
@@ -3518,16 +3602,16 @@
                   <c:v>3.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>3.5000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5000000000000009</c:v>
+                  <c:v>1.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5000000000000009</c:v>
+                  <c:v>1.0000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,40 +3656,40 @@
                   <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43428</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43715</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43764</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>43778</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3620,37 +3704,37 @@
                   <c:v>1.3999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1.2500000000000009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.86666666666666892</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.83333333333333304</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>0.13333333333333286</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.9833333333333325</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>0.41666666666666519</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>1.5500000000000025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1499999999999986</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13333333333333286</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1999999999999975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,40 +4068,40 @@
                   <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43428</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43715</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43764</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>43778</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,22 +4116,22 @@
                   <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.375</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>0.41666666666666669</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.45833333333333331</c:v>
@@ -4056,16 +4140,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,40 +4197,40 @@
                   <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43428</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43715</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43764</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>43778</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,37 +4245,37 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.70833333333333337</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>0.70833333333333337</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.70833333333333337</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4239,40 +4323,40 @@
                   <c:v>43344</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43386</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43407</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43428</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43715</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43764</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>43778</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>43792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4287,13 +4371,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.64583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.64583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -4311,16 +4395,16 @@
                   <c:v>0.64583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64583333333333337</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64583333333333337</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35901,16 +35985,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>280985</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1433510</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>309560</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147635</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36016,16 +36100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39983,7 +40067,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -42171,8 +42255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42195,7 +42279,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -42228,8 +42312,8 @@
         <f>C2-D2</f>
         <v>6</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.19166666666666665</v>
+      <c r="G2">
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -42253,6 +42337,9 @@
         <f t="shared" ref="F3:F14" si="1">C3-D3</f>
         <v>4.5</v>
       </c>
+      <c r="G3">
+        <v>18.7</v>
+      </c>
       <c r="M3">
         <v>10</v>
       </c>
@@ -42285,6 +42372,9 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
+      <c r="G4">
+        <v>18.850000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -42307,6 +42397,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="G5">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -42329,6 +42422,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="G6">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -42351,6 +42447,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>15.75</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="L7" s="3"/>
     </row>
@@ -42375,6 +42474,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="G8">
+        <v>16.133333333333333</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="L8" s="3"/>
     </row>
@@ -42399,6 +42501,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="G9">
+        <v>15.166666666666666</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="L9" s="3"/>
     </row>
@@ -42423,6 +42528,9 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
+      <c r="G10">
+        <v>18.866666666666667</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="L10" s="3"/>
     </row>
@@ -42440,6 +42548,9 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
+      <c r="G11">
+        <v>23.033333333333335</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="L11" s="3"/>
     </row>
@@ -42464,6 +42575,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="G12">
+        <v>15.016666666666666</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="L12" s="3"/>
     </row>
@@ -42488,6 +42602,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="G13">
+        <v>15.583333333333334</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="L13" s="3"/>
     </row>
@@ -42511,6 +42628,9 @@
       <c r="F14">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="G14">
+        <v>15.45</v>
       </c>
       <c r="I14" s="1"/>
       <c r="L14" s="3"/>
@@ -42557,10 +42677,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L2" sqref="L2:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42568,9 +42688,10 @@
     <col min="1" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
@@ -42590,7 +42711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43344</v>
       </c>
@@ -42604,11 +42725,11 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E14" si="0">(D2-B2)*24</f>
+        <f>(D2-B2)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F13" si="1">(C2-G2)*24</f>
+        <f>(C2-G2)*24</f>
         <v>1.3999999999999977</v>
       </c>
       <c r="G2" s="3">
@@ -42618,349 +42739,461 @@
         <f>G2-D2</f>
         <v>0.19166666666666676</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="6">
+        <f>G2</f>
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="L2">
+        <f>K2*24</f>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E3">
+        <f>(D3-B3)*24</f>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="F3">
+        <f>(C3-G3)*24</f>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H14" si="0">G3-D3</f>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K14" si="1">G3</f>
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="2">K3*24</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E4">
+        <f>(D4-B4)*24</f>
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <f>(C4-G4)*24</f>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13958333333333339</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5">
+        <f>(D5-B5)*24</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>(C5-G5)*24</f>
+        <v>2.1999999999999975</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15833333333333344</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43386</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B6" s="3">
         <v>0.375</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="3">
         <v>0.70833333333333337</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H14" si="2">G3-D3</f>
-        <v>0.13750000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43407</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000009</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43428</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.86666666666666892</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.67222222222222217</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.17222222222222217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43715</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.66666666666666663</v>
       </c>
       <c r="D6" s="3">
         <v>0.5</v>
       </c>
       <c r="E6">
+        <f>(D6-B6)*24</f>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>(C6-G6)*24</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F6">
+        <v>0.13750000000000007</v>
+      </c>
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="H6" s="3">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v>0.13194444444444442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43764</v>
+        <v>43407</v>
       </c>
       <c r="B7" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C7" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="3">
         <v>0.5</v>
       </c>
       <c r="E7">
+        <f>(D7-B7)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="F7">
+        <f>(C7-G7)*24</f>
+        <v>1.2500000000000009</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F7">
+        <v>0.15625</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
-        <v>0.9833333333333325</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="H7" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>0.12569444444444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43778</v>
+        <v>43428</v>
       </c>
       <c r="B8" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="C8" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D8" s="3">
         <v>0.5</v>
       </c>
       <c r="E8">
+        <f>(D8-B8)*24</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>(C8-G8)*24</f>
+        <v>0.86666666666666892</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F8">
+        <v>0.17222222222222217</v>
+      </c>
+      <c r="I8" s="3">
+        <f>AVERAGE(G2:G9)</f>
+        <v>0.70989583333333339</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
-        <v>0.41666666666666519</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="H8" s="3">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v>0.14930555555555558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16.133333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43792</v>
+        <v>43715</v>
       </c>
       <c r="B9" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C9" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="3">
         <v>0.5</v>
       </c>
       <c r="E9">
+        <f>(D9-B9)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F9">
+        <f>(C9-G9)*24</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F9">
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
-        <v>1.5500000000000025</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="H9" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v>0.14374999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43351</v>
+        <v>43729</v>
       </c>
       <c r="B10" s="3">
         <v>0.5</v>
       </c>
       <c r="C10" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D10" s="3">
         <v>0.64583333333333337</v>
       </c>
       <c r="E10">
+        <f>(D10-B10)*24</f>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="F10">
+        <f>(C10-G10)*24</f>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
+        <v>0.14027777777777772</v>
+      </c>
+      <c r="I10" s="3">
+        <f>AVERAGE(G10:G13)</f>
+        <v>0.75520833333333326</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>18.866666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E11">
+        <f>(D11-B11)*24</f>
         <v>3.5000000000000009</v>
       </c>
-      <c r="F10">
+      <c r="G11" s="3">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14722222222222225</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.77916666666666667</v>
-      </c>
-      <c r="H10" s="3">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43365</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E11">
+        <v>23.033333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <f>(D12-B12)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F12">
+        <f>(C12-G12)*24</f>
+        <v>0.9833333333333325</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F11">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
-        <v>1.1499999999999986</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="H11" s="3">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>0.13958333333333339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43729</v>
-      </c>
-      <c r="B12" s="3">
+        <v>15.016666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.5</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E12">
+      <c r="E13">
+        <f>(D13-B13)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F13">
+        <f>(C13-G13)*24</f>
+        <v>0.41666666666666519</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="F12">
+        <v>0.14930555555555558</v>
+      </c>
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
-        <v>0.13333333333333286</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="H12" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
-        <v>0.14027777777777772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43379</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E13">
+        <v>15.583333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <f>(D14-B14)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F14">
+        <f>(C14-G14)*24</f>
+        <v>1.5500000000000025</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F13">
+        <v>0.14374999999999993</v>
+      </c>
+      <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>2.1999999999999975</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="H13" s="3">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
-        <v>0.15833333333333344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43743</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.14722222222222225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15">
         <f>AVERAGE(E2:E14)</f>
@@ -42968,7 +43201,7 @@
       </c>
       <c r="F15">
         <f>AVERAGE(F2:F13)</f>
-        <v>1.1486111111111108</v>
+        <v>1.1121212121212116</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -43026,7 +43259,7 @@
   </sheetData>
   <autoFilter ref="A1:G16" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-      <sortCondition ref="D1:D16"/>
+      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44681,7 +44914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294AE5AB-1A1A-4C2E-891C-39FC14D86229}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B72" sqref="B72:E74"/>
     </sheetView>
   </sheetViews>
@@ -44731,15 +44964,15 @@
         <v>786695</v>
       </c>
       <c r="D2">
-        <f>B2/J2</f>
+        <f t="shared" ref="D2:D16" si="0">B2/J2</f>
         <v>202.1516433452652</v>
       </c>
       <c r="E2">
-        <f>C2/J2</f>
+        <f t="shared" ref="E2:E16" si="1">C2/J2</f>
         <v>256.00227790432803</v>
       </c>
       <c r="H2" s="7">
-        <f>(C2-B2)/B2</f>
+        <f t="shared" ref="H2:H16" si="2">(C2-B2)/B2</f>
         <v>0.26638732027069661</v>
       </c>
       <c r="J2">
@@ -44757,15 +44990,15 @@
         <v>787311</v>
       </c>
       <c r="D3">
-        <f>B3/J3</f>
+        <f t="shared" si="0"/>
         <v>181.39818711557137</v>
       </c>
       <c r="E3">
-        <f>C3/J3</f>
+        <f t="shared" si="1"/>
         <v>254.87568792489478</v>
       </c>
       <c r="H3" s="7">
-        <f>(C3-B3)/B3</f>
+        <f t="shared" si="2"/>
         <v>0.40506193572105459</v>
       </c>
       <c r="J3">
@@ -44783,15 +45016,15 @@
         <v>781697</v>
       </c>
       <c r="D4">
-        <f>B4/J4</f>
+        <f t="shared" si="0"/>
         <v>164.59695694399483</v>
       </c>
       <c r="E4">
-        <f>C4/J4</f>
+        <f t="shared" si="1"/>
         <v>253.05827128520556</v>
       </c>
       <c r="H4" s="7">
-        <f>(C4-B4)/B4</f>
+        <f t="shared" si="2"/>
         <v>0.5374419793879317</v>
       </c>
       <c r="J4">
@@ -44809,11 +45042,11 @@
         <v>790244</v>
       </c>
       <c r="D5">
-        <f>B5/J5</f>
+        <f t="shared" si="0"/>
         <v>169.87730657170604</v>
       </c>
       <c r="E5">
-        <f>C5/J5</f>
+        <f t="shared" si="1"/>
         <v>255.82518614438331</v>
       </c>
       <c r="F5">
@@ -44825,7 +45058,7 @@
         <v>254.94035581470294</v>
       </c>
       <c r="H5" s="7">
-        <f>(C5-B5)/B5</f>
+        <f t="shared" si="2"/>
         <v>0.50594091292822696</v>
       </c>
       <c r="I5" s="7">
@@ -44847,27 +45080,27 @@
         <v>784684</v>
       </c>
       <c r="D6">
-        <f>B6/J6</f>
+        <f t="shared" si="0"/>
         <v>201.41391585760519</v>
       </c>
       <c r="E6">
-        <f>C6/J6</f>
+        <f t="shared" si="1"/>
         <v>253.94304207119743</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:G6" si="0">AVERAGE(D3:D6)</f>
+        <f t="shared" ref="F6:G6" si="3">AVERAGE(D3:D6)</f>
         <v>179.32159162221936</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>254.42554685642025</v>
       </c>
       <c r="H6" s="7">
-        <f>(C6-B6)/B6</f>
+        <f t="shared" si="2"/>
         <v>0.2608018715585127</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" ref="I6:I69" si="1">(G6-F6)/F6</f>
+        <f t="shared" ref="I6:I69" si="4">(G6-F6)/F6</f>
         <v>0.41882271150271749</v>
       </c>
       <c r="J6">
@@ -44885,27 +45118,27 @@
         <v>778159</v>
       </c>
       <c r="D7">
-        <f>B7/J7</f>
+        <f t="shared" si="0"/>
         <v>153.10161812297736</v>
       </c>
       <c r="E7">
-        <f>C7/J7</f>
+        <f t="shared" si="1"/>
         <v>251.83139158576051</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:G7" si="2">AVERAGE(D4:D7)</f>
+        <f t="shared" ref="F7:G7" si="5">AVERAGE(D4:D7)</f>
         <v>172.24744937407084</v>
       </c>
       <c r="G7">
+        <f t="shared" si="5"/>
+        <v>253.66447277163672</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
-        <v>253.66447277163672</v>
-      </c>
-      <c r="H7" s="7">
-        <f>(C7-B7)/B7</f>
         <v>0.64486433698877998</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.47267476931256053</v>
       </c>
       <c r="J7">
@@ -44923,27 +45156,27 @@
         <v>782540</v>
       </c>
       <c r="D8">
-        <f>B8/J8</f>
+        <f t="shared" si="0"/>
         <v>186.48496605237634</v>
       </c>
       <c r="E8">
-        <f>C8/J8</f>
+        <f t="shared" si="1"/>
         <v>253.00355641771742</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:G8" si="3">AVERAGE(D5:D8)</f>
+        <f t="shared" ref="F8:G8" si="6">AVERAGE(D5:D8)</f>
         <v>177.71945165116622</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>253.65079405476467</v>
       </c>
       <c r="H8" s="7">
-        <f>(C8-B8)/B8</f>
+        <f t="shared" si="2"/>
         <v>0.35669679853258851</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.42725397641131074</v>
       </c>
       <c r="J8">
@@ -44961,27 +45194,27 @@
         <v>760986</v>
       </c>
       <c r="D9">
-        <f>B9/J9</f>
+        <f t="shared" si="0"/>
         <v>127.10151956029745</v>
       </c>
       <c r="E9">
-        <f>C9/J9</f>
+        <f t="shared" si="1"/>
         <v>246.0349175557711</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:G9" si="4">AVERAGE(D6:D9)</f>
+        <f t="shared" ref="F9:G9" si="7">AVERAGE(D6:D9)</f>
         <v>167.02550489831407</v>
       </c>
       <c r="G9">
+        <f t="shared" si="7"/>
+        <v>251.20322690761162</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.93573545310015893</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>251.20322690761162</v>
-      </c>
-      <c r="H9" s="7">
-        <f>(C9-B9)/B9</f>
-        <v>0.93573545310015893</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
         <v>0.50398124562201063</v>
       </c>
       <c r="J9">
@@ -44999,27 +45232,27 @@
         <v>792389</v>
       </c>
       <c r="D10">
-        <f>B10/J10</f>
+        <f t="shared" si="0"/>
         <v>184.89751050759781</v>
       </c>
       <c r="E10">
-        <f>C10/J10</f>
+        <f t="shared" si="1"/>
         <v>256.18784351762042</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:G10" si="5">AVERAGE(D7:D10)</f>
+        <f t="shared" ref="F10:G10" si="8">AVERAGE(D7:D10)</f>
         <v>162.89640356081225</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>251.76442726921738</v>
       </c>
       <c r="H10" s="7">
-        <f>(C10-B10)/B10</f>
+        <f t="shared" si="2"/>
         <v>0.38556675432951909</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.54554932930258981</v>
       </c>
       <c r="J10">
@@ -45037,27 +45270,27 @@
         <v>787627</v>
       </c>
       <c r="D11">
-        <f>B11/J11</f>
+        <f t="shared" si="0"/>
         <v>183.65729065632073</v>
       </c>
       <c r="E11">
-        <f>C11/J11</f>
+        <f t="shared" si="1"/>
         <v>254.64823795667635</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:G11" si="6">AVERAGE(D8:D11)</f>
+        <f t="shared" ref="F11:G11" si="9">AVERAGE(D8:D11)</f>
         <v>170.53532169414808</v>
       </c>
       <c r="G11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>252.46863886194632</v>
       </c>
       <c r="H11" s="7">
-        <f>(C11-B11)/B11</f>
+        <f t="shared" si="2"/>
         <v>0.3865403167315668</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.48044778262854021</v>
       </c>
       <c r="J11">
@@ -45075,27 +45308,27 @@
         <v>790153</v>
       </c>
       <c r="D12">
-        <f>B12/J12</f>
+        <f t="shared" si="0"/>
         <v>189.45425153572583</v>
       </c>
       <c r="E12">
-        <f>C12/J12</f>
+        <f t="shared" si="1"/>
         <v>255.46492078887812</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:G12" si="7">AVERAGE(D9:D12)</f>
+        <f t="shared" ref="F12:G12" si="10">AVERAGE(D9:D12)</f>
         <v>171.27764306498545</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>253.08397995473649</v>
       </c>
       <c r="H12" s="7">
-        <f>(C12-B12)/B12</f>
+        <f t="shared" si="2"/>
         <v>0.34842537825393954</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.47762413953064742</v>
       </c>
       <c r="J12">
@@ -45113,27 +45346,27 @@
         <v>779190</v>
       </c>
       <c r="D13">
-        <f>B13/J13</f>
+        <f t="shared" si="0"/>
         <v>184.99515033947623</v>
       </c>
       <c r="E13">
-        <f>C13/J13</f>
+        <f t="shared" si="1"/>
         <v>251.92046556741028</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:G13" si="8">AVERAGE(D10:D13)</f>
+        <f t="shared" ref="F13:G13" si="11">AVERAGE(D10:D13)</f>
         <v>185.75105075978016</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>254.55536695764627</v>
       </c>
       <c r="H13" s="7">
-        <f>(C13-B13)/B13</f>
+        <f t="shared" si="2"/>
         <v>0.36176794421433439</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37041145079090992</v>
       </c>
       <c r="J13">
@@ -45151,27 +45384,27 @@
         <v>789202</v>
       </c>
       <c r="D14">
-        <f>B14/J14</f>
+        <f t="shared" si="0"/>
         <v>191.68477206595537</v>
       </c>
       <c r="E14">
-        <f>C14/J14</f>
+        <f t="shared" si="1"/>
         <v>255.15745231167151</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:G14" si="9">AVERAGE(D11:D14)</f>
+        <f t="shared" ref="F14:G14" si="12">AVERAGE(D11:D14)</f>
         <v>187.44786614936953</v>
       </c>
       <c r="G14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>254.29776915615906</v>
       </c>
       <c r="H14" s="7">
-        <f>(C14-B14)/B14</f>
+        <f t="shared" si="2"/>
         <v>0.33113053040998108</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35663197655992296</v>
       </c>
       <c r="J14">
@@ -45189,27 +45422,27 @@
         <v>783636</v>
       </c>
       <c r="D15">
-        <f>B15/J15</f>
+        <f t="shared" si="0"/>
         <v>183.26964112512124</v>
       </c>
       <c r="E15">
-        <f>C15/J15</f>
+        <f t="shared" si="1"/>
         <v>253.35790494665375</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:G15" si="10">AVERAGE(D12:D15)</f>
+        <f t="shared" ref="F15:G15" si="13">AVERAGE(D12:D15)</f>
         <v>187.35095376656966</v>
       </c>
       <c r="G15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>253.97518590365343</v>
       </c>
       <c r="H15" s="7">
-        <f>(C15-B15)/B15</f>
+        <f t="shared" si="2"/>
         <v>0.3824324824954618</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35561191868867864</v>
       </c>
       <c r="J15">
@@ -45227,27 +45460,27 @@
         <v>776829</v>
       </c>
       <c r="D16">
-        <f>B16/J16</f>
+        <f t="shared" si="0"/>
         <v>183.75331393469125</v>
       </c>
       <c r="E16">
-        <f>C16/J16</f>
+        <f t="shared" si="1"/>
         <v>251.15712900096995</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:G31" si="11">AVERAGE(D13:D16)</f>
+        <f t="shared" ref="F16:G31" si="14">AVERAGE(D13:D16)</f>
         <v>185.92571936631103</v>
       </c>
       <c r="G16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>252.89823795667635</v>
       </c>
       <c r="H16" s="7">
-        <f>(C16-B16)/B16</f>
+        <f t="shared" si="2"/>
         <v>0.36681686780481709</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36021115754521305</v>
       </c>
       <c r="J16">
@@ -45259,15 +45492,15 @@
         <v>43572</v>
       </c>
       <c r="F17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>186.23590904192261</v>
       </c>
       <c r="G17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>253.22416208643173</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35969568591323459</v>
       </c>
     </row>
@@ -45290,11 +45523,11 @@
         <v>242.35693501454898</v>
       </c>
       <c r="F18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>186.0592736286238</v>
       </c>
       <c r="G18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>248.95732298739088</v>
       </c>
       <c r="H18" s="7">
@@ -45302,7 +45535,7 @@
         <v>0.26785647839632504</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33805382624631886</v>
       </c>
       <c r="J18">
@@ -45314,15 +45547,15 @@
         <v>43586</v>
       </c>
       <c r="F19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>187.45408988037505</v>
       </c>
       <c r="G19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>246.75703200775945</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.31635981997100693</v>
       </c>
     </row>
@@ -45337,27 +45570,27 @@
         <v>731375</v>
       </c>
       <c r="D20">
-        <f>B20/J20</f>
+        <f t="shared" ref="D20:D27" si="15">B20/J20</f>
         <v>163.41247158168235</v>
       </c>
       <c r="E20">
-        <f>C20/J20</f>
+        <f t="shared" ref="E20:E27" si="16">C20/J20</f>
         <v>237.53653783696006</v>
       </c>
       <c r="F20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>177.2836687038706</v>
       </c>
       <c r="G20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>239.94673642575452</v>
       </c>
       <c r="H20" s="7">
-        <f>(C20-B20)/B20</f>
+        <f t="shared" ref="H20:H27" si="17">(C20-B20)/B20</f>
         <v>0.45360103508517391</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35346215576435558</v>
       </c>
       <c r="J20">
@@ -45375,27 +45608,27 @@
         <v>766855</v>
       </c>
       <c r="D21">
-        <f>B21/J21</f>
+        <f t="shared" si="15"/>
         <v>167.8762585254953</v>
       </c>
       <c r="E21">
-        <f>C21/J21</f>
+        <f t="shared" si="16"/>
         <v>249.059759662228</v>
       </c>
       <c r="F21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>174.14786531107885</v>
       </c>
       <c r="G21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>242.98441083791235</v>
       </c>
       <c r="H21" s="7">
-        <f>(C21-B21)/B21</f>
+        <f t="shared" si="17"/>
         <v>0.48359131809220901</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39527642445614464</v>
       </c>
       <c r="J21">
@@ -45413,27 +45646,27 @@
         <v>753282</v>
       </c>
       <c r="D22">
-        <f>B22/J22</f>
+        <f t="shared" si="15"/>
         <v>172.87520259319288</v>
       </c>
       <c r="E22">
-        <f>C22/J22</f>
+        <f t="shared" si="16"/>
         <v>244.17568881685574</v>
       </c>
       <c r="F22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>168.05464423345686</v>
       </c>
       <c r="G22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>243.59066210534795</v>
       </c>
       <c r="H22" s="7">
-        <f>(C22-B22)/B22</f>
+        <f t="shared" si="17"/>
         <v>0.41243906097652439</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.44947295694463846</v>
       </c>
       <c r="J22">
@@ -45451,27 +45684,27 @@
         <v>751430</v>
       </c>
       <c r="D23">
-        <f>B23/J23</f>
+        <f t="shared" si="15"/>
         <v>177.67747163695299</v>
       </c>
       <c r="E23">
-        <f>C23/J23</f>
+        <f t="shared" si="16"/>
         <v>243.57536466774715</v>
       </c>
       <c r="F23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>170.46035108433088</v>
       </c>
       <c r="G23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>243.58683774594775</v>
       </c>
       <c r="H23" s="7">
-        <f>(C23-B23)/B23</f>
+        <f t="shared" si="17"/>
         <v>0.37088490973938903</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.42899411033970836</v>
       </c>
       <c r="J23">
@@ -45489,27 +45722,27 @@
         <v>750740</v>
       </c>
       <c r="D24">
-        <f>B24/J24</f>
+        <f t="shared" si="15"/>
         <v>173.65737439222042</v>
       </c>
       <c r="E24">
-        <f>C24/J24</f>
+        <f t="shared" si="16"/>
         <v>243.3517017828201</v>
       </c>
       <c r="F24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>173.0215767869654</v>
       </c>
       <c r="G24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>245.04062873241276</v>
       </c>
       <c r="H24" s="7">
-        <f>(C24-B24)/B24</f>
+        <f t="shared" si="17"/>
         <v>0.40133238012218775</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.41624318355462431</v>
       </c>
       <c r="J24">
@@ -45527,27 +45760,27 @@
         <v>737082</v>
       </c>
       <c r="D25">
-        <f>B25/J25</f>
+        <f t="shared" si="15"/>
         <v>179.47131280388979</v>
       </c>
       <c r="E25">
-        <f>C25/J25</f>
+        <f t="shared" si="16"/>
         <v>238.92447325769854</v>
       </c>
       <c r="F25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>175.920340356564</v>
       </c>
       <c r="G25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>242.50680713128037</v>
       </c>
       <c r="H25" s="7">
-        <f>(C25-B25)/B25</f>
+        <f t="shared" si="17"/>
         <v>0.33126832096433068</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37850351266803856</v>
       </c>
       <c r="J25">
@@ -45565,27 +45798,27 @@
         <v>752370</v>
       </c>
       <c r="D26">
-        <f>B26/J26</f>
+        <f t="shared" si="15"/>
         <v>185.57990275526743</v>
       </c>
       <c r="E26">
-        <f>C26/J26</f>
+        <f t="shared" si="16"/>
         <v>243.88006482982172</v>
       </c>
       <c r="F26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>179.09651539708264</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>242.4329011345219</v>
       </c>
       <c r="H26" s="7">
-        <f>(C26-B26)/B26</f>
+        <f t="shared" si="17"/>
         <v>0.31415126966327461</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35364387518659096</v>
       </c>
       <c r="J26">
@@ -45603,27 +45836,27 @@
         <v>774720</v>
       </c>
       <c r="D27">
-        <f>B27/J27</f>
+        <f t="shared" si="15"/>
         <v>188.11539708265803</v>
       </c>
       <c r="E27">
-        <f>C27/J27</f>
+        <f t="shared" si="16"/>
         <v>251.12479740680712</v>
       </c>
       <c r="F27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>181.70599675850895</v>
       </c>
       <c r="G27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>244.32025931928689</v>
       </c>
       <c r="H27" s="7">
-        <f>(C27-B27)/B27</f>
+        <f t="shared" si="17"/>
         <v>0.3349507871302142</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.34459106291353503</v>
       </c>
       <c r="J27">
@@ -45635,15 +45868,15 @@
         <v>43649</v>
       </c>
       <c r="F28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>184.38887088060505</v>
       </c>
       <c r="G28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>244.64311183144244</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32677807865016451</v>
       </c>
     </row>
@@ -45658,27 +45891,27 @@
         <v>672064</v>
       </c>
       <c r="D29">
-        <f>B29/J29</f>
+        <f t="shared" ref="D29:D42" si="18">B29/J29</f>
         <v>156.97895759145354</v>
       </c>
       <c r="E29">
-        <f>C29/J29</f>
+        <f t="shared" ref="E29:E42" si="19">C29/J29</f>
         <v>217.56685011330526</v>
       </c>
       <c r="F29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>176.89141914312631</v>
       </c>
       <c r="G29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>237.52390411664467</v>
       </c>
       <c r="H29" s="7">
-        <f>(C29-B29)/B29</f>
+        <f t="shared" ref="H29:H42" si="20">(C29-B29)/B29</f>
         <v>0.38596187318006714</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.34276668290200912</v>
       </c>
       <c r="J29">
@@ -45696,27 +45929,27 @@
         <v>781500</v>
       </c>
       <c r="D30">
-        <f>B30/J30</f>
+        <f t="shared" si="18"/>
         <v>187.87932707861535</v>
       </c>
       <c r="E30">
-        <f>C30/J30</f>
+        <f t="shared" si="19"/>
         <v>252.83079909414428</v>
       </c>
       <c r="F30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>177.65789391757562</v>
       </c>
       <c r="G30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>240.50748220475222</v>
       </c>
       <c r="H30" s="7">
-        <f>(C30-B30)/B30</f>
+        <f t="shared" si="20"/>
         <v>0.34570845566394309</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35376749606373059</v>
       </c>
       <c r="J30">
@@ -45734,27 +45967,27 @@
         <v>769710</v>
       </c>
       <c r="D31">
-        <f>B31/J31</f>
+        <f t="shared" si="18"/>
         <v>178.50760271756712</v>
       </c>
       <c r="E31">
-        <f>C31/J31</f>
+        <f t="shared" si="19"/>
         <v>249.01649951472015</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>174.45529579587867</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>239.80471624072322</v>
       </c>
       <c r="H31" s="7">
-        <f>(C31-B31)/B31</f>
+        <f t="shared" si="20"/>
         <v>0.39499100163656037</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37459121058329242</v>
       </c>
       <c r="J31">
@@ -45772,27 +46005,27 @@
         <v>638694</v>
       </c>
       <c r="D32">
-        <f>B32/J32</f>
+        <f t="shared" si="18"/>
         <v>143.71886120996442</v>
       </c>
       <c r="E32">
-        <f>C32/J32</f>
+        <f t="shared" si="19"/>
         <v>206.63021675833065</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:G95" si="12">AVERAGE(D29:D32)</f>
+        <f t="shared" ref="F32:G95" si="21">AVERAGE(D29:D32)</f>
         <v>166.77118714940011</v>
       </c>
       <c r="G32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>231.51109137012509</v>
       </c>
       <c r="H32" s="7">
-        <f>(C32-B32)/B32</f>
+        <f t="shared" si="20"/>
         <v>0.43773903452001756</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38819597873779277</v>
       </c>
       <c r="J32">
@@ -45810,27 +46043,27 @@
         <v>686352</v>
       </c>
       <c r="D33">
-        <f>B33/J33</f>
+        <f t="shared" si="18"/>
         <v>163.2969912649628</v>
       </c>
       <c r="E33">
-        <f>C33/J33</f>
+        <f t="shared" si="19"/>
         <v>222.04852798447104</v>
       </c>
       <c r="F33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>168.35069556777742</v>
       </c>
       <c r="G33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>232.63151083791655</v>
       </c>
       <c r="H33" s="7">
-        <f>(C33-B33)/B33</f>
+        <f t="shared" si="20"/>
         <v>0.35978333871552509</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38182684694795271</v>
       </c>
       <c r="J33">
@@ -45848,27 +46081,27 @@
         <v>710620</v>
       </c>
       <c r="D34">
-        <f>B34/J34</f>
+        <f t="shared" si="18"/>
         <v>158.91459074733095</v>
       </c>
       <c r="E34">
-        <f>C34/J34</f>
+        <f t="shared" si="19"/>
         <v>229.89970883209318</v>
       </c>
       <c r="F34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>161.10951148495633</v>
       </c>
       <c r="G34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>226.89873827240376</v>
       </c>
       <c r="H34" s="7">
-        <f>(C34-B34)/B34</f>
+        <f t="shared" si="20"/>
         <v>0.446687228346617</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.40835097928771591</v>
       </c>
       <c r="J34">
@@ -45886,27 +46119,27 @@
         <v>694088</v>
       </c>
       <c r="D35">
-        <f>B35/J35</f>
+        <f t="shared" si="18"/>
         <v>158.20769977353606</v>
       </c>
       <c r="E35">
-        <f>C35/J35</f>
+        <f t="shared" si="19"/>
         <v>224.55127790359106</v>
       </c>
       <c r="F35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>156.03453574894857</v>
       </c>
       <c r="G35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>220.78243286962149</v>
       </c>
       <c r="H35" s="7">
-        <f>(C35-B35)/B35</f>
+        <f t="shared" si="20"/>
         <v>0.41934481207312585</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4149587577512257</v>
       </c>
       <c r="J35">
@@ -45924,27 +46157,27 @@
         <v>726085</v>
       </c>
       <c r="D36">
-        <f>B36/J36</f>
+        <f t="shared" si="18"/>
         <v>156.07796829505014</v>
       </c>
       <c r="E36">
-        <f>C36/J36</f>
+        <f t="shared" si="19"/>
         <v>234.9029440310579</v>
       </c>
       <c r="F36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>159.12431252022</v>
       </c>
       <c r="G36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>227.8506146878033</v>
       </c>
       <c r="H36" s="7">
-        <f>(C36-B36)/B36</f>
+        <f t="shared" si="20"/>
         <v>0.50503589069660904</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.43190321503415902</v>
       </c>
       <c r="J36">
@@ -45962,27 +46195,27 @@
         <v>669862</v>
       </c>
       <c r="D37">
-        <f>B37/J37</f>
+        <f t="shared" si="18"/>
         <v>138.30626826891847</v>
       </c>
       <c r="E37">
-        <f>C37/J37</f>
+        <f t="shared" si="19"/>
         <v>217.5582981487496</v>
       </c>
       <c r="F37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>152.87663177120891</v>
       </c>
       <c r="G37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>226.72805722887293</v>
       </c>
       <c r="H37" s="7">
-        <f>(C37-B37)/B37</f>
+        <f t="shared" si="20"/>
         <v>0.57301835174770166</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.48307857520165737</v>
       </c>
       <c r="J37">
@@ -46000,27 +46233,27 @@
         <v>688342</v>
       </c>
       <c r="D38">
-        <f>B38/J38</f>
+        <f t="shared" si="18"/>
         <v>146.33874634621631</v>
       </c>
       <c r="E38">
-        <f>C38/J38</f>
+        <f t="shared" si="19"/>
         <v>223.56024683338745</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>149.73267067093025</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>225.14319172919653</v>
       </c>
       <c r="H38" s="7">
-        <f>(C38-B38)/B38</f>
+        <f t="shared" si="20"/>
         <v>0.52769005075714026</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.50363438199801513</v>
       </c>
       <c r="J38">
@@ -46038,27 +46271,27 @@
         <v>686439</v>
       </c>
       <c r="D39">
-        <f>B39/J39</f>
+        <f t="shared" si="18"/>
         <v>143.35660928873011</v>
       </c>
       <c r="E39">
-        <f>C39/J39</f>
+        <f t="shared" si="19"/>
         <v>222.94218902240988</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>146.01989804972874</v>
       </c>
       <c r="G39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>224.74091950890119</v>
       </c>
       <c r="H39" s="7">
-        <f>(C39-B39)/B39</f>
+        <f t="shared" si="20"/>
         <v>0.55515807836518316</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.53911160403880787</v>
       </c>
       <c r="J39">
@@ -46076,27 +46309,27 @@
         <v>645675</v>
       </c>
       <c r="D40">
-        <f>B40/J40</f>
+        <f t="shared" si="18"/>
         <v>139.03507632348166</v>
       </c>
       <c r="E40">
-        <f>C40/J40</f>
+        <f t="shared" si="19"/>
         <v>209.70282559272491</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>141.75917505683663</v>
       </c>
       <c r="G40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>218.44088989931797</v>
       </c>
       <c r="H40" s="7">
-        <f>(C40-B40)/B40</f>
+        <f t="shared" si="20"/>
         <v>0.50827281242919109</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.54092946584753143</v>
       </c>
       <c r="J40">
@@ -46114,27 +46347,27 @@
         <v>728483</v>
       </c>
       <c r="D41">
-        <f>B41/J41</f>
+        <f t="shared" si="18"/>
         <v>160.00194868463788</v>
       </c>
       <c r="E41">
-        <f>C41/J41</f>
+        <f t="shared" si="19"/>
         <v>236.59727184150699</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>147.1830951607665</v>
       </c>
       <c r="G41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>223.20063332250731</v>
       </c>
       <c r="H41" s="7">
-        <f>(C41-B41)/B41</f>
+        <f t="shared" si="20"/>
         <v>0.47871493932763082</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.51648280720491502</v>
       </c>
       <c r="J41">
@@ -46152,27 +46385,27 @@
         <v>746446</v>
       </c>
       <c r="D42">
-        <f>B42/J42</f>
+        <f t="shared" si="18"/>
         <v>172.47612861318609</v>
       </c>
       <c r="E42">
-        <f>C42/J42</f>
+        <f t="shared" si="19"/>
         <v>242.43130886651511</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>153.71744072750894</v>
       </c>
       <c r="G42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>227.91839883078922</v>
       </c>
       <c r="H42" s="7">
-        <f>(C42-B42)/B42</f>
+        <f t="shared" si="20"/>
         <v>0.40559340481382306</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.48271007994996773</v>
       </c>
       <c r="J42">
@@ -46184,15 +46417,15 @@
         <v>43754</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>157.17105120710187</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>229.57713543358236</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.46068333621483581</v>
       </c>
     </row>
@@ -46207,27 +46440,27 @@
         <v>742379</v>
       </c>
       <c r="D44">
-        <f>B44/J44</f>
+        <f t="shared" ref="D44:D64" si="22">B44/J44</f>
         <v>172.53101656381943</v>
       </c>
       <c r="E44">
-        <f>C44/J44</f>
+        <f t="shared" ref="E44:E64" si="23">C44/J44</f>
         <v>241.1104254628126</v>
       </c>
       <c r="F44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>168.33636462054781</v>
       </c>
       <c r="G44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>240.04633539027824</v>
       </c>
       <c r="H44" s="7">
-        <f>(C44-B44)/B44</f>
+        <f t="shared" ref="H44:H64" si="24">(C44-B44)/B44</f>
         <v>0.39749031950800323</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.42599215523855516</v>
       </c>
       <c r="J44">
@@ -46245,27 +46478,27 @@
         <v>564697</v>
       </c>
       <c r="D45">
-        <f>B45/J45</f>
+        <f t="shared" si="22"/>
         <v>133.60279311464762</v>
       </c>
       <c r="E45">
-        <f>C45/J45</f>
+        <f t="shared" si="23"/>
         <v>183.40272815849301</v>
       </c>
       <c r="F45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>159.53664609721773</v>
       </c>
       <c r="G45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>222.31482082927357</v>
       </c>
       <c r="H45" s="7">
-        <f>(C45-B45)/B45</f>
+        <f t="shared" si="24"/>
         <v>0.37274621198309038</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39350316223772414</v>
       </c>
       <c r="J45">
@@ -46283,27 +46516,27 @@
         <v>596608</v>
       </c>
       <c r="D46">
-        <f>B46/J46</f>
+        <f t="shared" si="22"/>
         <v>139.48961713173264</v>
       </c>
       <c r="E46">
-        <f>C46/J46</f>
+        <f t="shared" si="23"/>
         <v>193.57819597663854</v>
       </c>
       <c r="F46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>148.54114227006656</v>
       </c>
       <c r="G46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>206.03044986598138</v>
       </c>
       <c r="H46" s="7">
-        <f>(C46-B46)/B46</f>
+        <f t="shared" si="24"/>
         <v>0.3877606086897864</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.3870261579878792</v>
       </c>
       <c r="J46">
@@ -46321,27 +46554,27 @@
         <v>614317</v>
       </c>
       <c r="D47">
-        <f>B47/J47</f>
+        <f t="shared" si="22"/>
         <v>144.43153796236211</v>
       </c>
       <c r="E47">
-        <f>C47/J47</f>
+        <f t="shared" si="23"/>
         <v>199.32414016872161</v>
       </c>
       <c r="F47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>147.51374119314045</v>
       </c>
       <c r="G47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204.35387244166645</v>
       </c>
       <c r="H47" s="7">
-        <f>(C47-B47)/B47</f>
+        <f t="shared" si="24"/>
         <v>0.38005966688981846</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38532092528319073</v>
       </c>
       <c r="J47">
@@ -46359,27 +46592,27 @@
         <v>637051</v>
       </c>
       <c r="D48">
-        <f>B48/J48</f>
+        <f t="shared" si="22"/>
         <v>142.90976955533918</v>
       </c>
       <c r="E48">
-        <f>C48/J48</f>
+        <f t="shared" si="23"/>
         <v>206.76760791950664</v>
       </c>
       <c r="F48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>140.10842944102038</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>195.76816805583996</v>
       </c>
       <c r="H48" s="7">
-        <f>(C48-B48)/B48</f>
+        <f t="shared" si="24"/>
         <v>0.44684025845720582</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39726188379158117</v>
       </c>
       <c r="J48">
@@ -46397,27 +46630,27 @@
         <v>669361</v>
       </c>
       <c r="D49">
-        <f>B49/J49</f>
+        <f t="shared" si="22"/>
         <v>172.37422914638105</v>
       </c>
       <c r="E49">
-        <f>C49/J49</f>
+        <f t="shared" si="23"/>
         <v>217.25446283674131</v>
       </c>
       <c r="F49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>149.80128844895373</v>
       </c>
       <c r="G49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204.23110172540203</v>
       </c>
       <c r="H49" s="7">
-        <f>(C49-B49)/B49</f>
+        <f t="shared" si="24"/>
         <v>0.26036510163156557</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.3633467631688348</v>
       </c>
       <c r="J49">
@@ -46435,27 +46668,27 @@
         <v>652396</v>
       </c>
       <c r="D50">
-        <f>B50/J50</f>
+        <f t="shared" si="22"/>
         <v>150.460564751704</v>
       </c>
       <c r="E50">
-        <f>C50/J50</f>
+        <f t="shared" si="23"/>
         <v>211.74813372281727</v>
       </c>
       <c r="F50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>152.54402535394661</v>
       </c>
       <c r="G50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>208.7735861619467</v>
       </c>
       <c r="H50" s="7">
-        <f>(C50-B50)/B50</f>
+        <f t="shared" si="24"/>
         <v>0.40733310467265932</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36861201661311294</v>
       </c>
       <c r="J50">
@@ -46473,27 +46706,27 @@
         <v>652183</v>
       </c>
       <c r="D51">
-        <f>B51/J51</f>
+        <f t="shared" si="22"/>
         <v>159.10029211295034</v>
       </c>
       <c r="E51">
-        <f>C51/J51</f>
+        <f t="shared" si="23"/>
         <v>211.67900032456996</v>
       </c>
       <c r="F51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>156.21121389159364</v>
       </c>
       <c r="G51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>211.8623012009088</v>
       </c>
       <c r="H51" s="7">
-        <f>(C51-B51)/B51</f>
+        <f t="shared" si="24"/>
         <v>0.33047524623205793</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35625539244535609</v>
       </c>
       <c r="J51">
@@ -46511,27 +46744,27 @@
         <v>668723</v>
       </c>
       <c r="D52">
-        <f>B52/J52</f>
+        <f t="shared" si="22"/>
         <v>164.01947419668937</v>
       </c>
       <c r="E52">
-        <f>C52/J52</f>
+        <f t="shared" si="23"/>
         <v>217.04738721194417</v>
       </c>
       <c r="F52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>161.48864005193121</v>
       </c>
       <c r="G52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>214.43224602401818</v>
       </c>
       <c r="H52" s="7">
-        <f>(C52-B52)/B52</f>
+        <f t="shared" si="24"/>
         <v>0.3233025424265451</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32784724643827245</v>
       </c>
       <c r="J52">
@@ -46549,27 +46782,27 @@
         <v>705493</v>
       </c>
       <c r="D53">
-        <f>B53/J53</f>
+        <f t="shared" si="22"/>
         <v>162.46543330087633</v>
       </c>
       <c r="E53">
-        <f>C53/J53</f>
+        <f t="shared" si="23"/>
         <v>228.98182408308992</v>
       </c>
       <c r="F53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>159.01144109055502</v>
       </c>
       <c r="G53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>217.36408633560532</v>
       </c>
       <c r="H53" s="7">
-        <f>(C53-B53)/B53</f>
+        <f t="shared" si="24"/>
         <v>0.40941872637626958</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36697136284564075</v>
       </c>
       <c r="J53">
@@ -46587,27 +46820,27 @@
         <v>679316</v>
       </c>
       <c r="D54">
-        <f>B54/J54</f>
+        <f t="shared" si="22"/>
         <v>154.14406229720962</v>
       </c>
       <c r="E54">
-        <f>C54/J54</f>
+        <f t="shared" si="23"/>
         <v>220.41401687216094</v>
       </c>
       <c r="F54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>159.93231547693142</v>
       </c>
       <c r="G54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>219.53055712294125</v>
       </c>
       <c r="H54" s="7">
-        <f>(C54-B54)/B54</f>
+        <f t="shared" si="24"/>
         <v>0.42992220126633435</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37264665035507633</v>
       </c>
       <c r="J54">
@@ -46625,27 +46858,27 @@
         <v>686225</v>
       </c>
       <c r="D55">
-        <f>B55/J55</f>
+        <f t="shared" si="22"/>
         <v>166.08825438027256</v>
       </c>
       <c r="E55">
-        <f>C55/J55</f>
+        <f t="shared" si="23"/>
         <v>222.65574302401038</v>
       </c>
       <c r="F55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>161.67930604376198</v>
       </c>
       <c r="G55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>222.27474279780134</v>
       </c>
       <c r="H55" s="7">
-        <f>(C55-B55)/B55</f>
+        <f t="shared" si="24"/>
         <v>0.34058692985129441</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37478783300590057</v>
       </c>
       <c r="J55">
@@ -46663,27 +46896,27 @@
         <v>690175</v>
       </c>
       <c r="D56">
-        <f>B56/J56</f>
+        <f t="shared" si="22"/>
         <v>171.54923127248938</v>
       </c>
       <c r="E56">
-        <f>C56/J56</f>
+        <f t="shared" si="23"/>
         <v>225.76872751063135</v>
       </c>
       <c r="F56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>163.56174531271196</v>
       </c>
       <c r="G56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>224.45507787247314</v>
       </c>
       <c r="H56" s="7">
-        <f>(C56-B56)/B56</f>
+        <f t="shared" si="24"/>
         <v>0.31605793763085738</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37229568835512156</v>
       </c>
       <c r="J56">
@@ -46701,27 +46934,27 @@
         <v>722768</v>
       </c>
       <c r="D57">
-        <f>B57/J57</f>
+        <f t="shared" si="22"/>
         <v>174.20051914341337</v>
       </c>
       <c r="E57">
-        <f>C57/J57</f>
+        <f t="shared" si="23"/>
         <v>234.51265412070083</v>
       </c>
       <c r="F57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>166.49551677334625</v>
       </c>
       <c r="G57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>225.83778538187588</v>
       </c>
       <c r="H57" s="7">
-        <f>(C57-B57)/B57</f>
+        <f t="shared" si="24"/>
         <v>0.34622247553484353</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35641961872951489</v>
       </c>
       <c r="J57">
@@ -46739,27 +46972,27 @@
         <v>654152</v>
       </c>
       <c r="D58">
-        <f>B58/J58</f>
+        <f t="shared" si="22"/>
         <v>146.38968202465932</v>
       </c>
       <c r="E58">
-        <f>C58/J58</f>
+        <f t="shared" si="23"/>
         <v>212.24918883841661</v>
       </c>
       <c r="F58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>164.55692170520865</v>
       </c>
       <c r="G58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>223.79657837343979</v>
       </c>
       <c r="H58" s="7">
-        <f>(C58-B58)/B58</f>
+        <f t="shared" si="24"/>
         <v>0.44989172667690663</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35999492488292001</v>
       </c>
       <c r="J58">
@@ -46777,27 +47010,27 @@
         <v>644381</v>
       </c>
       <c r="D59">
-        <f>B59/J59</f>
+        <f t="shared" si="22"/>
         <v>156.33452303698897</v>
       </c>
       <c r="E59">
-        <f>C59/J59</f>
+        <f t="shared" si="23"/>
         <v>209.07884490590524</v>
       </c>
       <c r="F59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>162.11848886938776</v>
       </c>
       <c r="G59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>220.40235384391352</v>
       </c>
       <c r="H59" s="7">
-        <f>(C59-B59)/B59</f>
+        <f t="shared" si="24"/>
         <v>0.33738115449034189</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35951399116162919</v>
       </c>
       <c r="J59">
@@ -46815,27 +47048,27 @@
         <v>655039</v>
       </c>
       <c r="D60">
-        <f>B60/J60</f>
+        <f t="shared" si="22"/>
         <v>151.9237508111616</v>
       </c>
       <c r="E60">
-        <f>C60/J60</f>
+        <f t="shared" si="23"/>
         <v>212.53698896820248</v>
       </c>
       <c r="F60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>157.21211875405581</v>
       </c>
       <c r="G60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>217.09441920830631</v>
       </c>
       <c r="H60" s="7">
-        <f>(C60-B60)/B60</f>
+        <f t="shared" si="24"/>
         <v>0.39897144346035807</v>
       </c>
       <c r="I60" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38090130028672253</v>
       </c>
       <c r="J60">
@@ -46853,27 +47086,27 @@
         <v>699058</v>
       </c>
       <c r="D61">
-        <f>B61/J61</f>
+        <f t="shared" si="22"/>
         <v>157.5136275146009</v>
       </c>
       <c r="E61">
-        <f>C61/J61</f>
+        <f t="shared" si="23"/>
         <v>226.81959766385464</v>
       </c>
       <c r="F61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>153.04039584685268</v>
       </c>
       <c r="G61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>215.17115509409473</v>
       </c>
       <c r="H61" s="7">
-        <f>(C61-B61)/B61</f>
+        <f t="shared" si="24"/>
         <v>0.43999983520682573</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.40597620584709038</v>
       </c>
       <c r="J61">
@@ -46891,27 +47124,27 @@
         <v>702151</v>
       </c>
       <c r="D62">
-        <f>B62/J62</f>
+        <f t="shared" si="22"/>
         <v>162.83127839065543</v>
       </c>
       <c r="E62">
-        <f>C62/J62</f>
+        <f t="shared" si="23"/>
         <v>227.82316677482154</v>
       </c>
       <c r="F62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>157.15079493835174</v>
       </c>
       <c r="G62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>219.06464957819597</v>
       </c>
       <c r="H62" s="7">
-        <f>(C62-B62)/B62</f>
+        <f t="shared" si="24"/>
         <v>0.39913638845382848</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39397735572468628</v>
       </c>
       <c r="J62">
@@ -46929,27 +47162,27 @@
         <v>717970</v>
       </c>
       <c r="D63">
-        <f>B63/J63</f>
+        <f t="shared" si="22"/>
         <v>170.90233614536015</v>
       </c>
       <c r="E63">
-        <f>C63/J63</f>
+        <f t="shared" si="23"/>
         <v>232.95587280986373</v>
       </c>
       <c r="F63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>160.79274821544453</v>
       </c>
       <c r="G63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>225.03390655418559</v>
       </c>
       <c r="H63" s="7">
-        <f>(C63-B63)/B63</f>
+        <f t="shared" si="24"/>
         <v>0.36309355427256557</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39952770912693775</v>
       </c>
       <c r="J63">
@@ -46967,27 +47200,27 @@
         <v>711155</v>
       </c>
       <c r="D64">
-        <f>B64/J64</f>
+        <f t="shared" si="22"/>
         <v>175.50324464633354</v>
       </c>
       <c r="E64">
-        <f>C64/J64</f>
+        <f t="shared" si="23"/>
         <v>230.74464633354964</v>
       </c>
       <c r="F64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>166.6876216742375</v>
       </c>
       <c r="G64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>229.5858208955224</v>
       </c>
       <c r="H64" s="7">
-        <f>(C64-B64)/B64</f>
+        <f t="shared" si="24"/>
         <v>0.31476000229247125</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37734175213207305</v>
       </c>
       <c r="J64">
@@ -46999,15 +47232,15 @@
         <v>43908</v>
       </c>
       <c r="F65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>169.74561972744971</v>
       </c>
       <c r="G65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>230.50789530607832</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35796078671244025</v>
       </c>
     </row>
@@ -47016,15 +47249,15 @@
         <v>43915</v>
       </c>
       <c r="F66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>173.20279039584685</v>
       </c>
       <c r="G66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>231.85025957170669</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33860579868155588</v>
       </c>
     </row>
@@ -47047,11 +47280,11 @@
         <v>221.15476963011031</v>
       </c>
       <c r="F67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>173.13449059052562</v>
       </c>
       <c r="G67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>225.94970798182999</v>
       </c>
       <c r="H67" s="7">
@@ -47059,7 +47292,7 @@
         <v>0.29507695230856928</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.30505312495022041</v>
       </c>
       <c r="J67">
@@ -47085,11 +47318,11 @@
         <v>229.12005191434133</v>
       </c>
       <c r="F68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>175.43283582089552</v>
       </c>
       <c r="G68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>225.13741077222582</v>
       </c>
       <c r="H68" s="7">
@@ -47097,7 +47330,7 @@
         <v>0.27218286768468009</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.28332538044403016</v>
       </c>
       <c r="J68">
@@ -47123,11 +47356,11 @@
         <v>215.76281635301751</v>
       </c>
       <c r="F69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>176.34468959550077</v>
       </c>
       <c r="G69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>222.01254596582305</v>
       </c>
       <c r="H69" s="7">
@@ -47135,7 +47368,7 @@
         <v>0.21100498074173898</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.258969274748648</v>
       </c>
       <c r="J69">
@@ -47161,11 +47394,11 @@
         <v>219.05094094743674</v>
       </c>
       <c r="F70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>174.86056132381572</v>
       </c>
       <c r="G70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>221.27214471122647</v>
       </c>
       <c r="H70" s="7">
@@ -47173,7 +47406,7 @@
         <v>0.28544853559990707</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" ref="I70:I133" si="13">(G70-F70)/F70</f>
+        <f t="shared" ref="I70:I133" si="25">(G70-F70)/F70</f>
         <v>0.26542053300094021</v>
       </c>
       <c r="J70">
@@ -47199,11 +47432,11 @@
         <v>178.77655082819098</v>
       </c>
       <c r="F71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>162.52736038273127</v>
       </c>
       <c r="G71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>210.67759001074666</v>
       </c>
       <c r="H71" s="7">
@@ -47211,7 +47444,7 @@
         <v>0.47222459961700169</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.29625922376778724</v>
       </c>
       <c r="J71">
@@ -47223,15 +47456,15 @@
         <v>43957</v>
       </c>
       <c r="F72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>156.66983547461726</v>
       </c>
       <c r="G72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204.5301027095484</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.30548488858715361</v>
       </c>
     </row>
@@ -47240,15 +47473,15 @@
         <v>43964</v>
       </c>
       <c r="F73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>145.92055463957027</v>
       </c>
       <c r="G73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>198.91374588781386</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3631646780615585</v>
       </c>
     </row>
@@ -47257,15 +47490,15 @@
         <v>43971</v>
       </c>
       <c r="F74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>121.43293277037999</v>
       </c>
       <c r="G74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>178.77655082819098</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.47222459961700175</v>
       </c>
     </row>
@@ -47280,27 +47513,27 @@
         <v>468214</v>
       </c>
       <c r="D75">
-        <f>B75/J75</f>
+        <f t="shared" ref="D75:D90" si="26">B75/J75</f>
         <v>127.75791943684004</v>
       </c>
       <c r="E75">
-        <f>C75/J75</f>
+        <f t="shared" ref="E75:E90" si="27">C75/J75</f>
         <v>183.11067657411027</v>
       </c>
       <c r="F75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>127.75791943684004</v>
       </c>
       <c r="G75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>183.11067657411027</v>
       </c>
       <c r="H75" s="7">
-        <f>(C75-B75)/B75</f>
+        <f t="shared" ref="H75:H90" si="28">(C75-B75)/B75</f>
         <v>0.43326282535960597</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.43326282535960592</v>
       </c>
       <c r="J75">
@@ -47318,27 +47551,27 @@
         <v>472343</v>
       </c>
       <c r="D76">
-        <f>B76/J76</f>
+        <f t="shared" si="26"/>
         <v>119.89597184200235</v>
       </c>
       <c r="E76">
-        <f>C76/J76</f>
+        <f t="shared" si="27"/>
         <v>184.72545952287837</v>
       </c>
       <c r="F76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>123.8269456394212</v>
       </c>
       <c r="G76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>183.91806804849432</v>
       </c>
       <c r="H76" s="7">
-        <f>(C76-B76)/B76</f>
+        <f t="shared" si="28"/>
         <v>0.54071447676580531</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.48528308680128407</v>
       </c>
       <c r="J76">
@@ -47356,27 +47589,27 @@
         <v>507851</v>
       </c>
       <c r="D77">
-        <f>B77/J77</f>
+        <f t="shared" si="26"/>
         <v>141.98670316777475</v>
       </c>
       <c r="E77">
-        <f>C77/J77</f>
+        <f t="shared" si="27"/>
         <v>198.61204536566288</v>
       </c>
       <c r="F77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>129.88019814887238</v>
       </c>
       <c r="G77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>188.81606048755052</v>
       </c>
       <c r="H77" s="7">
-        <f>(C77-B77)/B77</f>
+        <f t="shared" si="28"/>
         <v>0.39880735966506914</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.45377096107540715</v>
       </c>
       <c r="J77">
@@ -47394,27 +47627,27 @@
         <v>522085</v>
       </c>
       <c r="D78">
-        <f>B78/J78</f>
+        <f t="shared" si="26"/>
         <v>145.40086038326163</v>
       </c>
       <c r="E78">
-        <f>C78/J78</f>
+        <f t="shared" si="27"/>
         <v>204.17872506843958</v>
       </c>
       <c r="F78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>133.76036370746968</v>
       </c>
       <c r="G78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>192.65672663277277</v>
       </c>
       <c r="H78" s="7">
-        <f>(C78-B78)/B78</f>
+        <f t="shared" si="28"/>
         <v>0.4042470211678636</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.44031252078611161</v>
       </c>
       <c r="J78">
@@ -47432,27 +47665,27 @@
         <v>544902</v>
       </c>
       <c r="D79">
-        <f>B79/J79</f>
+        <f t="shared" si="26"/>
         <v>142.84943292921392</v>
       </c>
       <c r="E79">
-        <f>C79/J79</f>
+        <f t="shared" si="27"/>
         <v>213.10207274149394</v>
       </c>
       <c r="F79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>137.53324208056316</v>
       </c>
       <c r="G79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>200.15457567461868</v>
       </c>
       <c r="H79" s="7">
-        <f>(C79-B79)/B79</f>
+        <f t="shared" si="28"/>
         <v>0.49179502061511338</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.45531780278526185</v>
       </c>
       <c r="J79">
@@ -47470,27 +47703,27 @@
         <v>520945</v>
       </c>
       <c r="D80">
-        <f>B80/J80</f>
+        <f t="shared" si="26"/>
         <v>138.13616855247756</v>
       </c>
       <c r="E80">
-        <f>C80/J80</f>
+        <f t="shared" si="27"/>
         <v>203.25595005852517</v>
       </c>
       <c r="F80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>142.09329125818195</v>
       </c>
       <c r="G80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204.78719830853041</v>
       </c>
       <c r="H80" s="7">
-        <f>(C80-B80)/B80</f>
+        <f t="shared" si="28"/>
         <v>0.47141731371613055</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.44121651694614011</v>
       </c>
       <c r="J80">
@@ -47508,27 +47741,27 @@
         <v>531659</v>
       </c>
       <c r="D81">
-        <f>B81/J81</f>
+        <f t="shared" si="26"/>
         <v>145.43854857588764</v>
       </c>
       <c r="E81">
-        <f>C81/J81</f>
+        <f t="shared" si="27"/>
         <v>207.43620756925478</v>
       </c>
       <c r="F81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>142.95625261021019</v>
       </c>
       <c r="G81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>206.99323885942835</v>
       </c>
       <c r="H81" s="7">
-        <f>(C81-B81)/B81</f>
+        <f t="shared" si="28"/>
         <v>0.42628078731834779</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.44794813154359731</v>
       </c>
       <c r="J81">
@@ -47546,27 +47779,27 @@
         <v>512804</v>
       </c>
       <c r="D82">
-        <f>B82/J82</f>
+        <f t="shared" si="26"/>
         <v>146.97151775263364</v>
       </c>
       <c r="E82">
-        <f>C82/J82</f>
+        <f t="shared" si="27"/>
         <v>200.07959422551698</v>
       </c>
       <c r="F82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>143.34891695255317</v>
       </c>
       <c r="G82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>205.96845614869773</v>
       </c>
       <c r="H82" s="7">
-        <f>(C82-B82)/B82</f>
+        <f t="shared" si="28"/>
         <v>0.36134944569511107</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.43683301225687599</v>
       </c>
       <c r="J82">
@@ -47584,27 +47817,27 @@
         <v>480662</v>
       </c>
       <c r="D83">
-        <f>B83/J83</f>
+        <f t="shared" si="26"/>
         <v>140.94810768630512</v>
       </c>
       <c r="E83">
-        <f>C83/J83</f>
+        <f t="shared" si="27"/>
         <v>187.53882169332812</v>
       </c>
       <c r="F83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>142.873585641826</v>
       </c>
       <c r="G83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>199.57764338665626</v>
       </c>
       <c r="H83" s="7">
-        <f>(C83-B83)/B83</f>
+        <f t="shared" si="28"/>
         <v>0.33055224913494807</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.39688272321367601</v>
       </c>
       <c r="J83">
@@ -47622,27 +47855,27 @@
         <v>550334</v>
       </c>
       <c r="D84">
-        <f>B84/J84</f>
+        <f t="shared" si="26"/>
         <v>145.61334373780727</v>
       </c>
       <c r="E84">
-        <f>C84/J84</f>
+        <f t="shared" si="27"/>
         <v>214.72259071400703</v>
       </c>
       <c r="F84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>144.74287943815841</v>
       </c>
       <c r="G84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>202.44430355052674</v>
       </c>
       <c r="H84" s="7">
-        <f>(C84-B84)/B84</f>
+        <f t="shared" si="28"/>
         <v>0.47460792536045682</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.39864775618907966</v>
       </c>
       <c r="J84">
@@ -47660,27 +47893,27 @@
         <v>476637</v>
       </c>
       <c r="D85">
-        <f>B85/J85</f>
+        <f t="shared" si="26"/>
         <v>135.8412017167382</v>
       </c>
       <c r="E85">
-        <f>C85/J85</f>
+        <f t="shared" si="27"/>
         <v>185.96839641045651</v>
       </c>
       <c r="F85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>142.34354272337106</v>
       </c>
       <c r="G85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>197.07735076082719</v>
       </c>
       <c r="H85" s="7">
-        <f>(C85-B85)/B85</f>
+        <f t="shared" si="28"/>
         <v>0.36901318642811803</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3845190796172977</v>
       </c>
       <c r="J85">
@@ -47698,27 +47931,27 @@
         <v>525526</v>
       </c>
       <c r="D86">
-        <f>B86/J86</f>
+        <f t="shared" si="26"/>
         <v>148.84087363494541</v>
       </c>
       <c r="E86">
-        <f>C86/J86</f>
+        <f t="shared" si="27"/>
         <v>204.96333853354133</v>
       </c>
       <c r="F86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>142.810881693949</v>
       </c>
       <c r="G86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>198.29828683783325</v>
       </c>
       <c r="H86" s="7">
-        <f>(C86-B86)/B86</f>
+        <f t="shared" si="28"/>
         <v>0.37706352783338748</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.38853765543438479</v>
       </c>
       <c r="J86">
@@ -47736,27 +47969,27 @@
         <v>468190</v>
       </c>
       <c r="D87">
-        <f>B87/J87</f>
+        <f t="shared" si="26"/>
         <v>128.23058915333593</v>
       </c>
       <c r="E87">
-        <f>C87/J87</f>
+        <f t="shared" si="27"/>
         <v>182.67264923917284</v>
       </c>
       <c r="F87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>139.63150206070671</v>
       </c>
       <c r="G87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>197.08174372429443</v>
       </c>
       <c r="H87" s="7">
-        <f>(C87-B87)/B87</f>
+        <f t="shared" si="28"/>
         <v>0.42456375226301135</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.41144183666097384</v>
       </c>
       <c r="J87">
@@ -47774,27 +48007,27 @@
         <v>523296</v>
       </c>
       <c r="D88">
-        <f>B88/J88</f>
+        <f t="shared" si="26"/>
         <v>152.53218884120173</v>
       </c>
       <c r="E88">
-        <f>C88/J88</f>
+        <f t="shared" si="27"/>
         <v>204.17323449083105</v>
       </c>
       <c r="F88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>141.36121333655529</v>
       </c>
       <c r="G88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>194.44440466850045</v>
       </c>
       <c r="H88" s="7">
-        <f>(C88-B88)/B88</f>
+        <f t="shared" si="28"/>
         <v>0.33855834654934264</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3755145423487824</v>
       </c>
       <c r="J88">
@@ -47812,27 +48045,27 @@
         <v>472674</v>
       </c>
       <c r="D89">
-        <f>B89/J89</f>
+        <f t="shared" si="26"/>
         <v>131.48536870854468</v>
       </c>
       <c r="E89">
-        <f>C89/J89</f>
+        <f t="shared" si="27"/>
         <v>184.42216152945767</v>
       </c>
       <c r="F89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>140.27225508450692</v>
       </c>
       <c r="G89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>194.05784594825073</v>
       </c>
       <c r="H89" s="7">
-        <f>(C89-B89)/B89</f>
+        <f t="shared" si="28"/>
         <v>0.4026059579165393</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.38343712968284938</v>
       </c>
       <c r="J89">
@@ -47850,27 +48083,27 @@
         <v>543596</v>
       </c>
       <c r="D90">
-        <f>B90/J90</f>
+        <f t="shared" si="26"/>
         <v>148.86305111197814</v>
       </c>
       <c r="E90">
-        <f>C90/J90</f>
+        <f t="shared" si="27"/>
         <v>212.09364026531409</v>
       </c>
       <c r="F90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>140.27779945376511</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>195.84042138119392</v>
       </c>
       <c r="H90" s="7">
-        <f>(C90-B90)/B90</f>
+        <f t="shared" si="28"/>
         <v>0.42475677262433953</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.39608991689195966</v>
       </c>
       <c r="J90">
@@ -47882,15 +48115,15 @@
         <v>44090</v>
       </c>
       <c r="F91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>144.29353622057485</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>200.2296787618676</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.38765522009098008</v>
       </c>
     </row>
@@ -47905,27 +48138,27 @@
         <v>557511</v>
       </c>
       <c r="D92">
-        <f>B92/J92</f>
+        <f t="shared" ref="D92:D111" si="29">B92/J92</f>
         <v>161.43270993766043</v>
       </c>
       <c r="E92">
-        <f>C92/J92</f>
+        <f t="shared" ref="E92:E111" si="30">C92/J92</f>
         <v>204.44114411441143</v>
       </c>
       <c r="F92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>147.26037658606108</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>200.3189819697277</v>
       </c>
       <c r="H92" s="7">
-        <f>(C92-B92)/B92</f>
+        <f t="shared" ref="H92:H111" si="31">(C92-B92)/B92</f>
         <v>0.26641709845148071</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.36030469712033097</v>
       </c>
       <c r="J92">
@@ -47943,27 +48176,27 @@
         <v>573696</v>
       </c>
       <c r="D93">
-        <f>B93/J93</f>
+        <f t="shared" si="29"/>
         <v>157.64319765309864</v>
       </c>
       <c r="E93">
-        <f>C93/J93</f>
+        <f t="shared" si="30"/>
         <v>210.37623762376236</v>
       </c>
       <c r="F93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>155.97965290091241</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>208.9703406678293</v>
       </c>
       <c r="H93" s="7">
-        <f>(C93-B93)/B93</f>
+        <f t="shared" si="31"/>
         <v>0.33450881963651419</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33972820673334708</v>
       </c>
       <c r="J93">
@@ -47981,27 +48214,27 @@
         <v>541985</v>
       </c>
       <c r="D94">
-        <f>B94/J94</f>
+        <f t="shared" si="29"/>
         <v>151.01723505683901</v>
       </c>
       <c r="E94">
-        <f>C94/J94</f>
+        <f t="shared" si="30"/>
         <v>198.74770810414375</v>
       </c>
       <c r="F94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>156.69771421586603</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204.52169661410585</v>
       </c>
       <c r="H94" s="7">
-        <f>(C94-B94)/B94</f>
+        <f t="shared" si="31"/>
         <v>0.31605977310695832</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.30519897905056692</v>
       </c>
       <c r="J94">
@@ -48019,27 +48252,27 @@
         <v>555375</v>
       </c>
       <c r="D95">
-        <f>B95/J95</f>
+        <f t="shared" si="29"/>
         <v>141.35826916024936</v>
       </c>
       <c r="E95">
-        <f>C95/J95</f>
+        <f t="shared" si="30"/>
         <v>203.65786578657867</v>
       </c>
       <c r="F95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>152.86285295196186</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204.30573890722405</v>
       </c>
       <c r="H95" s="7">
-        <f>(C95-B95)/B95</f>
+        <f t="shared" si="31"/>
         <v>0.44072127507237652</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33652967324526162</v>
       </c>
       <c r="J95">
@@ -48057,27 +48290,27 @@
         <v>556520</v>
       </c>
       <c r="D96">
-        <f>B96/J96</f>
+        <f t="shared" si="29"/>
         <v>155.88155482214887</v>
       </c>
       <c r="E96">
-        <f>C96/J96</f>
+        <f t="shared" si="30"/>
         <v>204.07774110744407</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96:G152" si="14">AVERAGE(D93:D96)</f>
+        <f t="shared" ref="F96:G152" si="32">AVERAGE(D93:D96)</f>
         <v>151.47506417308398</v>
       </c>
       <c r="G96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>204.21488815548224</v>
       </c>
       <c r="H96" s="7">
-        <f>(C96-B96)/B96</f>
+        <f t="shared" si="31"/>
         <v>0.30918466485841789</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34817495718064034</v>
       </c>
       <c r="J96">
@@ -48095,27 +48328,27 @@
         <v>551495</v>
       </c>
       <c r="D97">
-        <f>B97/J97</f>
+        <f t="shared" si="29"/>
         <v>151.91015768243491</v>
       </c>
       <c r="E97">
-        <f>C97/J97</f>
+        <f t="shared" si="30"/>
         <v>202.23505683901723</v>
       </c>
       <c r="F97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>150.04180418041804</v>
       </c>
       <c r="G97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>202.17959295929592</v>
       </c>
       <c r="H97" s="7">
-        <f>(C97-B97)/B97</f>
+        <f t="shared" si="31"/>
         <v>0.33128067223645113</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34748841540311459</v>
       </c>
       <c r="J97">
@@ -48133,27 +48366,27 @@
         <v>580775</v>
       </c>
       <c r="D98">
-        <f>B98/J98</f>
+        <f t="shared" si="29"/>
         <v>158.35863586358636</v>
       </c>
       <c r="E98">
-        <f>C98/J98</f>
+        <f t="shared" si="30"/>
         <v>212.97213054638797</v>
       </c>
       <c r="F98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.87715438210489</v>
       </c>
       <c r="G98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>205.73569856985699</v>
       </c>
       <c r="H98" s="7">
-        <f>(C98-B98)/B98</f>
+        <f t="shared" si="31"/>
         <v>0.34487222237659898</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.35461912890631597</v>
       </c>
       <c r="J98">
@@ -48171,27 +48404,27 @@
         <v>559554</v>
       </c>
       <c r="D99">
-        <f>B99/J99</f>
+        <f t="shared" si="29"/>
         <v>162.51338467180051</v>
       </c>
       <c r="E99">
-        <f>C99/J99</f>
+        <f t="shared" si="30"/>
         <v>205.19031903190319</v>
       </c>
       <c r="F99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>157.16593325999264</v>
       </c>
       <c r="G99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>206.11881188118812</v>
       </c>
       <c r="H99" s="7">
-        <f>(C99-B99)/B99</f>
+        <f t="shared" si="31"/>
         <v>0.26260565827417676</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3114725793675332</v>
       </c>
       <c r="J99">
@@ -48209,27 +48442,27 @@
         <v>533452</v>
       </c>
       <c r="D100">
-        <f>B100/J100</f>
+        <f t="shared" si="29"/>
         <v>156.61386138613861</v>
       </c>
       <c r="E100">
-        <f>C100/J100</f>
+        <f t="shared" si="30"/>
         <v>195.61862852951961</v>
       </c>
       <c r="F100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>157.3490099009901</v>
       </c>
       <c r="G100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>204.00403373670699</v>
       </c>
       <c r="H100" s="7">
-        <f>(C100-B100)/B100</f>
+        <f t="shared" si="31"/>
         <v>0.24905054251368577</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.29650662476410866</v>
       </c>
       <c r="J100">
@@ -48247,27 +48480,27 @@
         <v>492125</v>
       </c>
       <c r="D101">
-        <f>B101/J101</f>
+        <f t="shared" si="29"/>
         <v>136.36230289695635</v>
       </c>
       <c r="E101">
-        <f>C101/J101</f>
+        <f t="shared" si="30"/>
         <v>180.46387972130546</v>
       </c>
       <c r="F101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>153.46204620462044</v>
       </c>
       <c r="G101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>198.56123945727907</v>
       </c>
       <c r="H101" s="7">
-        <f>(C101-B101)/B101</f>
+        <f t="shared" si="31"/>
         <v>0.32341472597214005</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.29387848245243059</v>
       </c>
       <c r="J101">
@@ -48285,27 +48518,27 @@
         <v>532322</v>
       </c>
       <c r="D102">
-        <f>B102/J102</f>
+        <f t="shared" si="29"/>
         <v>149.16244957829116</v>
       </c>
       <c r="E102">
-        <f>C102/J102</f>
+        <f t="shared" si="30"/>
         <v>195.2042537587092</v>
       </c>
       <c r="F102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.16299963329666</v>
       </c>
       <c r="G102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>194.11927026035937</v>
       </c>
       <c r="H102" s="7">
-        <f>(C102-B102)/B102</f>
+        <f t="shared" si="31"/>
         <v>0.30866886612942085</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.28417185906120862</v>
       </c>
       <c r="J102">
@@ -48323,27 +48556,27 @@
         <v>500114</v>
       </c>
       <c r="D103">
-        <f>B103/J103</f>
+        <f t="shared" si="29"/>
         <v>135.78694536120278</v>
       </c>
       <c r="E103">
-        <f>C103/J103</f>
+        <f t="shared" si="30"/>
         <v>183.39347268060141</v>
       </c>
       <c r="F103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>144.48138980564721</v>
       </c>
       <c r="G103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>188.67005867253391</v>
       </c>
       <c r="H103" s="7">
-        <f>(C103-B103)/B103</f>
+        <f t="shared" si="31"/>
         <v>0.35059723298702911</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3058433264403686</v>
       </c>
       <c r="J103">
@@ -48361,27 +48594,27 @@
         <v>546962</v>
       </c>
       <c r="D104">
-        <f>B104/J104</f>
+        <f t="shared" si="29"/>
         <v>141.42354235423542</v>
       </c>
       <c r="E104">
-        <f>C104/J104</f>
+        <f t="shared" si="30"/>
         <v>200.57279061239458</v>
       </c>
       <c r="F104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>140.68381004767144</v>
       </c>
       <c r="G104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>189.90859919325266</v>
       </c>
       <c r="H104" s="7">
-        <f>(C104-B104)/B104</f>
+        <f t="shared" si="31"/>
         <v>0.4182418801956117</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34989661659647359</v>
       </c>
       <c r="J104">
@@ -48399,27 +48632,27 @@
         <v>541310</v>
       </c>
       <c r="D105">
-        <f>B105/J105</f>
+        <f t="shared" si="29"/>
         <v>154.26842684268428</v>
       </c>
       <c r="E105">
-        <f>C105/J105</f>
+        <f t="shared" si="30"/>
         <v>198.50018335166851</v>
       </c>
       <c r="F105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>145.1603410341034</v>
       </c>
       <c r="G105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>194.41767510084341</v>
       </c>
       <c r="H105" s="7">
-        <f>(C105-B105)/B105</f>
+        <f t="shared" si="31"/>
         <v>0.28671943711521547</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33933052041512973</v>
       </c>
       <c r="J105">
@@ -48437,27 +48670,27 @@
         <v>562938</v>
       </c>
       <c r="D106">
-        <f>B106/J106</f>
+        <f t="shared" si="29"/>
         <v>160.28016134946827</v>
       </c>
       <c r="E106">
-        <f>C106/J106</f>
+        <f t="shared" si="30"/>
         <v>206.43124312431243</v>
       </c>
       <c r="F106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>147.93976897689768</v>
       </c>
       <c r="G106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>197.22442244224425</v>
       </c>
       <c r="H106" s="7">
-        <f>(C106-B106)/B106</f>
+        <f t="shared" si="31"/>
         <v>0.28794007559187706</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33313999208044504</v>
       </c>
       <c r="J106">
@@ -48475,27 +48708,27 @@
         <v>555372</v>
       </c>
       <c r="D107">
-        <f>B107/J107</f>
+        <f t="shared" si="29"/>
         <v>158.23359002566923</v>
       </c>
       <c r="E107">
-        <f>C107/J107</f>
+        <f t="shared" si="30"/>
         <v>203.65676567656766</v>
       </c>
       <c r="F107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>153.55143014301427</v>
       </c>
       <c r="G107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>202.29024569123578</v>
       </c>
       <c r="H107" s="7">
-        <f>(C107-B107)/B107</f>
+        <f t="shared" si="31"/>
         <v>0.28706405285710646</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.31741036539241152</v>
       </c>
       <c r="J107">
@@ -48513,27 +48746,27 @@
         <v>565537</v>
       </c>
       <c r="D108">
-        <f>B108/J108</f>
+        <f t="shared" si="29"/>
         <v>161.64466446644664</v>
       </c>
       <c r="E108">
-        <f>C108/J108</f>
+        <f t="shared" si="30"/>
         <v>207.38430509717639</v>
       </c>
       <c r="F108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>158.60671067106711</v>
       </c>
       <c r="G108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.99312431243123</v>
       </c>
       <c r="H108" s="7">
-        <f>(C108-B108)/B108</f>
+        <f t="shared" si="31"/>
         <v>0.28296412245777613</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.28615695672228247</v>
       </c>
       <c r="J108">
@@ -48551,27 +48784,27 @@
         <v>538371</v>
       </c>
       <c r="D109">
-        <f>B109/J109</f>
+        <f t="shared" si="29"/>
         <v>152.77887788778878</v>
       </c>
       <c r="E109">
-        <f>C109/J109</f>
+        <f t="shared" si="30"/>
         <v>197.42244224422441</v>
       </c>
       <c r="F109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>158.23432343234325</v>
       </c>
       <c r="G109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.7236890355702</v>
       </c>
       <c r="H109" s="7">
-        <f>(C109-B109)/B109</f>
+        <f t="shared" si="31"/>
         <v>0.29221031711742851</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.28748102571233219</v>
       </c>
       <c r="J109">
@@ -48589,27 +48822,27 @@
         <v>558360</v>
       </c>
       <c r="D110">
-        <f>B110/J110</f>
+        <f t="shared" si="29"/>
         <v>157.08140814081409</v>
       </c>
       <c r="E110">
-        <f>C110/J110</f>
+        <f t="shared" si="30"/>
         <v>204.75247524752476</v>
       </c>
       <c r="F110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>157.43463513017969</v>
       </c>
       <c r="G110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.30399706637331</v>
       </c>
       <c r="H110" s="7">
-        <f>(C110-B110)/B110</f>
+        <f t="shared" si="31"/>
         <v>0.30348000868426395</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.29135496073189443</v>
       </c>
       <c r="J110">
@@ -48627,27 +48860,27 @@
         <v>565002</v>
       </c>
       <c r="D111">
-        <f>B111/J111</f>
+        <f t="shared" si="29"/>
         <v>148.32488986784142</v>
       </c>
       <c r="E111">
-        <f>C111/J111</f>
+        <f t="shared" si="30"/>
         <v>207.41629955947135</v>
       </c>
       <c r="F111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>154.95746009072275</v>
       </c>
       <c r="G111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>204.24388053709922</v>
       </c>
       <c r="H111" s="7">
-        <f>(C111-B111)/B111</f>
+        <f t="shared" si="31"/>
         <v>0.39839173145033746</v>
       </c>
       <c r="I111" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.31806419915195311</v>
       </c>
       <c r="J111">
@@ -48659,15 +48892,15 @@
         <v>44237</v>
       </c>
       <c r="F112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>152.72839196548145</v>
       </c>
       <c r="G112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.19707235040684</v>
       </c>
       <c r="I112" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33044727136478952</v>
       </c>
     </row>
@@ -48682,27 +48915,27 @@
         <v>548298</v>
       </c>
       <c r="D113">
-        <f>B113/J113</f>
+        <f t="shared" ref="D113:D122" si="33">B113/J113</f>
         <v>151.12371512481644</v>
       </c>
       <c r="E113">
-        <f>C113/J113</f>
+        <f t="shared" ref="E113:E122" si="34">C113/J113</f>
         <v>201.28414096916299</v>
       </c>
       <c r="F113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>152.17667104449066</v>
       </c>
       <c r="G113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>204.4843052587197</v>
       </c>
       <c r="H113" s="7">
-        <f>(C113-B113)/B113</f>
+        <f t="shared" ref="H113:H122" si="35">(C113-B113)/B113</f>
         <v>0.33191630977916298</v>
       </c>
       <c r="I113" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34372965222071578</v>
       </c>
       <c r="J113">
@@ -48720,27 +48953,27 @@
         <v>573693</v>
       </c>
       <c r="D114">
-        <f>B114/J114</f>
+        <f t="shared" si="33"/>
         <v>155.90124816446402</v>
       </c>
       <c r="E114">
-        <f>C114/J114</f>
+        <f t="shared" si="34"/>
         <v>210.6068281938326</v>
       </c>
       <c r="F114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.78328438570728</v>
       </c>
       <c r="G114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>206.43575624082231</v>
       </c>
       <c r="H114" s="7">
-        <f>(C114-B114)/B114</f>
+        <f t="shared" si="35"/>
         <v>0.35089892270559842</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.36006910824405253</v>
       </c>
       <c r="J114">
@@ -48758,27 +48991,27 @@
         <v>574492</v>
       </c>
       <c r="D115">
-        <f>B115/J115</f>
+        <f t="shared" si="33"/>
         <v>146.04148311306901</v>
       </c>
       <c r="E115">
-        <f>C115/J115</f>
+        <f t="shared" si="34"/>
         <v>210.90014684287812</v>
       </c>
       <c r="F115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.02214880078316</v>
       </c>
       <c r="G115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>207.59703866862458</v>
       </c>
       <c r="H115" s="7">
-        <f>(C115-B115)/B115</f>
+        <f t="shared" si="35"/>
         <v>0.44411123707634415</v>
       </c>
       <c r="I115" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.37461319625686612</v>
       </c>
       <c r="J115">
@@ -48796,27 +49029,27 @@
         <v>577937</v>
       </c>
       <c r="D116">
-        <f>B116/J116</f>
+        <f t="shared" si="33"/>
         <v>158.9996328928047</v>
       </c>
       <c r="E116">
-        <f>C116/J116</f>
+        <f t="shared" si="34"/>
         <v>212.16483113069017</v>
       </c>
       <c r="F116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>153.01651982378854</v>
       </c>
       <c r="G116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>208.73898678414099</v>
       </c>
       <c r="H116" s="7">
-        <f>(C116-B116)/B116</f>
+        <f t="shared" si="35"/>
         <v>0.33437308797894322</v>
       </c>
       <c r="I116" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.36415981114014084</v>
       </c>
       <c r="J116">
@@ -48834,27 +49067,27 @@
         <v>579392</v>
       </c>
       <c r="D117">
-        <f>B117/J117</f>
+        <f t="shared" si="33"/>
         <v>155.49596182085168</v>
       </c>
       <c r="E117">
-        <f>C117/J117</f>
+        <f t="shared" si="34"/>
         <v>212.69897209985317</v>
       </c>
       <c r="F117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>154.10958149779736</v>
       </c>
       <c r="G117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>211.59269456681352</v>
       </c>
       <c r="H117" s="7">
-        <f>(C117-B117)/B117</f>
+        <f t="shared" si="35"/>
         <v>0.36787457120529971</v>
       </c>
       <c r="I117" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3730015519498231</v>
       </c>
       <c r="J117">
@@ -48872,27 +49105,27 @@
         <v>541530</v>
       </c>
       <c r="D118">
-        <f>B118/J118</f>
+        <f t="shared" si="33"/>
         <v>146.63289280469897</v>
       </c>
       <c r="E118">
-        <f>C118/J118</f>
+        <f t="shared" si="34"/>
         <v>198.79955947136563</v>
       </c>
       <c r="F118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.79249265785609</v>
       </c>
       <c r="G118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>208.64087738619679</v>
       </c>
       <c r="H118" s="7">
-        <f>(C118-B118)/B118</f>
+        <f t="shared" si="35"/>
         <v>0.35576374215127632</v>
       </c>
       <c r="I118" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3745138098264077</v>
       </c>
       <c r="J118">
@@ -48910,27 +49143,27 @@
         <v>544219</v>
       </c>
       <c r="D119">
-        <f>B119/J119</f>
+        <f t="shared" si="33"/>
         <v>149.77165932452277</v>
       </c>
       <c r="E119">
-        <f>C119/J119</f>
+        <f t="shared" si="34"/>
         <v>199.78671071953011</v>
       </c>
       <c r="F119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>152.72503671071951</v>
       </c>
       <c r="G119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>205.86251835535975</v>
       </c>
       <c r="H119" s="7">
-        <f>(C119-B119)/B119</f>
+        <f t="shared" si="35"/>
         <v>0.33394202628573111</v>
       </c>
       <c r="I119" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34792908084408808</v>
       </c>
       <c r="J119">
@@ -48948,27 +49181,27 @@
         <v>553094</v>
       </c>
       <c r="D120">
-        <f>B120/J120</f>
+        <f t="shared" si="33"/>
         <v>148.24706314243758</v>
       </c>
       <c r="E120">
-        <f>C120/J120</f>
+        <f t="shared" si="34"/>
         <v>203.04478707782673</v>
       </c>
       <c r="F120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>150.03689427312776</v>
       </c>
       <c r="G120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.58250734214391</v>
       </c>
       <c r="H120" s="7">
-        <f>(C120-B120)/B120</f>
+        <f t="shared" si="35"/>
         <v>0.3696378381724757</v>
       </c>
       <c r="I120" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.35688297420727405</v>
       </c>
       <c r="J120">
@@ -48986,27 +49219,27 @@
         <v>573414</v>
       </c>
       <c r="D121">
-        <f>B121/J121</f>
+        <f t="shared" si="33"/>
         <v>161.29919236417032</v>
       </c>
       <c r="E121">
-        <f>C121/J121</f>
+        <f t="shared" si="34"/>
         <v>210.50440528634363</v>
       </c>
       <c r="F121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.48770190895743</v>
       </c>
       <c r="G121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.03386563876651</v>
       </c>
       <c r="H121" s="7">
-        <f>(C121-B121)/B121</f>
+        <f t="shared" si="35"/>
         <v>0.30505554430229936</v>
       </c>
       <c r="I121" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34026632578258925</v>
       </c>
       <c r="J121">
@@ -49024,27 +49257,27 @@
         <v>584706</v>
       </c>
       <c r="D122">
-        <f>B122/J122</f>
+        <f t="shared" si="33"/>
         <v>154.38142437591776</v>
       </c>
       <c r="E122">
-        <f>C122/J122</f>
+        <f t="shared" si="34"/>
         <v>214.64977973568281</v>
       </c>
       <c r="F122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>153.4248348017621</v>
       </c>
       <c r="G122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>206.99642070484583</v>
       </c>
       <c r="H122" s="7">
-        <f>(C122-B122)/B122</f>
+        <f t="shared" si="35"/>
         <v>0.3903860558574197</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34917154039828535</v>
       </c>
       <c r="J122">
@@ -49056,15 +49289,15 @@
         <v>44314</v>
       </c>
       <c r="F123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>154.64255996084191</v>
       </c>
       <c r="G123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>209.39965736661773</v>
       </c>
       <c r="I123" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.35408814636566571</v>
       </c>
     </row>
@@ -49079,27 +49312,27 @@
         <v>565976</v>
       </c>
       <c r="D124">
-        <f>B124/J124</f>
+        <f t="shared" ref="D124:D152" si="36">B124/J124</f>
         <v>147.24804621134896</v>
       </c>
       <c r="E124">
-        <f>C124/J124</f>
+        <f t="shared" ref="E124:E152" si="37">C124/J124</f>
         <v>192.31260618416582</v>
       </c>
       <c r="F124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>154.30955431714571</v>
       </c>
       <c r="G124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>205.82226373539743</v>
       </c>
       <c r="H124" s="7">
-        <f>(C124-B124)/B124</f>
+        <f t="shared" ref="H124:H130" si="38">(C124-B124)/B124</f>
         <v>0.3060452150796929</v>
       </c>
       <c r="I124" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.3338270896199978</v>
       </c>
       <c r="J124">
@@ -49117,27 +49350,27 @@
         <v>577059</v>
       </c>
       <c r="D125">
-        <f>B125/J125</f>
+        <f t="shared" si="36"/>
         <v>150.01563030920829</v>
       </c>
       <c r="E125">
-        <f>C125/J125</f>
+        <f t="shared" si="37"/>
         <v>196.07849133537206</v>
       </c>
       <c r="F125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>150.54836696549168</v>
       </c>
       <c r="G125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>201.01362575174025</v>
       </c>
       <c r="H125" s="7">
-        <f>(C125-B125)/B125</f>
+        <f t="shared" si="38"/>
         <v>0.30705374454128692</v>
       </c>
       <c r="I125" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33520960607839795</v>
       </c>
       <c r="J125">
@@ -49155,27 +49388,27 @@
         <v>608996</v>
       </c>
       <c r="D126">
-        <f>B126/J126</f>
+        <f t="shared" si="36"/>
         <v>160.7667232597623</v>
       </c>
       <c r="E126">
-        <f>C126/J126</f>
+        <f t="shared" si="37"/>
         <v>206.78981324278439</v>
       </c>
       <c r="F126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>152.67679992677321</v>
       </c>
       <c r="G126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>198.39363692077407</v>
       </c>
       <c r="H126" s="7">
-        <f>(C126-B126)/B126</f>
+        <f t="shared" si="38"/>
         <v>0.28627248879520462</v>
       </c>
       <c r="I126" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.29943538910906931</v>
       </c>
       <c r="J126">
@@ -49193,27 +49426,27 @@
         <v>592442</v>
       </c>
       <c r="D127">
-        <f>B127/J127</f>
+        <f t="shared" si="36"/>
         <v>152.30220713073004</v>
       </c>
       <c r="E127">
-        <f>C127/J127</f>
+        <f t="shared" si="37"/>
         <v>201.16876061120544</v>
       </c>
       <c r="F127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>152.58315172776241</v>
       </c>
       <c r="G127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>199.08741784338193</v>
       </c>
       <c r="H127" s="7">
-        <f>(C127-B127)/B127</f>
+        <f t="shared" si="38"/>
         <v>0.32085256281631108</v>
       </c>
       <c r="I127" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.30477982391261677</v>
       </c>
       <c r="J127">
@@ -49231,27 +49464,27 @@
         <v>617162</v>
       </c>
       <c r="D128">
-        <f>B128/J128</f>
+        <f t="shared" si="36"/>
         <v>152.61188455008488</v>
       </c>
       <c r="E128">
-        <f>C128/J128</f>
+        <f t="shared" si="37"/>
         <v>209.56264855687607</v>
       </c>
       <c r="F128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>153.92411131244637</v>
       </c>
       <c r="G128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>203.39992843655949</v>
       </c>
       <c r="H128" s="7">
-        <f>(C128-B128)/B128</f>
+        <f t="shared" si="38"/>
         <v>0.37317384668099557</v>
       </c>
       <c r="I128" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.32142993519503582</v>
       </c>
       <c r="J128">
@@ -49269,27 +49502,27 @@
         <v>567457</v>
       </c>
       <c r="D129">
-        <f>B129/J129</f>
+        <f t="shared" si="36"/>
         <v>144.45670628183362</v>
       </c>
       <c r="E129">
-        <f>C129/J129</f>
+        <f t="shared" si="37"/>
         <v>192.68488964346349</v>
       </c>
       <c r="F129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>152.53438030560272</v>
       </c>
       <c r="G129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>202.55152801358236</v>
       </c>
       <c r="H129" s="7">
-        <f>(C129-B129)/B129</f>
+        <f t="shared" si="38"/>
         <v>0.3338590820943762</v>
       </c>
       <c r="I129" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.32790737149074356</v>
       </c>
       <c r="J129">
@@ -49307,27 +49540,27 @@
         <v>592694</v>
       </c>
       <c r="D130">
-        <f>B130/J130</f>
+        <f t="shared" si="36"/>
         <v>146.33457880434781</v>
       </c>
       <c r="E130">
-        <f>C130/J130</f>
+        <f t="shared" si="37"/>
         <v>201.32269021739131</v>
       </c>
       <c r="F130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>148.92634419174908</v>
       </c>
       <c r="G130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>201.18474725723411</v>
       </c>
       <c r="H130" s="7">
-        <f>(C130-B130)/B130</f>
+        <f t="shared" si="38"/>
         <v>0.37576977268348616</v>
       </c>
       <c r="I130" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.35090099974655981</v>
       </c>
       <c r="J130">
@@ -49345,27 +49578,27 @@
         <v>545732</v>
       </c>
       <c r="D131">
-        <f>B131/J131</f>
+        <f t="shared" si="36"/>
         <v>143.20957880434781</v>
       </c>
       <c r="E131">
-        <f>C131/J131</f>
+        <f t="shared" si="37"/>
         <v>185.37092391304347</v>
       </c>
       <c r="F131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>146.65318711015354</v>
       </c>
       <c r="G131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>197.23528808269361</v>
       </c>
       <c r="H131" s="7">
-        <f t="shared" ref="H131:H152" si="15">(C131-B131)/B131</f>
+        <f t="shared" ref="H131:H152" si="39">(C131-B131)/B131</f>
         <v>0.29440310809304354</v>
       </c>
       <c r="I131" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.34490966046681998</v>
       </c>
       <c r="J131">
@@ -49383,27 +49616,27 @@
         <v>595669</v>
       </c>
       <c r="D132">
-        <f>B132/J132</f>
+        <f t="shared" si="36"/>
         <v>152.75271739130434</v>
       </c>
       <c r="E132">
-        <f>C132/J132</f>
+        <f t="shared" si="37"/>
         <v>202.33322010869566</v>
       </c>
       <c r="F132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>146.6883953204584</v>
       </c>
       <c r="G132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>195.42793097064848</v>
       </c>
       <c r="H132" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.32458016828847419</v>
       </c>
       <c r="I132" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.33226579064903339</v>
       </c>
       <c r="J132">
@@ -49421,27 +49654,27 @@
         <v>559575</v>
       </c>
       <c r="D133">
-        <f>B133/J133</f>
+        <f t="shared" si="36"/>
         <v>146.375</v>
       </c>
       <c r="E133">
-        <f>C133/J133</f>
+        <f t="shared" si="37"/>
         <v>190.07302989130434</v>
       </c>
       <c r="F133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>147.16796875</v>
       </c>
       <c r="G133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>194.77496603260869</v>
       </c>
       <c r="H133" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.29853479003453015</v>
       </c>
       <c r="I133" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.32348749314791836</v>
       </c>
       <c r="J133">
@@ -49459,27 +49692,27 @@
         <v>590997</v>
       </c>
       <c r="D134">
-        <f>B134/J134</f>
+        <f t="shared" si="36"/>
         <v>155.24864130434781</v>
       </c>
       <c r="E134">
-        <f>C134/J134</f>
+        <f t="shared" si="37"/>
         <v>200.74626358695653</v>
       </c>
       <c r="F134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>149.396484375</v>
       </c>
       <c r="G134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>194.630859375</v>
       </c>
       <c r="H134" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.2930629337580844</v>
       </c>
       <c r="I134" s="7">
-        <f t="shared" ref="I134:I152" si="16">(G134-F134)/F134</f>
+        <f t="shared" ref="I134:I152" si="40">(G134-F134)/F134</f>
         <v>0.30278071930030986</v>
       </c>
       <c r="J134">
@@ -49497,27 +49730,27 @@
         <v>561537</v>
       </c>
       <c r="D135">
-        <f>B135/J135</f>
+        <f t="shared" si="36"/>
         <v>143.50237771739131</v>
       </c>
       <c r="E135">
-        <f>C135/J135</f>
+        <f t="shared" si="37"/>
         <v>190.73947010869566</v>
       </c>
       <c r="F135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>149.46968410326087</v>
       </c>
       <c r="G135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>195.97299592391303</v>
       </c>
       <c r="H135" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.32917288997351296</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.31112203186651166</v>
       </c>
       <c r="J135">
@@ -49535,27 +49768,27 @@
         <v>577396</v>
       </c>
       <c r="D136">
-        <f>B136/J136</f>
+        <f t="shared" si="36"/>
         <v>150.04653532608697</v>
       </c>
       <c r="E136">
-        <f>C136/J136</f>
+        <f t="shared" si="37"/>
         <v>196.12635869565219</v>
       </c>
       <c r="F136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>148.79313858695653</v>
       </c>
       <c r="G136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>194.42128057065219</v>
       </c>
       <c r="H136" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.30710354803876516</v>
       </c>
       <c r="I136" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.30665487949923181</v>
       </c>
       <c r="J136">
@@ -49573,27 +49806,27 @@
         <v>567315</v>
       </c>
       <c r="D137">
-        <f>B137/J137</f>
+        <f t="shared" si="36"/>
         <v>139.78226902173913</v>
       </c>
       <c r="E137">
-        <f>C137/J137</f>
+        <f t="shared" si="37"/>
         <v>192.70210597826087</v>
       </c>
       <c r="F137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>147.14495584239131</v>
       </c>
       <c r="G137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>195.07854959239131</v>
       </c>
       <c r="H137" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.37858762292871045</v>
       </c>
       <c r="I137" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.3257576413379894</v>
       </c>
       <c r="J137">
@@ -49611,27 +49844,27 @@
         <v>581544</v>
       </c>
       <c r="D138">
-        <f>B138/J138</f>
+        <f t="shared" si="36"/>
         <v>144.34442934782609</v>
       </c>
       <c r="E138">
-        <f>C138/J138</f>
+        <f t="shared" si="37"/>
         <v>197.53532608695653</v>
       </c>
       <c r="F138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>144.41890285326087</v>
       </c>
       <c r="G138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>194.27581521739131</v>
       </c>
       <c r="H138" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.36849982350864807</v>
       </c>
       <c r="I138" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.34522428421152285</v>
       </c>
       <c r="J138">
@@ -49649,27 +49882,27 @@
         <v>619809</v>
       </c>
       <c r="D139">
-        <f>B139/J139</f>
+        <f t="shared" si="36"/>
         <v>155.57404891304347</v>
       </c>
       <c r="E139">
-        <f>C139/J139</f>
+        <f t="shared" si="37"/>
         <v>210.53294836956522</v>
       </c>
       <c r="F139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>147.43682065217394</v>
       </c>
       <c r="G139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>199.22418478260872</v>
       </c>
       <c r="H139" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.35326521254994431</v>
       </c>
       <c r="I139" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.35125122680588122</v>
       </c>
       <c r="J139">
@@ -49687,27 +49920,27 @@
         <v>491584</v>
       </c>
       <c r="D140">
-        <f>B140/J140</f>
+        <f t="shared" si="36"/>
         <v>121.05027173913044</v>
       </c>
       <c r="E140">
-        <f>C140/J140</f>
+        <f t="shared" si="37"/>
         <v>166.97826086956522</v>
       </c>
       <c r="F140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>140.18775475543481</v>
       </c>
       <c r="G140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>191.93716032608697</v>
       </c>
       <c r="H140" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.37941252399178388</v>
       </c>
       <c r="I140" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.36914355081106637</v>
       </c>
       <c r="J140">
@@ -49725,27 +49958,27 @@
         <v>584034</v>
       </c>
       <c r="D141">
-        <f>B141/J141</f>
+        <f t="shared" si="36"/>
         <v>126.74490489130434</v>
       </c>
       <c r="E141">
-        <f>C141/J141</f>
+        <f t="shared" si="37"/>
         <v>198.38111413043478</v>
       </c>
       <c r="F141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>136.92841372282609</v>
       </c>
       <c r="G141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>193.35691236413044</v>
       </c>
       <c r="H141" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.56519991316862173</v>
       </c>
       <c r="I141" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.41210218615055538</v>
       </c>
       <c r="J141">
@@ -49763,27 +49996,27 @@
         <v>579790</v>
       </c>
       <c r="D142">
-        <f>B142/J142</f>
+        <f t="shared" si="36"/>
         <v>139.01664402173913</v>
       </c>
       <c r="E142">
-        <f>C142/J142</f>
+        <f t="shared" si="37"/>
         <v>196.93953804347825</v>
       </c>
       <c r="F142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>135.59646739130434</v>
       </c>
       <c r="G142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>193.20796535326087</v>
       </c>
       <c r="H142" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.41666157624033329</v>
       </c>
       <c r="I142" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.4248746229922144</v>
       </c>
       <c r="J142">
@@ -49801,27 +50034,27 @@
         <v>604877</v>
       </c>
       <c r="D143">
-        <f>B143/J143</f>
+        <f t="shared" si="36"/>
         <v>145.48980978260869</v>
       </c>
       <c r="E143">
-        <f>C143/J143</f>
+        <f t="shared" si="37"/>
         <v>205.4609375</v>
       </c>
       <c r="F143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>133.07540760869563</v>
       </c>
       <c r="G143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>191.93996263586956</v>
       </c>
       <c r="H143" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.41220156797923058</v>
       </c>
       <c r="I143" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.44233984388958963</v>
       </c>
       <c r="J143">
@@ -49839,27 +50072,27 @@
         <v>598424</v>
       </c>
       <c r="D144">
-        <f>B144/J144</f>
+        <f t="shared" si="36"/>
         <v>144.13620923913044</v>
       </c>
       <c r="E144">
-        <f>C144/J144</f>
+        <f t="shared" si="37"/>
         <v>203.26902173913044</v>
       </c>
       <c r="F144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>138.84689198369566</v>
       </c>
       <c r="G144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>201.01265285326087</v>
       </c>
       <c r="H144" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.41025647068249999</v>
       </c>
       <c r="I144" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.44772886149201774</v>
       </c>
       <c r="J144">
@@ -49877,27 +50110,27 @@
         <v>634245</v>
       </c>
       <c r="D145">
-        <f>B145/J145</f>
+        <f t="shared" si="36"/>
         <v>144.90421195652175</v>
       </c>
       <c r="E145">
-        <f>C145/J145</f>
+        <f t="shared" si="37"/>
         <v>215.43648097826087</v>
       </c>
       <c r="F145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>143.38671875</v>
       </c>
       <c r="G145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>205.2764945652174</v>
       </c>
       <c r="H145" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.48675099273789374</v>
       </c>
       <c r="I145" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.43162837084740391</v>
       </c>
       <c r="J145">
@@ -49915,27 +50148,27 @@
         <v>645927</v>
       </c>
       <c r="D146">
-        <f>B146/J146</f>
+        <f t="shared" si="36"/>
         <v>151.32302989130434</v>
       </c>
       <c r="E146">
-        <f>C146/J146</f>
+        <f t="shared" si="37"/>
         <v>219.40455163043478</v>
       </c>
       <c r="F146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>146.46331521739131</v>
       </c>
       <c r="G146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>210.8927479619565</v>
       </c>
       <c r="H146" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.44990852871524933</v>
       </c>
       <c r="I146" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.43990150468009293</v>
       </c>
       <c r="J146">
@@ -49953,27 +50186,27 @@
         <v>641673</v>
       </c>
       <c r="D147">
-        <f>B147/J147</f>
+        <f t="shared" si="36"/>
         <v>155.60088315217391</v>
       </c>
       <c r="E147">
-        <f>C147/J147</f>
+        <f t="shared" si="37"/>
         <v>217.95957880434781</v>
       </c>
       <c r="F147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>148.9910835597826</v>
       </c>
       <c r="G147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>214.0174082880435</v>
       </c>
       <c r="H147" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.40076055089731472</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.43644440442081306</v>
       </c>
       <c r="J147">
@@ -49991,27 +50224,27 @@
         <v>612033</v>
       </c>
       <c r="D148">
-        <f>B148/J148</f>
+        <f t="shared" si="36"/>
         <v>149.72554347826087</v>
       </c>
       <c r="E148">
-        <f>C148/J148</f>
+        <f t="shared" si="37"/>
         <v>207.89164402173913</v>
       </c>
       <c r="F148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>150.38841711956522</v>
       </c>
       <c r="G148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>215.17306385869566</v>
       </c>
       <c r="H148" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.38848481823626563</v>
       </c>
       <c r="I148" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.43078215716323337</v>
       </c>
       <c r="J148">
@@ -50029,27 +50262,27 @@
         <v>608814</v>
       </c>
       <c r="D149">
-        <f>B149/J149</f>
+        <f t="shared" si="36"/>
         <v>147.8671875</v>
       </c>
       <c r="E149">
-        <f>C149/J149</f>
+        <f t="shared" si="37"/>
         <v>206.79823369565219</v>
       </c>
       <c r="F149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.12916100543478</v>
       </c>
       <c r="G149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>213.0135020380435</v>
       </c>
       <c r="H149" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.39854038743823522</v>
       </c>
       <c r="I149" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.4094798159461977</v>
       </c>
       <c r="J149">
@@ -50067,27 +50300,27 @@
         <v>618335</v>
       </c>
       <c r="D150">
-        <f>B150/J150</f>
+        <f t="shared" si="36"/>
         <v>153.03057065217391</v>
       </c>
       <c r="E150">
-        <f>C150/J150</f>
+        <f t="shared" si="37"/>
         <v>210.03226902173913</v>
       </c>
       <c r="F150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>151.55604619565216</v>
       </c>
       <c r="G150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>210.67043138586956</v>
       </c>
       <c r="H150" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.37248569437230589</v>
       </c>
       <c r="I150" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.39004966594274532</v>
       </c>
       <c r="J150">
@@ -50105,27 +50338,27 @@
         <v>614491</v>
       </c>
       <c r="D151">
-        <f>B151/J151</f>
+        <f t="shared" si="36"/>
         <v>149.95448369565219</v>
       </c>
       <c r="E151">
-        <f>C151/J151</f>
+        <f t="shared" si="37"/>
         <v>208.7265625</v>
       </c>
       <c r="F151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>150.14444633152175</v>
       </c>
       <c r="G151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>208.36217730978262</v>
       </c>
       <c r="H151" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.39193278757594019</v>
       </c>
       <c r="I151" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.38774481774514014</v>
       </c>
       <c r="J151">
@@ -50143,27 +50376,27 @@
         <v>583486</v>
       </c>
       <c r="D152">
-        <f>B152/J152</f>
+        <f t="shared" si="36"/>
         <v>140.92391304347825</v>
       </c>
       <c r="E152">
-        <f>C152/J152</f>
+        <f t="shared" si="37"/>
         <v>198.19497282608697</v>
       </c>
       <c r="F152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>147.94403872282606</v>
       </c>
       <c r="G152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>205.93800951086956</v>
       </c>
       <c r="H152" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>0.40639703046664094</v>
       </c>
       <c r="I152" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.39199937549829572</v>
       </c>
       <c r="J152">

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0DB09-4CC5-45EB-868C-9BDF728F2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB1BAE-FD45-4DA9-B214-EC33C7A2BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,20 @@
     <sheet name="raw_access_reliab_30min" sheetId="13" state="hidden" r:id="rId12"/>
     <sheet name="_xltb_storage_" sheetId="23" state="veryHidden" r:id="rId13"/>
     <sheet name="reliab_football_home" sheetId="14" r:id="rId14"/>
-    <sheet name="reliab_football_away" sheetId="20" r:id="rId15"/>
-    <sheet name="reliab_football_normal" sheetId="19" r:id="rId16"/>
-    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId17"/>
-    <sheet name="peak_number" sheetId="17" r:id="rId18"/>
-    <sheet name="peak_hour" sheetId="18" r:id="rId19"/>
-    <sheet name="access_covid" sheetId="26" r:id="rId20"/>
-    <sheet name="reliab_covid" sheetId="28" r:id="rId21"/>
-    <sheet name="Sheet6" sheetId="27" r:id="rId22"/>
+    <sheet name="Sheet5" sheetId="29" r:id="rId15"/>
+    <sheet name="reliab_football_away" sheetId="20" r:id="rId16"/>
+    <sheet name="reliab_football_normal" sheetId="19" r:id="rId17"/>
+    <sheet name="Sheet8" sheetId="16" state="hidden" r:id="rId18"/>
+    <sheet name="peak_number" sheetId="17" r:id="rId19"/>
+    <sheet name="peak_hour" sheetId="18" r:id="rId20"/>
+    <sheet name="access_covid" sheetId="26" r:id="rId21"/>
+    <sheet name="reliab_covid" sheetId="28" r:id="rId22"/>
+    <sheet name="Sheet6" sheetId="27" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">peak_hour!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">peak_number!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet8!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">peak_hour!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">peak_number!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Sheet8!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>football</t>
   </si>
@@ -158,7 +159,16 @@
     <t>Game Start Time</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\sandwitch.tif</t>
+    <t>Away Game Days</t>
+  </si>
+  <si>
+    <t>Non-game Days</t>
+  </si>
+  <si>
+    <t>Home Game Days</t>
+  </si>
+  <si>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\three_days.tif</t>
   </si>
 </sst>
 </file>
@@ -197,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,7 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,6 +661,1855 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12/3/2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40882660092922801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43389802310217601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33049437976492102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39780698060247299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43293360814440002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46046536564443402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41005854286086502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47467130827975501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47215667971754699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.577761704869865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58118217534278505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36721647542883601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.420369599308898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34062298711125799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28894584989536498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3989-4D5E-B9AF-6A5C194975AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.32446006427130802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33602679355958098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25180922869040401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.328397369644083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30927798599816098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36935071196506702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34753021803508899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40447914657237399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45943827463785702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.421839009484889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40837813906359799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37060818805711099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33601261033594598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26997438283012298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.157917300995677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3989-4D5E-B9AF-6A5C194975AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10/18/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.30633055135796999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31797055645283101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.417436642716496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40674762618048099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53350651994383302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52455810437399697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46461078844248999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58444545700424699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59876795671336502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58875549797045201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45790807891546298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51732256499529095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56877234859012604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45275451680287299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40669031874164902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3989-4D5E-B9AF-6A5C194975AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11/16/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.266726543650533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35438301175567199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47296585751129799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44852893653996601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.428382218256111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41590592569297802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44498553242022798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.386598216698189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.374779013069722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41737622738665697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.419316311615339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37887151180619399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37449967425282299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42102252749701602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71293474013286395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3989-4D5E-B9AF-6A5C194975AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11/30/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.25593910853137603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26011401117861599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31366919394329601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32166340582187603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30693683879447298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28786693725995399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31617983184815901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32694633887241698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39039736084718102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38543549307464797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37372349176413899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38493679460081398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39533188482550402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40083071513531698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30068434430790902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3989-4D5E-B9AF-6A5C194975AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12/7/2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.393387131233642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40624027657735501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32084157485883502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.310595546163558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37032890101555799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42383104014495199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40140357876508798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37150826782211299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.366924191622364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45216179243858101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38439710701303598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37356210863148598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36219156159260901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37224170236204202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37048104863781101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3989-4D5E-B9AF-6A5C194975AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="132443359"/>
+        <c:axId val="132445023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132443359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132445023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132445023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132443359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11269041022649946"/>
+          <c:y val="4.2795275590551178E-2"/>
+          <c:w val="0.87033428113152522"/>
+          <c:h val="0.73873140857392827"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Game Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.34511178447265756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3806185462386627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41103897081017149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43371281901187769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42531898956091602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43083802484432682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41552994364862306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41754400713117024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50619635719858314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48694904040850029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46402678435875672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4552582499257446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48179299573549722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43685636872740236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38144497771153996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18AC-49EF-ACCF-5F444D65D91C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Away Game Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.32594499999567622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35143877877103852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35120281291420835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36895664415873952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39689434535875595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41366301418023038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39746141539531976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42477478920818251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44374391276800607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47388828753751538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43748421728572667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39875294058662192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40952961315098441</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37624113862310482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37294226711854583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18AC-49EF-ACCF-5F444D65D91C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_away!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-game Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_away!$B$10:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.31554925485511726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29960094437363999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34533971151117626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37939076488360801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38460490338915471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42224404488315048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3882453062350395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37825564689420477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.413026853757822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38877422213275975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42755868150278054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39962129403721974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37511780805924322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37115198926916149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35377106704536349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18AC-49EF-ACCF-5F444D65D91C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="127146511"/>
+        <c:axId val="127152751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="127146511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90846323029065823"/>
+              <c:y val="0.6939113079615048"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127152751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127152751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accessibility Unreliability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2345679012345678E-2"/>
+              <c:y val="0.20343695319335084"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127146511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1454,7 +3312,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1568,7 +3426,7 @@
             <c:numRef>
               <c:f>reliab_football_normal!$B$6:$P$6</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.31554925485511726</c:v>
@@ -1827,7 +3685,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1914,7 +3772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2739,7 +4597,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3475,7 +5333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4002,7 +5860,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4744,7 +6602,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5614,7 +7472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8806,7 +10664,796 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>7.8387697671706003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9489350143824941E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5378524303770402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4181771307869644E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0233274464476361E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1920020971769638E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.13952785163585E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2984007255188557E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.669524947881031E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.2798733802412188E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.3219281066108661E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4580794205028502E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4293919548568139E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3022437505511602E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9067023285232465E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1805854361168837E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3994530774132097E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4073081133754328E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1491159705568688E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0394351451939898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0618301658366969E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1091673033817584E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0528687326389452E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-6.4476776203085812E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6231754967670495E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2299561060331059E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6890910907843586E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9851388401699976E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9991510038933245E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3386317240944152E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9910683052668585E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3984312501153349E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8347251510620721E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0157202958390963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5146109707401656E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0884930076789201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0519479215331251E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.434205923338209E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0013164561400481E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0215525674903914E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6251128449017491E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1558024163389495E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1075970446122758E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.8591509218048934E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2965913069650864E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.5153109226237749E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-2.1129368620896871E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6911297674326926E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6849155442874029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7541897066203995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4753901740813127E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0714140154615894E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6380751059863463E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9609741973421799E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8628226394976861E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.616503329444942E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10108524840543764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5263123330311006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2608117803760159E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8857559319311996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2710397952802994E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3929713170720557E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7718606471242337E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9071161185335175E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1183055893143157E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1450332385680928E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1910026687987452E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1417172342984439E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0939058130464796E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1065174927"/>
+        <c:axId val="1534988863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1065174927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534988863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1534988863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065174927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11036,7 +13683,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13940,795 +16587,6 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$10:$X$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>7.8387697671706003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9489350143824941E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5378524303770402E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4181771307869644E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0233274464476361E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1920020971769638E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.13952785163585E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2984007255188557E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.669524947881031E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.2798733802412188E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9.3219281066108661E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.4580794205028502E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.4293919548568139E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.3022437505511602E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9067023285232465E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.1805854361168837E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3994530774132097E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4073081133754328E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1491159705568688E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0394351451939898E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0618301658366969E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1091673033817584E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0528687326389452E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$11:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-6.4476776203085812E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.6231754967670495E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2299561060331059E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6890910907843586E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9851388401699976E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9991510038933245E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3386317240944152E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9910683052668585E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3984312501153349E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8347251510620721E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0157202958390963E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5146109707401656E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0884930076789201E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0519479215331251E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.434205923338209E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0013164561400481E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0215525674903914E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6251128449017491E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1558024163389495E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1075970446122758E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-9.8591509218048934E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.2965913069650864E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.5153109226237749E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$12:$X$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-2.1129368620896871E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6911297674326926E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6849155442874029E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7541897066203995E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4753901740813127E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0714140154615894E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6380751059863463E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9609741973421799E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8628226394976861E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.616503329444942E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10108524840543764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5263123330311006E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2608117803760159E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.8857559319311996E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2710397952802994E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3929713170720557E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.7718606471242337E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9071161185335175E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.1183055893143157E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.1450332385680928E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.1910026687987452E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.1417172342984439E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.0939058130464796E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1065174927"/>
-        <c:axId val="1534988863"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1065174927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1534988863"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1534988863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1065174927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -25825,7 +27683,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -31305,7 +33243,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -35479,6 +38449,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CE35F7-3701-009E-D7E4-1DA435D36A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>404810</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -35551,7 +38562,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -35908,6 +38919,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9256EE-F7FE-2F73-E8AB-39E74A502555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48F0388-0B78-C749-53E3-CE2D1B46D937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -35981,7 +39069,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36060,7 +39148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36129,47 +39217,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CE35F7-3701-009E-D7E4-1DA435D36A84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40067,7 +43114,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -40080,7 +43127,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41637,23 +44684,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541F98E4-3BB4-4326-BDBC-ACFB77F355E7}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <v>18</v>
+      </c>
+      <c r="M1">
+        <v>19</v>
+      </c>
+      <c r="N1">
+        <v>20</v>
+      </c>
+      <c r="O1">
+        <v>21</v>
+      </c>
+      <c r="P1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B2">
+        <v>0.33930418480368901</v>
+      </c>
+      <c r="C2">
+        <v>0.38769878840011202</v>
+      </c>
+      <c r="D2">
+        <v>0.35942564312202502</v>
+      </c>
+      <c r="E2">
+        <v>0.40940229689756602</v>
+      </c>
+      <c r="F2">
+        <v>0.51327330439852303</v>
+      </c>
+      <c r="G2">
+        <v>0.461559065531644</v>
+      </c>
+      <c r="H2">
+        <v>0.45991806398539697</v>
+      </c>
+      <c r="I2">
+        <v>0.35110170793412498</v>
+      </c>
+      <c r="J2">
+        <v>0.40671670803552701</v>
+      </c>
+      <c r="K2">
+        <v>0.34270727923467798</v>
+      </c>
+      <c r="L2">
+        <v>0.39224322252504101</v>
+      </c>
+      <c r="M2">
+        <v>0.52757047441209304</v>
+      </c>
+      <c r="N2">
+        <v>0.56883739529671895</v>
+      </c>
+      <c r="O2">
+        <v>0.51685134344925998</v>
+      </c>
+      <c r="P2">
+        <v>0.34029427466577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B3">
+        <v>0.35012045007197601</v>
+      </c>
+      <c r="C3">
+        <v>0.33056318838689402</v>
+      </c>
+      <c r="D3">
+        <v>0.38807103831300899</v>
+      </c>
+      <c r="E3">
+        <v>0.42330783225264701</v>
+      </c>
+      <c r="F3">
+        <v>0.45136974800240798</v>
+      </c>
+      <c r="G3">
+        <v>0.44504605136224701</v>
+      </c>
+      <c r="H3">
+        <v>0.53487496021805903</v>
+      </c>
+      <c r="I3">
+        <v>0.42440698714063602</v>
+      </c>
+      <c r="J3">
+        <v>0.39140593072514301</v>
+      </c>
+      <c r="K3">
+        <v>0.37177250116586302</v>
+      </c>
+      <c r="L3">
+        <v>0.36615641261385901</v>
+      </c>
+      <c r="M3">
+        <v>0.482298090909274</v>
+      </c>
+      <c r="N3">
+        <v>0.60181545402540704</v>
+      </c>
+      <c r="O3">
+        <v>0.40709559667517498</v>
+      </c>
+      <c r="P3">
+        <v>0.41902704384825701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B4">
+        <v>0.39292150170648399</v>
+      </c>
+      <c r="C4">
+        <v>0.34068390013426397</v>
+      </c>
+      <c r="D4">
+        <v>0.48220704973572998</v>
+      </c>
+      <c r="E4">
+        <v>0.48807357462336298</v>
+      </c>
+      <c r="F4">
+        <v>0.52845106770569705</v>
+      </c>
+      <c r="G4">
+        <v>0.45931910551572303</v>
+      </c>
+      <c r="H4">
+        <v>0.41762103071317003</v>
+      </c>
+      <c r="I4">
+        <v>0.445481213112838</v>
+      </c>
+      <c r="J4">
+        <v>0.384208274681902</v>
+      </c>
+      <c r="K4">
+        <v>0.38839108374562098</v>
+      </c>
+      <c r="L4">
+        <v>0.43508708047283601</v>
+      </c>
+      <c r="M4">
+        <v>0.78279949671216897</v>
+      </c>
+      <c r="N4">
+        <v>0.572714283535112</v>
+      </c>
+      <c r="O4">
+        <v>0.40708334918400702</v>
+      </c>
+      <c r="P4">
+        <v>0.32078652400157698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B5">
+        <v>0.34485140541808001</v>
+      </c>
+      <c r="C5">
+        <v>0.340048374035334</v>
+      </c>
+      <c r="D5">
+        <v>0.42496273526981199</v>
+      </c>
+      <c r="E5">
+        <v>0.45529750683217102</v>
+      </c>
+      <c r="F5">
+        <v>0.54972002274815102</v>
+      </c>
+      <c r="G5">
+        <v>0.72708014823693401</v>
+      </c>
+      <c r="H5">
+        <v>0.51326097155012296</v>
+      </c>
+      <c r="I5">
+        <v>0.51065082154102603</v>
+      </c>
+      <c r="J5">
+        <v>0.37610267922502499</v>
+      </c>
+      <c r="K5">
+        <v>0.34967926910325098</v>
+      </c>
+      <c r="L5">
+        <v>0.37852043910663402</v>
+      </c>
+      <c r="M5">
+        <v>0.35703509988145299</v>
+      </c>
+      <c r="N5">
+        <v>0.71372116189558599</v>
+      </c>
+      <c r="O5">
+        <v>0.60354602782300604</v>
+      </c>
+      <c r="P5">
+        <v>0.98753089978424702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B6">
+        <v>0.33980348731569998</v>
+      </c>
+      <c r="C6">
+        <v>0.41621522375289999</v>
+      </c>
+      <c r="D6">
+        <v>0.545194940347138</v>
+      </c>
+      <c r="E6">
+        <v>0.47933166378122999</v>
+      </c>
+      <c r="F6">
+        <v>0.45200454828888897</v>
+      </c>
+      <c r="G6">
+        <v>0.45127545622443499</v>
+      </c>
+      <c r="H6">
+        <v>0.39462807892875101</v>
+      </c>
+      <c r="I6">
+        <v>0.497897300158814</v>
+      </c>
+      <c r="J6">
+        <v>0.49243933588761102</v>
+      </c>
+      <c r="K6">
+        <v>0.67388439716819004</v>
+      </c>
+      <c r="L6">
+        <v>0.73122884966824397</v>
+      </c>
+      <c r="M6">
+        <v>0.508723308242789</v>
+      </c>
+      <c r="N6">
+        <v>0.47369381122992199</v>
+      </c>
+      <c r="O6">
+        <v>0.41619824332654198</v>
+      </c>
+      <c r="P6">
+        <v>0.348824825398868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B7">
+        <v>0.33170376947175401</v>
+      </c>
+      <c r="C7">
+        <v>0.41008200775134002</v>
+      </c>
+      <c r="D7">
+        <v>0.329276100490969</v>
+      </c>
+      <c r="E7">
+        <v>0.34169202162066498</v>
+      </c>
+      <c r="F7">
+        <v>0.31200802019901902</v>
+      </c>
+      <c r="G7">
+        <v>0.33653990709499598</v>
+      </c>
+      <c r="H7">
+        <v>0.38028507742843698</v>
+      </c>
+      <c r="I7">
+        <v>0.35086121423136302</v>
+      </c>
+      <c r="J7">
+        <v>0.65326288943246602</v>
+      </c>
+      <c r="K7">
+        <v>0.44183438512706802</v>
+      </c>
+      <c r="L7">
+        <v>0.38868120578595999</v>
+      </c>
+      <c r="M7">
+        <v>0.41201862621816998</v>
+      </c>
+      <c r="N7">
+        <v>0.37652052639379202</v>
+      </c>
+      <c r="O7">
+        <v>0.41691871102647399</v>
+      </c>
+      <c r="P7">
+        <v>0.257176810576494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B8">
+        <v>0.32584395578593101</v>
+      </c>
+      <c r="C8">
+        <v>0.43753979298118501</v>
+      </c>
+      <c r="D8">
+        <v>0.44250800431016102</v>
+      </c>
+      <c r="E8">
+        <v>0.44005752437232298</v>
+      </c>
+      <c r="F8">
+        <v>0.42677372362232902</v>
+      </c>
+      <c r="G8">
+        <v>0.41125807198333297</v>
+      </c>
+      <c r="H8">
+        <v>0.42591890867752902</v>
+      </c>
+      <c r="I8">
+        <v>0.41040097993298902</v>
+      </c>
+      <c r="J8">
+        <v>0.53886791622183805</v>
+      </c>
+      <c r="K8">
+        <v>0.54920369906180599</v>
+      </c>
+      <c r="L8">
+        <v>0.43470685634844403</v>
+      </c>
+      <c r="M8">
+        <v>0.43083280318443801</v>
+      </c>
+      <c r="N8">
+        <v>0.44372201689493801</v>
+      </c>
+      <c r="O8">
+        <v>0.313988572475767</v>
+      </c>
+      <c r="P8">
+        <v>0.269990207567463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B9">
+        <v>0.36270903623294698</v>
+      </c>
+      <c r="C9">
+        <v>0.39580690168356403</v>
+      </c>
+      <c r="D9">
+        <v>0.37745071758304899</v>
+      </c>
+      <c r="E9">
+        <v>0.36372791891932499</v>
+      </c>
+      <c r="F9">
+        <v>0.32811665112087901</v>
+      </c>
+      <c r="G9">
+        <v>0.29221251753136401</v>
+      </c>
+      <c r="H9">
+        <v>0.24962794635298299</v>
+      </c>
+      <c r="I9">
+        <v>0.25342809925750898</v>
+      </c>
+      <c r="J9">
+        <v>0.27502111719122901</v>
+      </c>
+      <c r="K9">
+        <v>0.58123318607559604</v>
+      </c>
+      <c r="L9">
+        <v>0.55785338663779704</v>
+      </c>
+      <c r="M9">
+        <v>0.34499608636578399</v>
+      </c>
+      <c r="N9">
+        <v>0.32224872923449499</v>
+      </c>
+      <c r="O9">
+        <v>0.28411098947513502</v>
+      </c>
+      <c r="P9">
+        <v>0.28721141008802797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B10">
+        <v>0.35242836901763203</v>
+      </c>
+      <c r="C10">
+        <v>0.41565442487913101</v>
+      </c>
+      <c r="D10">
+        <v>0.463470158190672</v>
+      </c>
+      <c r="E10">
+        <v>0.51473134441949797</v>
+      </c>
+      <c r="F10">
+        <v>0.49997443719218099</v>
+      </c>
+      <c r="G10">
+        <v>0.39999689362438501</v>
+      </c>
+      <c r="H10">
+        <v>0.42312427345221099</v>
+      </c>
+      <c r="I10">
+        <v>0.51597883451750404</v>
+      </c>
+      <c r="J10">
+        <v>0.79613599638735699</v>
+      </c>
+      <c r="K10">
+        <v>0.55631954809311002</v>
+      </c>
+      <c r="L10">
+        <v>0.38694004754086703</v>
+      </c>
+      <c r="M10">
+        <v>0.39618457175362898</v>
+      </c>
+      <c r="N10">
+        <v>0.51466121913784602</v>
+      </c>
+      <c r="O10">
+        <v>0.56576742534373503</v>
+      </c>
+      <c r="P10">
+        <v>0.352819084333855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B11">
+        <v>0.30804525885212702</v>
+      </c>
+      <c r="C11">
+        <v>0.42220840622876299</v>
+      </c>
+      <c r="D11">
+        <v>0.319722951460649</v>
+      </c>
+      <c r="E11">
+        <v>0.44264662290916701</v>
+      </c>
+      <c r="F11">
+        <v>0.330133177862794</v>
+      </c>
+      <c r="G11">
+        <v>0.42389464006399902</v>
+      </c>
+      <c r="H11">
+        <v>0.38238223962418599</v>
+      </c>
+      <c r="I11">
+        <v>0.43636793959977699</v>
+      </c>
+      <c r="J11">
+        <v>0.608835559729619</v>
+      </c>
+      <c r="K11">
+        <v>0.52232047754807798</v>
+      </c>
+      <c r="L11">
+        <v>0.48995367657626698</v>
+      </c>
+      <c r="M11">
+        <v>0.45831582459303999</v>
+      </c>
+      <c r="N11">
+        <v>0.416509427138337</v>
+      </c>
+      <c r="O11">
+        <v>0.477004647942534</v>
+      </c>
+      <c r="P11">
+        <v>0.389977962279622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B12">
+        <v>0.321824425520503</v>
+      </c>
+      <c r="C12">
+        <v>0.32513371981467798</v>
+      </c>
+      <c r="D12">
+        <v>0.367767281423033</v>
+      </c>
+      <c r="E12">
+        <v>0.38929407686702799</v>
+      </c>
+      <c r="F12">
+        <v>0.33167031164570798</v>
+      </c>
+      <c r="G12">
+        <v>0.36659182778251997</v>
+      </c>
+      <c r="H12">
+        <v>0.39757938292056</v>
+      </c>
+      <c r="I12">
+        <v>0.40656694175029101</v>
+      </c>
+      <c r="J12">
+        <v>0.489571273133796</v>
+      </c>
+      <c r="K12">
+        <v>0.376296041702468</v>
+      </c>
+      <c r="L12">
+        <v>0.40217048916479797</v>
+      </c>
+      <c r="M12">
+        <v>0.33442907451039999</v>
+      </c>
+      <c r="N12">
+        <v>0.43624112111102997</v>
+      </c>
+      <c r="O12">
+        <v>0.40049457945095401</v>
+      </c>
+      <c r="P12">
+        <v>0.31416655603513799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B13">
+        <v>0.382633968386284</v>
+      </c>
+      <c r="C13">
+        <v>0.31912009365949801</v>
+      </c>
+      <c r="D13">
+        <v>0.41557945097855198</v>
+      </c>
+      <c r="E13">
+        <v>0.483927764606147</v>
+      </c>
+      <c r="F13">
+        <v>0.34177996865210403</v>
+      </c>
+      <c r="G13">
+        <v>0.30673350249730902</v>
+      </c>
+      <c r="H13">
+        <v>0.33559484246148902</v>
+      </c>
+      <c r="I13">
+        <v>0.35415908079459402</v>
+      </c>
+      <c r="J13">
+        <v>0.56033088865517899</v>
+      </c>
+      <c r="K13">
+        <v>0.57365128420910005</v>
+      </c>
+      <c r="L13">
+        <v>0.53087659823801403</v>
+      </c>
+      <c r="M13">
+        <v>0.42694417279646202</v>
+      </c>
+      <c r="N13">
+        <v>0.42295098804486198</v>
+      </c>
+      <c r="O13">
+        <v>0.44235039943727</v>
+      </c>
+      <c r="P13">
+        <v>0.28167346088612399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B6:B13)</f>
+        <v>0.34062403382285977</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:P14" si="0">AVERAGE(C6:C13)</f>
+        <v>0.39272007134388232</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.40762120059802792</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.43192611718692286</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.37780760482298786</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.37356285210029261</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.37364259373076825</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.40320754878035514</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.55180812207988694</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.53434287737317698</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.49030138874504881</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.41405555845808895</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.42581847989815275</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.41460419605980137</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.31273003964569901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B15">
+        <v>0.33875113621123798</v>
+      </c>
+      <c r="C15">
+        <v>0.39518475428973199</v>
+      </c>
+      <c r="D15">
+        <v>0.43128831951957403</v>
+      </c>
+      <c r="E15">
+        <v>0.408563200878235</v>
+      </c>
+      <c r="F15">
+        <v>0.51138326759115404</v>
+      </c>
+      <c r="G15">
+        <v>0.57666230827139497</v>
+      </c>
+      <c r="H15">
+        <v>0.52896084103705998</v>
+      </c>
+      <c r="I15">
+        <v>0.485107431084562</v>
+      </c>
+      <c r="J15">
+        <v>0.56204230939358402</v>
+      </c>
+      <c r="K15">
+        <v>0.55565053611099802</v>
+      </c>
+      <c r="L15">
+        <v>0.51165532759878396</v>
+      </c>
+      <c r="M15">
+        <v>0.49741231092263399</v>
+      </c>
+      <c r="N15">
+        <v>0.455647326460762</v>
+      </c>
+      <c r="O15">
+        <v>0.449975080513973</v>
+      </c>
+      <c r="P15">
+        <v>0.45802058885041702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>AVERAGE(B2:B15)</f>
+        <v>0.34511178447265756</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:P16" si="1">AVERAGE(C2:C15)</f>
+        <v>0.3806185462386627</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.41103897081017149</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.43371281901187769</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.42531898956091602</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.43083802484432682</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.41552994364862306</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.41754400713117024</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.50619635719858314</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.48694904040850029</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.46402678435875672</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.4552582499257446</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0.48179299573549722</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.43685636872740236</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0.38144497771153996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <v>18</v>
+      </c>
+      <c r="M1">
+        <v>19</v>
+      </c>
+      <c r="N1">
+        <v>20</v>
+      </c>
+      <c r="O1">
+        <v>21</v>
+      </c>
+      <c r="P1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43437</v>
+      </c>
+      <c r="B2">
+        <v>0.40882660092922801</v>
+      </c>
+      <c r="C2">
+        <v>0.43389802310217601</v>
+      </c>
+      <c r="D2">
+        <v>0.33049437976492102</v>
+      </c>
+      <c r="E2">
+        <v>0.39780698060247299</v>
+      </c>
+      <c r="F2">
+        <v>0.43293360814440002</v>
+      </c>
+      <c r="G2">
+        <v>0.46046536564443402</v>
+      </c>
+      <c r="H2">
+        <v>0.41005854286086502</v>
+      </c>
+      <c r="I2">
+        <v>0.47467130827975501</v>
+      </c>
+      <c r="J2">
+        <v>0.47215667971754699</v>
+      </c>
+      <c r="K2">
+        <v>0.577761704869865</v>
+      </c>
+      <c r="L2">
+        <v>0.58118217534278505</v>
+      </c>
+      <c r="M2">
+        <v>0.36721647542883601</v>
+      </c>
+      <c r="N2">
+        <v>0.420369599308898</v>
+      </c>
+      <c r="O2">
+        <v>0.34062298711125799</v>
+      </c>
+      <c r="P2">
+        <v>0.28894584989536498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B3">
+        <v>0.32446006427130802</v>
+      </c>
+      <c r="C3">
+        <v>0.33602679355958098</v>
+      </c>
+      <c r="D3">
+        <v>0.25180922869040401</v>
+      </c>
+      <c r="E3">
+        <v>0.328397369644083</v>
+      </c>
+      <c r="F3">
+        <v>0.30927798599816098</v>
+      </c>
+      <c r="G3">
+        <v>0.36935071196506702</v>
+      </c>
+      <c r="H3">
+        <v>0.34753021803508899</v>
+      </c>
+      <c r="I3">
+        <v>0.40447914657237399</v>
+      </c>
+      <c r="J3">
+        <v>0.45943827463785702</v>
+      </c>
+      <c r="K3">
+        <v>0.421839009484889</v>
+      </c>
+      <c r="L3">
+        <v>0.40837813906359799</v>
+      </c>
+      <c r="M3">
+        <v>0.37060818805711099</v>
+      </c>
+      <c r="N3">
+        <v>0.33601261033594598</v>
+      </c>
+      <c r="O3">
+        <v>0.26997438283012298</v>
+      </c>
+      <c r="P3">
+        <v>0.157917300995677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B4">
+        <v>0.30633055135796999</v>
+      </c>
+      <c r="C4">
+        <v>0.31797055645283101</v>
+      </c>
+      <c r="D4">
+        <v>0.417436642716496</v>
+      </c>
+      <c r="E4">
+        <v>0.40674762618048099</v>
+      </c>
+      <c r="F4">
+        <v>0.53350651994383302</v>
+      </c>
+      <c r="G4">
+        <v>0.52455810437399697</v>
+      </c>
+      <c r="H4">
+        <v>0.46461078844248999</v>
+      </c>
+      <c r="I4">
+        <v>0.58444545700424699</v>
+      </c>
+      <c r="J4">
+        <v>0.59876795671336502</v>
+      </c>
+      <c r="K4">
+        <v>0.58875549797045201</v>
+      </c>
+      <c r="L4">
+        <v>0.45790807891546298</v>
+      </c>
+      <c r="M4">
+        <v>0.51732256499529095</v>
+      </c>
+      <c r="N4">
+        <v>0.56877234859012604</v>
+      </c>
+      <c r="O4">
+        <v>0.45275451680287299</v>
+      </c>
+      <c r="P4">
+        <v>0.40669031874164902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B5">
+        <v>0.266726543650533</v>
+      </c>
+      <c r="C5">
+        <v>0.35438301175567199</v>
+      </c>
+      <c r="D5">
+        <v>0.47296585751129799</v>
+      </c>
+      <c r="E5">
+        <v>0.44852893653996601</v>
+      </c>
+      <c r="F5">
+        <v>0.428382218256111</v>
+      </c>
+      <c r="G5">
+        <v>0.41590592569297802</v>
+      </c>
+      <c r="H5">
+        <v>0.44498553242022798</v>
+      </c>
+      <c r="I5">
+        <v>0.386598216698189</v>
+      </c>
+      <c r="J5">
+        <v>0.374779013069722</v>
+      </c>
+      <c r="K5">
+        <v>0.41737622738665697</v>
+      </c>
+      <c r="L5">
+        <v>0.419316311615339</v>
+      </c>
+      <c r="M5">
+        <v>0.37887151180619399</v>
+      </c>
+      <c r="N5">
+        <v>0.37449967425282299</v>
+      </c>
+      <c r="O5">
+        <v>0.42102252749701602</v>
+      </c>
+      <c r="P5">
+        <v>0.71293474013286395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B6">
+        <v>0.25593910853137603</v>
+      </c>
+      <c r="C6">
+        <v>0.26011401117861599</v>
+      </c>
+      <c r="D6">
+        <v>0.31366919394329601</v>
+      </c>
+      <c r="E6">
+        <v>0.32166340582187603</v>
+      </c>
+      <c r="F6">
+        <v>0.30693683879447298</v>
+      </c>
+      <c r="G6">
+        <v>0.28786693725995399</v>
+      </c>
+      <c r="H6">
+        <v>0.31617983184815901</v>
+      </c>
+      <c r="I6">
+        <v>0.32694633887241698</v>
+      </c>
+      <c r="J6">
+        <v>0.39039736084718102</v>
+      </c>
+      <c r="K6">
+        <v>0.38543549307464797</v>
+      </c>
+      <c r="L6">
+        <v>0.37372349176413899</v>
+      </c>
+      <c r="M6">
+        <v>0.38493679460081398</v>
+      </c>
+      <c r="N6">
+        <v>0.39533188482550402</v>
+      </c>
+      <c r="O6">
+        <v>0.40083071513531698</v>
+      </c>
+      <c r="P6">
+        <v>0.30068434430790902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B7">
+        <v>0.393387131233642</v>
+      </c>
+      <c r="C7">
+        <v>0.40624027657735501</v>
+      </c>
+      <c r="D7">
+        <v>0.32084157485883502</v>
+      </c>
+      <c r="E7">
+        <v>0.310595546163558</v>
+      </c>
+      <c r="F7">
+        <v>0.37032890101555799</v>
+      </c>
+      <c r="G7">
+        <v>0.42383104014495199</v>
+      </c>
+      <c r="H7">
+        <v>0.40140357876508798</v>
+      </c>
+      <c r="I7">
+        <v>0.37150826782211299</v>
+      </c>
+      <c r="J7">
+        <v>0.366924191622364</v>
+      </c>
+      <c r="K7">
+        <v>0.45216179243858101</v>
+      </c>
+      <c r="L7">
+        <v>0.38439710701303598</v>
+      </c>
+      <c r="M7">
+        <v>0.37356210863148598</v>
+      </c>
+      <c r="N7">
+        <v>0.36219156159260901</v>
+      </c>
+      <c r="O7">
+        <v>0.37224170236204202</v>
+      </c>
+      <c r="P7">
+        <v>0.37048104863781101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.34511178447265756</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.3806185462386627</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.41103897081017149</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.43371281901187769</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.42531898956091602</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.43083802484432682</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.41552994364862306</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.41754400713117024</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.50619635719858314</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.48694904040850029</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.46402678435875672</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.4552582499257446</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.48179299573549722</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.43685636872740236</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.38144497771153996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7">
+        <f>AVERAGE(B2:B7)</f>
+        <v>0.32594499999567622</v>
+      </c>
+      <c r="C9" s="7">
+        <f>AVERAGE(C2:C7)</f>
+        <v>0.35143877877103852</v>
+      </c>
+      <c r="D9" s="7">
+        <f>AVERAGE(D2:D7)</f>
+        <v>0.35120281291420835</v>
+      </c>
+      <c r="E9" s="7">
+        <f>AVERAGE(E2:E7)</f>
+        <v>0.36895664415873952</v>
+      </c>
+      <c r="F9" s="7">
+        <f>AVERAGE(F2:F7)</f>
+        <v>0.39689434535875595</v>
+      </c>
+      <c r="G9" s="7">
+        <f>AVERAGE(G2:G7)</f>
+        <v>0.41366301418023038</v>
+      </c>
+      <c r="H9" s="7">
+        <f>AVERAGE(H2:H7)</f>
+        <v>0.39746141539531976</v>
+      </c>
+      <c r="I9" s="7">
+        <f>AVERAGE(I2:I7)</f>
+        <v>0.42477478920818251</v>
+      </c>
+      <c r="J9" s="7">
+        <f>AVERAGE(J2:J7)</f>
+        <v>0.44374391276800607</v>
+      </c>
+      <c r="K9" s="7">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.47388828753751538</v>
+      </c>
+      <c r="L9" s="7">
+        <f>AVERAGE(L2:L7)</f>
+        <v>0.43748421728572667</v>
+      </c>
+      <c r="M9" s="7">
+        <f>AVERAGE(M2:M7)</f>
+        <v>0.39875294058662192</v>
+      </c>
+      <c r="N9" s="7">
+        <f>AVERAGE(N2:N7)</f>
+        <v>0.40952961315098441</v>
+      </c>
+      <c r="O9" s="7">
+        <f>AVERAGE(O2:O7)</f>
+        <v>0.37624113862310482</v>
+      </c>
+      <c r="P9" s="7">
+        <f>AVERAGE(P2:P7)</f>
+        <v>0.37294226711854583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.31554925485511726</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.29960094437363999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.34533971151117626</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.37939076488360801</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.38460490338915471</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.42224404488315048</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.3882453062350395</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.37825564689420477</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.413026853757822</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.38877422213275975</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.42755868150278054</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.39962129403721974</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.37511780805924322</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.37115198926916149</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.35377106704536349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41910,67 +46315,67 @@
         <v>0.38495326479471698</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <f>AVERAGE(B2:B5)</f>
         <v>0.31554925485511726</v>
       </c>
-      <c r="C6" s="9">
-        <f t="shared" ref="C6:P6" si="0">AVERAGE(C2:C5)</f>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:P8" si="0">AVERAGE(C2:C5)</f>
         <v>0.29960094437363999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.34533971151117626</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>0.37939076488360801</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.38460490338915471</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0.42224404488315048</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>0.3882453062350395</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>0.37825564689420477</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>0.413026853757822</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>0.38877422213275975</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <f t="shared" si="0"/>
         <v>0.42755868150278054</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <f t="shared" si="0"/>
         <v>0.39962129403721974</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <f t="shared" si="0"/>
         <v>0.37511780805924322</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="6">
         <f t="shared" si="0"/>
         <v>0.37115198926916149</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
         <v>0.35377106704536349</v>
       </c>
@@ -41982,7 +46387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE4E835-AB81-464D-B44F-2B6F511EEA8B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -42251,11 +46656,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -42667,599 +47072,6 @@
   <autoFilter ref="A1:D14" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
       <sortCondition ref="A1:A14"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <f>(D2-B2)*24</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="F2">
-        <f>(C2-G2)*24</f>
-        <v>1.3999999999999977</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.69166666666666676</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2-D2</f>
-        <v>0.19166666666666676</v>
-      </c>
-      <c r="K2" s="6">
-        <f>G2</f>
-        <v>0.69166666666666676</v>
-      </c>
-      <c r="L2">
-        <f>K2*24</f>
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43351</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E3">
-        <f>(D3-B3)*24</f>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="F3">
-        <f>(C3-G3)*24</f>
-        <v>1.3000000000000007</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.77916666666666667</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H14" si="0">G3-D3</f>
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K14" si="1">G3</f>
-        <v>0.77916666666666667</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L14" si="2">K3*24</f>
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43365</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E4">
-        <f>(D4-B4)*24</f>
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <f>(C4-G4)*24</f>
-        <v>1.1499999999999986</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.13958333333333339</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="1"/>
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>18.850000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43379</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E5">
-        <f>(D5-B5)*24</f>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f>(C5-G5)*24</f>
-        <v>2.1999999999999975</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.15833333333333344</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43386</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
-        <f>(D6-B6)*24</f>
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f>(C6-G6)*24</f>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.13750000000000007</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43407</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <f>(D7-B7)*24</f>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="F7">
-        <f>(C7-G7)*24</f>
-        <v>1.2500000000000009</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.15625</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.65625</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43428</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <f>(D8-B8)*24</f>
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <f>(C8-G8)*24</f>
-        <v>0.86666666666666892</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.67222222222222217</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.17222222222222217</v>
-      </c>
-      <c r="I8" s="3">
-        <f>AVERAGE(G2:G9)</f>
-        <v>0.70989583333333339</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.67222222222222217</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>16.133333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43715</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <f>(D9-B9)*24</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F9">
-        <f>(C9-G9)*24</f>
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.13194444444444442</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>15.166666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43729</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E10">
-        <f>(D10-B10)*24</f>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="F10">
-        <f>(C10-G10)*24</f>
-        <v>0.13333333333333286</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14027777777777772</v>
-      </c>
-      <c r="I10" s="3">
-        <f>AVERAGE(G10:G13)</f>
-        <v>0.75520833333333326</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>18.866666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43743</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="E11">
-        <f>(D11-B11)*24</f>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14722222222222225</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>23.033333333333335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43764</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E12">
-        <f>(D12-B12)*24</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F12">
-        <f>(C12-G12)*24</f>
-        <v>0.9833333333333325</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="1"/>
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>15.016666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43778</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <f>(D13-B13)*24</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F13">
-        <f>(C13-G13)*24</f>
-        <v>0.41666666666666519</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14930555555555558</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>15.583333333333334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43792</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
-        <f>(D14-B14)*24</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F14">
-        <f>(C14-G14)*24</f>
-        <v>1.5500000000000025</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14374999999999993</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>15.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15">
-        <f>AVERAGE(E2:E14)</f>
-        <v>2.2307692307692308</v>
-      </c>
-      <c r="F15">
-        <f>AVERAGE(F2:F13)</f>
-        <v>1.1121212121212116</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-      <c r="H33" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G16" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43359,6 +47171,599 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E14" si="0">(D2-B2)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F10" si="1">(C2-G2)*24</f>
+        <v>1.3999999999999977</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2-D2</f>
+        <v>0.19166666666666676</v>
+      </c>
+      <c r="K2" s="6">
+        <f>G2</f>
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="L2">
+        <f>K2*24</f>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H14" si="2">G3-D3</f>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K14" si="3">G3</f>
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="4">K3*24</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13958333333333339</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999975</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15833333333333344</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13750000000000007</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000009</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15625</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.65625</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.86666666666666892</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17222222222222217</v>
+      </c>
+      <c r="I8" s="3">
+        <f>AVERAGE(G2:G9)</f>
+        <v>0.70989583333333339</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>16.133333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14027777777777772</v>
+      </c>
+      <c r="I10" s="3">
+        <f>AVERAGE(G10:G13)</f>
+        <v>0.75520833333333326</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>18.866666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14722222222222225</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>23.033333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F12">
+        <f>(C12-G12)*24</f>
+        <v>0.9833333333333325</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>15.016666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F13">
+        <f>(C13-G13)*24</f>
+        <v>0.41666666666666519</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14930555555555558</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>15.583333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F14">
+        <f>(C14-G14)*24</f>
+        <v>1.5500000000000025</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14374999999999993</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15">
+        <f>AVERAGE(E2:E14)</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(F2:F13)</f>
+        <v>1.1121212121212116</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="H33" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+      <sortCondition ref="A1:A16"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E2D5A6-3578-49B2-B0F5-76ACC8CA4FB7}">
   <dimension ref="A1:E91"/>
   <sheetViews>
@@ -44910,7 +49315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294AE5AB-1A1A-4C2E-891C-39FC14D86229}">
   <dimension ref="A1:J152"/>
   <sheetViews>
@@ -50410,7 +54815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A53832-EB85-4247-A83F-14BC562BBF70}">
   <dimension ref="A1:C210"/>
   <sheetViews>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB1BAE-FD45-4DA9-B214-EC33C7A2BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4A3D9-0BC8-4B7F-89D5-0C2328A5206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>Home Game Days</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\three_days.tif</t>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\7pm.tif</t>
   </si>
 </sst>
 </file>
@@ -4621,7 +4621,7 @@
           <c:x val="8.6320816687098081E-2"/>
           <c:y val="4.4414556288572035E-2"/>
           <c:w val="0.89591217680931268"/>
-          <c:h val="0.65656011917429224"/>
+          <c:h val="0.76466822728240047"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4755,8 +4755,212 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game Start Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C23-49B3-9843-C3FD75332B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game End Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.033333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.016666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-910D-4EE2-8393-38B428EC0D7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>peak_number!$C$1</c:f>
@@ -4874,132 +5078,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1C23-49B3-9843-C3FD75332B0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_number!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Game Start Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43743</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_number!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C23-49B3-9843-C3FD75332B0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5052,8 +5130,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.89407888118476564"/>
-              <c:y val="0.69674398808257076"/>
+              <c:x val="0.89407885045404933"/>
+              <c:y val="0.90214939348797618"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -25723,7 +25801,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Game Start: 3:30 / 4:00 pm</a:t>
+              <a:t>Game Start: 15:30 / 16:00</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26276,14 +26354,6 @@
             <a:r>
               <a:rPr lang="en-US" b="1"/>
               <a:t>Game Start: 12:00</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>pm</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26798,13 +26868,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Game Start: 7:30</a:t>
+              <a:t>Game Start: 19:30</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> pm</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -39073,16 +39138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1433510</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>433385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>147635</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>576260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43126,8 +43191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P21"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45526,7 +45591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05EBA4F-6466-4CB8-A00A-33172ED87E46}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
@@ -45937,63 +46002,63 @@
         <v>29</v>
       </c>
       <c r="B9" s="7">
-        <f>AVERAGE(B2:B7)</f>
+        <f t="shared" ref="B9:P9" si="0">AVERAGE(B2:B7)</f>
         <v>0.32594499999567622</v>
       </c>
       <c r="C9" s="7">
-        <f>AVERAGE(C2:C7)</f>
+        <f t="shared" si="0"/>
         <v>0.35143877877103852</v>
       </c>
       <c r="D9" s="7">
-        <f>AVERAGE(D2:D7)</f>
+        <f t="shared" si="0"/>
         <v>0.35120281291420835</v>
       </c>
       <c r="E9" s="7">
-        <f>AVERAGE(E2:E7)</f>
+        <f t="shared" si="0"/>
         <v>0.36895664415873952</v>
       </c>
       <c r="F9" s="7">
-        <f>AVERAGE(F2:F7)</f>
+        <f t="shared" si="0"/>
         <v>0.39689434535875595</v>
       </c>
       <c r="G9" s="7">
-        <f>AVERAGE(G2:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.41366301418023038</v>
       </c>
       <c r="H9" s="7">
-        <f>AVERAGE(H2:H7)</f>
+        <f t="shared" si="0"/>
         <v>0.39746141539531976</v>
       </c>
       <c r="I9" s="7">
-        <f>AVERAGE(I2:I7)</f>
+        <f t="shared" si="0"/>
         <v>0.42477478920818251</v>
       </c>
       <c r="J9" s="7">
-        <f>AVERAGE(J2:J7)</f>
+        <f t="shared" si="0"/>
         <v>0.44374391276800607</v>
       </c>
       <c r="K9" s="7">
-        <f>AVERAGE(K2:K7)</f>
+        <f t="shared" si="0"/>
         <v>0.47388828753751538</v>
       </c>
       <c r="L9" s="7">
-        <f>AVERAGE(L2:L7)</f>
+        <f t="shared" si="0"/>
         <v>0.43748421728572667</v>
       </c>
       <c r="M9" s="7">
-        <f>AVERAGE(M2:M7)</f>
+        <f t="shared" si="0"/>
         <v>0.39875294058662192</v>
       </c>
       <c r="N9" s="7">
-        <f>AVERAGE(N2:N7)</f>
+        <f t="shared" si="0"/>
         <v>0.40952961315098441</v>
       </c>
       <c r="O9" s="7">
-        <f>AVERAGE(O2:O7)</f>
+        <f t="shared" si="0"/>
         <v>0.37624113862310482</v>
       </c>
       <c r="P9" s="7">
-        <f>AVERAGE(P2:P7)</f>
+        <f t="shared" si="0"/>
         <v>0.37294226711854583</v>
       </c>
     </row>
@@ -46057,7 +46122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
@@ -46324,7 +46389,7 @@
         <v>0.31554925485511726</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" ref="C6:P8" si="0">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C6:P6" si="0">AVERAGE(C2:C5)</f>
         <v>0.29960094437363999</v>
       </c>
       <c r="D6" s="6">

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OSU\academic\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4A3D9-0BC8-4B7F-89D5-0C2328A5206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB1F97-4E38-4420-9C41-4D4410A11563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,13 @@
     <sheet name="reliab_covid" sheetId="28" r:id="rId22"/>
     <sheet name="Sheet6" sheetId="27" r:id="rId23"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">peak_hour!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">peak_number!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">peak_number!$J$1:$L$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Sheet8!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>football</t>
   </si>
@@ -170,13 +174,24 @@
   <si>
     <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\7pm.tif</t>
   </si>
+  <si>
+    <t>Before-game Gap</t>
+  </si>
+  <si>
+    <t>Game Duration</t>
+  </si>
+  <si>
+    <t>After-game Gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -207,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,6 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3807,7 +3824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$B$1</c:f>
+              <c:f>peak_number!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3830,7 +3847,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:f>peak_number!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3878,7 +3895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$B$2:$B$14</c:f>
+              <c:f>peak_number!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3936,7 +3953,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$C$1</c:f>
+              <c:f>peak_number!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3959,7 +3976,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:f>peak_number!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4007,7 +4024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$C$2:$C$14</c:f>
+              <c:f>peak_number!$N$2:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4062,7 +4079,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$D$1</c:f>
+              <c:f>peak_number!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4085,7 +4102,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:f>peak_number!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4133,7 +4150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$D$2:$D$14</c:f>
+              <c:f>peak_number!$L$2:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4191,7 +4208,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$G$1</c:f>
+              <c:f>peak_number!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4214,7 +4231,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$G$2:$G$14</c:f>
+              <c:f>peak_number!$M$2:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4633,7 +4650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$B$1</c:f>
+              <c:f>peak_number!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4654,7 +4671,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:f>peak_number!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4702,7 +4719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$B$2:$B$14</c:f>
+              <c:f>peak_number!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4759,7 +4776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$D$1</c:f>
+              <c:f>peak_number!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4780,7 +4797,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:f>peak_number!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4828,7 +4845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$D$2:$D$14</c:f>
+              <c:f>peak_number!$L$2:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4885,7 +4902,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$G$1</c:f>
+              <c:f>peak_number!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4906,7 +4923,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$G$2:$G$14</c:f>
+              <c:f>peak_number!$M$2:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4963,7 +4980,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_number!$C$1</c:f>
+              <c:f>peak_number!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4984,7 +5001,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:f>peak_number!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5032,7 +5049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_number!$C$2:$C$14</c:f>
+              <c:f>peak_number!$N$2:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5427,6 +5444,859 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.647797059348164E-2"/>
+          <c:y val="3.3051862081198015E-2"/>
+          <c:w val="0.89572267665570926"/>
+          <c:h val="0.7270018138319998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6225-4A41-876D-92769C5BB3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before-game Gap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6225-4A41-876D-92769C5BB3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.533333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4499999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6225-4A41-876D-92769C5BB3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_number!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After-game Gap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_number!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_number!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86666666666666714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83333333333333393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13333333333333286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98333333333333428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41666666666666607</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5500000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6225-4A41-876D-92769C5BB3A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1945687648"/>
+        <c:axId val="1945685984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1945687648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91325917998114303"/>
+              <c:y val="0.68986323411102168"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945685984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1945685984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945687648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
@@ -5437,7 +6307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_hour!$E$1</c:f>
+              <c:f>peak_hour!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5506,7 +6376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_hour!$E$2:$E$14</c:f>
+              <c:f>peak_hour!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5563,7 +6433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_hour!$F$1</c:f>
+              <c:f>peak_hour!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5632,7 +6502,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_hour!$F$2:$F$14</c:f>
+              <c:f>peak_hour!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5938,7 +6808,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6102,7 +6972,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_hour!$C$1</c:f>
+              <c:f>peak_hour!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6173,7 +7043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_hour!$C$2:$C$14</c:f>
+              <c:f>peak_hour!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6228,11 +7098,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>peak_hour!$D$1</c:f>
+              <c:f>peak_hour!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Game Time</c:v>
+                  <c:v>Game Start Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6299,7 +7169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>peak_hour!$D$2:$D$14</c:f>
+              <c:f>peak_hour!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6680,7 +7550,1497 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before-game Peak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$B$18:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game Start Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$C$18:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333315E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3333333333333315E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game End Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$D$18:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.19166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13958333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15833333333333344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17222222222222217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14027777777777772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14930555555555558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14374999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After-game Peak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$E$18:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.8333333333333237E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4166666666666696E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7916666666666607E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1666666666666563E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0833333333333304E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.208333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6111111111111205E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.472222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5555555555555358E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0972222222222188E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7361111111111049E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4583333333333437E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1945687648"/>
+        <c:axId val="1945685984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1945687648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945685984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1945685984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.33333333333333331"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945687648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.16666666700000002"/>
+        <c:minorUnit val="4.1666667000000018E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>7.8387697671706003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9489350143824941E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5378524303770402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4181771307869644E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0233274464476361E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1920020971769638E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.13952785163585E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2984007255188557E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.669524947881031E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.2798733802412188E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.3219281066108661E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4580794205028502E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4293919548568139E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3022437505511602E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9067023285232465E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1805854361168837E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3994530774132097E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4073081133754328E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1491159705568688E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0394351451939898E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0618301658366969E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1091673033817584E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0528687326389452E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-6.4476776203085812E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6231754967670495E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2299561060331059E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6890910907843586E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9851388401699976E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9991510038933245E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3386317240944152E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9910683052668585E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3984312501153349E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8347251510620721E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0157202958390963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5146109707401656E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0884930076789201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0519479215331251E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.434205923338209E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0013164561400481E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0215525674903914E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6251128449017491E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1558024163389495E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1075970446122758E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.8591509218048934E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2965913069650864E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.5153109226237749E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-2.1129368620896871E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6911297674326926E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6849155442874029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7541897066203995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4753901740813127E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0714140154615894E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6380751059863463E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9609741973421799E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8628226394976861E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.616503329444942E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10108524840543764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5263123330311006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2608117803760159E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8857559319311996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2710397952802994E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3929713170720557E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7718606471242337E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9071161185335175E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1183055893143157E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1450332385680928E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1910026687987452E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1417172342984439E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0939058130464796E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27DD-4959-AAB7-B377C4DBC6FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1065174927"/>
+        <c:axId val="1534988863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1065174927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534988863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1534988863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065174927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7550,7 +9910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10742,796 +13102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$10:$X$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>7.8387697671706003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9489350143824941E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5378524303770402E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4181771307869644E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0233274464476361E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1920020971769638E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.13952785163585E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2984007255188557E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.669524947881031E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.2798733802412188E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9.3219281066108661E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.4580794205028502E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.4293919548568139E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.3022437505511602E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9067023285232465E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.1805854361168837E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3994530774132097E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4073081133754328E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1491159705568688E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0394351451939898E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0618301658366969E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1091673033817584E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0528687326389452E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$11:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-6.4476776203085812E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.6231754967670495E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2299561060331059E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6890910907843586E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9851388401699976E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9991510038933245E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3386317240944152E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9910683052668585E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3984312501153349E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8347251510620721E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0157202958390963E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5146109707401656E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0884930076789201E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0519479215331251E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.434205923338209E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0013164561400481E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0215525674903914E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6251128449017491E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1558024163389495E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1075970446122758E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-9.8591509218048934E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.2965913069650864E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.5153109226237749E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$B$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$12:$X$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-2.1129368620896871E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6911297674326926E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6849155442874029E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7541897066203995E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4753901740813127E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0714140154615894E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6380751059863463E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9609741973421799E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8628226394976861E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.616503329444942E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10108524840543764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5263123330311006E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2608117803760159E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.8857559319311996E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2710397952802994E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3929713170720557E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.7718606471242337E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9071161185335175E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.1183055893143157E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.1450332385680928E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.1910026687987452E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.1417172342984439E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.0939058130464796E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27DD-4959-AAB7-B377C4DBC6FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1065174927"/>
-        <c:axId val="1534988863"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1065174927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1534988863"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1534988863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1065174927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13761,7 +15332,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -27829,6 +29400,86 @@
 </file>
 
 <file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -31245,7 +32896,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -31353,11 +33004,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -31368,11 +33014,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -31404,9 +33045,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -31462,22 +33100,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -31582,8 +33221,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -31715,19 +33354,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -32793,7 +34433,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -32901,11 +34541,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -32916,11 +34551,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -32952,9 +34582,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -33010,22 +34637,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -33130,8 +34758,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -33263,19 +34891,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -34341,6 +35970,1038 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -39138,13 +41799,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>433385</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>576260</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
@@ -39174,16 +41835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>61914</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39210,6 +41871,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFEB750-1E05-483E-8DE3-3F758A1C6101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -39217,15 +41916,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -39287,7 +41986,322 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>379095</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2271D67-8A89-4B15-AE64-90DCC62FE390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="K1" t="str">
+            <v>Before game peak</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Game start</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>Game start</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>Game end</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>Game end</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>After game peak</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="J2">
+            <v>1</v>
+          </cell>
+          <cell r="K2">
+            <v>0.45833333333333331</v>
+          </cell>
+          <cell r="L2">
+            <v>3.4722222222222265E-2</v>
+          </cell>
+          <cell r="M2">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N2">
+            <v>0.125</v>
+          </cell>
+          <cell r="O2">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="P2">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>2</v>
+          </cell>
+          <cell r="K3">
+            <v>0.60416666666666663</v>
+          </cell>
+          <cell r="L3">
+            <v>3.4722222222222321E-2</v>
+          </cell>
+          <cell r="M3">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N3">
+            <v>0.14583333333333326</v>
+          </cell>
+          <cell r="O3">
+            <v>6.9444444444445308E-3</v>
+          </cell>
+          <cell r="P3">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>3</v>
+          </cell>
+          <cell r="K4">
+            <v>0.60416666666666663</v>
+          </cell>
+          <cell r="L4">
+            <v>3.4722222222222321E-2</v>
+          </cell>
+          <cell r="M4">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N4">
+            <v>0.14583333333333326</v>
+          </cell>
+          <cell r="O4">
+            <v>6.9444444444445308E-3</v>
+          </cell>
+          <cell r="P4">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>4</v>
+          </cell>
+          <cell r="K5">
+            <v>0.60416666666666663</v>
+          </cell>
+          <cell r="L5">
+            <v>4.5138888888888951E-2</v>
+          </cell>
+          <cell r="M5">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N5">
+            <v>0.13541666666666663</v>
+          </cell>
+          <cell r="O5">
+            <v>6.9444444444445308E-3</v>
+          </cell>
+          <cell r="P5">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>5</v>
+          </cell>
+          <cell r="K6">
+            <v>0.45833333333333331</v>
+          </cell>
+          <cell r="L6">
+            <v>3.4722222222222265E-2</v>
+          </cell>
+          <cell r="M6">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N6">
+            <v>0.125</v>
+          </cell>
+          <cell r="O6">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="P6">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>6</v>
+          </cell>
+          <cell r="K7">
+            <v>0.45833333333333331</v>
+          </cell>
+          <cell r="L7">
+            <v>3.4722222222222265E-2</v>
+          </cell>
+          <cell r="M7">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N7">
+            <v>0.125</v>
+          </cell>
+          <cell r="O7">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="P7">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>7</v>
+          </cell>
+          <cell r="K8">
+            <v>0.45833333333333331</v>
+          </cell>
+          <cell r="L8">
+            <v>3.4722222222222265E-2</v>
+          </cell>
+          <cell r="M8">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N8">
+            <v>0.125</v>
+          </cell>
+          <cell r="O8">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="P8">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>8</v>
+          </cell>
+          <cell r="K9">
+            <v>0.75</v>
+          </cell>
+          <cell r="L9">
+            <v>3.472222222222221E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N9">
+            <v>0.125</v>
+          </cell>
+          <cell r="O9">
+            <v>6.9444444444445308E-3</v>
+          </cell>
+          <cell r="P9">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>9</v>
+          </cell>
+          <cell r="K10">
+            <v>0.45833333333333331</v>
+          </cell>
+          <cell r="L10">
+            <v>3.4722222222222265E-2</v>
+          </cell>
+          <cell r="M10">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N10">
+            <v>0.125</v>
+          </cell>
+          <cell r="O10">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="P10">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>10</v>
+          </cell>
+          <cell r="K11">
+            <v>0.45833333333333331</v>
+          </cell>
+          <cell r="L11">
+            <v>3.4722222222222265E-2</v>
+          </cell>
+          <cell r="M11">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="N11">
+            <v>0.125</v>
+          </cell>
+          <cell r="O11">
+            <v>6.9444444444444198E-3</v>
+          </cell>
+          <cell r="P11">
+            <v>3.472222222222221E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46122,7 +49136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1172EF6C-D4A3-4EB6-8D73-298C079FEF54}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
@@ -46723,422 +49737,685 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43344</v>
       </c>
       <c r="B2">
+        <f>K2</f>
         <v>10</v>
       </c>
       <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="6">
+        <f>L2-K2</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>M2-L2</f>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="F2">
+        <f>N2-M2</f>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43344</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N2">
         <v>18</v>
       </c>
-      <c r="D2" s="6">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <f>D2-B2</f>
+      <c r="O2">
+        <f>L2-K2</f>
         <v>2</v>
       </c>
-      <c r="F2">
-        <f>C2-D2</f>
+      <c r="P2">
+        <f>N2-L2</f>
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43351</v>
       </c>
       <c r="B3">
+        <f>K3</f>
         <v>14</v>
       </c>
       <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="6">
+        <f>L3-K3</f>
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <f>M3-L3</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="F3">
+        <f>N3-M3</f>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43351</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="M3">
+        <v>18.7</v>
+      </c>
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="D3" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E14" si="0">D3-B3</f>
+      <c r="O3">
+        <f>L3-K3</f>
         <v>1.5</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">C3-D3</f>
+      <c r="P3">
+        <f>N3-L3</f>
         <v>4.5</v>
       </c>
-      <c r="G3">
-        <v>18.7</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="O3">
-        <f>N3*24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43365</v>
       </c>
       <c r="B4">
+        <f>K4</f>
         <v>12</v>
       </c>
       <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="6">
+        <f>L4-K4</f>
+        <v>3.5</v>
+      </c>
+      <c r="E4">
+        <f>M4-L4</f>
+        <v>3.3500000000000014</v>
+      </c>
+      <c r="F4">
+        <f>N4-M4</f>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43365</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="M4">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="D4" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="O4">
+        <f>L4-K4</f>
         <v>3.5</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="P4">
+        <f>N4-L4</f>
         <v>4.5</v>
       </c>
-      <c r="G4">
-        <v>18.850000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43379</v>
       </c>
       <c r="B5">
+        <f>K5</f>
         <v>13</v>
       </c>
       <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="6">
+        <f>L5-K5</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>M5-L5</f>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="F5">
+        <f>N5-M5</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43379</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>19.8</v>
+      </c>
+      <c r="N5">
         <v>22</v>
       </c>
-      <c r="D5" s="6">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="O5">
+        <f>L5-K5</f>
         <v>3</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="P5">
+        <f>N5-L5</f>
         <v>6</v>
       </c>
-      <c r="G5">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43386</v>
       </c>
       <c r="B6">
+        <f>K6</f>
         <v>9</v>
       </c>
       <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="6">
+        <f>L6-K6</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>M6-L6</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="F6">
+        <f>N6-M6</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43386</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>15.3</v>
+      </c>
+      <c r="N6">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="O6">
+        <f>L6-K6</f>
         <v>3</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+      <c r="P6">
+        <f>N6-L6</f>
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43407</v>
       </c>
       <c r="B7">
+        <f>K7</f>
         <v>10</v>
       </c>
       <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="6">
+        <f>L7-K7</f>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>M7-L7</f>
+        <v>3.75</v>
+      </c>
+      <c r="F7">
+        <f>N7-M7</f>
+        <v>1.25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43407</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>15.75</v>
+      </c>
+      <c r="N7">
         <v>17</v>
       </c>
-      <c r="D7" s="6">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="O7">
+        <f>L7-K7</f>
         <v>2</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="P7">
+        <f>N7-L7</f>
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>15.75</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43428</v>
       </c>
       <c r="B8">
+        <f>K8</f>
         <v>9</v>
       </c>
       <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="6">
+        <f>L8-K8</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f>M8-L8</f>
+        <v>4.1333333333333329</v>
+      </c>
+      <c r="F8">
+        <f>N8-M8</f>
+        <v>0.86666666666666714</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43428</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>16.133333333333333</v>
+      </c>
+      <c r="N8">
         <v>17</v>
       </c>
-      <c r="D8" s="6">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="O8">
+        <f>L8-K8</f>
         <v>3</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
+      <c r="P8">
+        <f>N8-L8</f>
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>16.133333333333333</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43715</v>
       </c>
       <c r="B9">
+        <f>K9</f>
         <v>11</v>
       </c>
       <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="6">
+        <f>L9-K9</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>M9-L9</f>
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="F9">
+        <f>N9-M9</f>
+        <v>0.83333333333333393</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43715</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>15.166666666666666</v>
+      </c>
+      <c r="N9">
         <v>16</v>
       </c>
-      <c r="D9" s="6">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="O9">
+        <f>L9-K9</f>
         <v>1</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
+      <c r="P9">
+        <f>N9-L9</f>
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>15.166666666666666</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43729</v>
       </c>
       <c r="B10">
+        <f>K10</f>
         <v>12</v>
       </c>
       <c r="C10">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="6">
+        <f>L10-K10</f>
+        <v>3.5</v>
+      </c>
+      <c r="E10">
+        <f>M10-L10</f>
+        <v>3.3666666666666671</v>
+      </c>
+      <c r="F10">
+        <f>N10-M10</f>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43729</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="M10">
+        <v>18.866666666666667</v>
+      </c>
+      <c r="N10">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="O10">
+        <f>L10-K10</f>
         <v>3.5</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
+      <c r="P10">
+        <f>N10-L10</f>
         <v>3.5</v>
       </c>
-      <c r="G10">
-        <v>18.866666666666667</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43743</v>
       </c>
       <c r="B11">
+        <f>K11</f>
         <v>16</v>
       </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
       <c r="D11" s="6">
+        <f>L11-K11</f>
+        <v>3.5</v>
+      </c>
+      <c r="E11">
+        <f>M11-L11</f>
+        <v>3.533333333333335</v>
+      </c>
+      <c r="J11" s="1">
+        <v>43743</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6">
         <v>19.5</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="M11">
+        <v>23.033333333333335</v>
+      </c>
+      <c r="O11">
+        <f>L11-K11</f>
         <v>3.5</v>
       </c>
-      <c r="G11">
-        <v>23.033333333333335</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43764</v>
       </c>
       <c r="B12">
+        <f>K12</f>
         <v>11</v>
       </c>
       <c r="C12">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="6">
+        <f>L12-K12</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>M12-L12</f>
+        <v>3.0166666666666657</v>
+      </c>
+      <c r="F12">
+        <f>N12-M12</f>
+        <v>0.98333333333333428</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43764</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>15.016666666666666</v>
+      </c>
+      <c r="N12">
         <v>16</v>
       </c>
-      <c r="D12" s="6">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="O12">
+        <f>L12-K12</f>
         <v>1</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
+      <c r="P12">
+        <f>N12-L12</f>
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>15.016666666666666</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43778</v>
       </c>
       <c r="B13">
+        <f>K13</f>
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="6">
+        <f>L13-K13</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>M13-L13</f>
+        <v>3.5833333333333339</v>
+      </c>
+      <c r="F13">
+        <f>N13-M13</f>
+        <v>0.41666666666666607</v>
+      </c>
+      <c r="J13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13" s="6">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>15.583333333333334</v>
+      </c>
+      <c r="N13">
         <v>16</v>
       </c>
-      <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="O13">
+        <f>L13-K13</f>
         <v>1</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="P13">
+        <f>N13-L13</f>
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>15.583333333333334</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43792</v>
       </c>
       <c r="B14">
+        <f>K14</f>
         <v>11</v>
       </c>
       <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="6">
+        <f>L14-K14</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>M14-L14</f>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="F14">
+        <f>N14-M14</f>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43792</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14" s="6">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>15.45</v>
+      </c>
+      <c r="N14">
         <v>17</v>
       </c>
-      <c r="D14" s="6">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="O14">
+        <f>L14-K14</f>
         <v>1</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
+      <c r="P14">
+        <f>N14-L14</f>
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>15.45</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <f>AVERAGE(E2:E14)</f>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="6"/>
+      <c r="N15">
+        <f>AVERAGE(O2:O14)</f>
         <v>2.2307692307692308</v>
       </c>
-      <c r="F15">
-        <f>AVERAGE(F2:F14)</f>
+      <c r="O15">
+        <f>AVERAGE(P2:P14)</f>
         <v>4.708333333333333</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="1"/>
-      <c r="L19" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="6"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="M19" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D14" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-      <sortCondition ref="A1:A14"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -47240,7 +50517,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L14"/>
+      <selection activeCell="B18" sqref="B18:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47255,20 +50532,20 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -47279,28 +50556,28 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="E2" s="3">
         <v>0.75</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E14" si="0">(D2-B2)*24</f>
+      <c r="F2">
+        <f>(C2-B2)*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F10" si="1">(C2-G2)*24</f>
+      <c r="G2">
+        <f>(E2-D2)*24</f>
         <v>1.3999999999999977</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.69166666666666676</v>
-      </c>
       <c r="H2" s="3">
-        <f>G2-D2</f>
+        <f>D2-C2</f>
         <v>0.19166666666666676</v>
       </c>
       <c r="K2" s="6">
-        <f>G2</f>
+        <f>D2</f>
         <v>0.69166666666666676</v>
       </c>
       <c r="L2">
@@ -47316,32 +50593,32 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
+      <c r="F3">
+        <f>(C3-B3)*24</f>
         <v>3.5000000000000009</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
+      <c r="G3">
+        <f>(E3-D3)*24</f>
         <v>1.3000000000000007</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
+        <f>D3-C3</f>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K3" s="6">
+        <f>D3</f>
         <v>0.77916666666666667</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H14" si="2">G3-D3</f>
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K14" si="3">G3</f>
-        <v>0.77916666666666667</v>
-      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L14" si="4">K3*24</f>
+        <f t="shared" ref="L3:L14" si="0">K3*24</f>
         <v>18.7</v>
       </c>
     </row>
@@ -47353,32 +50630,32 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C4" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <f>(C4-B4)*24</f>
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <f>(E4-D4)*24</f>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4-C4</f>
+        <v>0.13958333333333339</v>
+      </c>
+      <c r="K4" s="6">
+        <f>D4</f>
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999986</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.13958333333333339</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="3"/>
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
         <v>18.850000000000001</v>
       </c>
     </row>
@@ -47390,32 +50667,32 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C5" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
+        <f>(C5-B5)*24</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>(E5-D5)*24</f>
+        <v>2.1999999999999975</v>
+      </c>
+      <c r="H5" s="3">
+        <f>D5-C5</f>
+        <v>0.15833333333333344</v>
+      </c>
+      <c r="K5" s="6">
+        <f>D5</f>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999975</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.15833333333333344</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="3"/>
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
     </row>
@@ -47427,32 +50704,32 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <f>(C6-B6)*24</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>(E6-D6)*24</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="H6" s="3">
+        <f>D6-C6</f>
+        <v>0.13750000000000007</v>
+      </c>
+      <c r="K6" s="6">
+        <f>D6</f>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.13750000000000007</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="3"/>
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
         <v>15.3</v>
       </c>
     </row>
@@ -47464,32 +50741,32 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <f>(C7-B7)*24</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="G7">
+        <f>(E7-D7)*24</f>
+        <v>1.2500000000000009</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7-C7</f>
+        <v>0.15625</v>
+      </c>
+      <c r="K7" s="6">
+        <f>D7</f>
+        <v>0.65625</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000009</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.15625</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="3"/>
-        <v>0.65625</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
         <v>15.75</v>
       </c>
     </row>
@@ -47501,36 +50778,36 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <f>(C8-B8)*24</f>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>(E8-D8)*24</f>
+        <v>0.86666666666666892</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8-C8</f>
+        <v>0.17222222222222217</v>
+      </c>
+      <c r="I8" s="3">
+        <f>AVERAGE(D2:D9)</f>
+        <v>0.70989583333333339</v>
+      </c>
+      <c r="K8" s="6">
+        <f>D8</f>
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.86666666666666892</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.67222222222222217</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.17222222222222217</v>
-      </c>
-      <c r="I8" s="3">
-        <f>AVERAGE(G2:G9)</f>
-        <v>0.70989583333333339</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="3"/>
-        <v>0.67222222222222217</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
         <v>16.133333333333333</v>
       </c>
     </row>
@@ -47542,32 +50819,32 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <f>(C9-B9)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G9">
+        <f>(E9-D9)*24</f>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H9" s="3">
+        <f>D9-C9</f>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="K9" s="6">
+        <f>D9</f>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.13194444444444442</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="3"/>
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
         <v>15.166666666666666</v>
       </c>
     </row>
@@ -47579,36 +50856,36 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
+        <f>(C10-B10)*24</f>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="G10">
+        <f>(E10-D10)*24</f>
+        <v>0.13333333333333286</v>
+      </c>
+      <c r="H10" s="3">
+        <f>D10-C10</f>
+        <v>0.14027777777777772</v>
+      </c>
+      <c r="I10" s="3">
+        <f>AVERAGE(D10:D13)</f>
+        <v>0.75520833333333326</v>
+      </c>
+      <c r="K10" s="6">
+        <f>D10</f>
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333286</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.14027777777777772</v>
-      </c>
-      <c r="I10" s="3">
-        <f>AVERAGE(G10:G13)</f>
-        <v>0.75520833333333326</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="3"/>
-        <v>0.78611111111111109</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
         <v>18.866666666666667</v>
       </c>
     </row>
@@ -47619,26 +50896,26 @@
       <c r="B11" s="3">
         <v>0.66666666666666663</v>
       </c>
+      <c r="C11" s="3">
+        <v>0.8125</v>
+      </c>
       <c r="D11" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="E11">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="F11">
+        <f>(C11-B11)*24</f>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11-C11</f>
+        <v>0.14722222222222225</v>
+      </c>
+      <c r="K11" s="6">
+        <f>D11</f>
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.14722222222222225</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="3"/>
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
         <v>23.033333333333335</v>
       </c>
     </row>
@@ -47650,32 +50927,32 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
+        <f>(C12-B12)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G12">
+        <f>(E12-D12)*24</f>
+        <v>0.9833333333333325</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D12-C12</f>
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="K12" s="6">
+        <f>D12</f>
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F12">
-        <f>(C12-G12)*24</f>
-        <v>0.9833333333333325</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="3"/>
-        <v>0.62569444444444444</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
         <v>15.016666666666666</v>
       </c>
     </row>
@@ -47687,32 +50964,32 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
+        <f>(C13-B13)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G13">
+        <f>(E13-D13)*24</f>
+        <v>0.41666666666666519</v>
+      </c>
+      <c r="H13" s="3">
+        <f>D13-C13</f>
+        <v>0.14930555555555558</v>
+      </c>
+      <c r="K13" s="6">
+        <f>D13</f>
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F13">
-        <f>(C13-G13)*24</f>
-        <v>0.41666666666666519</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.14930555555555558</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
         <v>15.583333333333334</v>
       </c>
     </row>
@@ -47724,91 +51001,367 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
+        <f>(C14-B14)*24</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G14">
+        <f>(E14-D14)*24</f>
+        <v>1.5500000000000025</v>
+      </c>
+      <c r="H14" s="3">
+        <f>D14-C14</f>
+        <v>0.14374999999999993</v>
+      </c>
+      <c r="K14" s="6">
+        <f>D14</f>
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F14">
-        <f>(C14-G14)*24</f>
-        <v>1.5500000000000025</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.14374999999999993</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="3"/>
-        <v>0.64374999999999993</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
         <v>15.45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15">
-        <f>AVERAGE(E2:E14)</f>
+        <f>AVERAGE(F2:F14)</f>
         <v>2.2307692307692308</v>
       </c>
       <c r="F15">
-        <f>AVERAGE(F2:F13)</f>
+        <f>AVERAGE(G2:G13)</f>
         <v>1.1121212121212116</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C2-B2</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D2-C2</f>
+        <v>0.19166666666666676</v>
+      </c>
+      <c r="E18" s="3">
+        <f>E2-D2</f>
+        <v>5.8333333333333237E-2</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" ref="B19:B30" si="1">B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:E19" si="2">C3-B3</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>5.4166666666666696E-2</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43365</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20:E20" si="3">C4-B4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13958333333333339</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7916666666666607E-2</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43379</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:E21" si="4">C5-B5</f>
+        <v>0.125</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15833333333333344</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="4"/>
+        <v>9.1666666666666563E-2</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:E22" si="5">C6-B6</f>
+        <v>0.125</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13750000000000007</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="5"/>
+        <v>7.0833333333333304E-2</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:E23" si="6">C7-B7</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:E24" si="7">C8-B8</f>
+        <v>0.125</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="7"/>
+        <v>0.17222222222222217</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="7"/>
+        <v>3.6111111111111205E-2</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:E25" si="8">C9-B9</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="8"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:E26" si="9">C10-B10</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="9"/>
+        <v>0.14027777777777772</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="9"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:E27" si="10">C11-B11</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.14722222222222225</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:E28" si="11">C12-B12</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="11"/>
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0972222222222188E-2</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29:E29" si="12">C13-B13</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="12"/>
+        <v>0.14930555555555558</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="12"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:E30" si="13">C14-B14</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="13"/>
+        <v>0.14374999999999993</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="13"/>
+        <v>6.4583333333333437E-2</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="H32" s="3"/>
     </row>
@@ -47817,11 +51370,6 @@
       <c r="H33" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-      <sortCondition ref="A1:A16"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OSU\academic\COTA-AccessibilityReliability\ana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB1F97-4E38-4420-9C41-4D4410A11563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED1241-DC83-4CB6-8F43-49B17E225ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
     <sheet name="reliab_covid" sheetId="28" r:id="rId22"/>
     <sheet name="Sheet6" sheetId="27" r:id="rId23"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">peak_hour!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">peak_number!$J$1:$L$14</definedName>
@@ -172,9 +168,6 @@
     <t>Home Game Days</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\7pm.tif</t>
-  </si>
-  <si>
     <t>Before-game Gap</t>
   </si>
   <si>
@@ -182,6 +175,9 @@
   </si>
   <si>
     <t>After-game Gap</t>
+  </si>
+  <si>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\stacked_bar_chart.tif</t>
   </si>
 </sst>
 </file>
@@ -5452,7 +5448,7 @@
           <c:x val="8.647797059348164E-2"/>
           <c:y val="3.3051862081198015E-2"/>
           <c:w val="0.89572267665570926"/>
-          <c:h val="0.7270018138319998"/>
+          <c:h val="0.69922408136482939"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6009,8 +6005,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.91325917998114303"/>
-              <c:y val="0.68986323411102168"/>
+              <c:x val="0.92560488966656951"/>
+              <c:y val="0.66208552055993009"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -41880,9 +41876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42025,283 +42021,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="K1" t="str">
-            <v>Before game peak</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Game start</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>Game start</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>Game end</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>Game end</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>After game peak</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="L2">
-            <v>3.4722222222222265E-2</v>
-          </cell>
-          <cell r="M2">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N2">
-            <v>0.125</v>
-          </cell>
-          <cell r="O2">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="P2">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>2</v>
-          </cell>
-          <cell r="K3">
-            <v>0.60416666666666663</v>
-          </cell>
-          <cell r="L3">
-            <v>3.4722222222222321E-2</v>
-          </cell>
-          <cell r="M3">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N3">
-            <v>0.14583333333333326</v>
-          </cell>
-          <cell r="O3">
-            <v>6.9444444444445308E-3</v>
-          </cell>
-          <cell r="P3">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>3</v>
-          </cell>
-          <cell r="K4">
-            <v>0.60416666666666663</v>
-          </cell>
-          <cell r="L4">
-            <v>3.4722222222222321E-2</v>
-          </cell>
-          <cell r="M4">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N4">
-            <v>0.14583333333333326</v>
-          </cell>
-          <cell r="O4">
-            <v>6.9444444444445308E-3</v>
-          </cell>
-          <cell r="P4">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>4</v>
-          </cell>
-          <cell r="K5">
-            <v>0.60416666666666663</v>
-          </cell>
-          <cell r="L5">
-            <v>4.5138888888888951E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N5">
-            <v>0.13541666666666663</v>
-          </cell>
-          <cell r="O5">
-            <v>6.9444444444445308E-3</v>
-          </cell>
-          <cell r="P5">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5</v>
-          </cell>
-          <cell r="K6">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="L6">
-            <v>3.4722222222222265E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N6">
-            <v>0.125</v>
-          </cell>
-          <cell r="O6">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="P6">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>6</v>
-          </cell>
-          <cell r="K7">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="L7">
-            <v>3.4722222222222265E-2</v>
-          </cell>
-          <cell r="M7">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>0.125</v>
-          </cell>
-          <cell r="O7">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="P7">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>7</v>
-          </cell>
-          <cell r="K8">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="L8">
-            <v>3.4722222222222265E-2</v>
-          </cell>
-          <cell r="M8">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N8">
-            <v>0.125</v>
-          </cell>
-          <cell r="O8">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="P8">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>8</v>
-          </cell>
-          <cell r="K9">
-            <v>0.75</v>
-          </cell>
-          <cell r="L9">
-            <v>3.472222222222221E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N9">
-            <v>0.125</v>
-          </cell>
-          <cell r="O9">
-            <v>6.9444444444445308E-3</v>
-          </cell>
-          <cell r="P9">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>9</v>
-          </cell>
-          <cell r="K10">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="L10">
-            <v>3.4722222222222265E-2</v>
-          </cell>
-          <cell r="M10">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N10">
-            <v>0.125</v>
-          </cell>
-          <cell r="O10">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="P10">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>10</v>
-          </cell>
-          <cell r="K11">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="L11">
-            <v>3.4722222222222265E-2</v>
-          </cell>
-          <cell r="M11">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="N11">
-            <v>0.125</v>
-          </cell>
-          <cell r="O11">
-            <v>6.9444444444444198E-3</v>
-          </cell>
-          <cell r="P11">
-            <v>3.472222222222221E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46193,7 +45912,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -49761,13 +49480,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>2</v>
@@ -49793,22 +49512,22 @@
         <v>43344</v>
       </c>
       <c r="B2">
-        <f>K2</f>
+        <f t="shared" ref="B2:B14" si="0">K2</f>
         <v>10</v>
       </c>
       <c r="C2">
         <v>0.05</v>
       </c>
       <c r="D2" s="6">
-        <f>L2-K2</f>
+        <f t="shared" ref="D2:D10" si="1">L2-K2</f>
         <v>2</v>
       </c>
       <c r="E2">
-        <f>M2-L2</f>
+        <f t="shared" ref="E2:E10" si="2">M2-L2</f>
         <v>4.6000000000000014</v>
       </c>
       <c r="F2">
-        <f>N2-M2</f>
+        <f t="shared" ref="F2:F10" si="3">N2-M2</f>
         <v>1.3999999999999986</v>
       </c>
       <c r="J2" s="1">
@@ -49827,11 +49546,11 @@
         <v>18</v>
       </c>
       <c r="O2">
-        <f>L2-K2</f>
+        <f t="shared" ref="O2:O14" si="4">L2-K2</f>
         <v>2</v>
       </c>
       <c r="P2">
-        <f>N2-L2</f>
+        <f t="shared" ref="P2:P10" si="5">N2-L2</f>
         <v>6</v>
       </c>
     </row>
@@ -49840,22 +49559,22 @@
         <v>43351</v>
       </c>
       <c r="B3">
-        <f>K3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C3">
         <v>0.05</v>
       </c>
       <c r="D3" s="6">
-        <f>L3-K3</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="E3">
-        <f>M3-L3</f>
+        <f t="shared" si="2"/>
         <v>3.1999999999999993</v>
       </c>
       <c r="F3">
-        <f>N3-M3</f>
+        <f t="shared" si="3"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="J3" s="1">
@@ -49874,11 +49593,11 @@
         <v>20</v>
       </c>
       <c r="O3">
-        <f>L3-K3</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P3">
-        <f>N3-L3</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
@@ -49887,22 +49606,22 @@
         <v>43365</v>
       </c>
       <c r="B4">
-        <f>K4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C4">
         <v>0.05</v>
       </c>
       <c r="D4" s="6">
-        <f>L4-K4</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="E4">
-        <f>M4-L4</f>
+        <f t="shared" si="2"/>
         <v>3.3500000000000014</v>
       </c>
       <c r="F4">
-        <f>N4-M4</f>
+        <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="J4" s="1">
@@ -49921,11 +49640,11 @@
         <v>20</v>
       </c>
       <c r="O4">
-        <f>L4-K4</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="P4">
-        <f>N4-L4</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
@@ -49934,22 +49653,22 @@
         <v>43379</v>
       </c>
       <c r="B5">
-        <f>K5</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C5">
         <v>0.05</v>
       </c>
       <c r="D5" s="6">
-        <f>L5-K5</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E5">
-        <f>M5-L5</f>
+        <f t="shared" si="2"/>
         <v>3.8000000000000007</v>
       </c>
       <c r="F5">
-        <f>N5-M5</f>
+        <f t="shared" si="3"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="J5" s="1">
@@ -49968,11 +49687,11 @@
         <v>22</v>
       </c>
       <c r="O5">
-        <f>L5-K5</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P5">
-        <f>N5-L5</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -49981,22 +49700,22 @@
         <v>43386</v>
       </c>
       <c r="B6">
-        <f>K6</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C6">
         <v>0.05</v>
       </c>
       <c r="D6" s="6">
-        <f>L6-K6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E6">
-        <f>M6-L6</f>
+        <f t="shared" si="2"/>
         <v>3.3000000000000007</v>
       </c>
       <c r="F6">
-        <f>N6-M6</f>
+        <f t="shared" si="3"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="J6" s="1">
@@ -50015,11 +49734,11 @@
         <v>17</v>
       </c>
       <c r="O6">
-        <f>L6-K6</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P6">
-        <f>N6-L6</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -50028,22 +49747,22 @@
         <v>43407</v>
       </c>
       <c r="B7">
-        <f>K7</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C7">
         <v>0.05</v>
       </c>
       <c r="D7" s="6">
-        <f>L7-K7</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E7">
-        <f>M7-L7</f>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="F7">
-        <f>N7-M7</f>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="J7" s="1">
@@ -50062,11 +49781,11 @@
         <v>17</v>
       </c>
       <c r="O7">
-        <f>L7-K7</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P7">
-        <f>N7-L7</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -50075,22 +49794,22 @@
         <v>43428</v>
       </c>
       <c r="B8">
-        <f>K8</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C8">
         <v>0.05</v>
       </c>
       <c r="D8" s="6">
-        <f>L8-K8</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E8">
-        <f>M8-L8</f>
+        <f t="shared" si="2"/>
         <v>4.1333333333333329</v>
       </c>
       <c r="F8">
-        <f>N8-M8</f>
+        <f t="shared" si="3"/>
         <v>0.86666666666666714</v>
       </c>
       <c r="J8" s="1">
@@ -50109,11 +49828,11 @@
         <v>17</v>
       </c>
       <c r="O8">
-        <f>L8-K8</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P8">
-        <f>N8-L8</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -50122,22 +49841,22 @@
         <v>43715</v>
       </c>
       <c r="B9">
-        <f>K9</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C9">
         <v>0.05</v>
       </c>
       <c r="D9" s="6">
-        <f>L9-K9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E9">
-        <f>M9-L9</f>
+        <f t="shared" si="2"/>
         <v>3.1666666666666661</v>
       </c>
       <c r="F9">
-        <f>N9-M9</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333393</v>
       </c>
       <c r="J9" s="1">
@@ -50156,11 +49875,11 @@
         <v>16</v>
       </c>
       <c r="O9">
-        <f>L9-K9</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P9">
-        <f>N9-L9</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -50169,22 +49888,22 @@
         <v>43729</v>
       </c>
       <c r="B10">
-        <f>K10</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C10">
         <v>0.05</v>
       </c>
       <c r="D10" s="6">
-        <f>L10-K10</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="E10">
-        <f>M10-L10</f>
+        <f t="shared" si="2"/>
         <v>3.3666666666666671</v>
       </c>
       <c r="F10">
-        <f>N10-M10</f>
+        <f t="shared" si="3"/>
         <v>0.13333333333333286</v>
       </c>
       <c r="J10" s="1">
@@ -50203,11 +49922,11 @@
         <v>19</v>
       </c>
       <c r="O10">
-        <f>L10-K10</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="P10">
-        <f>N10-L10</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
@@ -50216,18 +49935,18 @@
         <v>43743</v>
       </c>
       <c r="B11">
-        <f>K11</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C11">
         <v>0.05</v>
       </c>
       <c r="D11" s="6">
-        <f>L11-K11</f>
+        <f t="shared" ref="D11:E14" si="6">L11-K11</f>
         <v>3.5</v>
       </c>
       <c r="E11">
-        <f>M11-L11</f>
+        <f t="shared" si="6"/>
         <v>3.533333333333335</v>
       </c>
       <c r="J11" s="1">
@@ -50243,7 +49962,7 @@
         <v>23.033333333333335</v>
       </c>
       <c r="O11">
-        <f>L11-K11</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
     </row>
@@ -50252,18 +49971,18 @@
         <v>43764</v>
       </c>
       <c r="B12">
-        <f>K12</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C12">
         <v>0.05</v>
       </c>
       <c r="D12" s="6">
-        <f>L12-K12</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f>M12-L12</f>
+        <f t="shared" si="6"/>
         <v>3.0166666666666657</v>
       </c>
       <c r="F12">
@@ -50286,7 +50005,7 @@
         <v>16</v>
       </c>
       <c r="O12">
-        <f>L12-K12</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P12">
@@ -50299,18 +50018,18 @@
         <v>43778</v>
       </c>
       <c r="B13">
-        <f>K13</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13">
         <v>0.05</v>
       </c>
       <c r="D13" s="6">
-        <f>L13-K13</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f>M13-L13</f>
+        <f t="shared" si="6"/>
         <v>3.5833333333333339</v>
       </c>
       <c r="F13">
@@ -50333,7 +50052,7 @@
         <v>16</v>
       </c>
       <c r="O13">
-        <f>L13-K13</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P13">
@@ -50346,18 +50065,18 @@
         <v>43792</v>
       </c>
       <c r="B14">
-        <f>K14</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14">
         <v>0.05</v>
       </c>
       <c r="D14" s="6">
-        <f>L14-K14</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f>M14-L14</f>
+        <f t="shared" si="6"/>
         <v>3.4499999999999993</v>
       </c>
       <c r="F14">
@@ -50380,7 +50099,7 @@
         <v>17</v>
       </c>
       <c r="O14">
-        <f>L14-K14</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P14">
@@ -50565,19 +50284,19 @@
         <v>0.75</v>
       </c>
       <c r="F2">
-        <f>(C2-B2)*24</f>
+        <f t="shared" ref="F2:F14" si="0">(C2-B2)*24</f>
         <v>1.9999999999999996</v>
       </c>
       <c r="G2">
-        <f>(E2-D2)*24</f>
+        <f t="shared" ref="G2:G10" si="1">(E2-D2)*24</f>
         <v>1.3999999999999977</v>
       </c>
       <c r="H2" s="3">
-        <f>D2-C2</f>
+        <f t="shared" ref="H2:H14" si="2">D2-C2</f>
         <v>0.19166666666666676</v>
       </c>
       <c r="K2" s="6">
-        <f>D2</f>
+        <f t="shared" ref="K2:K14" si="3">D2</f>
         <v>0.69166666666666676</v>
       </c>
       <c r="L2">
@@ -50602,23 +50321,23 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F3">
-        <f>(C3-B3)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="G3">
-        <f>(E3-D3)*24</f>
+        <f t="shared" si="1"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="H3" s="3">
-        <f>D3-C3</f>
+        <f t="shared" si="2"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="K3" s="6">
-        <f>D3</f>
+        <f t="shared" si="3"/>
         <v>0.77916666666666667</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L14" si="0">K3*24</f>
+        <f t="shared" ref="L3:L14" si="4">K3*24</f>
         <v>18.7</v>
       </c>
     </row>
@@ -50639,23 +50358,23 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F4">
-        <f>(C4-B4)*24</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G4">
-        <f>(E4-D4)*24</f>
+        <f t="shared" si="1"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="H4" s="3">
-        <f>D4-C4</f>
+        <f t="shared" si="2"/>
         <v>0.13958333333333339</v>
       </c>
       <c r="K4" s="6">
-        <f>D4</f>
+        <f t="shared" si="3"/>
         <v>0.78541666666666676</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18.850000000000001</v>
       </c>
     </row>
@@ -50676,23 +50395,23 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F5">
-        <f>(C5-B5)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G5">
-        <f>(E5-D5)*24</f>
+        <f t="shared" si="1"/>
         <v>2.1999999999999975</v>
       </c>
       <c r="H5" s="3">
-        <f>D5-C5</f>
+        <f t="shared" si="2"/>
         <v>0.15833333333333344</v>
       </c>
       <c r="K5" s="6">
-        <f>D5</f>
+        <f t="shared" si="3"/>
         <v>0.82500000000000007</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
     </row>
@@ -50713,23 +50432,23 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F6">
-        <f>(C6-B6)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G6">
-        <f>(E6-D6)*24</f>
+        <f t="shared" si="1"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="H6" s="3">
-        <f>D6-C6</f>
+        <f t="shared" si="2"/>
         <v>0.13750000000000007</v>
       </c>
       <c r="K6" s="6">
-        <f>D6</f>
+        <f t="shared" si="3"/>
         <v>0.63750000000000007</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.3</v>
       </c>
     </row>
@@ -50750,23 +50469,23 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F7">
-        <f>(C7-B7)*24</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="G7">
-        <f>(E7-D7)*24</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
       <c r="H7" s="3">
-        <f>D7-C7</f>
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
       <c r="K7" s="6">
-        <f>D7</f>
+        <f t="shared" si="3"/>
         <v>0.65625</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.75</v>
       </c>
     </row>
@@ -50787,15 +50506,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F8">
-        <f>(C8-B8)*24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8">
-        <f>(E8-D8)*24</f>
+        <f t="shared" si="1"/>
         <v>0.86666666666666892</v>
       </c>
       <c r="H8" s="3">
-        <f>D8-C8</f>
+        <f t="shared" si="2"/>
         <v>0.17222222222222217</v>
       </c>
       <c r="I8" s="3">
@@ -50803,11 +50522,11 @@
         <v>0.70989583333333339</v>
       </c>
       <c r="K8" s="6">
-        <f>D8</f>
+        <f t="shared" si="3"/>
         <v>0.67222222222222217</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16.133333333333333</v>
       </c>
     </row>
@@ -50828,23 +50547,23 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F9">
-        <f>(C9-B9)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="G9">
-        <f>(E9-D9)*24</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333304</v>
       </c>
       <c r="H9" s="3">
-        <f>D9-C9</f>
+        <f t="shared" si="2"/>
         <v>0.13194444444444442</v>
       </c>
       <c r="K9" s="6">
-        <f>D9</f>
+        <f t="shared" si="3"/>
         <v>0.63194444444444442</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.166666666666666</v>
       </c>
     </row>
@@ -50865,15 +50584,15 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F10">
-        <f>(C10-B10)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="G10">
-        <f>(E10-D10)*24</f>
+        <f t="shared" si="1"/>
         <v>0.13333333333333286</v>
       </c>
       <c r="H10" s="3">
-        <f>D10-C10</f>
+        <f t="shared" si="2"/>
         <v>0.14027777777777772</v>
       </c>
       <c r="I10" s="3">
@@ -50881,11 +50600,11 @@
         <v>0.75520833333333326</v>
       </c>
       <c r="K10" s="6">
-        <f>D10</f>
+        <f t="shared" si="3"/>
         <v>0.78611111111111109</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18.866666666666667</v>
       </c>
     </row>
@@ -50903,19 +50622,19 @@
         <v>0.95972222222222225</v>
       </c>
       <c r="F11">
-        <f>(C11-B11)*24</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="H11" s="3">
-        <f>D11-C11</f>
+        <f t="shared" si="2"/>
         <v>0.14722222222222225</v>
       </c>
       <c r="K11" s="6">
-        <f>D11</f>
+        <f t="shared" si="3"/>
         <v>0.95972222222222225</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.033333333333335</v>
       </c>
     </row>
@@ -50936,7 +50655,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F12">
-        <f>(C12-B12)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="G12">
@@ -50944,15 +50663,15 @@
         <v>0.9833333333333325</v>
       </c>
       <c r="H12" s="3">
-        <f>D12-C12</f>
+        <f t="shared" si="2"/>
         <v>0.12569444444444444</v>
       </c>
       <c r="K12" s="6">
-        <f>D12</f>
+        <f t="shared" si="3"/>
         <v>0.62569444444444444</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.016666666666666</v>
       </c>
     </row>
@@ -50973,7 +50692,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F13">
-        <f>(C13-B13)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="G13">
@@ -50981,15 +50700,15 @@
         <v>0.41666666666666519</v>
       </c>
       <c r="H13" s="3">
-        <f>D13-C13</f>
+        <f t="shared" si="2"/>
         <v>0.14930555555555558</v>
       </c>
       <c r="K13" s="6">
-        <f>D13</f>
+        <f t="shared" si="3"/>
         <v>0.64930555555555558</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.583333333333334</v>
       </c>
     </row>
@@ -51010,7 +50729,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F14">
-        <f>(C14-B14)*24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="G14">
@@ -51018,15 +50737,15 @@
         <v>1.5500000000000025</v>
       </c>
       <c r="H14" s="3">
-        <f>D14-C14</f>
+        <f t="shared" si="2"/>
         <v>0.14374999999999993</v>
       </c>
       <c r="K14" s="6">
-        <f>D14</f>
+        <f t="shared" si="3"/>
         <v>0.64374999999999993</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15.45</v>
       </c>
     </row>
@@ -51085,19 +50804,19 @@
         <v>43351</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ref="B19:B30" si="1">B3</f>
+        <f t="shared" ref="B19:B30" si="5">B3</f>
         <v>0.5</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:E19" si="2">C3-B3</f>
+        <f t="shared" ref="C19:E19" si="6">C3-B3</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.4166666666666696E-2</v>
       </c>
       <c r="F19" s="10"/>
@@ -51108,19 +50827,19 @@
         <v>43365</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:E20" si="3">C4-B4</f>
+        <f t="shared" ref="C20:E20" si="7">C4-B4</f>
         <v>6.25E-2</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.13958333333333339</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.7916666666666607E-2</v>
       </c>
       <c r="F20" s="10"/>
@@ -51131,19 +50850,19 @@
         <v>43379</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:E21" si="4">C5-B5</f>
+        <f t="shared" ref="C21:E21" si="8">C5-B5</f>
         <v>0.125</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15833333333333344</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1666666666666563E-2</v>
       </c>
       <c r="F21" s="10"/>
@@ -51155,19 +50874,19 @@
         <v>43386</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:E22" si="5">C6-B6</f>
+        <f t="shared" ref="C22:E22" si="9">C6-B6</f>
         <v>0.125</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.13750000000000007</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0833333333333304E-2</v>
       </c>
       <c r="F22" s="10"/>
@@ -51179,19 +50898,19 @@
         <v>43407</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:E23" si="6">C7-B7</f>
+        <f t="shared" ref="C23:E23" si="10">C7-B7</f>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.15625</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F23" s="10"/>
@@ -51203,19 +50922,19 @@
         <v>43428</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:E24" si="7">C8-B8</f>
+        <f t="shared" ref="C24:E24" si="11">C8-B8</f>
         <v>0.125</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.17222222222222217</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.6111111111111205E-2</v>
       </c>
       <c r="F24" s="10"/>
@@ -51227,19 +50946,19 @@
         <v>43715</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:E25" si="8">C9-B9</f>
+        <f t="shared" ref="C25:E25" si="12">C9-B9</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.13194444444444442</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
       <c r="F25" s="10"/>
@@ -51251,19 +50970,19 @@
         <v>43729</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:E26" si="9">C10-B10</f>
+        <f t="shared" ref="C26:E26" si="13">C10-B10</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.14027777777777772</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="F26" s="10"/>
@@ -51275,15 +50994,15 @@
         <v>43743</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E27" si="10">C11-B11</f>
+        <f t="shared" ref="C27:D27" si="14">C11-B11</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.14722222222222225</v>
       </c>
       <c r="E27" s="3"/>
@@ -51296,19 +51015,19 @@
         <v>43764</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:E28" si="11">C12-B12</f>
+        <f t="shared" ref="C28:E28" si="15">C12-B12</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12569444444444444</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.0972222222222188E-2</v>
       </c>
       <c r="H28" s="3"/>
@@ -51318,19 +51037,19 @@
         <v>43778</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29:E29" si="12">C13-B13</f>
+        <f t="shared" ref="C29:E29" si="16">C13-B13</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.14930555555555558</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H29" s="3"/>
@@ -51340,19 +51059,19 @@
         <v>43792</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:E30" si="13">C14-B14</f>
+        <f t="shared" ref="C30:E30" si="17">C14-B14</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.14374999999999993</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.4583333333333437E-2</v>
       </c>
       <c r="H30" s="3"/>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED1241-DC83-4CB6-8F43-49B17E225ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47555ECA-FC46-4175-ABCF-9F0E9B5ED568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>After-game Gap</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\stacked_bar_chart.tif</t>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\sandwitch.tif</t>
   </si>
 </sst>
 </file>
@@ -3832,14 +3832,28 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3961,14 +3975,24 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4087,14 +4111,28 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4223,7 +4261,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -4288,6 +4336,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="640467855"/>
         <c:axId val="640468687"/>
@@ -4320,7 +4369,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Game Date</a:t>
+                  <a:t>Date</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4329,8 +4378,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.8601600505870044"/>
-              <c:y val="0.62827551961410233"/>
+              <c:x val="0.92343163701759501"/>
+              <c:y val="0.63174786745406819"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5596,7 +5645,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -41795,14 +41846,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>433385</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423860</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>576260</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357185</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
@@ -41869,16 +41920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OSU\academic\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47555ECA-FC46-4175-ABCF-9F0E9B5ED568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909AD43-B6F5-4F15-83E0-EEFACB75992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14175" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -3836,13 +3836,14 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
@@ -3977,13 +3978,14 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -4115,13 +4117,14 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -4256,13 +4259,14 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -4637,6 +4641,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6306,6 +6311,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -41846,16 +41852,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423860</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>623885</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>357185</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223835</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41921,15 +41927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49510,7 +49516,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OSU\academic\COTA-AccessibilityReliability\ana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909AD43-B6F5-4F15-83E0-EEFACB75992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4242287-97B9-4444-A7C9-288E3383D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <t>After-game Gap</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\sandwitch.tif</t>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\20180901.tif</t>
   </si>
 </sst>
 </file>
@@ -676,6 +676,474 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11008455586490525"/>
+          <c:y val="5.2755661624711792E-2"/>
+          <c:w val="0.86847295229958832"/>
+          <c:h val="0.81276910264347901"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reliab_football_home!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9/1/2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>reliab_football_home!$B$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>reliab_football_home!$B$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.33980348731569998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41621522375289999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.545194940347138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47933166378122999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45200454828888897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45127545622443499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39462807892875101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.497897300158814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49243933588761102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67388439716819004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73122884966824397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.508723308242789</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47369381122992199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41619824332654198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.348824825398868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9717-4039-8156-6BD063C14360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1064310095"/>
+        <c:axId val="1064316751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1064310095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91635310028194494"/>
+              <c:y val="0.78319953542877974"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064316751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1064316751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accessibility Unreliability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.6020705745115197E-2"/>
+              <c:y val="0.23826334208223973"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064310095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1728,7 +2196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2509,7 +2977,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3325,7 +3793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3785,7 +4253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4664,7 +5132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5478,7 +5946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6334,7 +6802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6861,7 +7329,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7603,707 +8071,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Before-game Peak</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$18:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43743</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$B$18:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45833333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65FA-4626-A0B2-94DCA3BDB1DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Game Start Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$18:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43743</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$C$18:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>8.3333333333333315E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3333333333333315E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1666666666666685E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1666666666666685E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1666666666666685E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.1666666666666685E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-65FA-4626-A0B2-94DCA3BDB1DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$D$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Game End Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$18:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43743</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$D$18:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.19166666666666676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13958333333333339</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15833333333333344</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13750000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17222222222222217</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13194444444444442</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14027777777777772</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14722222222222225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12569444444444444</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14930555555555558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14374999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-65FA-4626-A0B2-94DCA3BDB1DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>peak_hour!$E$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>After-game Peak</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>peak_hour!$A$18:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43386</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43407</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43743</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>peak_hour!$E$18:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>5.8333333333333237E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4166666666666696E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7916666666666607E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1666666666666563E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0833333333333304E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.208333333333337E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6111111111111205E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.472222222222221E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5555555555555358E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0972222222222188E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7361111111111049E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4583333333333437E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-65FA-4626-A0B2-94DCA3BDB1DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1945687648"/>
-        <c:axId val="1945685984"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1945687648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1945685984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1945685984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.33333333333333331"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1945687648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.16666666700000002"/>
-        <c:minorUnit val="4.1666667000000018E-2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9094,6 +8861,707 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before-game Peak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$B$18:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game Start Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$C$18:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333315E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3333333333333315E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666685E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game End Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$D$18:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.19166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13958333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15833333333333344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17222222222222217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14027777777777772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14930555555555558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14374999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>peak_hour!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After-game Peak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>peak_hour!$A$18:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>peak_hour!$E$18:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.8333333333333237E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4166666666666696E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7916666666666607E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1666666666666563E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0833333333333304E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.208333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6111111111111205E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.472222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5555555555555358E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0972222222222188E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7361111111111049E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4583333333333437E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65FA-4626-A0B2-94DCA3BDB1DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1945687648"/>
+        <c:axId val="1945685984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1945687648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945685984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1945685984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.33333333333333331"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945687648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.16666666700000002"/>
+        <c:minorUnit val="4.1666667000000018E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9963,7 +10431,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13155,7 +13623,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15385,7 +15853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -25475,7 +25943,7 @@
             <c:numRef>
               <c:f>reliab_football_home!$B$9:$P$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.33980348731569998</c:v>
@@ -26607,7 +27075,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -29533,6 +30001,46 @@
 </file>
 
 <file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -32949,511 +33457,6 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33937,6 +33940,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -34486,511 +34994,6 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -35474,6 +35477,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -37055,6 +37563,522 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -41691,6 +42715,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C63E1D-D006-1A2F-ACF6-D0BCF959D845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -45981,8 +47041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="AV12" sqref="AV12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46500,49 +47560,49 @@
       <c r="A9" s="1">
         <v>43344</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>0.33980348731569998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.41621522375289999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>0.545194940347138</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.47933166378122999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>0.45200454828888897</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>0.45127545622443499</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>0.39462807892875101</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>0.497897300158814</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>0.49243933588761102</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>0.67388439716819004</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>0.73122884966824397</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>0.508723308242789</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="7">
         <v>0.47369381122992199</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>0.41619824332654198</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>0.348824825398868</v>
       </c>
       <c r="Q9">
@@ -49515,7 +50575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DCF7E-5586-4454-9918-6D1E175C9441}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -50292,8 +51352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ana/resilient.xlsx
+++ b/ana/resilient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\ana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4242287-97B9-4444-A7C9-288E3383D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0AA722-C598-449D-A700-286ED0A11FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13605" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="date&amp;time" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <t>After-game Gap</t>
   </si>
   <si>
-    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\20180901.tif</t>
+    <t>C:\Users\liu.6544\Documents\GitHub\COTA-AccessibilityReliability\vis\resilience\3pm.tif</t>
   </si>
 </sst>
 </file>
@@ -218,14 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -27893,7 +27892,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Game Start: 15:30 / 16:00</a:t>
+              <a:t>Game Start: 15:30</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27908,16 +27907,16 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7150286769709345E-2"/>
-          <c:y val="5.7060367454068242E-2"/>
+          <c:y val="0.15428258967629049"/>
           <c:w val="0.89587440458831535"/>
-          <c:h val="0.81138050452026833"/>
+          <c:h val="0.70489902303878693"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -27930,146 +27929,8 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>reliab_football_home!$B$1:$P$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>reliab_football_home!$B$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.35679938550005724</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34974856273915095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41366661661014398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44402030265143672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51070353571369476</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52325109266163694</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4814187566166872</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43291018243215629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38960839816689929</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36313753331235321</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.39300178867959246</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.53742579047874728</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61427207368820602</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48364407928286196</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.51690968557496275</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6FA9-401C-AB4A-09126690CC27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>reliab_football_home!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+            <a:ln w="28575"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -28182,7 +28043,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6FA9-401C-AB4A-09126690CC27}"/>
@@ -28487,9 +28348,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7150286769709345E-2"/>
-          <c:y val="5.7060367454068242E-2"/>
+          <c:y val="0.14965296004666084"/>
           <c:w val="0.89587440458831535"/>
-          <c:h val="0.81138050452026833"/>
+          <c:h val="0.71878791192767566"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -28629,7 +28490,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9089-46D6-81A5-64D703F060FF}"/>
@@ -29002,9 +28863,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7150286769709345E-2"/>
-          <c:y val="5.7060367454068242E-2"/>
+          <c:y val="0.14965296004666084"/>
           <c:w val="0.89587440458831535"/>
-          <c:h val="0.81138050452026833"/>
+          <c:h val="0.71878791192767566"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -29144,7 +29005,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4BC3-456A-801B-90937F47094C}"/>
@@ -42605,16 +42466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42641,16 +42502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47020,7 +46881,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -47041,8 +46902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC4F49-7FB8-4751-807F-3492689DAFAE}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:P9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47438,67 +47299,67 @@
         <v>0.53234655252042773</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f>AVERAGE(B2:B5)</f>
         <v>0.35679938550005724</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:P6" si="6">AVERAGE(C2:C5)</f>
         <v>0.34974856273915095</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="6"/>
         <v>0.41366661661014398</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="6"/>
         <v>0.44402030265143672</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="6"/>
         <v>0.51070353571369476</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="6"/>
         <v>0.52325109266163694</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="6"/>
         <v>0.4814187566166872</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="6"/>
         <v>0.43291018243215629</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f t="shared" si="6"/>
         <v>0.38960839816689929</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="6"/>
         <v>0.36313753331235321</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="6"/>
         <v>0.39300178867959246</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" si="6"/>
         <v>0.53742579047874728</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" si="6"/>
         <v>0.61427207368820602</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <f t="shared" si="6"/>
         <v>0.48364407928286196</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <f t="shared" si="6"/>
         <v>0.51690968557496275</v>
       </c>
@@ -47560,49 +47421,49 @@
       <c r="A9" s="1">
         <v>43344</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.33980348731569998</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.41621522375289999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.545194940347138</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.47933166378122999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.45200454828888897</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.45127545622443499</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.39462807892875101</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.497897300158814</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.49243933588761102</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>0.67388439716819004</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0.73122884966824397</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.508723308242789</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>0.47369381122992199</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>0.41619824332654198</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.348824825398868</v>
       </c>
       <c r="Q9">
@@ -49801,49 +49662,49 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.34511178447265756</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.3806185462386627</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.41103897081017149</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.43371281901187769</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.42531898956091602</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.43083802484432682</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.41552994364862306</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.41754400713117024</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.50619635719858314</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0.48694904040850029</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>0.46402678435875672</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.4552582499257446</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>0.48179299573549722</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>0.43685636872740236</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>0.38144497771153996</v>
       </c>
     </row>
@@ -49851,63 +49712,63 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f t="shared" ref="B9:P9" si="0">AVERAGE(B2:B7)</f>
         <v>0.32594499999567622</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>0.35143877877103852</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.35120281291420835</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0.36895664415873952</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>0.39689434535875595</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0.41366301418023038</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>0.39746141539531976</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>0.42477478920818251</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0.44374391276800607</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>0.47388828753751538</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="0"/>
         <v>0.43748421728572667</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>0.39875294058662192</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="0"/>
         <v>0.40952961315098441</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <f t="shared" si="0"/>
         <v>0.37624113862310482</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <f t="shared" si="0"/>
         <v>0.37294226711854583</v>
       </c>
@@ -49916,49 +49777,49 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.31554925485511726</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.29960094437363999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.34533971151117626</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.37939076488360801</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.38460490338915471</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.42224404488315048</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.3882453062350395</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>0.37825564689420477</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.413026853757822</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>0.38877422213275975</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>0.42755868150278054</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.39962129403721974</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>0.37511780805924322</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>0.37115198926916149</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>0.35377106704536349</v>
       </c>
     </row>
@@ -50230,67 +50091,67 @@
         <v>0.38495326479471698</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <f>AVERAGE(B2:B5)</f>
         <v>0.31554925485511726</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <f t="shared" ref="C6:P6" si="0">AVERAGE(C2:C5)</f>
         <v>0.29960094437363999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.34533971151117626</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0.37939076488360801</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0.38460490338915471</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>0.42224404488315048</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.3882453062350395</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>0.37825564689420477</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.413026853757822</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0.38877422213275975</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>0.42755868150278054</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>0.39962129403721974</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>0.37511780805924322</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <f t="shared" si="0"/>
         <v>0.37115198926916149</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>0.35377106704536349</v>
       </c>
@@ -50584,11 +50445,11 @@
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -50596,7 +50457,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
@@ -50608,7 +50469,7 @@
       <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
       <c r="M1" t="s">
@@ -50635,7 +50496,7 @@
       <c r="C2">
         <v>0.05</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <f t="shared" ref="D2:D10" si="1">L2-K2</f>
         <v>2</v>
       </c>
@@ -50653,7 +50514,7 @@
       <c r="K2">
         <v>10</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <v>12</v>
       </c>
       <c r="M2">
@@ -50682,7 +50543,7 @@
       <c r="C3">
         <v>0.05</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -50700,7 +50561,7 @@
       <c r="K3">
         <v>14</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>15.5</v>
       </c>
       <c r="M3">
@@ -50729,7 +50590,7 @@
       <c r="C4">
         <v>0.05</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
@@ -50747,7 +50608,7 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>15.5</v>
       </c>
       <c r="M4">
@@ -50776,7 +50637,7 @@
       <c r="C5">
         <v>0.05</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -50794,7 +50655,7 @@
       <c r="K5">
         <v>13</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>16</v>
       </c>
       <c r="M5">
@@ -50823,7 +50684,7 @@
       <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -50841,7 +50702,7 @@
       <c r="K6">
         <v>9</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>12</v>
       </c>
       <c r="M6">
@@ -50870,7 +50731,7 @@
       <c r="C7">
         <v>0.05</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -50888,7 +50749,7 @@
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>12</v>
       </c>
       <c r="M7">
@@ -50917,7 +50778,7 @@
       <c r="C8">
         <v>0.05</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -50935,7 +50796,7 @@
       <c r="K8">
         <v>9</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>12</v>
       </c>
       <c r="M8">
@@ -50964,7 +50825,7 @@
       <c r="C9">
         <v>0.05</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -50982,7 +50843,7 @@
       <c r="K9">
         <v>11</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>12</v>
       </c>
       <c r="M9">
@@ -51011,7 +50872,7 @@
       <c r="C10">
         <v>0.05</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
@@ -51029,7 +50890,7 @@
       <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>15.5</v>
       </c>
       <c r="M10">
@@ -51058,7 +50919,7 @@
       <c r="C11">
         <v>0.05</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <f t="shared" ref="D11:E14" si="6">L11-K11</f>
         <v>3.5</v>
       </c>
@@ -51072,7 +50933,7 @@
       <c r="K11">
         <v>16</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>19.5</v>
       </c>
       <c r="M11">
@@ -51094,7 +50955,7 @@
       <c r="C12">
         <v>0.05</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -51112,7 +50973,7 @@
       <c r="K12">
         <v>11</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>12</v>
       </c>
       <c r="M12">
@@ -51141,7 +51002,7 @@
       <c r="C13">
         <v>0.05</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -51159,7 +51020,7 @@
       <c r="K13">
         <v>11</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>12</v>
       </c>
       <c r="M13">
@@ -51188,7 +51049,7 @@
       <c r="C14">
         <v>0.05</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -51206,7 +51067,7 @@
       <c r="K14">
         <v>11</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>12</v>
       </c>
       <c r="M14">
@@ -51225,7 +51086,6 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M15" s="6"/>
       <c r="N15">
         <f>AVERAGE(O2:O14)</f>
         <v>2.2307692307692308</v>
@@ -51234,10 +51094,6 @@
         <f>AVERAGE(P2:P14)</f>
         <v>4.708333333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M16" s="6"/>
-      <c r="O16"/>
     </row>
     <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
@@ -51307,37 +51163,37 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.13</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.8</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.13</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.11</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0.1</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -51352,7 +51208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AB40-23B8-4ECA-8B71-56D8E4D8804A}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -51361,14 +51217,13 @@
     <col min="1" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
       <c r="D1" t="s">
@@ -51412,7 +51267,7 @@
         <f t="shared" ref="H2:H14" si="2">D2-C2</f>
         <v>0.19166666666666676</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <f t="shared" ref="K2:K14" si="3">D2</f>
         <v>0.69166666666666676</v>
       </c>
@@ -51449,7 +51304,7 @@
         <f t="shared" si="2"/>
         <v>0.1333333333333333</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <f t="shared" si="3"/>
         <v>0.77916666666666667</v>
       </c>
@@ -51486,7 +51341,7 @@
         <f t="shared" si="2"/>
         <v>0.13958333333333339</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <f t="shared" si="3"/>
         <v>0.78541666666666676</v>
       </c>
@@ -51523,7 +51378,7 @@
         <f t="shared" si="2"/>
         <v>0.15833333333333344</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>0.82500000000000007</v>
       </c>
@@ -51560,7 +51415,7 @@
         <f t="shared" si="2"/>
         <v>0.13750000000000007</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <f t="shared" si="3"/>
         <v>0.63750000000000007</v>
       </c>
@@ -51597,7 +51452,7 @@
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <f t="shared" si="3"/>
         <v>0.65625</v>
       </c>
@@ -51638,7 +51493,7 @@
         <f>AVERAGE(D2:D9)</f>
         <v>0.70989583333333339</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <f t="shared" si="3"/>
         <v>0.67222222222222217</v>
       </c>
@@ -51675,7 +51530,7 @@
         <f t="shared" si="2"/>
         <v>0.13194444444444442</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <f t="shared" si="3"/>
         <v>0.63194444444444442</v>
       </c>
@@ -51716,7 +51571,7 @@
         <f>AVERAGE(D10:D13)</f>
         <v>0.75520833333333326</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <f t="shared" si="3"/>
         <v>0.78611111111111109</v>
       </c>
@@ -51746,7 +51601,7 @@
         <f t="shared" si="2"/>
         <v>0.14722222222222225</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11">
         <f t="shared" si="3"/>
         <v>0.95972222222222225</v>
       </c>
@@ -51783,7 +51638,7 @@
         <f t="shared" si="2"/>
         <v>0.12569444444444444</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>0.62569444444444444</v>
       </c>
@@ -51820,7 +51675,7 @@
         <f t="shared" si="2"/>
         <v>0.14930555555555558</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13">
         <f t="shared" si="3"/>
         <v>0.64930555555555558</v>
       </c>
@@ -51857,7 +51712,7 @@
         <f t="shared" si="2"/>
         <v>0.14374999999999993</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>0.64374999999999993</v>
       </c>
@@ -51867,7 +51722,6 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
       <c r="E15">
         <f>AVERAGE(F2:F14)</f>
         <v>2.2307692307692308</v>
@@ -51881,7 +51735,7 @@
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
@@ -51890,8 +51744,8 @@
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -51913,8 +51767,8 @@
         <f>E2-D2</f>
         <v>5.8333333333333237E-2</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -51936,8 +51790,8 @@
         <f t="shared" si="6"/>
         <v>5.4166666666666696E-2</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -51959,8 +51813,8 @@
         <f t="shared" si="7"/>
         <v>4.7916666666666607E-2</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -51982,8 +51836,8 @@
         <f t="shared" si="8"/>
         <v>9.1666666666666563E-2</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -52006,8 +51860,8 @@
         <f t="shared" si="9"/>
         <v>7.0833333333333304E-2</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -52030,8 +51884,8 @@
         <f t="shared" si="10"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -52054,8 +51908,8 @@
         <f t="shared" si="11"/>
         <v>3.6111111111111205E-2</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -52078,8 +51932,8 @@
         <f t="shared" si="12"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -52102,8 +51956,8 @@
         <f t="shared" si="13"/>
         <v>5.5555555555555358E-3</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -52123,8 +51977,8 @@
         <v>0.14722222222222225</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -52224,7 +52078,7 @@
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -52234,7 +52088,7 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
@@ -52251,7 +52105,7 @@
       <c r="C2">
         <v>717970</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>(C2-B2)/B2</f>
         <v>0.36309355427256557</v>
       </c>
@@ -52269,7 +52123,7 @@
       <c r="C3">
         <v>711155</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">(C3-B3)/B3</f>
         <v>0.31476000229247125</v>
       </c>
@@ -52297,7 +52151,7 @@
       <c r="C6">
         <v>681599</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.29507695230856928</v>
       </c>
@@ -52315,7 +52169,7 @@
       <c r="C7">
         <v>706148</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0.27218286768468009</v>
       </c>
@@ -52333,7 +52187,7 @@
       <c r="C8">
         <v>664981</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0.21100498074173898</v>
       </c>
@@ -52351,7 +52205,7 @@
       <c r="C9">
         <v>675115</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.28544853559990707</v>
       </c>
@@ -52369,7 +52223,7 @@
       <c r="C10">
         <v>550453</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0.47222459961700169</v>
       </c>
@@ -52402,7 +52256,7 @@
       <c r="C14">
         <v>468214</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0.43326282535960597</v>
       </c>
@@ -52420,7 +52274,7 @@
       <c r="C15">
         <v>472343</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>0.54071447676580531</v>
       </c>
@@ -52438,7 +52292,7 @@
       <c r="C16">
         <v>507851</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>0.39880735966506914</v>
       </c>
@@ -52456,7 +52310,7 @@
       <c r="C17">
         <v>522085</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>0.4042470211678636</v>
       </c>
@@ -52474,7 +52328,7 @@
       <c r="C18">
         <v>544902</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0.49179502061511338</v>
       </c>
@@ -52492,7 +52346,7 @@
       <c r="C19">
         <v>520945</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>0.47141731371613055</v>
       </c>
@@ -52510,7 +52364,7 @@
       <c r="C20">
         <v>531659</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>0.42628078731834779</v>
       </c>
@@ -52528,7 +52382,7 @@
       <c r="C21">
         <v>512804</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0.36134944569511107</v>
       </c>
@@ -52546,7 +52400,7 @@
       <c r="C22">
         <v>480662</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0.33055224913494807</v>
       </c>
@@ -52564,7 +52418,7 @@
       <c r="C23">
         <v>550334</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0.47460792536045682</v>
       </c>
@@ -52582,7 +52436,7 @@
       <c r="C24">
         <v>476637</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>0.36901318642811803</v>
       </c>
@@ -52600,7 +52454,7 @@
       <c r="C25">
         <v>525526</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0.37706352783338748</v>
       </c>
@@ -52618,7 +52472,7 @@
       <c r="C26">
         <v>468190</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0.42456375226301135</v>
       </c>
@@ -52636,7 +52490,7 @@
       <c r="C27">
         <v>523296</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0.33855834654934264</v>
       </c>
@@ -52654,7 +52508,7 @@
       <c r="C28">
         <v>472674</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0.4026059579165393</v>
       </c>
@@ -52672,7 +52526,7 @@
       <c r="C29">
         <v>543596</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0.42475677262433953</v>
       </c>
@@ -52695,7 +52549,7 @@
       <c r="C31">
         <v>557511</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0.26641709845148071</v>
       </c>
@@ -52713,7 +52567,7 @@
       <c r="C32">
         <v>573696</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>0.33450881963651419</v>
       </c>
@@ -52731,7 +52585,7 @@
       <c r="C33">
         <v>541985</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>0.31605977310695832</v>
       </c>
@@ -52749,7 +52603,7 @@
       <c r="C34">
         <v>555375</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>0.44072127507237652</v>
       </c>
@@ -52767,7 +52621,7 @@
       <c r="C35">
         <v>556520</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0.30918466485841789</v>
       </c>
@@ -52785,7 +52639,7 @@
       <c r="C36">
         <v>551495</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0.33128067223645113</v>
       </c>
@@ -52803,7 +52657,7 @@
       <c r="C37">
         <v>580775</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0.34487222237659898</v>
       </c>
@@ -52821,7 +52675,7 @@
       <c r="C38">
         <v>559554</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>0.26260565827417676</v>
       </c>
@@ -52839,7 +52693,7 @@
       <c r="C39">
         <v>533452</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0.24905054251368577</v>
       </c>
@@ -52857,7 +52711,7 @@
       <c r="C40">
         <v>492125</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>0.32341472597214005</v>
       </c>
@@ -52875,7 +52729,7 @@
       <c r="C41">
         <v>532322</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0.30866886612942085</v>
       </c>
@@ -52893,7 +52747,7 @@
       <c r="C42">
         <v>500114</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>0.35059723298702911</v>
       </c>
@@ -52911,7 +52765,7 @@
       <c r="C43">
         <v>546962</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>0.4182418801956117</v>
       </c>
@@ -52929,7 +52783,7 @@
       <c r="C44">
         <v>541310</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0.28671943711521547</v>
       </c>
@@ -52947,7 +52801,7 @@
       <c r="C45">
         <v>562938</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>0.28794007559187706</v>
       </c>
@@ -52965,7 +52819,7 @@
       <c r="C46">
         <v>555372</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0.28706405285710646</v>
       </c>
@@ -52983,7 +52837,7 @@
       <c r="C47">
         <v>565537</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0.28296412245777613</v>
       </c>
@@ -53001,7 +52855,7 @@
       <c r="C48">
         <v>538371</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>0.29221031711742851</v>
       </c>
@@ -53019,7 +52873,7 @@
       <c r="C49">
         <v>558360</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>0.30348000868426395</v>
       </c>
@@ -53037,7 +52891,7 @@
       <c r="C50">
         <v>565002</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0.39839173145033746</v>
       </c>
@@ -53060,7 +52914,7 @@
       <c r="C52">
         <v>548298</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>0.33191630977916298</v>
       </c>
@@ -53078,7 +52932,7 @@
       <c r="C53">
         <v>573693</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0.35089892270559842</v>
       </c>
@@ -53096,7 +52950,7 @@
       <c r="C54">
         <v>574492</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0.44411123707634415</v>
       </c>
@@ -53114,7 +52968,7 @@
       <c r="C55">
         <v>577937</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>0.33437308797894322</v>
       </c>
@@ -53132,7 +52986,7 @@
       <c r="C56">
         <v>579392</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0.36787457120529971</v>
       </c>
@@ -53150,7 +53004,7 @@
       <c r="C57">
         <v>541530</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0.35576374215127632</v>
       </c>
@@ -53168,7 +53022,7 @@
       <c r="C58">
         <v>544219</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>0.33394202628573111</v>
       </c>
@@ -53186,7 +53040,7 @@
       <c r="C59">
         <v>553094</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0.3696378381724757</v>
       </c>
@@ -53204,7 +53058,7 @@
       <c r="C60">
         <v>573414</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0.30505554430229936</v>
       </c>
@@ -53222,7 +53076,7 @@
       <c r="C61">
         <v>584706</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <f t="shared" si="0"/>
         <v>0.3903860558574197</v>
       </c>
@@ -53245,7 +53099,7 @@
       <c r="C63">
         <v>565976</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <f t="shared" si="0"/>
         <v>0.3060452150796929</v>
       </c>
@@ -53263,7 +53117,7 @@
       <c r="C64">
         <v>577059</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0.30705374454128692</v>
       </c>
@@ -53281,7 +53135,7 @@
       <c r="C65">
         <v>608996</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0.28627248879520462</v>
       </c>
@@ -53299,7 +53153,7 @@
       <c r="C66">
         <v>592442</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>0.32085256281631108</v>
       </c>
@@ -53317,7 +53171,7 @@
       <c r="C67">
         <v>617162</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <f t="shared" ref="D67:D91" si="1">(C67-B67)/B67</f>
         <v>0.37317384668099557</v>
       </c>
@@ -53335,7 +53189,7 @@
       <c r="C68">
         <v>567457</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <f t="shared" si="1"/>
         <v>0.3338590820943762</v>
       </c>
@@ -53353,7 +53207,7 @@
       <c r="C69">
         <v>592694</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <f t="shared" si="1"/>
         <v>0.37576977268348616</v>
       </c>
@@ -53371,7 +53225,7 @@
       <c r="C70">
         <v>545732</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <f t="shared" si="1"/>
         <v>0.29440310809304354</v>
       </c>
@@ -53389,7 +53243,7 @@
       <c r="C71">
         <v>595669</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <f t="shared" si="1"/>
         <v>0.32458016828847419</v>
       </c>
@@ -53407,7 +53261,7 @@
       <c r="C72">
         <v>559575</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <f t="shared" si="1"/>
         <v>0.29853479003453015</v>
       </c>
@@ -53425,7 +53279,7 @@
       <c r="C73">
         <v>590997</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <f t="shared" si="1"/>
         <v>0.2930629337580844</v>
       </c>
@@ -53443,7 +53297,7 @@
       <c r="C74">
         <v>561537</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <f t="shared" si="1"/>
         <v>0.32917288997351296</v>
       </c>
@@ -53461,7 +53315,7 @@
       <c r="C75">
         <v>577396</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <f t="shared" si="1"/>
         <v>0.30710354803876516</v>
       </c>
@@ -53479,7 +53333,7 @@
       <c r="C76">
         <v>567315</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <f t="shared" si="1"/>
         <v>0.37858762292871045</v>
       </c>
@@ -53497,7 +53351,7 @@
       <c r="C77">
         <v>581544</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <f t="shared" si="1"/>
         <v>0.36849982350864807</v>
       </c>
@@ -53515,7 +53369,7 @@
       <c r="C78">
         <v>619809</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <f t="shared" si="1"/>
         <v>0.35326521254994431</v>
       </c>
@@ -53533,7 +53387,7 @@
       <c r="C79">
         <v>491584</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <f t="shared" si="1"/>
         <v>0.37941252399178388</v>
       </c>
@@ -53551,7 +53405,7 @@
       <c r="C80">
         <v>584034</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <f t="shared" si="1"/>
         <v>0.56519991316862173</v>
       </c>
@@ -53569,7 +53423,7 @@
       <c r="C81">
         <v>579790</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="6">
         <f t="shared" si="1"/>
         <v>0.41666157624033329</v>
       </c>
@@ -53587,7 +53441,7 @@
       <c r="C82">
         <v>604877</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <f t="shared" si="1"/>
         <v>0.41220156797923058</v>
       </c>
@@ -53605,7 +53459,7 @@
       <c r="C83">
         <v>598424</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <f t="shared" si="1"/>
         <v>0.41025647068249999</v>
       </c>
@@ -53623,7 +53477,7 @@
       <c r="C84">
         <v>634245</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <f t="shared" si="1"/>
         <v>0.48675099273789374</v>
       </c>
@@ -53641,7 +53495,7 @@
       <c r="C85">
         <v>645927</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <f t="shared" si="1"/>
         <v>0.44990852871524933</v>
       </c>
@@ -53659,7 +53513,7 @@
       <c r="C86">
         <v>641673</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <f t="shared" si="1"/>
         <v>0.40076055089731472</v>
       </c>
@@ -53677,7 +53531,7 @@
       <c r="C87">
         <v>612033</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <f t="shared" si="1"/>
         <v>0.38848481823626563</v>
       </c>
@@ -53695,7 +53549,7 @@
       <c r="C88">
         <v>608814</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <f t="shared" si="1"/>
         <v>0.39854038743823522</v>
       </c>
@@ -53713,7 +53567,7 @@
       <c r="C89">
         <v>618335</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <f t="shared" si="1"/>
         <v>0.37248569437230589</v>
       </c>
@@ -53731,7 +53585,7 @@
       <c r="C90">
         <v>614491</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <f t="shared" si="1"/>
         <v>0.39193278757594019</v>
       </c>
@@ -53749,7 +53603,7 @@
       <c r="C91">
         <v>583486</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <f t="shared" si="1"/>
         <v>0.40639703046664094</v>
       </c>
@@ -53775,7 +53629,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="7"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -53797,10 +53651,10 @@
       <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
@@ -53825,7 +53679,7 @@
         <f t="shared" ref="E2:E16" si="1">C2/J2</f>
         <v>256.00227790432803</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f t="shared" ref="H2:H16" si="2">(C2-B2)/B2</f>
         <v>0.26638732027069661</v>
       </c>
@@ -53851,7 +53705,7 @@
         <f t="shared" si="1"/>
         <v>254.87568792489478</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" si="2"/>
         <v>0.40506193572105459</v>
       </c>
@@ -53877,7 +53731,7 @@
         <f t="shared" si="1"/>
         <v>253.05827128520556</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>0.5374419793879317</v>
       </c>
@@ -53911,11 +53765,11 @@
         <f>AVERAGE(E2:E5)</f>
         <v>254.94035581470294</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>0.50594091292822696</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>(G5-F5)/F5</f>
         <v>0.42023287493209655</v>
       </c>
@@ -53949,11 +53803,11 @@
         <f t="shared" si="3"/>
         <v>254.42554685642025</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>0.2608018715585127</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" ref="I6:I69" si="4">(G6-F6)/F6</f>
         <v>0.41882271150271749</v>
       </c>
@@ -53987,11 +53841,11 @@
         <f t="shared" si="5"/>
         <v>253.66447277163672</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>0.64486433698877998</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="4"/>
         <v>0.47267476931256053</v>
       </c>
@@ -54025,11 +53879,11 @@
         <f t="shared" si="6"/>
         <v>253.65079405476467</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>0.35669679853258851</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="4"/>
         <v>0.42725397641131074</v>
       </c>
@@ -54063,11 +53917,11 @@
         <f t="shared" si="7"/>
         <v>251.20322690761162</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>0.93573545310015893</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="4"/>
         <v>0.50398124562201063</v>
       </c>
@@ -54101,11 +53955,11 @@
         <f t="shared" si="8"/>
         <v>251.76442726921738</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>0.38556675432951909</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="4"/>
         <v>0.54554932930258981</v>
       </c>
@@ -54139,11 +53993,11 @@
         <f t="shared" si="9"/>
         <v>252.46863886194632</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>0.3865403167315668</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="4"/>
         <v>0.48044778262854021</v>
       </c>
@@ -54177,11 +54031,11 @@
         <f t="shared" si="10"/>
         <v>253.08397995473649</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>0.34842537825393954</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="4"/>
         <v>0.47762413953064742</v>
       </c>
@@ -54215,11 +54069,11 @@
         <f t="shared" si="11"/>
         <v>254.55536695764627</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>0.36176794421433439</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="4"/>
         <v>0.37041145079090992</v>
       </c>
@@ -54253,11 +54107,11 @@
         <f t="shared" si="12"/>
         <v>254.29776915615906</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>0.33113053040998108</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="4"/>
         <v>0.35663197655992296</v>
       </c>
@@ -54291,11 +54145,11 @@
         <f t="shared" si="13"/>
         <v>253.97518590365343</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>0.3824324824954618</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="4"/>
         <v>0.35561191868867864</v>
       </c>
@@ -54329,11 +54183,11 @@
         <f t="shared" si="14"/>
         <v>252.89823795667635</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>0.36681686780481709</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="4"/>
         <v>0.36021115754521305</v>
       </c>
@@ -54353,7 +54207,7 @@
         <f t="shared" si="14"/>
         <v>253.22416208643173</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="4"/>
         <v>0.35969568591323459</v>
       </c>
@@ -54384,11 +54238,11 @@
         <f t="shared" si="14"/>
         <v>248.95732298739088</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f>(C18-B18)/B18</f>
         <v>0.26785647839632504</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="4"/>
         <v>0.33805382624631886</v>
       </c>
@@ -54408,7 +54262,7 @@
         <f t="shared" si="14"/>
         <v>246.75703200775945</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="4"/>
         <v>0.31635981997100693</v>
       </c>
@@ -54439,11 +54293,11 @@
         <f t="shared" si="14"/>
         <v>239.94673642575452</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f t="shared" ref="H20:H27" si="17">(C20-B20)/B20</f>
         <v>0.45360103508517391</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="4"/>
         <v>0.35346215576435558</v>
       </c>
@@ -54477,11 +54331,11 @@
         <f t="shared" si="14"/>
         <v>242.98441083791235</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="17"/>
         <v>0.48359131809220901</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="4"/>
         <v>0.39527642445614464</v>
       </c>
@@ -54515,11 +54369,11 @@
         <f t="shared" si="14"/>
         <v>243.59066210534795</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="17"/>
         <v>0.41243906097652439</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="4"/>
         <v>0.44947295694463846</v>
       </c>
@@ -54553,11 +54407,11 @@
         <f t="shared" si="14"/>
         <v>243.58683774594775</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="17"/>
         <v>0.37088490973938903</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="4"/>
         <v>0.42899411033970836</v>
       </c>
@@ -54591,11 +54445,11 @@
         <f t="shared" si="14"/>
         <v>245.04062873241276</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="17"/>
         <v>0.40133238012218775</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="4"/>
         <v>0.41624318355462431</v>
       </c>
@@ -54629,11 +54483,11 @@
         <f t="shared" si="14"/>
         <v>242.50680713128037</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="17"/>
         <v>0.33126832096433068</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="4"/>
         <v>0.37850351266803856</v>
       </c>
@@ -54667,11 +54521,11 @@
         <f t="shared" si="14"/>
         <v>242.4329011345219</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f t="shared" si="17"/>
         <v>0.31415126966327461</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="4"/>
         <v>0.35364387518659096</v>
       </c>
@@ -54705,11 +54559,11 @@
         <f t="shared" si="14"/>
         <v>244.32025931928689</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f t="shared" si="17"/>
         <v>0.3349507871302142</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="4"/>
         <v>0.34459106291353503</v>
       </c>
@@ -54729,7 +54583,7 @@
         <f t="shared" si="14"/>
         <v>244.64311183144244</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="4"/>
         <v>0.32677807865016451</v>
       </c>
@@ -54760,11 +54614,11 @@
         <f t="shared" si="14"/>
         <v>237.52390411664467</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" ref="H29:H42" si="20">(C29-B29)/B29</f>
         <v>0.38596187318006714</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="4"/>
         <v>0.34276668290200912</v>
       </c>
@@ -54798,11 +54652,11 @@
         <f t="shared" si="14"/>
         <v>240.50748220475222</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="20"/>
         <v>0.34570845566394309</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="4"/>
         <v>0.35376749606373059</v>
       </c>
@@ -54836,11 +54690,11 @@
         <f t="shared" si="14"/>
         <v>239.80471624072322</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="20"/>
         <v>0.39499100163656037</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f t="shared" si="4"/>
         <v>0.37459121058329242</v>
       </c>
@@ -54874,11 +54728,11 @@
         <f t="shared" si="21"/>
         <v>231.51109137012509</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <f t="shared" si="20"/>
         <v>0.43773903452001756</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <f t="shared" si="4"/>
         <v>0.38819597873779277</v>
       </c>
@@ -54912,11 +54766,11 @@
         <f t="shared" si="21"/>
         <v>232.63151083791655</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f t="shared" si="20"/>
         <v>0.35978333871552509</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <f t="shared" si="4"/>
         <v>0.38182684694795271</v>
       </c>
@@ -54950,11 +54804,11 @@
         <f t="shared" si="21"/>
         <v>226.89873827240376</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <f t="shared" si="20"/>
         <v>0.446687228346617</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <f t="shared" si="4"/>
         <v>0.40835097928771591</v>
       </c>
@@ -54988,11 +54842,11 @@
         <f t="shared" si="21"/>
         <v>220.78243286962149</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="20"/>
         <v>0.41934481207312585</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="4"/>
         <v>0.4149587577512257</v>
       </c>
@@ -55026,11 +54880,11 @@
         <f t="shared" si="21"/>
         <v>227.8506146878033</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="20"/>
         <v>0.50503589069660904</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <f t="shared" si="4"/>
         <v>0.43190321503415902</v>
       </c>
@@ -55064,11 +54918,11 @@
         <f t="shared" si="21"/>
         <v>226.72805722887293</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="20"/>
         <v>0.57301835174770166</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <f t="shared" si="4"/>
         <v>0.48307857520165737</v>
       </c>
@@ -55102,11 +54956,11 @@
         <f t="shared" si="21"/>
         <v>225.14319172919653</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f t="shared" si="20"/>
         <v>0.52769005075714026</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <f t="shared" si="4"/>
         <v>0.50363438199801513</v>
       </c>
@@ -55140,11 +54994,11 @@
         <f t="shared" si="21"/>
         <v>224.74091950890119</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f t="shared" si="20"/>
         <v>0.55515807836518316</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <f t="shared" si="4"/>
         <v>0.53911160403880787</v>
       </c>
@@ -55178,11 +55032,11 @@
         <f t="shared" si="21"/>
         <v>218.44088989931797</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <f t="shared" si="20"/>
         <v>0.50827281242919109</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <f t="shared" si="4"/>
         <v>0.54092946584753143</v>
       </c>
@@ -55216,11 +55070,11 @@
         <f t="shared" si="21"/>
         <v>223.20063332250731</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f t="shared" si="20"/>
         <v>0.47871493932763082</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <f t="shared" si="4"/>
         <v>0.51648280720491502</v>
       </c>
@@ -55254,11 +55108,11 @@
         <f t="shared" si="21"/>
         <v>227.91839883078922</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <f t="shared" si="20"/>
         <v>0.40559340481382306</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <f t="shared" si="4"/>
         <v>0.48271007994996773</v>
       </c>
@@ -55278,7 +55132,7 @@
         <f t="shared" si="21"/>
         <v>229.57713543358236</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <f t="shared" si="4"/>
         <v>0.46068333621483581</v>
       </c>
@@ -55309,11 +55163,11 @@
         <f t="shared" si="21"/>
         <v>240.04633539027824</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <f t="shared" ref="H44:H64" si="24">(C44-B44)/B44</f>
         <v>0.39749031950800323</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <f t="shared" si="4"/>
         <v>0.42599215523855516</v>
       </c>
@@ -55347,11 +55201,11 @@
         <f t="shared" si="21"/>
         <v>222.31482082927357</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <f t="shared" si="24"/>
         <v>0.37274621198309038</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <f t="shared" si="4"/>
         <v>0.39350316223772414</v>
       </c>
@@ -55385,11 +55239,11 @@
         <f t="shared" si="21"/>
         <v>206.03044986598138</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <f t="shared" si="24"/>
         <v>0.3877606086897864</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <f t="shared" si="4"/>
         <v>0.3870261579878792</v>
       </c>
@@ -55423,11 +55277,11 @@
         <f t="shared" si="21"/>
         <v>204.35387244166645</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <f t="shared" si="24"/>
         <v>0.38005966688981846</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <f t="shared" si="4"/>
         <v>0.38532092528319073</v>
       </c>
@@ -55461,11 +55315,11 @@
         <f t="shared" si="21"/>
         <v>195.76816805583996</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <f t="shared" si="24"/>
         <v>0.44684025845720582</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <f t="shared" si="4"/>
         <v>0.39726188379158117</v>
       </c>
@@ -55499,11 +55353,11 @@
         <f t="shared" si="21"/>
         <v>204.23110172540203</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <f t="shared" si="24"/>
         <v>0.26036510163156557</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <f t="shared" si="4"/>
         <v>0.3633467631688348</v>
       </c>
@@ -55537,11 +55391,11 @@
         <f t="shared" si="21"/>
         <v>208.7735861619467</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <f t="shared" si="24"/>
         <v>0.40733310467265932</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <f t="shared" si="4"/>
         <v>0.36861201661311294</v>
       </c>
@@ -55575,11 +55429,11 @@
         <f t="shared" si="21"/>
         <v>211.8623012009088</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <f t="shared" si="24"/>
         <v>0.33047524623205793</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <f t="shared" si="4"/>
         <v>0.35625539244535609</v>
       </c>
@@ -55613,11 +55467,11 @@
         <f t="shared" si="21"/>
         <v>214.43224602401818</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <f t="shared" si="24"/>
         <v>0.3233025424265451</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <f t="shared" si="4"/>
         <v>0.32784724643827245</v>
       </c>
@@ -55651,11 +55505,11 @@
         <f t="shared" si="21"/>
         <v>217.36408633560532</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <f t="shared" si="24"/>
         <v>0.40941872637626958</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <f t="shared" si="4"/>
         <v>0.36697136284564075</v>
       </c>
@@ -55689,11 +55543,11 @@
         <f t="shared" si="21"/>
         <v>219.53055712294125</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <f t="shared" si="24"/>
         <v>0.42992220126633435</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <f t="shared" si="4"/>
         <v>0.37264665035507633</v>
       </c>
@@ -55727,11 +55581,11 @@
         <f t="shared" si="21"/>
         <v>222.27474279780134</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <f t="shared" si="24"/>
         <v>0.34058692985129441</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <f t="shared" si="4"/>
         <v>0.37478783300590057</v>
       </c>
@@ -55765,11 +55619,11 @@
         <f t="shared" si="21"/>
         <v>224.45507787247314</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <f t="shared" si="24"/>
         <v>0.31605793763085738</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <f t="shared" si="4"/>
         <v>0.37229568835512156</v>
       </c>
@@ -55803,11 +55657,11 @@
         <f t="shared" si="21"/>
         <v>225.83778538187588</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <f t="shared" si="24"/>
         <v>0.34622247553484353</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <f t="shared" si="4"/>
         <v>0.35641961872951489</v>
       </c>
@@ -55841,11 +55695,11 @@
         <f t="shared" si="21"/>
         <v>223.79657837343979</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <f t="shared" si="24"/>
         <v>0.44989172667690663</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <f t="shared" si="4"/>
         <v>0.35999492488292001</v>
       </c>
@@ -55879,11 +55733,11 @@
         <f t="shared" si="21"/>
         <v>220.40235384391352</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <f t="shared" si="24"/>
         <v>0.33738115449034189</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <f t="shared" si="4"/>
         <v>0.35951399116162919</v>
       </c>
@@ -55917,11 +55771,11 @@
         <f t="shared" si="21"/>
         <v>217.09441920830631</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <f t="shared" si="24"/>
         <v>0.39897144346035807</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <f t="shared" si="4"/>
         <v>0.38090130028672253</v>
       </c>
@@ -55955,11 +55809,11 @@
         <f t="shared" si="21"/>
         <v>215.17115509409473</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <f t="shared" si="24"/>
         <v>0.43999983520682573</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <f t="shared" si="4"/>
         <v>0.40597620584709038</v>
       </c>
@@ -55993,11 +55847,11 @@
         <f t="shared" si="21"/>
         <v>219.06464957819597</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <f t="shared" si="24"/>
         <v>0.39913638845382848</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <f t="shared" si="4"/>
         <v>0.39397735572468628</v>
       </c>
@@ -56031,11 +55885,11 @@
         <f t="shared" si="21"/>
         <v>225.03390655418559</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="6">
         <f t="shared" si="24"/>
         <v>0.36309355427256557</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <f t="shared" si="4"/>
         <v>0.39952770912693775</v>
       </c>
@@ -56069,11 +55923,11 @@
         <f t="shared" si="21"/>
         <v>229.5858208955224</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <f t="shared" si="24"/>
         <v>0.31476000229247125</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <f t="shared" si="4"/>
         <v>0.37734175213207305</v>
       </c>
@@ -56093,7 +55947,7 @@
         <f t="shared" si="21"/>
         <v>230.50789530607832</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <f t="shared" si="4"/>
         <v>0.35796078671244025</v>
       </c>
@@ -56110,7 +55964,7 @@
         <f t="shared" si="21"/>
         <v>231.85025957170669</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <f t="shared" si="4"/>
         <v>0.33860579868155588</v>
       </c>
@@ -56141,11 +55995,11 @@
         <f t="shared" si="21"/>
         <v>225.94970798182999</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <f>(C67-B67)/B67</f>
         <v>0.29507695230856928</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <f t="shared" si="4"/>
         <v>0.30505312495022041</v>
       </c>
@@ -56179,11 +56033,11 @@
         <f t="shared" si="21"/>
         <v>225.13741077222582</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <f>(C68-B68)/B68</f>
         <v>0.27218286768468009</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <f t="shared" si="4"/>
         <v>0.28332538044403016</v>
       </c>
@@ -56217,11 +56071,11 @@
         <f t="shared" si="21"/>
         <v>222.01254596582305</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <f>(C69-B69)/B69</f>
         <v>0.21100498074173898</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <f t="shared" si="4"/>
         <v>0.258969274748648</v>
       </c>
@@ -56255,11 +56109,11 @@
         <f t="shared" si="21"/>
         <v>221.27214471122647</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <f>(C70-B70)/B70</f>
         <v>0.28544853559990707</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <f t="shared" ref="I70:I133" si="25">(G70-F70)/F70</f>
         <v>0.26542053300094021</v>
       </c>
@@ -56293,11 +56147,11 @@
         <f t="shared" si="21"/>
         <v>210.67759001074666</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="6">
         <f>(C71-B71)/B71</f>
         <v>0.47222459961700169</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <f t="shared" si="25"/>
         <v>0.29625922376778724</v>
       </c>
@@ -56317,7 +56171,7 @@
         <f t="shared" si="21"/>
         <v>204.5301027095484</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <f t="shared" si="25"/>
         <v>0.30548488858715361</v>
       </c>
@@ -56334,7 +56188,7 @@
         <f t="shared" si="21"/>
         <v>198.91374588781386</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <f t="shared" si="25"/>
         <v>0.3631646780615585</v>
       </c>
@@ -56351,7 +56205,7 @@
         <f t="shared" si="21"/>
         <v>178.77655082819098</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <f t="shared" si="25"/>
         <v>0.47222459961700175</v>
       </c>
@@ -56382,11 +56236,11 @@
         <f t="shared" si="21"/>
         <v>183.11067657411027</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <f t="shared" ref="H75:H90" si="28">(C75-B75)/B75</f>
         <v>0.43326282535960597</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <f t="shared" si="25"/>
         <v>0.43326282535960592</v>
       </c>
@@ -56420,11 +56274,11 @@
         <f t="shared" si="21"/>
         <v>183.91806804849432</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <f t="shared" si="28"/>
         <v>0.54071447676580531</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <f t="shared" si="25"/>
         <v>0.48528308680128407</v>
       </c>
@@ -56458,11 +56312,11 @@
         <f t="shared" si="21"/>
         <v>188.81606048755052</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <f t="shared" si="28"/>
         <v>0.39880735966506914</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <f t="shared" si="25"/>
         <v>0.45377096107540715</v>
       </c>
@@ -56496,11 +56350,11 @@
         <f t="shared" si="21"/>
         <v>192.65672663277277</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <f t="shared" si="28"/>
         <v>0.4042470211678636</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <f t="shared" si="25"/>
         <v>0.44031252078611161</v>
       </c>
@@ -56534,11 +56388,11 @@
         <f t="shared" si="21"/>
         <v>200.15457567461868</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="6">
         <f t="shared" si="28"/>
         <v>0.49179502061511338</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <f t="shared" si="25"/>
         <v>0.45531780278526185</v>
       </c>
@@ -56572,11 +56426,11 @@
         <f t="shared" si="21"/>
         <v>204.78719830853041</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="6">
         <f t="shared" si="28"/>
         <v>0.47141731371613055</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="6">
         <f t="shared" si="25"/>
         <v>0.44121651694614011</v>
       </c>
@@ -56610,11 +56464,11 @@
         <f t="shared" si="21"/>
         <v>206.99323885942835</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="6">
         <f t="shared" si="28"/>
         <v>0.42628078731834779</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="6">
         <f t="shared" si="25"/>
         <v>0.44794813154359731</v>
       </c>
@@ -56648,11 +56502,11 @@
         <f t="shared" si="21"/>
         <v>205.96845614869773</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="6">
         <f t="shared" si="28"/>
         <v>0.36134944569511107</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="6">
         <f t="shared" si="25"/>
         <v>0.43683301225687599</v>
       </c>
@@ -56686,11 +56540,11 @@
         <f t="shared" si="21"/>
         <v>199.57764338665626</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="6">
         <f t="shared" si="28"/>
         <v>0.33055224913494807</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="6">
         <f t="shared" si="25"/>
         <v>0.39688272321367601</v>
       </c>
@@ -56724,11 +56578,11 @@
         <f t="shared" si="21"/>
         <v>202.44430355052674</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="6">
         <f t="shared" si="28"/>
         <v>0.47460792536045682</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <f t="shared" si="25"/>
         <v>0.39864775618907966</v>
       </c>
@@ -56762,11 +56616,11 @@
         <f t="shared" si="21"/>
         <v>197.07735076082719</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="6">
         <f t="shared" si="28"/>
         <v>0.36901318642811803</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <f t="shared" si="25"/>
         <v>0.3845190796172977</v>
       </c>
@@ -56800,11 +56654,11 @@
         <f t="shared" si="21"/>
         <v>198.29828683783325</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="6">
         <f t="shared" si="28"/>
         <v>0.37706352783338748</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <f t="shared" si="25"/>
         <v>0.38853765543438479</v>
       </c>
@@ -56838,11 +56692,11 @@
         <f t="shared" si="21"/>
         <v>197.08174372429443</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="6">
         <f t="shared" si="28"/>
         <v>0.42456375226301135</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="6">
         <f t="shared" si="25"/>
         <v>0.41144183666097384</v>
       </c>
@@ -56876,11 +56730,11 @@
         <f t="shared" si="21"/>
         <v>194.44440466850045</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="6">
         <f t="shared" si="28"/>
         <v>0.33855834654934264</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <f t="shared" si="25"/>
         <v>0.3755145423487824</v>
       </c>
@@ -56914,11 +56768,11 @@
         <f t="shared" si="21"/>
         <v>194.05784594825073</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="6">
         <f t="shared" si="28"/>
         <v>0.4026059579165393</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="6">
         <f t="shared" si="25"/>
         <v>0.38343712968284938</v>
       </c>
@@ -56952,11 +56806,11 @@
         <f t="shared" si="21"/>
         <v>195.84042138119392</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="6">
         <f t="shared" si="28"/>
         <v>0.42475677262433953</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <f t="shared" si="25"/>
         <v>0.39608991689195966</v>
       </c>
@@ -56976,7 +56830,7 @@
         <f t="shared" si="21"/>
         <v>200.2296787618676</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="6">
         <f t="shared" si="25"/>
         <v>0.38765522009098008</v>
       </c>
@@ -57007,11 +56861,11 @@
         <f t="shared" si="21"/>
         <v>200.3189819697277</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="6">
         <f t="shared" ref="H92:H111" si="31">(C92-B92)/B92</f>
         <v>0.26641709845148071</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="6">
         <f t="shared" si="25"/>
         <v>0.36030469712033097</v>
       </c>
@@ -57045,11 +56899,11 @@
         <f t="shared" si="21"/>
         <v>208.9703406678293</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="6">
         <f t="shared" si="31"/>
         <v>0.33450881963651419</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="6">
         <f t="shared" si="25"/>
         <v>0.33972820673334708</v>
       </c>
@@ -57083,11 +56937,11 @@
         <f t="shared" si="21"/>
         <v>204.52169661410585</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="6">
         <f t="shared" si="31"/>
         <v>0.31605977310695832</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="6">
         <f t="shared" si="25"/>
         <v>0.30519897905056692</v>
       </c>
@@ -57121,11 +56975,11 @@
         <f t="shared" si="21"/>
         <v>204.30573890722405</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="6">
         <f t="shared" si="31"/>
         <v>0.44072127507237652</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="6">
         <f t="shared" si="25"/>
         <v>0.33652967324526162</v>
       </c>
@@ -57159,11 +57013,11 @@
         <f t="shared" si="32"/>
         <v>204.21488815548224</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="6">
         <f t="shared" si="31"/>
         <v>0.30918466485841789</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="6">
         <f t="shared" si="25"/>
         <v>0.34817495718064034</v>
       </c>
@@ -57197,11 +57051,11 @@
         <f t="shared" si="32"/>
         <v>202.17959295929592</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="6">
         <f t="shared" si="31"/>
         <v>0.33128067223645113</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="6">
         <f t="shared" si="25"/>
         <v>0.34748841540311459</v>
       </c>
@@ -57235,11 +57089,11 @@
         <f t="shared" si="32"/>
         <v>205.73569856985699</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="6">
         <f t="shared" si="31"/>
         <v>0.34487222237659898</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="6">
         <f t="shared" si="25"/>
         <v>0.35461912890631597</v>
       </c>
@@ -57273,11 +57127,11 @@
         <f t="shared" si="32"/>
         <v>206.11881188118812</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="6">
         <f t="shared" si="31"/>
         <v>0.26260565827417676</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="6">
         <f t="shared" si="25"/>
         <v>0.3114725793675332</v>
       </c>
@@ -57311,11 +57165,11 @@
         <f t="shared" si="32"/>
         <v>204.00403373670699</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="6">
         <f t="shared" si="31"/>
         <v>0.24905054251368577</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="6">
         <f t="shared" si="25"/>
         <v>0.29650662476410866</v>
       </c>
@@ -57349,11 +57203,11 @@
         <f t="shared" si="32"/>
         <v>198.56123945727907</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="6">
         <f t="shared" si="31"/>
         <v>0.32341472597214005</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="6">
         <f t="shared" si="25"/>
         <v>0.29387848245243059</v>
       </c>
@@ -57387,11 +57241,11 @@
         <f t="shared" si="32"/>
         <v>194.11927026035937</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="6">
         <f t="shared" si="31"/>
         <v>0.30866886612942085</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="6">
         <f t="shared" si="25"/>
         <v>0.28417185906120862</v>
       </c>
@@ -57425,11 +57279,11 @@
         <f t="shared" si="32"/>
         <v>188.67005867253391</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="6">
         <f t="shared" si="31"/>
         <v>0.35059723298702911</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="6">
         <f t="shared" si="25"/>
         <v>0.3058433264403686</v>
       </c>
@@ -57463,11 +57317,11 @@
         <f t="shared" si="32"/>
         <v>189.90859919325266</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="6">
         <f t="shared" si="31"/>
         <v>0.4182418801956117</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="6">
         <f t="shared" si="25"/>
         <v>0.34989661659647359</v>
       </c>
@@ -57501,11 +57355,11 @@
         <f t="shared" si="32"/>
         <v>194.41767510084341</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="6">
         <f t="shared" si="31"/>
         <v>0.28671943711521547</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="6">
         <f t="shared" si="25"/>
         <v>0.33933052041512973</v>
       </c>
@@ -57539,11 +57393,11 @@
         <f t="shared" si="32"/>
         <v>197.22442244224425</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="6">
         <f t="shared" si="31"/>
         <v>0.28794007559187706</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="6">
         <f t="shared" si="25"/>
         <v>0.33313999208044504</v>
       </c>
@@ -57577,11 +57431,11 @@
         <f t="shared" si="32"/>
         <v>202.29024569123578</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="6">
         <f t="shared" si="31"/>
         <v>0.28706405285710646</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="6">
         <f t="shared" si="25"/>
         <v>0.31741036539241152</v>
       </c>
@@ -57615,11 +57469,11 @@
         <f t="shared" si="32"/>
         <v>203.99312431243123</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="6">
         <f t="shared" si="31"/>
         <v>0.28296412245777613</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="6">
         <f t="shared" si="25"/>
         <v>0.28615695672228247</v>
       </c>
@@ -57653,11 +57507,11 @@
         <f t="shared" si="32"/>
         <v>203.7236890355702</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="6">
         <f t="shared" si="31"/>
         <v>0.29221031711742851</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109" s="6">
         <f t="shared" si="25"/>
         <v>0.28748102571233219</v>
       </c>
@@ -57691,11 +57545,11 @@
         <f t="shared" si="32"/>
         <v>203.30399706637331</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="6">
         <f t="shared" si="31"/>
         <v>0.30348000868426395</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="6">
         <f t="shared" si="25"/>
         <v>0.29135496073189443</v>
       </c>
@@ -57729,11 +57583,11 @@
         <f t="shared" si="32"/>
         <v>204.24388053709922</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="6">
         <f t="shared" si="31"/>
         <v>0.39839173145033746</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111" s="6">
         <f t="shared" si="25"/>
         <v>0.31806419915195311</v>
       </c>
@@ -57753,7 +57607,7 @@
         <f t="shared" si="32"/>
         <v>203.19707235040684</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="6">
         <f t="shared" si="25"/>
         <v>0.33044727136478952</v>
       </c>
@@ -57784,11 +57638,11 @@
         <f t="shared" si="32"/>
         <v>204.4843052587197</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="6">
         <f t="shared" ref="H113:H122" si="35">(C113-B113)/B113</f>
         <v>0.33191630977916298</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="6">
         <f t="shared" si="25"/>
         <v>0.34372965222071578</v>
       </c>
@@ -57822,11 +57676,11 @@
         <f t="shared" si="32"/>
         <v>206.43575624082231</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="6">
         <f t="shared" si="35"/>
         <v>0.35089892270559842</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="6">
         <f t="shared" si="25"/>
         <v>0.36006910824405253</v>
       </c>
@@ -57860,11 +57714,11 @@
         <f t="shared" si="32"/>
         <v>207.59703866862458</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="6">
         <f t="shared" si="35"/>
         <v>0.44411123707634415</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="6">
         <f t="shared" si="25"/>
         <v>0.37461319625686612</v>
       </c>
@@ -57898,11 +57752,11 @@
         <f t="shared" si="32"/>
         <v>208.73898678414099</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="6">
         <f t="shared" si="35"/>
         <v>0.33437308797894322</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="6">
         <f t="shared" si="25"/>
         <v>0.36415981114014084</v>
       </c>
@@ -57936,11 +57790,11 @@
         <f t="shared" si="32"/>
         <v>211.59269456681352</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="6">
         <f t="shared" si="35"/>
         <v>0.36787457120529971</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="6">
         <f t="shared" si="25"/>
         <v>0.3730015519498231</v>
       </c>
@@ -57974,11 +57828,11 @@
         <f t="shared" si="32"/>
         <v>208.64087738619679</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="6">
         <f t="shared" si="35"/>
         <v>0.35576374215127632</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="6">
         <f t="shared" si="25"/>
         <v>0.3745138098264077</v>
       </c>
@@ -58012,11 +57866,11 @@
         <f t="shared" si="32"/>
         <v>205.86251835535975</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="6">
         <f t="shared" si="35"/>
         <v>0.33394202628573111</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119" s="6">
         <f t="shared" si="25"/>
         <v>0.34792908084408808</v>
       </c>
@@ -58050,11 +57904,11 @@
         <f t="shared" si="32"/>
         <v>203.58250734214391</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="6">
         <f t="shared" si="35"/>
         <v>0.3696378381724757</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="6">
         <f t="shared" si="25"/>
         <v>0.35688297420727405</v>
       </c>
@@ -58088,11 +57942,11 @@
         <f t="shared" si="32"/>
         <v>203.03386563876651</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H121" s="6">
         <f t="shared" si="35"/>
         <v>0.30505554430229936</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121" s="6">
         <f t="shared" si="25"/>
         <v>0.34026632578258925</v>
       </c>
@@ -58126,11 +57980,11 @@
         <f t="shared" si="32"/>
         <v>206.99642070484583</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="6">
         <f t="shared" si="35"/>
         <v>0.3903860558574197</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="6">
         <f t="shared" si="25"/>
         <v>0.34917154039828535</v>
       </c>
@@ -58150,7 +58004,7 @@
         <f t="shared" si="32"/>
         <v>209.39965736661773</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="6">
         <f t="shared" si="25"/>
         <v>0.35408814636566571</v>
       </c>
@@ -58181,11 +58035,11 @@
         <f t="shared" si="32"/>
         <v>205.82226373539743</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="6">
         <f t="shared" ref="H124:H130" si="38">(C124-B124)/B124</f>
         <v>0.3060452150796929</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="6">
         <f t="shared" si="25"/>
         <v>0.3338270896199978</v>
       </c>
@@ -58219,11 +58073,11 @@
         <f t="shared" si="32"/>
         <v>201.01362575174025</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="6">
         <f t="shared" si="38"/>
         <v>0.30705374454128692</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I125" s="6">
         <f t="shared" si="25"/>
         <v>0.33520960607839795</v>
       </c>
@@ -58257,11 +58111,11 @@
         <f t="shared" si="32"/>
         <v>198.39363692077407</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="6">
         <f t="shared" si="38"/>
         <v>0.28627248879520462</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="6">
         <f t="shared" si="25"/>
         <v>0.29943538910906931</v>
       </c>
@@ -58295,11 +58149,11 @@
         <f t="shared" si="32"/>
         <v>199.08741784338193</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="6">
         <f t="shared" si="38"/>
         <v>0.32085256281631108</v>
       </c>
-      <c r="I127" s="7">
+      <c r="I127" s="6">
         <f t="shared" si="25"/>
         <v>0.30477982391261677</v>
       </c>
@@ -58333,11 +58187,11 @@
         <f t="shared" si="32"/>
         <v>203.39992843655949</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="6">
         <f t="shared" si="38"/>
         <v>0.37317384668099557</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="6">
         <f t="shared" si="25"/>
         <v>0.32142993519503582</v>
       </c>
@@ -58371,11 +58225,11 @@
         <f t="shared" si="32"/>
         <v>202.55152801358236</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="6">
         <f t="shared" si="38"/>
         <v>0.3338590820943762</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="6">
         <f t="shared" si="25"/>
         <v>0.32790737149074356</v>
       </c>
@@ -58409,11 +58263,11 @@
         <f t="shared" si="32"/>
         <v>201.18474725723411</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H130" s="6">
         <f t="shared" si="38"/>
         <v>0.37576977268348616</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="6">
         <f t="shared" si="25"/>
         <v>0.35090099974655981</v>
       </c>
@@ -58447,11 +58301,11 @@
         <f t="shared" si="32"/>
         <v>197.23528808269361</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H131" s="6">
         <f t="shared" ref="H131:H152" si="39">(C131-B131)/B131</f>
         <v>0.29440310809304354</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="6">
         <f t="shared" si="25"/>
         <v>0.34490966046681998</v>
       </c>
@@ -58485,11 +58339,11 @@
         <f t="shared" si="32"/>
         <v>195.42793097064848</v>
       </c>
-      <c r="H132" s="7">
+      <c r="H132" s="6">
         <f t="shared" si="39"/>
         <v>0.32458016828847419</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="6">
         <f t="shared" si="25"/>
         <v>0.33226579064903339</v>
       </c>
@@ -58523,11 +58377,11 @@
         <f t="shared" si="32"/>
         <v>194.77496603260869</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H133" s="6">
         <f t="shared" si="39"/>
         <v>0.29853479003453015</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="6">
         <f t="shared" si="25"/>
         <v>0.32348749314791836</v>
       </c>
@@ -58561,11 +58415,11 @@
         <f t="shared" si="32"/>
         <v>194.630859375</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="6">
         <f t="shared" si="39"/>
         <v>0.2930629337580844</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="6">
         <f t="shared" ref="I134:I152" si="40">(G134-F134)/F134</f>
         <v>0.30278071930030986</v>
       </c>
@@ -58599,11 +58453,11 @@
         <f t="shared" si="32"/>
         <v>195.97299592391303</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H135" s="6">
         <f t="shared" si="39"/>
         <v>0.32917288997351296</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135" s="6">
         <f t="shared" si="40"/>
         <v>0.31112203186651166</v>
       </c>
@@ -58637,11 +58491,11 @@
         <f t="shared" si="32"/>
         <v>194.42128057065219</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H136" s="6">
         <f t="shared" si="39"/>
         <v>0.30710354803876516</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I136" s="6">
         <f t="shared" si="40"/>
         <v>0.30665487949923181</v>
       </c>
@@ -58675,11 +58529,11 @@
         <f t="shared" si="32"/>
         <v>195.07854959239131</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="6">
         <f t="shared" si="39"/>
         <v>0.37858762292871045</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137" s="6">
         <f t="shared" si="40"/>
         <v>0.3257576413379894</v>
       </c>
@@ -58713,11 +58567,11 @@
         <f t="shared" si="32"/>
         <v>194.27581521739131</v>
       </c>
-      <c r="H138" s="7">
+      <c r="H138" s="6">
         <f t="shared" si="39"/>
         <v>0.36849982350864807</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138" s="6">
         <f t="shared" si="40"/>
         <v>0.34522428421152285</v>
       </c>
@@ -58751,11 +58605,11 @@
         <f t="shared" si="32"/>
         <v>199.22418478260872</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="6">
         <f t="shared" si="39"/>
         <v>0.35326521254994431</v>
       </c>
-      <c r="I139" s="7">
+      <c r="I139" s="6">
         <f t="shared" si="40"/>
         <v>0.35125122680588122</v>
       </c>
@@ -58789,11 +58643,11 @@
         <f t="shared" si="32"/>
         <v>191.93716032608697</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="6">
         <f t="shared" si="39"/>
         <v>0.37941252399178388</v>
       </c>
-      <c r="I140" s="7">
+      <c r="I140" s="6">
         <f t="shared" si="40"/>
         <v>0.36914355081106637</v>
       </c>
@@ -58827,11 +58681,11 @@
         <f t="shared" si="32"/>
         <v>193.35691236413044</v>
       </c>
-      <c r="H141" s="7">
+      <c r="H141" s="6">
         <f t="shared" si="39"/>
         <v>0.56519991316862173</v>
       </c>
-      <c r="I141" s="7">
+      <c r="I141" s="6">
         <f t="shared" si="40"/>
         <v>0.41210218615055538</v>
       </c>
@@ -58865,11 +58719,11 @@
         <f t="shared" si="32"/>
         <v>193.20796535326087</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H142" s="6">
         <f t="shared" si="39"/>
         <v>0.41666157624033329</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="6">
         <f t="shared" si="40"/>
         <v>0.4248746229922144</v>
       </c>
@@ -58903,11 +58757,11 @@
         <f t="shared" si="32"/>
         <v>191.93996263586956</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="6">
         <f t="shared" si="39"/>
         <v>0.41220156797923058</v>
       </c>
-      <c r="I143" s="7">
+      <c r="I143" s="6">
         <f t="shared" si="40"/>
         <v>0.44233984388958963</v>
       </c>
@@ -58941,11 +58795,11 @@
         <f t="shared" si="32"/>
         <v>201.01265285326087</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H144" s="6">
         <f t="shared" si="39"/>
         <v>0.41025647068249999</v>
       </c>
-      <c r="I144" s="7">
+      <c r="I144" s="6">
         <f t="shared" si="40"/>
         <v>0.44772886149201774</v>
       </c>
@@ -58979,11 +58833,11 @@
         <f t="shared" si="32"/>
         <v>205.2764945652174</v>
       </c>
-      <c r="H145" s="7">
+      <c r="H145" s="6">
         <f t="shared" si="39"/>
         <v>0.48675099273789374</v>
       </c>
-      <c r="I145" s="7">
+      <c r="I145" s="6">
         <f t="shared" si="40"/>
         <v>0.43162837084740391</v>
       </c>
@@ -59017,11 +58871,11 @@
         <f t="shared" si="32"/>
         <v>210.8927479619565</v>
       </c>
-      <c r="H146" s="7">
+      <c r="H146" s="6">
         <f t="shared" si="39"/>
         <v>0.44990852871524933</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146" s="6">
         <f t="shared" si="40"/>
         <v>0.43990150468009293</v>
       </c>
@@ -59055,11 +58909,11 @@
         <f t="shared" si="32"/>
         <v>214.0174082880435</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H147" s="6">
         <f t="shared" si="39"/>
         <v>0.40076055089731472</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I147" s="6">
         <f t="shared" si="40"/>
         <v>0.43644440442081306</v>
       </c>
@@ -59093,11 +58947,11 @@
         <f t="shared" si="32"/>
         <v>215.17306385869566</v>
       </c>
-      <c r="H148" s="7">
+      <c r="H148" s="6">
         <f t="shared" si="39"/>
         <v>0.38848481823626563</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148" s="6">
         <f t="shared" si="40"/>
         <v>0.43078215716323337</v>
       </c>
@@ -59131,11 +58985,11 @@
         <f t="shared" si="32"/>
         <v>213.0135020380435</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H149" s="6">
         <f t="shared" si="39"/>
         <v>0.39854038743823522</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I149" s="6">
         <f t="shared" si="40"/>
         <v>0.4094798159461977</v>
       </c>
@@ -59169,11 +59023,11 @@
         <f t="shared" si="32"/>
         <v>210.67043138586956</v>
       </c>
-      <c r="H150" s="7">
+      <c r="H150" s="6">
         <f t="shared" si="39"/>
         <v>0.37248569437230589</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150" s="6">
         <f t="shared" si="40"/>
         <v>0.39004966594274532</v>
       </c>
@@ -59207,11 +59061,11 @@
         <f t="shared" si="32"/>
         <v>208.36217730978262</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="6">
         <f t="shared" si="39"/>
         <v>0.39193278757594019</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="6">
         <f t="shared" si="40"/>
         <v>0.38774481774514014</v>
       </c>
@@ -59245,11 +59099,11 @@
         <f t="shared" si="32"/>
         <v>205.93800951086956</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="6">
         <f t="shared" si="39"/>
         <v>0.40639703046664094</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="6">
         <f t="shared" si="40"/>
         <v>0.39199937549829572</v>
       </c>
@@ -59275,14 +59129,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -59290,7 +59144,7 @@
       <c r="A2" s="1">
         <v>43145</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.51825541846770395</v>
       </c>
     </row>
@@ -59298,7 +59152,7 @@
       <c r="A3" s="1">
         <v>43152</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.56689907832631703</v>
       </c>
     </row>
@@ -59306,7 +59160,7 @@
       <c r="A4" s="1">
         <v>43159</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.44233709607801502</v>
       </c>
     </row>
@@ -59314,10 +59168,10 @@
       <c r="A5" s="1">
         <v>43166</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.47204145039161999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>AVERAGE(B2:B5)</f>
         <v>0.499883260815914</v>
       </c>
@@ -59326,10 +59180,10 @@
       <c r="A6" s="1">
         <v>43173</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.44333719712206598</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:C69" si="0">AVERAGE(B3:B6)</f>
         <v>0.48115370547950453</v>
       </c>
@@ -59338,10 +59192,10 @@
       <c r="A7" s="1">
         <v>43180</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.42230821912764199</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>0.44500599067983571</v>
       </c>
@@ -59350,10 +59204,10 @@
       <c r="A8" s="1">
         <v>43187</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.459510343911046</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>0.44929930263809348</v>
       </c>
@@ -59362,10 +59216,10 @@
       <c r="A9" s="1">
         <v>43194</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.36906880163956901</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>0.42355614045008072</v>
       </c>
@@ -59374,10 +59228,10 @@
       <c r="A10" s="1">
         <v>43201</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.44508494592693298</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>0.42399307765129751</v>
       </c>
@@ -59386,10 +59240,10 @@
       <c r="A11" s="1">
         <v>43208</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.43640946852258999</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>0.42751839000003455</v>
       </c>
@@ -59398,10 +59252,10 @@
       <c r="A12" s="1">
         <v>43215</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.44148132658910499</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>0.42301113566954929</v>
       </c>
@@ -59410,10 +59264,10 @@
       <c r="A13" s="1">
         <v>43222</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>0.46399656286442797</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>0.44674307597576396</v>
       </c>
@@ -59422,10 +59276,10 @@
       <c r="A14" s="1">
         <v>43229</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>0.47924819802677499</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>0.45528388900072447</v>
       </c>
@@ -59434,10 +59288,10 @@
       <c r="A15" s="1">
         <v>43236</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.51157609818915994</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>0.47407554641736699</v>
       </c>
@@ -59446,10 +59300,10 @@
       <c r="A16" s="1">
         <v>43243</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>0.50789407284851096</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>0.49067873298221842</v>
       </c>
@@ -59458,10 +59312,10 @@
       <c r="A17" s="1">
         <v>43250</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>0.41359433409040902</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>0.4780781757887137</v>
       </c>
@@ -59470,10 +59324,10 @@
       <c r="A18" s="1">
         <v>43257</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>0.52417993602379598</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>0.48931111028796892</v>
       </c>
@@ -59482,10 +59336,10 @@
       <c r="A19" s="1">
         <v>43264</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>0.43824621452783902</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>0.47097863937263873</v>
       </c>
@@ -59494,10 +59348,10 @@
       <c r="A20" s="1">
         <v>43271</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0.35187452983677597</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>0.43197375361970503</v>
       </c>
@@ -59506,10 +59360,10 @@
       <c r="A21" s="1">
         <v>43278</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>0.36514599503669598</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>0.41986166885627674</v>
       </c>
@@ -59518,10 +59372,10 @@
       <c r="A22" s="1">
         <v>43285</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>0.38696974246636701</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>0.38555912046691948</v>
       </c>
@@ -59530,10 +59384,10 @@
       <c r="A23" s="1">
         <v>43292</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>0.42562552668895398</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>0.38240394850719822</v>
       </c>
@@ -59542,10 +59396,10 @@
       <c r="A24" s="1">
         <v>43299</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>0.449108798710806</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>0.40671251572570571</v>
       </c>
@@ -59554,10 +59408,10 @@
       <c r="A25" s="1">
         <v>43306</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>0.41322864758372901</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>0.41873317886246397</v>
       </c>
@@ -59566,10 +59420,10 @@
       <c r="A26" s="1">
         <v>43313</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>0.42394607357208502</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>0.42797726163889349</v>
       </c>
@@ -59578,10 +59432,10 @@
       <c r="A27" s="1">
         <v>43320</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>0.36899411082498801</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>0.41381940767290204</v>
       </c>
@@ -59590,10 +59444,10 @@
       <c r="A28" s="1">
         <v>43327</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>0.392635358302171</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>0.39970104757074321</v>
       </c>
@@ -59602,10 +59456,10 @@
       <c r="A29" s="1">
         <v>43334</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>0.46036642812016199</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>0.41148549270485152</v>
       </c>
@@ -59614,10 +59468,10 @@
       <c r="A30" s="1">
         <v>43341</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>0.55413018982404405</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>0.44403152176784128</v>
       </c>
@@ -59626,10 +59480,10 @@
       <c r="A31" s="1">
         <v>43348</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>0.486209117033648</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f t="shared" si="0"/>
         <v>0.47333527332000624</v>
       </c>
@@ -59638,10 +59492,10 @@
       <c r="A32" s="1">
         <v>43355</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>0.45498625202814802</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f t="shared" si="0"/>
         <v>0.48892299675150053</v>
       </c>
@@ -59650,10 +59504,10 @@
       <c r="A33" s="1">
         <v>43362</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>0.61103584360633001</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f t="shared" si="0"/>
         <v>0.52659035062304249</v>
       </c>
@@ -59662,10 +59516,10 @@
       <c r="A34" s="1">
         <v>43369</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>0.66038993394631296</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="0"/>
         <v>0.5531552866536098</v>
       </c>
@@ -59674,10 +59528,10 @@
       <c r="A35" s="1">
         <v>43376</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>0.48947674243110201</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <f t="shared" si="0"/>
         <v>0.55397219300297329</v>
       </c>
@@ -59686,10 +59540,10 @@
       <c r="A36" s="1">
         <v>43383</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>0.508920236589811</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <f t="shared" si="0"/>
         <v>0.56745568914338895</v>
       </c>
@@ -59698,10 +59552,10 @@
       <c r="A37" s="1">
         <v>43390</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>0.47778037511949301</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f t="shared" si="0"/>
         <v>0.5341418220216797</v>
       </c>
@@ -59710,10 +59564,10 @@
       <c r="A38" s="1">
         <v>43397</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>0.37848592900063099</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f t="shared" si="0"/>
         <v>0.46366582078525931</v>
       </c>
@@ -59722,10 +59576,10 @@
       <c r="A39" s="1">
         <v>43404</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>0.41401462792967503</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <f t="shared" si="0"/>
         <v>0.44480029215990252</v>
       </c>
@@ -59734,10 +59588,10 @@
       <c r="A40" s="1">
         <v>43411</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>0.43459511348637098</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <f t="shared" si="0"/>
         <v>0.4262190113840425</v>
       </c>
@@ -59746,10 +59600,10 @@
       <c r="A41" s="1">
         <v>43418</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>0.46143614791798199</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f t="shared" si="0"/>
         <v>0.42213295458366479</v>
       </c>
@@ -59758,10 +59612,10 @@
       <c r="A42" s="1">
         <v>43425</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>0.25680624231129701</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <f t="shared" si="0"/>
         <v>0.3917130329113313</v>
       </c>
@@ -59770,10 +59624,10 @@
       <c r="A43" s="1">
         <v>43432</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>0.38087241898941598</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f t="shared" si="0"/>
         <v>0.38342748067626647</v>
       </c>
@@ -59782,10 +59636,10 @@
       <c r="A44" s="1">
         <v>43439</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>0.39530558951292799</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <f t="shared" si="0"/>
         <v>0.37360509968290573</v>
       </c>
@@ -59794,10 +59648,10 @@
       <c r="A45" s="1">
         <v>43446</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>0.37177589299709102</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <f t="shared" si="0"/>
         <v>0.35119003595268306</v>
       </c>
@@ -59806,10 +59660,10 @@
       <c r="A46" s="1">
         <v>43453</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>0.34809721750788403</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <f t="shared" si="0"/>
         <v>0.37401277975182973</v>
       </c>
@@ -59818,10 +59672,10 @@
       <c r="A47" s="1">
         <v>43460</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>0.24472516152006901</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <f t="shared" si="0"/>
         <v>0.33997596538449298</v>
       </c>
@@ -59830,10 +59684,10 @@
       <c r="A48" s="1">
         <v>43467</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>0.266387320270696</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <f t="shared" si="0"/>
         <v>0.307746398073935</v>
       </c>
@@ -59842,10 +59696,10 @@
       <c r="A49" s="1">
         <v>43474</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>0.40506193572105398</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <f t="shared" si="0"/>
         <v>0.31606790875492574</v>
       </c>
@@ -59854,10 +59708,10 @@
       <c r="A50" s="1">
         <v>43481</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>0.53744197938793103</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <f t="shared" si="0"/>
         <v>0.36340409922493755</v>
       </c>
@@ -59866,10 +59720,10 @@
       <c r="A51" s="1">
         <v>43488</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>0.50594091292822696</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <f t="shared" si="0"/>
         <v>0.42870803707697702</v>
       </c>
@@ -59878,10 +59732,10 @@
       <c r="A52" s="1">
         <v>43495</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>0.26080187155851198</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <f t="shared" si="0"/>
         <v>0.42731167489893096</v>
       </c>
@@ -59890,10 +59744,10 @@
       <c r="A53" s="1">
         <v>43502</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>0.64486433698877998</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <f t="shared" si="0"/>
         <v>0.48726227521586252</v>
       </c>
@@ -59902,10 +59756,10 @@
       <c r="A54" s="1">
         <v>43509</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>0.35669679853258801</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <f t="shared" si="0"/>
         <v>0.44207598000202675</v>
       </c>
@@ -59914,10 +59768,10 @@
       <c r="A55" s="1">
         <v>43516</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>0.93573545310015804</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <f t="shared" si="0"/>
         <v>0.54952461504500949</v>
       </c>
@@ -59926,10 +59780,10 @@
       <c r="A56" s="1">
         <v>43523</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>0.38556675432951898</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <f t="shared" si="0"/>
         <v>0.58071583573776131</v>
       </c>
@@ -59938,10 +59792,10 @@
       <c r="A57" s="1">
         <v>43530</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>0.38654031673156602</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <f t="shared" si="0"/>
         <v>0.51613483067345778</v>
       </c>
@@ -59950,10 +59804,10 @@
       <c r="A58" s="1">
         <v>43537</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>0.34842537825393899</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <f t="shared" si="0"/>
         <v>0.51406697560379544</v>
       </c>
@@ -59962,10 +59816,10 @@
       <c r="A59" s="1">
         <v>43544</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>0.361767944214334</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <f t="shared" si="0"/>
         <v>0.37057509838233949</v>
       </c>
@@ -59974,10 +59828,10 @@
       <c r="A60" s="1">
         <v>43551</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>0.33113053040998103</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <f t="shared" si="0"/>
         <v>0.356966042402455</v>
       </c>
@@ -59986,10 +59840,10 @@
       <c r="A61" s="1">
         <v>43558</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>0.38243248249546102</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <f t="shared" si="0"/>
         <v>0.35593908384342876</v>
       </c>
@@ -59998,10 +59852,10 @@
       <c r="A62" s="1">
         <v>43565</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>0.36681686780481698</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <f t="shared" si="0"/>
         <v>0.36053695623114823</v>
       </c>
@@ -60010,7 +59864,7 @@
       <c r="A63" s="1">
         <v>43572</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <f t="shared" si="0"/>
         <v>0.36012662690341962</v>
       </c>
@@ -60019,10 +59873,10 @@
       <c r="A64" s="1">
         <v>43579</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>0.26785647839632498</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <f t="shared" si="0"/>
         <v>0.33903527623220092</v>
       </c>
@@ -60031,7 +59885,7 @@
       <c r="A65" s="1">
         <v>43586</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <f t="shared" si="0"/>
         <v>0.31733667310057101</v>
       </c>
@@ -60040,10 +59894,10 @@
       <c r="A66" s="1">
         <v>43593</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>0.45360103508517302</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <f t="shared" si="0"/>
         <v>0.360728756740749</v>
       </c>
@@ -60052,10 +59906,10 @@
       <c r="A67" s="1">
         <v>43594</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>0.419138108396646</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <f t="shared" si="0"/>
         <v>0.38019854062604796</v>
       </c>
@@ -60064,10 +59918,10 @@
       <c r="A68" s="1">
         <v>43595</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>0.37006179681121898</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <f t="shared" si="0"/>
         <v>0.41426698009767932</v>
       </c>
@@ -60076,10 +59930,10 @@
       <c r="A69" s="1">
         <v>43596</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>0.29976174421218199</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <f t="shared" si="0"/>
         <v>0.38564067112630501</v>
       </c>
@@ -60088,10 +59942,10 @@
       <c r="A70" s="1">
         <v>43597</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>0.35689073557460099</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <f t="shared" ref="C70:C133" si="1">AVERAGE(B67:B70)</f>
         <v>0.36146309624866196</v>
       </c>
@@ -60100,10 +59954,10 @@
       <c r="A71" s="1">
         <v>43598</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>0.42818184087866801</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <f t="shared" si="1"/>
         <v>0.36372402936916748</v>
       </c>
@@ -60112,10 +59966,10 @@
       <c r="A72" s="1">
         <v>43599</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>0.38726869040085699</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <f t="shared" si="1"/>
         <v>0.36802575276657701</v>
       </c>
@@ -60124,10 +59978,10 @@
       <c r="A73" s="1">
         <v>43600</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>0.48359131809220901</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <f t="shared" si="1"/>
         <v>0.41398314623658372</v>
       </c>
@@ -60136,10 +59990,10 @@
       <c r="A74" s="1">
         <v>43607</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>0.412439060976524</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <f t="shared" si="1"/>
         <v>0.42787022758706456</v>
       </c>
@@ -60148,10 +60002,10 @@
       <c r="A75" s="1">
         <v>43614</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>0.37088490973938898</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <f t="shared" si="1"/>
         <v>0.41354599480224474</v>
       </c>
@@ -60160,10 +60014,10 @@
       <c r="A76" s="1">
         <v>43621</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>0.40133238012218703</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <f t="shared" si="1"/>
         <v>0.41706191723257724</v>
       </c>
@@ -60172,10 +60026,10 @@
       <c r="A77" s="1">
         <v>43628</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>0.33126832096433001</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <f t="shared" si="1"/>
         <v>0.37898116795060754</v>
       </c>
@@ -60184,10 +60038,10 @@
       <c r="A78" s="1">
         <v>43635</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>0.314151269663274</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <f t="shared" si="1"/>
         <v>0.35440922012229498</v>
       </c>
@@ -60196,10 +60050,10 @@
       <c r="A79" s="1">
         <v>43642</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>0.33495078713021398</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <f t="shared" si="1"/>
         <v>0.34542568947000124</v>
       </c>
@@ -60208,7 +60062,7 @@
       <c r="A80" s="1">
         <v>43649</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <f t="shared" si="1"/>
         <v>0.32679012591927264</v>
       </c>
@@ -60217,10 +60071,10 @@
       <c r="A81" s="1">
         <v>43656</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>0.38596187318006703</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <f t="shared" si="1"/>
         <v>0.34502130999118502</v>
       </c>
@@ -60229,10 +60083,10 @@
       <c r="A82" s="1">
         <v>43663</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>0.34570845566394298</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <f t="shared" si="1"/>
         <v>0.35554037199140803</v>
       </c>
@@ -60241,10 +60095,10 @@
       <c r="A83" s="1">
         <v>43670</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>0.39499100163655998</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <f t="shared" si="1"/>
         <v>0.37555377682685664</v>
       </c>
@@ -60253,10 +60107,10 @@
       <c r="A84" s="1">
         <v>43677</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>0.437739034520017</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <f t="shared" si="1"/>
         <v>0.39110009125014672</v>
       </c>
@@ -60265,10 +60119,10 @@
       <c r="A85" s="1">
         <v>43684</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>0.35978333871552498</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <f t="shared" si="1"/>
         <v>0.38455545763401122</v>
       </c>
@@ -60277,10 +60131,10 @@
       <c r="A86" s="1">
         <v>43691</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>0.446687228346617</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <f t="shared" si="1"/>
         <v>0.40980015080467974</v>
       </c>
@@ -60289,10 +60143,10 @@
       <c r="A87" s="1">
         <v>43698</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>0.41934481207312502</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <f t="shared" si="1"/>
         <v>0.41588860341382095</v>
       </c>
@@ -60301,10 +60155,10 @@
       <c r="A88" s="1">
         <v>43705</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>0.50503589069660904</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <f t="shared" si="1"/>
         <v>0.43271281745796902</v>
       </c>
@@ -60313,10 +60167,10 @@
       <c r="A89" s="1">
         <v>43712</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>0.57301835174770099</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <f t="shared" si="1"/>
         <v>0.48602157071601304</v>
       </c>
@@ -60325,10 +60179,10 @@
       <c r="A90" s="1">
         <v>43713</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>0.46376195675626197</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <f t="shared" si="1"/>
         <v>0.49029025281842431</v>
       </c>
@@ -60337,10 +60191,10 @@
       <c r="A91" s="1">
         <v>43714</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>0.54176418796649795</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <f t="shared" si="1"/>
         <v>0.52089509679176749</v>
       </c>
@@ -60349,10 +60203,10 @@
       <c r="A92" s="1">
         <v>43715</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>0.35242836901763203</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <f t="shared" si="1"/>
         <v>0.48274321637202328</v>
       </c>
@@ -60361,10 +60215,10 @@
       <c r="A93" s="1">
         <v>43716</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>0.38952344217387103</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <f t="shared" si="1"/>
         <v>0.4368694889785657</v>
       </c>
@@ -60373,10 +60227,10 @@
       <c r="A94" s="1">
         <v>43717</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>0.454741095721786</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <f t="shared" si="1"/>
         <v>0.43461427371994676</v>
       </c>
@@ -60385,10 +60239,10 @@
       <c r="A95" s="1">
         <v>43718</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>0.49969960818458797</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <f t="shared" si="1"/>
         <v>0.42409812877446923</v>
       </c>
@@ -60397,10 +60251,10 @@
       <c r="A96" s="1">
         <v>43719</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>0.52769005075714004</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <f t="shared" si="1"/>
         <v>0.46791354920934625</v>
       </c>
@@ -60409,10 +60263,10 @@
       <c r="A97" s="1">
         <v>43726</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>0.55515807836518305</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <f t="shared" si="1"/>
         <v>0.50932220825717422</v>
       </c>
@@ -60421,10 +60275,10 @@
       <c r="A98" s="1">
         <v>43733</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>0.50827281242919098</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <f t="shared" si="1"/>
         <v>0.52270513743402547</v>
       </c>
@@ -60433,10 +60287,10 @@
       <c r="A99" s="1">
         <v>43740</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>0.47871493932762998</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <f t="shared" si="1"/>
         <v>0.51745897021978604</v>
       </c>
@@ -60445,10 +60299,10 @@
       <c r="A100" s="1">
         <v>43747</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>0.405593404813823</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <f t="shared" si="1"/>
         <v>0.48693480873395678</v>
       </c>
@@ -60457,7 +60311,7 @@
       <c r="A101" s="1">
         <v>43754</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <f t="shared" si="1"/>
         <v>0.46419371885688127</v>
       </c>
@@ -60466,10 +60320,10 @@
       <c r="A102" s="1">
         <v>43761</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <v>0.39749031950800301</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <f t="shared" si="1"/>
         <v>0.42726622121648533</v>
       </c>
@@ -60478,10 +60332,10 @@
       <c r="A103" s="1">
         <v>43768</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="6">
         <v>0.37274621198308999</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <f t="shared" si="1"/>
         <v>0.39194331210163869</v>
       </c>
@@ -60490,10 +60344,10 @@
       <c r="A104" s="1">
         <v>43775</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>0.38776060868978601</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <f t="shared" si="1"/>
         <v>0.38599904672695967</v>
       </c>
@@ -60502,10 +60356,10 @@
       <c r="A105" s="1">
         <v>43782</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>0.38005966688981802</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <f t="shared" si="1"/>
         <v>0.38451420176767426</v>
       </c>
@@ -60514,10 +60368,10 @@
       <c r="A106" s="1">
         <v>43789</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>0.44684025845720499</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <f t="shared" si="1"/>
         <v>0.39685168650497471</v>
       </c>
@@ -60526,10 +60380,10 @@
       <c r="A107" s="1">
         <v>43796</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>0.26036510163156501</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <f t="shared" si="1"/>
         <v>0.36875640891709349</v>
       </c>
@@ -60538,10 +60392,10 @@
       <c r="A108" s="1">
         <v>43803</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>0.40733310467265899</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <f t="shared" si="1"/>
         <v>0.37364953291281178</v>
       </c>
@@ -60550,10 +60404,10 @@
       <c r="A109" s="1">
         <v>43810</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <v>0.33047524623205699</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <f t="shared" si="1"/>
         <v>0.36125342774837149</v>
       </c>
@@ -60562,10 +60416,10 @@
       <c r="A110" s="1">
         <v>43817</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>0.32330254242654499</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <f t="shared" si="1"/>
         <v>0.33036899874070652</v>
       </c>
@@ -60574,10 +60428,10 @@
       <c r="A111" s="1">
         <v>43824</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>0.40941872637626903</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <f t="shared" si="1"/>
         <v>0.36763240492688248</v>
       </c>
@@ -60586,10 +60440,10 @@
       <c r="A112" s="1">
         <v>43831</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>0.42992220126633401</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <f t="shared" si="1"/>
         <v>0.37327967907530124</v>
       </c>
@@ -60598,10 +60452,10 @@
       <c r="A113" s="1">
         <v>43838</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>0.34058692985129402</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <f t="shared" si="1"/>
         <v>0.37580759998011048</v>
       </c>
@@ -60610,10 +60464,10 @@
       <c r="A114" s="1">
         <v>43845</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>0.31605793763085699</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <f t="shared" si="1"/>
         <v>0.37399644878118848</v>
       </c>
@@ -60622,10 +60476,10 @@
       <c r="A115" s="1">
         <v>43852</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>0.34622247553484298</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <f t="shared" si="1"/>
         <v>0.35819738607083196</v>
       </c>
@@ -60634,10 +60488,10 @@
       <c r="A116" s="1">
         <v>43859</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>0.44989172667690602</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <f t="shared" si="1"/>
         <v>0.36318976742347503</v>
       </c>
@@ -60646,10 +60500,10 @@
       <c r="A117" s="1">
         <v>43866</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>0.33738115449034101</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <f t="shared" si="1"/>
         <v>0.3623883235832368</v>
       </c>
@@ -60658,10 +60512,10 @@
       <c r="A118" s="1">
         <v>43873</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <v>0.39897144346035801</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <f t="shared" si="1"/>
         <v>0.38311670004061199</v>
       </c>
@@ -60670,10 +60524,10 @@
       <c r="A119" s="1">
         <v>43880</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <v>0.43999983520682501</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="6">
         <f t="shared" si="1"/>
         <v>0.40656103995860754</v>
       </c>
@@ -60682,10 +60536,10 @@
       <c r="A120" s="1">
         <v>43887</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>0.39913638845382798</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <f t="shared" si="1"/>
         <v>0.39387220540283802</v>
       </c>
@@ -60694,10 +60548,10 @@
       <c r="A121" s="1">
         <v>43894</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <v>0.36309355427256557</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="6">
         <f t="shared" si="1"/>
         <v>0.40030030534839411</v>
       </c>
@@ -60706,10 +60560,10 @@
       <c r="A122" s="1">
         <v>43901</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <v>0.31476000229247125</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <f t="shared" si="1"/>
         <v>0.37924744505642244</v>
       </c>
@@ -60718,7 +60572,7 @@
       <c r="A123" s="1">
         <v>43908</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <f t="shared" si="1"/>
         <v>0.35899664833962158</v>
       </c>
@@ -60727,7 +60581,7 @@
       <c r="A124" s="1">
         <v>43915</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <f t="shared" si="1"/>
         <v>0.33892677828251838</v>
       </c>
@@ -60736,10 +60590,10 @@
       <c r="A125" s="1">
         <v>43922</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <v>0.29507695230856928</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="6">
         <f t="shared" si="1"/>
         <v>0.30491847730052024</v>
       </c>
@@ -60748,10 +60602,10 @@
       <c r="A126" s="1">
         <v>43929</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="6">
         <v>0.27218286768468009</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <f t="shared" si="1"/>
         <v>0.28362990999662469</v>
       </c>
@@ -60760,10 +60614,10 @@
       <c r="A127" s="1">
         <v>43936</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>0.21100498074173898</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="6">
         <f t="shared" si="1"/>
         <v>0.25942160024499611</v>
       </c>
@@ -60772,10 +60626,10 @@
       <c r="A128" s="1">
         <v>43943</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>0.28544853559990707</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <f t="shared" si="1"/>
         <v>0.26592833408372385</v>
       </c>
@@ -60784,10 +60638,10 @@
       <c r="A129" s="1">
         <v>43950</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>0.47222459961700169</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="6">
         <f t="shared" si="1"/>
         <v>0.31021524591083194</v>
       </c>
@@ -60796,7 +60650,7 @@
       <c r="A130" s="1">
         <v>43957</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="6">
         <f t="shared" si="1"/>
         <v>0.32289270531954922</v>
       </c>
@@ -60805,7 +60659,7 @@
       <c r="A131" s="1">
         <v>43964</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="6">
         <f t="shared" si="1"/>
         <v>0.37883656760845441</v>
       </c>
@@ -60814,7 +60668,7 @@
       <c r="A132" s="1">
         <v>43971</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <f t="shared" si="1"/>
         <v>0.47222459961700169</v>
       </c>
@@ -60823,10 +60677,10 @@
       <c r="A133" s="1">
         <v>43978</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <v>0.43326282535960597</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <f t="shared" si="1"/>
         <v>0.43326282535960597</v>
       </c>
@@ -60835,10 +60689,10 @@
       <c r="A134" s="1">
         <v>43985</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="6">
         <v>0.54071447676580531</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="6">
         <f t="shared" ref="C134:C197" si="2">AVERAGE(B131:B134)</f>
         <v>0.48698865106270561</v>
       </c>
@@ -60847,10 +60701,10 @@
       <c r="A135" s="1">
         <v>43992</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="6">
         <v>0.39880735966506914</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="6">
         <f t="shared" si="2"/>
         <v>0.45759488726349345</v>
       </c>
@@ -60859,10 +60713,10 @@
       <c r="A136" s="1">
         <v>43999</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <v>0.4042470211678636</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="6">
         <f t="shared" si="2"/>
         <v>0.44425792073958603</v>
       </c>
@@ -60871,10 +60725,10 @@
       <c r="A137" s="1">
         <v>44006</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="6">
         <v>0.49179502061511338</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="6">
         <f t="shared" si="2"/>
         <v>0.45889096955346287</v>
       </c>
@@ -60883,10 +60737,10 @@
       <c r="A138" s="1">
         <v>44013</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="6">
         <v>0.47141731371613055</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <f t="shared" si="2"/>
         <v>0.44156667879104416</v>
       </c>
@@ -60895,10 +60749,10 @@
       <c r="A139" s="1">
         <v>44020</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>0.42628078731834779</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="6">
         <f t="shared" si="2"/>
         <v>0.44843503570436383</v>
       </c>
@@ -60907,10 +60761,10 @@
       <c r="A140" s="1">
         <v>44027</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="6">
         <v>0.36134944569511107</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="6">
         <f t="shared" si="2"/>
         <v>0.4377106418361757</v>
       </c>
@@ -60919,10 +60773,10 @@
       <c r="A141" s="1">
         <v>44034</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="6">
         <v>0.33055224913494807</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="6">
         <f t="shared" si="2"/>
         <v>0.3973999489661344</v>
       </c>
@@ -60931,10 +60785,10 @@
       <c r="A142" s="1">
         <v>44041</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="6">
         <v>0.47460792536045682</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="6">
         <f t="shared" si="2"/>
         <v>0.39819760187721598</v>
       </c>
@@ -60943,10 +60797,10 @@
       <c r="A143" s="1">
         <v>44048</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="6">
         <v>0.36901318642811803</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="6">
         <f t="shared" si="2"/>
         <v>0.38388070165465848</v>
       </c>
@@ -60955,10 +60809,10 @@
       <c r="A144" s="1">
         <v>44055</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <v>0.37706352783338748</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="6">
         <f t="shared" si="2"/>
         <v>0.38780922218922764</v>
       </c>
@@ -60967,10 +60821,10 @@
       <c r="A145" s="1">
         <v>44062</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>0.42456375226301135</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="6">
         <f t="shared" si="2"/>
         <v>0.41131209797124346</v>
       </c>
@@ -60979,10 +60833,10 @@
       <c r="A146" s="1">
         <v>44069</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <v>0.33855834654934264</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <f t="shared" si="2"/>
         <v>0.3772997032684649</v>
       </c>
@@ -60991,10 +60845,10 @@
       <c r="A147" s="1">
         <v>44076</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="6">
         <v>0.4026059579165393</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="6">
         <f t="shared" si="2"/>
         <v>0.38569789614057021</v>
       </c>
@@ -61003,10 +60857,10 @@
       <c r="A148" s="1">
         <v>44083</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="6">
         <v>0.42475677262433953</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="6">
         <f t="shared" si="2"/>
         <v>0.39762120733830819</v>
       </c>
@@ -61015,7 +60869,7 @@
       <c r="A149" s="1">
         <v>44090</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="6">
         <f t="shared" si="2"/>
         <v>0.38864035903007382</v>
       </c>
@@ -61024,10 +60878,10 @@
       <c r="A150" s="1">
         <v>44097</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="6">
         <v>0.26641709845148071</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="6">
         <f t="shared" si="2"/>
         <v>0.36459327633078648</v>
       </c>
@@ -61036,10 +60890,10 @@
       <c r="A151" s="1">
         <v>44104</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="6">
         <v>0.33450881963651419</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="6">
         <f t="shared" si="2"/>
         <v>0.34189423023744481</v>
       </c>
@@ -61048,10 +60902,10 @@
       <c r="A152" s="1">
         <v>44111</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="6">
         <v>0.31605977310695832</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="6">
         <f t="shared" si="2"/>
         <v>0.30566189706498442</v>
       </c>
@@ -61060,10 +60914,10 @@
       <c r="A153" s="1">
         <v>44118</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="6">
         <v>0.44072127507237652</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="6">
         <f t="shared" si="2"/>
         <v>0.33942674156683245</v>
       </c>
@@ -61072,10 +60926,10 @@
       <c r="A154" s="1">
         <v>44125</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="6">
         <v>0.30918466485841789</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="6">
         <f t="shared" si="2"/>
         <v>0.35011863316856673</v>
       </c>
@@ -61084,10 +60938,10 @@
       <c r="A155" s="1">
         <v>44132</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="6">
         <v>0.33128067223645113</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="6">
         <f t="shared" si="2"/>
         <v>0.34931159631855097</v>
       </c>
@@ -61096,10 +60950,10 @@
       <c r="A156" s="1">
         <v>44139</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="6">
         <v>0.34487222237659898</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="6">
         <f t="shared" si="2"/>
         <v>0.35651470863596113</v>
       </c>
@@ -61108,10 +60962,10 @@
       <c r="A157" s="1">
         <v>44146</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="6">
         <v>0.26260565827417676</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="6">
         <f t="shared" si="2"/>
         <v>0.31198580443641116</v>
       </c>
@@ -61120,10 +60974,10 @@
       <c r="A158" s="1">
         <v>44153</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="6">
         <v>0.24905054251368577</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="6">
         <f t="shared" si="2"/>
         <v>0.29695227385022815</v>
       </c>
@@ -61132,10 +60986,10 @@
       <c r="A159" s="1">
         <v>44160</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <v>0.32341472597214005</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="6">
         <f t="shared" si="2"/>
         <v>0.29498578728415037</v>
       </c>
@@ -61144,10 +60998,10 @@
       <c r="A160" s="1">
         <v>44167</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="6">
         <v>0.30866886612942085</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="6">
         <f t="shared" si="2"/>
         <v>0.28593494822235588</v>
       </c>
@@ -61156,10 +61010,10 @@
       <c r="A161" s="1">
         <v>44174</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="6">
         <v>0.35059723298702911</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="6">
         <f t="shared" si="2"/>
         <v>0.30793284190056891</v>
       </c>
@@ -61168,10 +61022,10 @@
       <c r="A162" s="1">
         <v>44181</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="6">
         <v>0.4182418801956117</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="6">
         <f t="shared" si="2"/>
         <v>0.35023067632105043</v>
       </c>
@@ -61180,10 +61034,10 @@
       <c r="A163" s="1">
         <v>44188</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="6">
         <v>0.28671943711521547</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="6">
         <f t="shared" si="2"/>
         <v>0.3410568541068193</v>
       </c>
@@ -61192,10 +61046,10 @@
       <c r="A164" s="1">
         <v>44195</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>0.28794007559187706</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="6">
         <f t="shared" si="2"/>
         <v>0.33587465647243336</v>
       </c>
@@ -61204,10 +61058,10 @@
       <c r="A165" s="1">
         <v>44202</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <v>0.28706405285710646</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="6">
         <f t="shared" si="2"/>
         <v>0.31999136143995266</v>
       </c>
@@ -61216,10 +61070,10 @@
       <c r="A166" s="1">
         <v>44209</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="6">
         <v>0.28296412245777613</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="6">
         <f t="shared" si="2"/>
         <v>0.2861719220054938</v>
       </c>
@@ -61228,10 +61082,10 @@
       <c r="A167" s="1">
         <v>44216</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="6">
         <v>0.29221031711742851</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="6">
         <f t="shared" si="2"/>
         <v>0.28754464200604701</v>
       </c>
@@ -61240,10 +61094,10 @@
       <c r="A168" s="1">
         <v>44223</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="6">
         <v>0.30348000868426395</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="6">
         <f t="shared" si="2"/>
         <v>0.29142962527914373</v>
       </c>
@@ -61252,10 +61106,10 @@
       <c r="A169" s="1">
         <v>44230</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="6">
         <v>0.39839173145033746</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="6">
         <f t="shared" si="2"/>
         <v>0.31926154492745151</v>
       </c>
@@ -61264,7 +61118,7 @@
       <c r="A170" s="1">
         <v>44237</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <f t="shared" si="2"/>
         <v>0.33136068575067662</v>
       </c>
@@ -61273,10 +61127,10 @@
       <c r="A171" s="1">
         <v>44244</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="6">
         <v>0.33191630977916298</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="6">
         <f t="shared" si="2"/>
         <v>0.34459601663792144</v>
       </c>
@@ -61285,10 +61139,10 @@
       <c r="A172" s="1">
         <v>44251</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="6">
         <v>0.35089892270559842</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="6">
         <f t="shared" si="2"/>
         <v>0.36040232131169958</v>
       </c>
@@ -61297,10 +61151,10 @@
       <c r="A173" s="1">
         <v>44258</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="6">
         <v>0.44411123707634415</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="6">
         <f t="shared" si="2"/>
         <v>0.37564215652036853</v>
       </c>
@@ -61309,10 +61163,10 @@
       <c r="A174" s="1">
         <v>44265</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="6">
         <v>0.33437308797894322</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <f t="shared" si="2"/>
         <v>0.36532488938501223</v>
       </c>
@@ -61321,10 +61175,10 @@
       <c r="A175" s="1">
         <v>44272</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="6">
         <v>0.36787457120529971</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="6">
         <f t="shared" si="2"/>
         <v>0.3743144547415464</v>
       </c>
@@ -61333,10 +61187,10 @@
       <c r="A176" s="1">
         <v>44279</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="6">
         <v>0.35576374215127632</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <f t="shared" si="2"/>
         <v>0.37553065960296583</v>
       </c>
@@ -61345,10 +61199,10 @@
       <c r="A177" s="1">
         <v>44286</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="6">
         <v>0.33394202628573111</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="6">
         <f t="shared" si="2"/>
         <v>0.3479883569053126</v>
       </c>
@@ -61357,10 +61211,10 @@
       <c r="A178" s="1">
         <v>44293</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="6">
         <v>0.3696378381724757</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <f t="shared" si="2"/>
         <v>0.35680454445369569</v>
       </c>
@@ -61369,10 +61223,10 @@
       <c r="A179" s="1">
         <v>44300</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="6">
         <v>0.30505554430229936</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <f t="shared" si="2"/>
         <v>0.34109978772794558</v>
       </c>
@@ -61381,10 +61235,10 @@
       <c r="A180" s="1">
         <v>44307</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="6">
         <v>0.3903860558574197</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="6">
         <f t="shared" si="2"/>
         <v>0.34975536615448144</v>
       </c>
@@ -61393,7 +61247,7 @@
       <c r="A181" s="1">
         <v>44314</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="6">
         <f t="shared" si="2"/>
         <v>0.35502647944406496</v>
       </c>
@@ -61402,10 +61256,10 @@
       <c r="A182" s="1">
         <v>44321</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="6">
         <v>0.3060452150796929</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="6">
         <f t="shared" si="2"/>
         <v>0.33382893841313727</v>
       </c>
@@ -61414,10 +61268,10 @@
       <c r="A183" s="1">
         <v>44328</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="6">
         <v>0.30705374454128692</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="6">
         <f t="shared" si="2"/>
         <v>0.33449500515946645</v>
       </c>
@@ -61426,10 +61280,10 @@
       <c r="A184" s="1">
         <v>44335</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184" s="6">
         <v>0.28627248879520462</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="6">
         <f t="shared" si="2"/>
         <v>0.29979048280539483</v>
       </c>
@@ -61438,10 +61292,10 @@
       <c r="A185" s="1">
         <v>44342</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185" s="6">
         <v>0.32085256281631108</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="6">
         <f t="shared" si="2"/>
         <v>0.30505600280812389</v>
       </c>
@@ -61450,10 +61304,10 @@
       <c r="A186" s="1">
         <v>44349</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B186" s="6">
         <v>0.37317384668099557</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="6">
         <f t="shared" si="2"/>
         <v>0.32183816070844951</v>
       </c>
@@ -61462,10 +61316,10 @@
       <c r="A187" s="1">
         <v>44356</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B187" s="6">
         <v>0.3338590820943762</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="6">
         <f t="shared" si="2"/>
         <v>0.32853949509672187</v>
       </c>
@@ -61474,10 +61328,10 @@
       <c r="A188" s="1">
         <v>44363</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188" s="6">
         <v>0.37576977268348616</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="6">
         <f t="shared" si="2"/>
         <v>0.35091381606879224</v>
       </c>
@@ -61486,10 +61340,10 @@
       <c r="A189" s="1">
         <v>44370</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B189" s="6">
         <v>0.29440310809304354</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="6">
         <f t="shared" si="2"/>
         <v>0.34430145238797538</v>
       </c>
@@ -61498,10 +61352,10 @@
       <c r="A190" s="1">
         <v>44377</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B190" s="6">
         <v>0.32458016828847419</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="6">
         <f t="shared" si="2"/>
         <v>0.33215303278984504</v>
       </c>
@@ -61510,10 +61364,10 @@
       <c r="A191" s="1">
         <v>44384</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B191" s="6">
         <v>0.29853479003453015</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="6">
         <f t="shared" si="2"/>
         <v>0.32332195977488348</v>
       </c>
@@ -61522,10 +61376,10 @@
       <c r="A192" s="1">
         <v>44391</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B192" s="6">
         <v>0.2930629337580844</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="6">
         <f t="shared" si="2"/>
         <v>0.30264525004353304</v>
       </c>
@@ -61534,10 +61388,10 @@
       <c r="A193" s="1">
         <v>44398</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193" s="6">
         <v>0.32917288997351296</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="6">
         <f t="shared" si="2"/>
         <v>0.31133769551365043</v>
       </c>
@@ -61546,10 +61400,10 @@
       <c r="A194" s="1">
         <v>44405</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B194" s="6">
         <v>0.30710354803876516</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="6">
         <f t="shared" si="2"/>
         <v>0.30696854045122318</v>
       </c>
@@ -61558,10 +61412,10 @@
       <c r="A195" s="1">
         <v>44412</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B195" s="6">
         <v>0.37858762292871045</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="6">
         <f t="shared" si="2"/>
         <v>0.32698174867476826</v>
       </c>
@@ -61570,10 +61424,10 @@
       <c r="A196" s="1">
         <v>44419</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196" s="6">
         <v>0.36849982350864807</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="6">
         <f t="shared" si="2"/>
         <v>0.34584097111240913</v>
       </c>
@@ -61582,10 +61436,10 @@
       <c r="A197" s="1">
         <v>44426</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197" s="6">
         <v>0.35326521254994431</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="6">
         <f t="shared" si="2"/>
         <v>0.35186405175651697</v>
       </c>
@@ -61594,10 +61448,10 @@
       <c r="A198" s="1">
         <v>44433</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198" s="6">
         <v>0.37941252399178388</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="6">
         <f t="shared" ref="C198:C210" si="3">AVERAGE(B195:B198)</f>
         <v>0.36994129574477164</v>
       </c>
@@ -61606,10 +61460,10 @@
       <c r="A199" s="1">
         <v>44440</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B199" s="6">
         <v>0.56519991316862173</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <f t="shared" si="3"/>
         <v>0.4165943683047495</v>
       </c>
@@ -61618,10 +61472,10 @@
       <c r="A200" s="1">
         <v>44447</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B200" s="6">
         <v>0.41666157624033329</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <f t="shared" si="3"/>
         <v>0.42863480648767083</v>
       </c>
@@ -61630,10 +61484,10 @@
       <c r="A201" s="1">
         <v>44454</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201" s="6">
         <v>0.41220156797923058</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="6">
         <f t="shared" si="3"/>
         <v>0.44336889534499241</v>
       </c>
@@ -61642,10 +61496,10 @@
       <c r="A202" s="1">
         <v>44461</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B202" s="6">
         <v>0.41025647068249999</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <f t="shared" si="3"/>
         <v>0.45107988201767141</v>
       </c>
@@ -61654,10 +61508,10 @@
       <c r="A203" s="1">
         <v>44468</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203" s="6">
         <v>0.48675099273789374</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <f t="shared" si="3"/>
         <v>0.43146765190998937</v>
       </c>
@@ -61666,10 +61520,10 @@
       <c r="A204" s="1">
         <v>44475</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204" s="6">
         <v>0.44990852871524933</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="6">
         <f t="shared" si="3"/>
         <v>0.43977939002871841</v>
       </c>
@@ -61678,10 +61532,10 @@
       <c r="A205" s="1">
         <v>44482</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B205" s="6">
         <v>0.40076055089731472</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="6">
         <f t="shared" si="3"/>
         <v>0.43691913575823943</v>
       </c>
@@ -61690,10 +61544,10 @@
       <c r="A206" s="1">
         <v>44489</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B206" s="6">
         <v>0.38848481823626563</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <f t="shared" si="3"/>
         <v>0.43147622264668084</v>
       </c>
@@ -61702,10 +61556,10 @@
       <c r="A207" s="1">
         <v>44496</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207" s="6">
         <v>0.39854038743823522</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="6">
         <f t="shared" si="3"/>
         <v>0.40942357132176621</v>
       </c>
@@ -61714,10 +61568,10 @@
       <c r="A208" s="1">
         <v>44503</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208" s="6">
         <v>0.37248569437230589</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="6">
         <f t="shared" si="3"/>
         <v>0.39006786273603034</v>
       </c>
@@ -61726,10 +61580,10 @@
       <c r="A209" s="1">
         <v>44510</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209" s="6">
         <v>0.39193278757594019</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="6">
         <f t="shared" si="3"/>
         <v>0.38786092190568672</v>
       </c>
@@ -61738,10 +61592,10 @@
       <c r="A210" s="1">
         <v>44517</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B210" s="6">
         <v>0.40639703046664094</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="6">
         <f t="shared" si="3"/>
         <v>0.39233897496328052</v>
       </c>
@@ -61757,7 +61611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716C683-B680-4781-9660-8CD99C8C0C85}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
